--- a/repo/topic_list.xlsx
+++ b/repo/topic_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,21 +465,21 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_水井_砂石_申報_地層下陷</t>
+          <t>-1_北市_公尺_工地_台北市</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['水井', '砂石', '申報', '地層下陷', '納管', '土地', '耕作', '使用', '地下水', '地主']</t>
+          <t>['北市', '公尺', '工地', '台北市', '天坑', '路面', '下午', '已', '地層下陷', '地下水']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['越南 正在 加強 監管 開採 砂石   雖然 這可 說 是 全世界 最常 被 使用 的 一項 資源   但 若 濫採   可能 導致 水土流失   地層下陷 和 房屋 倒塌 等 災難       日經 新聞 報導   越南政府 官網 12 日 公告   總理范 明政 已 指示 五個 部會 和 多個 地方 政府   仔細 審視營 建業 的 礦物 開採   尤其 是 砂石   這種 大宗 商品 已成 為 一項 全球性 生意   可和水 混合 後 製 成 水泥   或是 用來 填海造地   越南 已 限制 砂石 的 出口                             在 越南 的 湄公河 三角洲 等 地區   盜採 砂石 已成 為 一種 比氣候 變遷 還要 嚴重 的 威脅   據 非營利 環保 組織 世界 自然 基金 會   WWF   最近 的 指標性 報告   湄公河 三角洲 的 砂石 可能 會 在 2035 年前 被 開 採殆 盡       越南政府 日前 已特別點 出河 內市 的 三樁 砂石 開採 招標 「 大眾 意見 特別 令人 擔憂 」   並在 官網 公告 中 表示   該市 應該 「 立即 重新 審視 調查 和 評估 砂石 存量 的 整個 流程 」   「 絕對 不准 組織 和 個 人 利用 管理 漏洞 賺取 暴利 」       范 明政 也 指示 環境部 調查 該 行業 活動 的 「 罕見 跡象 」   並 指示 安全部 「 嚴加 處置 違法行 為 」  ', '湄公河 三角洲 的 砂石 可能 會 在 2035 年前 被 開 採殆 盡   但 這會 對 生態 環境 造成 毀滅性 影響   並損害 人民 健康 與 經濟     圖 ／ 法新社     越南 正在 加強 監管 開採 砂石   雖然 這可 說 是 全世界 最常 被 使用 的 一項 資源   但 若 濫採   可能 導致 水土流失   地層下陷 和 房屋 倒塌 等 災難       日經 新聞 報導   越南政府 官網 12 日 公告   總理范 明政 已 指示 五個 部會 和 多個 地方 政府   仔細 審視營 建業 的 礦物 開採   尤其 是 砂石   這種 大宗 商品 已成 為 一項 全球性 生意   可和水 混合 後 製 成 水泥   或是 用來 填海造地   越南 已 限制 砂石 的 出口       在 越南 的 湄公河 三角洲 等 地區   盜採 砂石 已成 為 一種 比氣候 變遷 還要 嚴重 的 威脅   據 非營利 環保 組織 世界 自然 基金 會   WWF   最近 的 指標性 報告   湄公河 三角洲 的 砂石 可能 會 在 2035 年前 被 開 採殆 盡       越南政府 日前 已特別點 出河 內市 的 三樁 砂石 開採 招標 「 大眾 意見 特別 令人 擔憂 」   並在 官網 公告 中 表示   該市 應該 「 立即 重新 審視 調查 和 評估 砂石 存量 的 整個 流程 」   「 絕對 不准 組織 和 個 人 利用 管理 漏洞 賺取 暴利 」       范 明政 也 指示 環境部 調查 該 行業 活動 的 「 罕見 跡象 」   並 指示 安全部 「 嚴加 處置 違法行 為 」       越南政府 正加強 監管 開採 砂石   這對 該國 部分 地區 環境 造成 的 威脅   已 比氣候 變遷 還嚴重     圖 ／ 路透社             Take   action   加入   倡議 +    ', '▲ 南市 水井 納管 申報 及 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 及 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 有 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 的 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 有 部分 民眾 未及 申報   為 保障 水井 用戶 權益 及 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 的 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 及 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 及 用水 標 的 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 也 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過 「 臺 南 市政府 水利局 」 網站 「 水井 納管 申報 」 Web 平台 申報   也 可手 機下載 「 水井 納管 申報 及 查詢 」 APP 申報   市府 也 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  ']</t>
+          <t>['北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ', '北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 坍塌 處 附近   約 10 人 安置 飯店   要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺   天坑     圖 ／ 北市 府 提供', '台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹 縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  ']</t>
         </is>
       </c>
     </row>
@@ -488,21 +488,21 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_工地_台北市_公尺_道路</t>
+          <t>0_鄉_為_計畫_一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['工地', '台北市', '公尺', '道路', '塌陷', '現場', '天坑', '市府', '發生', '信義區']</t>
+          <t>['鄉', '為', '計畫', '一', '縣', '大', '年', '使用', '地下水', '發展']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街一處 新建 工地 旁 的 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 的 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 在 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 的 攤位   擔心會 再次 坍塌   周邊 住戶 說   「 昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   也 是 要 關心 一下 我 自己 的 攤位 啊   希望 說 沒 有 下 一次 啦   」 信義區 區長 陳 冠伶 表示   「 安置 了 5 戶   一共 是 10 位   那現 在 我們 把 他們 都 安置 在 我們 信義區 的 旅館裡   」 台北市 長 蔣萬安 上午 也 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及   「 接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 做 整體 評估   」 初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 也 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北 市府 都 發局 長 王玉芬 解釋   「 初步 判斷 是 工地 裡面 的 地下 連續 壁   大約 在 11 到 12 公尺 之間 有 破口   所以 它 的 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞   」 為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 有 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 有 安全 疑慮者將 下令 停工   改善  ', '北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管 處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管 處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 在 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 在 坍塌 處 附近   約 10 人 安置 飯店   她 也 要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺 「 天坑 」   圖 ／ 北 市府 提供', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 的 工地   做 全面 的 清查   是不是 有 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 的 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管 處   警察局   區 公所   水處   瓦斯 公司 等等   也 都 在 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 的 安全   避免 讓 地面 坍塌 的 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 的 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 的 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 的 事件   整起 事件 會 做 完整 的 調查   並且 就 工地 全面 檢視   以及 營造商 的 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 的 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 的 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 的 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 的 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 在 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 在 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 在 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 及 36 名 消防 員   消防局 長 莫懷祖 也 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 也 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 做 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 在 評估 要 不要 做 預防性 疏散   因為 市民 安全 最 重要   在 現場 關心 約 半小時 後   蔣萬安 在 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 的 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡   「 現在 先 搶 救   原因 之後再 來 探討 」     台北市 建管 處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   有 安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 內 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 也 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
+          <t>['根據 水利 署 監測 資料   雲林 縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示     就是 都 沒 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋     雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示     非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 灌溉 水源     雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  ', '經濟部 水利 署 監測 雲林 縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林 縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林 縣 近年 地層下陷 顯著 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林 縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林 縣長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   自來 水可到 達 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林 縣大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影', '〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東 縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東 縣綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東 縣環 保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  ']</t>
         </is>
       </c>
     </row>
@@ -515,17 +515,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_基泰_大直_建商_住戶</t>
+          <t>1_工地_塌陷_台北市_現場</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['基泰', '大直', '建商', '住戶', '建設', '建案', '鑑定', '賠償', '公司', '施工']</t>
+          <t>['工地', '塌陷', '台北市', '現場', '回填', '旁', '一處', '路面', '要求', '市府']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['北市 中山 區 大直 街 「 基泰 大直 」 建案   去年 9 月 因開 挖 不慎   連續 壁斷 裂   導致 鄰房 下陷   25 戶無家 可虧   近百 戶 受損   建案 也 遭 勒令停工   基泰 建設 今 發布 聲明 表示   在 與 受 災戶 溝通下 建案 事故 賠償 已 達 市府 解除 列管 標準   但 因 都 更 程序 關 係   短期 內暫 不 復工   後 續 也 會 和 願 和解 受災 持續 調解       基泰 表示   由福益 營造 公司 承包 的 「 基泰 大直 」 建案 事故 發生 後   經與 市府 協調   建案 起造 人 基泰 公司 對外 宣示 負起 所有 責任   為 加速 後 續理 賠   基泰 公司 進 行人 事 改組   由 新任 高階 主管 與 團隊   全權 處理 中   目前 25 拆除 戶 重建 案 已 依 都 更 程序 進行   因 程序 關 係   短期 內暫 不 施工   無 外界 抹黑 基泰 急 於 大直 案 復工 情事                             基泰 說   包含 179 戶鄰 損受 災戶 與 道 明國際學 校理 賠   日前 已 與 多位 受災戶   學校 達成 和解   過程 中 雖 遭 部分 人士 抹黑   阻礙   但 在 公司 與 受 災戶 溝通   已達 到 巿 府 鄰損 賠償 解除 列管 標準   基 於 企業 責任   以公會 鑑定價 的 1.2 倍 做 賠償 基礎   爲 受 災戶 爭取 最大 幫助   且里長 舉辦 說 明會 到 賠償 金 的 發放   全程 透明       基泰 表示   市府 因該 案 事故 緊急 支出   在 各 單位 協助 下   已 完成 多項 給付   目前 只 剩少 數項 目待 細項 核 對 後   即可 全部 完成   對 於 不願 和解 受災戶   基泰 公司 予以 尊重   將以 提存 賠償 金 的 方式   與 部分 受災戶 進行 鄰損 調解 程序       基泰 也 感謝 市政府 和 大直 里里長   各級民代 在 救災 與 賠償 程序 中 的 協助   以 讓 受 災戶 盡快 恢 復 正常 生活   日後在 各方 督導下   基泰 公司 基 於 社會責任   必 致力 與 社會 各界 共創 美好 未來   另針 對少 數民代以 不 實言論 攻訐 企圖 阻撓 受災戶 和解 情事   基泰 公司 表示   將採 法律 途徑   以正視 聽  ', '基泰 建設 的 新建 案 「 基泰 大直 」 因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 的 25 戶長 期 安置 計畫   也 公開 基泰 大直 的 連續 壁廠 商為 「 齊崴 營造 」   至於 本刊 揭監測 報告 早就 顯示 「 已 超出 警戒 值 」   王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 的 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 的 監測 報告 顯示   在 坍塌 前 44 天 的 監測 報告 結論 及 說 明一欄 中 已 明確 指出   「 部分 監測 儀器 已 超出 警戒 值 」   然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 的 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 的 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 的 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕   「 我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇   」 王玉芬 指出   北 市府 將於週 三   13 日   召說 明會   說 明長 期 安置 的 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 在 附近   會持續 提供 安置 的 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   有 地下室 開挖 的 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 的 規定 會 做 一個 整體 的 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   有 工地 涉及 公安 跟 鄰損 的   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 她 今日 也 公布 「 基泰 大直 」 的 下 包連續 壁廠 商為 「 齊崴 營造 」   「 一個 都 不要 跑掉   也 讓 大家 可以 避開 雷區   」', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管 處處理 過程 是否 有 違失   「 絕不寬貸   護短 」   同時 也 會 檢視 基泰 建設 在 台北市 的 建案   不合 規定 就 會 勒令停工   北 市府 也 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 的 節目 專訪   坦言 建管 處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 的 開綠色 通道 至 台北市 聯合 醫院   後 續 也 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 也 有 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 的 申訴   及 建管 處判斷 過程 是否 有 違失 或 違法   才 導致 今天 的 狀況   「 絕不寬貸   也 絕不護 短 」   若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 的 危老 都 更 都 會 較 過往 開 挖 來 的 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管 處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 有 任何 違法 情事   或 發現 當時 處理 不當   表態 「 該換 就換   這沒有 疑問 」   強調 重新 檢視 後 「 有 需要 撤換 就 撤換 」   至於 基泰 建設 在 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 在 台北市 的 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   也 會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北 市府 已 成立 跨局 處 的 一站式 聯合 服務 中心   也 成立 律師團 協助 住 戶後續 的 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而北 市府 也 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 也 撂 狠話   「 建商 要負 全面 責任   否則 未來 在 台北市   很 抱歉   你 不 符合 相關 規定 或 標準 就 別 想 在 台北市 取得 任何 案子   」 而 下午 建管 處 也 已經 發文稱 基泰 在 北市 的 7 個 工地 全面 停工  ']</t>
+          <t>['4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  ', '〔 記者 俞肇福 ／ 基隆 報導 〕 基隆市 七堵 區 10 日 發生 百一街 一處 建案 工地 旁電桿 下陷 2 公尺   由 於 5 月 13 日 台北市 信義區 出現 道路 塌陷   民眾 憂心 忡忡 天坑 基隆 重現   民進 黨籍 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全   基隆 市府 15 日 下午 5 點發布 新聞稿   市府 強調 已 要求 建案 停工   市府 將 全面 清查 基隆市 相關 工地 安全     曾怡芳 指出   10 日 晚間 五堵 國小 附近 一處 建案   突然 發生 建案 旁 電桿 下陷 2 公尺 意外   並 造成 附近 住戶 停電 5 小時   日前 台北市 信義區 發生 工地 旁 道路 塌陷 意外   引起 當地 居民 不安   擔心 天坑 基隆 重現     百一街 工地 旁電桿 下陷 事件 發生 後   基隆 市政府 都市 發展 處 12 日 赴 工地 現場 勘查   當天 結論 是 暫 不 要求 業者 停工   待 完成 固化 後   才 會 檢視 發生 電桿 塌陷 道路 龜裂 部分   但業者 表示   10 日 之所以 會 發生 電桿 塌陷   是 因為 電桿 上 變電箱 太重   土質 太 鬆 軟   才 導致 下陷 停電     曾怡芳 指出   事發 建案 旁 就是 五堵 國小   學童 人 數眾 多   且 鄰近 新台 五路 高架 橋   再 加上 附近 居民 表示   自該 建案 動工 以來   已導致 多處 柱位   地面 破損 龜裂   地面 高低 差達 7 公分   這樣 房子 根本 無法 住 人     曾怡芳 要求 基隆 市政府 重視 工安   不要 讓 4 月 27 日 新竹 天坑   5 月 13 日 北市 信義區 天坑 基隆 重現   並 要求 市府 以 最高 標準   來 審查 檢視此 建案     基隆 市政府 都 發處長 謝孝坤 表示   市府 15 日 已 經先 要求 百一街 工地 停工   後 續會 邀請 第三方 相關 技師 公會 詳細 檢視   釐 清電桿 下陷 原因   確保 安全 無虞後才 會 准許 復工   另外   市府 會 優先 清查 巡檢 全市 正在 開挖 地基 施作 連續 壁 工地   確 保民 眾 安全  ', '台北市 松山 區慶城 街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北市 長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  ']</t>
         </is>
       </c>
     </row>
@@ -534,21 +534,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_地下水_水庫_地區_萬噸</t>
+          <t>2_建設_戶_建案_住戶</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['地下水', '水庫', '地區', '萬噸', '人工湖', '南投', '地層下陷', '水源', '用水', '水資源']</t>
+          <t>['建設', '戶', '建案', '住戶', '公司', '就', '北市', '挖', '安置', '施工']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 的 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 和 產業 發展區   整體 需水量 不斷 增加   也 造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 和 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投 縣有 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投 縣民 配合 政府 政策   但 南投 縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投 縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 也 能 喝 到 量 好質 優 的 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒 「 珍珠 串 」   讓 台灣 水資源 調度 更好   也 顯示 台灣 人民 的 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   也 會 持續 綠 美化   變成 南投 新 的 觀光 地標     立委 游顥 說   南投 縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 和 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 和 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 在 立法院 繼續 爭取   也 希望 行政院 重視 南投 用水 的 問題  ', '旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   也 是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 在 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 在 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 在 有 地下水 的 時候   不會 有 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 也 非常 快   不會 有 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 也 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 的 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   也 成為 高雄 地區 對 抗旱 象 的 關鍵 利器  ', '2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候 變遷   南北 降雨 不均   不少 人憂心   南台 灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 的 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 的 集 水井 裡頭   有著 11 個 粗大 的 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 的 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 的 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 的 含水 層   以及 由細顆 粒 粘土 組成 的 阻水層   伏 流水 大約 落 在 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 在 的 救命 水   尤其 是 在 汛期 的 時候   它 非常 乾淨   外面 河川 裡面 的 濁度 甚至 於 飆到 10 萬個 NTU   那 根本 就 沒 有 辦法 做 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通 的   所以 伏 流水 就 可以 發揮 它 在 這段 時間 裡面 的 作用   所以 就 變成 所 說 的 救命 水   同樣 被 視為 救命 水源 的   還有 這 一根 根 打入 地底下 的 抗旱 水井   別 小看 這些 不起眼 的 水井   它們 可是 解決 高雄 缺水 危機 的 抗旱 英雄   類 似的 抗旱 水井   已經 在 3 年間 在 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 的 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 的 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 的 時間 大概 在 每年 的 3 月 到 5 月   到 了 下雨 的 時候   我們 就 沒 有 再 用   就是 藉由 下雨 的 時候   會 做 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 在 用 一些 農業 灌溉 用水   是 安全 的   神 祕 的 地下水 補注區   其實 就 隱身 在 高屏溪 的 河床 底下   從 空中 俯瞰   這些 不起眼 的 灰色 土石   全都 扮演 關鍵 角色   所謂 的 地下水 補注區   就是 利用 疏濬 的 砂石   在 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   也 使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   有 一些 礫石 跟 比 較 粗 的 沙子   所以 說 在 放釋 水 的 時候   它 比 較 不會產生 所謂 的 壓密 沉陷   因為 它 的 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 的 狀況   也 清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 的 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 也 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷 的   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 的 水 抽掉   它 抽走 得 很快   補充 也 非常 快   在 那個 地方 抽 地下水   是 不會 有 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 的 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  ']</t>
+          <t>['大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   透露 來 自 基泰 政治 獻金 是 一位 從 媒體界 轉從商 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬 上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金   想 請問 一下   這 是否是 綠營 想 再次 示範   綠能 不能   雙標   王鴻薇 指出   上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能 公司 政治 獻金 是 雙標   但 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 直播 就 會 知道   是 跟 大家 報告 現場 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 一貫 手法   王鴻薇 表示 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 里 長 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   今 早 建議 市政府   代位 求償     此外 得知 居民 準備 組成 自救 會   承諾 一定 會 全力 協助   最 重要 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 董事 長   總經理 真的 都 不 認識   但是 回頭 去 查 了 一下   是 一位 媒體 前輩去 做生意   確實 議員 選舉 以及 立委 補選時 政治 捐獻   而 由 於 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 要 查詢 是否 虧損   虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 選區   鄰近 以前 蔣萬安 選區   為 何會 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   立刻 跟 團隊 確認   確實 是 沒 接獲 選民 或 議員陳情   這 方面 他們 要 努力 空間還 很多   會勤 走 基層   聽 更 多 聲音   稱 很 遺憾   選民 這幾個 月 這樣 困擾   對民代來講   該 努力 就 應該 繼續 去 努力  ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ']</t>
         </is>
       </c>
     </row>
@@ -557,21 +557,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_高鐵_雲林_下陷_公分</t>
+          <t>3_道_公分_下陷_監測</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['高鐵', '雲林', '下陷', '公分', '路段', '變量', '施工', '沿線', '持續', '彰化']</t>
+          <t>['道', '公分', '下陷', '監測', '施工', '持續', '改善', '路面', '結構', '線']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 內 的 墩 柱 差異 沉陷 量 呈 逐年 降低 的 趨勢     監測 報告 顯示   2023 年 的 高鐵 彰化   雲林 共 8 處 路段 的 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林 縣土 庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 的 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 的 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 在 容許 範圍 內   連續 梁為 1 / 1500   簡支梁 1 / 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 的 累積角 變量 有 逾容 許範圍 的 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 及 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 的 橋墩   反而 是 位 在 沉陷 改善 的 嘉義 路段   位 在 朴子溪 河 中   目前 簡支 梁累積 的 角 變量 達 1.96 / 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 / 1000   雖 仍 在 容 許值 範圍   但 已 從 2020 年 起 逐年 增加  ', '去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇瓶 頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林 縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 的 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 的 瓶 頸 仍 待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 及 嘉義 等 地層下陷 區   高鐵 公司 從 二 ○ ○ 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 的 路段 包 彰化 及 雲林 共八處   最 值得 關注 的 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 及 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 在 雲林 縣土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 在 容許 範圍 內   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 的 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 的 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 的 水田 轉作 旱田   一年 可望 省下 八千 噸 的 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 的 農民 轉作 大豆 及 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 的 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 有 代耕 業者   即使 水田 的 利潤 低   農民 也 無力 轉作   類 似的 瓶 頸 仍 有待 中央 統籌 解決  ', '  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 的 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 的 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 在 容許 範圍 內   結構 安全 無虞     高鐵路線 通過 彰化   雲林 及 嘉義 主要 地層下陷 區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 的 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 內 的 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 的 下陷 量 從 2.6 公分   彰化 縣 溪州 鄉   到 5.4 公分   雲林 縣土 庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 的 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 的 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 的 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 在 容許 範圍 內   連續 梁為 1 / 1500   簡支梁 1 / 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 有 逾容 許範圍 的 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 及 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 的 橋墩   反而 是 在 沉陷 改善 的 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 / 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 / 1000   雖 仍 在 容 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429']</t>
+          <t>['  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 容許 範圍   結構 安全 無虞     高鐵路線 通過 彰化   雲林 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 縣 溪州 鄉   到 5.4 公分   雲林 縣土 庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 橋墩   反而 是 沉陷 改善 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429', '台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林 縣土 庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  ', '去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇瓶 頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林 縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶 頸 仍 待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林 縣土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶 頸 仍 有待 中央 統籌 解決  ']</t>
         </is>
       </c>
     </row>
@@ -584,17 +584,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_浴室_公共_紐約_排水</t>
+          <t>4_研究_每年_面臨_速度</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['浴室', '公共', '紐約', '排水', '泳池', '新北', '申報', '技師', '地層下陷', '游泳池']</t>
+          <t>['研究', '每年', '面臨', '速度', '釐', '超過', '主要', '於', '萬', '約']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['經典 末日 電影   明天 過後     海水 源源 不絕 灌入 市區   整座 城市 轉眼 之間 沉 沒 大海   令人 難以 置信   這樣 的 災難 情節   未來 可能 在 紐約 真實 上演   人稱 「 大 蘋果 」 的 美國 紐約   高樓 林立   房子 一棟 比 一棟 蓋 得 更 高   更 奢華   光是 摩天 大樓 就 多 達 6000 棟   整座 城市 更 有 超過 100 萬棟 建築物   總 重量 高達 7700 億 公斤   約 1.4 億頭 大象   而 高樓 數量 還持續 在 增加 中   土地 承受 不了 建築物 重壓   加上 超 抽 地下水   使得 地層下陷   紐約 正 逐漸 下沉 中   雖然 從 數字來 看 沒什麼 大不了   換算 下來   每 10 年 才 下沉 2 公分   但 專家 警告   這對 沿海 地區 的 影響 不容 小覷   紐約 人口 最 密集 的 曼哈頓 跟 海岸 地區 首當 其衝   這個 世紀末   也 就是 西元 2100 年前   可能 陷入 汪洋 之中   成 了 名 副 其實 的 「 水 都 」   專家 擔心   在 地層下陷 跟 海平面 上升 雙重 夾擊 下   未來 如果 再 遇上 強烈 颶風   災情 可能 一年 比 一年 嚴重   氣候 變遷 加劇   海平面 快速 上升   原因 都 跟 高碳 排放 脫 不了 關 係   減碳 成為 各國 首要 目標   紐約 當局 祭出 了 減碳 法令   限制 大樓 的 排放量   希望 改善 暖化 問題   減緩 海平面 上升   紐約 一半 以上 的 建築都將 受到 規範   有效 控制 碳 排放   有些 建商 也 採用 新技術   在 地下室 打造 「 碳 捕捉 室 」   把 二氧化碳 收集 起來   做 更好 的 利用   透過 儀器   把 天然 氣燃 燒產生 的 二氧化碳 轉換成 液態   阻止 它 進入 大氣層   還能 賣給 建商   力行 減碳免 於 受罰   還能 賺 錢   是 一舉 多 得   大樓 是 紐約 最大 的 碳 排放 來源   佔 了 城市 碳排 的 三分之二   把 造成 暖化 的 二氧化碳 封存 在 水泥 內   從 根本 的 減碳 做起   未來 也將 全面 電氣化   停止使用 天然 氣和 化石 燃料   減緩 暖化 速度   紐約 當局 也 防患未然   在 沿海 地區 設立 防波堤   環繞 整個 紐約   強化 海岸 的 防洪 能力   避免 強烈 颶風來 襲時   海水 灌入 市區   對 市區 造成 損害   建造 海牆 能 有效 防洪   但 可能 破壞 市容   也 干擾 海邊 活動   影響 沿海居民   美國陸 軍 工程兵 團也 在 擬定 一項 名為 3B 的 新計畫   把 防洪 設施 分散 各地   降低 對 當地 的 影響   也 能 達 到 最好 的 效果   希望 對 民生   環境 能 面面俱到   不 只 紐約 面臨 下沉 危機   全球 多國 的 沿海 城市   也 飽 受 海平面 上升 之苦   氣候 變遷 的 威脅 越來 越大   各國 除了 要 加強 防洪 設施   也 要 在 經濟 開發 跟 環保 取得 平衡   加強 減碳 跟 發展 綠色 能源   才能 防止 大自然 反撲  ', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 的 新北 市萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆人 也 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 有 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北 市議員 周雅玲 表示   她 接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商到 場會 勘後發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   在 男女 湯室 地底下 有 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 在 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   她 建議 應該 邀請 土木 技師 一 併 會 勘   包含 溫泉 主管 機關 的 經濟 發展局   水利局 邀請 來   對 於 周邊 的 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 有 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 的 改善 方法   公所 將再 請 新北 市 土木 技師 公會 等 相關 專家 進行 專業 的 檢查 評估   期望 在 確保 安全 無虞 的 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   她 呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  ', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 的 新北 市萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆人 也 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北 市議員 周雅玲 表示   她 接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商會 勘後懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   在 男女 湯室 的 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 也 出動 透地雷達 探測   這次 發現 問題 較 嚴重   她 建議 邀請 土木 技師 參與會 勘   經濟 發展局 和 水利局 應針 對 附近 的 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 有 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 在 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  ']</t>
+          <t>['路透社 報導   根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示   中國將 近一半 主要 城市 正 遭受   中等 到 嚴重   程度 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 論文 作者 發現   中國 45% 都市 土地 正以 每年 超過 3 公 釐 速度 下陷   16% 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 原因 不僅 是 地下水位 下降   還有 建築 環境 龐大 重量     華南師 範大學 敖祖銳 領導 研究 團隊 表示   中國 都市人口 已經 超過 9 億   因此   即使 是 一小部分 土地 下陷   都 會 對 都市生活 構成 巨大 威脅       土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 下 一個 世紀   近 四分之一 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示     這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 問題   而 不僅僅 是 一 兩個 地方 問題     他 說     這也 是 世界 其他 地方 正在 發生 事情 縮影       人口 超過 1   500 萬 北部 城市 天津   被確 認為 受災 最 嚴重 城市 之一   去年 一場   突發性 地質 災害   導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 興建     中國 許多 老 煤 礦區 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 另 一份 研究 指出   全球 約 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 已 低 於 海平面     尼科 爾斯說   易受 影響 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 1970 年代 禁止 抽取 地下水     他 補充 說     減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 不 可能 阻止 所有 下陷   因此 要 討論 適應力 建造 海堤       根據 新加坡 2022 年 一項 研究   44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中   30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示     這是 一個 都市化 人口 增長 問題   人口密度 愈大   抽 水 就 愈 多   就 造成 更 多 下陷    ', '中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  ', '最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  ']</t>
         </is>
       </c>
     </row>
@@ -603,21 +603,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_城市_中國_土地_下沉</t>
+          <t>5_公所_技師_現象_發現</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['城市', '中國', '土地', '下沉', '海平面', '研究', '每年', '全球', '上升', '風險']</t>
+          <t>['公所', '技師', '現象', '發現', '開放', '專業', '流失', '疑似', '勘查', '去']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['中國 過度 抽取 地下水   導致 近 40% 主要 城市 的 土地 下陷     路透     陳 麗珠 ／ 核稿 編輯   〔 財經 頻道 ／ 綜合 報導 〕 中國 有 近一半 的 主要 城市 正 遭受 「 中度 至 重度 」 不 等 程度 的 沉降   在 海平面 上升 的 情況 下   恐有 數百萬人將 面臨 洪水 風險     路透   指出   中國 都市人口 約 9 億人   當中 約 有 2.7 億人 生活 在 每年 下陷 逾 3 公 釐 的 地區   相當 於 都市人口 的 29%     在 中國 82 個 城市 中   約 有 45% 每年 下沉 超過 3 公 釐   16% 土地 平均 每年 下沉 更是 超過 10 公 釐   約 有 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   也 可能 造成 重大 威脅     據 了解   而 造成 中國 土地 逐年 下沉   最 主要 是 地下水位 下降 所致     路透 表示   「 土地 下陷 」 對 中國 每年 造成 超過 75 億元 人民 幣   約 新 台幣 337 億元   的 損失   研究 人員 預計   在 下個 世紀 內   中國將 有 約 近 四分之一 的 沿海 土地   恐低 於 海平面   數億人將 面臨 大 洪水 風險     最 嚴重 的 受災 城市 是 北方 的 天津   這 城市 約 有 1500 萬 人口   2023 年 一場 「 突發 地質 災害 」   導致 3000 名 居民 被 疏散   調查 人員將 這場 災害 歸咎 於   水資源 枯竭 和 地 熱井 的 建設       一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道', '中國 有將 近一半 的 主要 城市 正 面臨 「 中度 至 重度 」 地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 有 9 億   其中 約 有 2.7 億人 生活 在 每年 下陷 逾 3 公分 的 的 地區   相當 於 都市人口 的 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 有 約 四分之一 的 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 的 報告 在 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 的 地層下陷 情形   發現 約 有 45% 的 地區 每年 下沉 超過 3 公 釐   更 有 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 有 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 的 重量 不斷 增加   不斷 增加 的 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 和 海平面 上升   最終 中國會 有 約 四分之一 的 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 的 天津市 被 認為 是 「 最 嚴重 受災 城市 」   2023 年 6 月間   一場 「 突發 地質 災害 」 讓 3 幢 大樓 出現 裂痕   地下室 滲水   有 3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 的 鑽井 施工 觸動 深層 「 地質 空腔 」 所致     不僅 是 中國 有 此 問題   世界各地 皆 面臨 地層下陷 危機   在 今年 2 月 發表 的 另項 研究 指出   全球 約 630 萬 平方公里 的 土地 有 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   內容 提及 全世界 有著 嚴重 地層下陷 的 44 個 沿海 主要 城市 中   就 有 30 個位 於 亞洲  ', '最新 一份 根據 衛星 雷達 觀測 的 研究 顯示   中國近 40% 主要 城市 的 土地 正發生 「 中度 至 重度 」 的 地層下陷   上 億 居民 面臨 洪水 的 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 / 19   發表 在 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 的 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 在 2015 至 2022 年 的 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 有 2.7 億 人口 生活 在 這些 每年 下陷 逾 3 公 釐 的 地區   相當 於 都市人口 的 29%     這 82 個 城市 中   更 有 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   也 可能 造成 重大 威脅     導致 中國 都市 地層下陷 的 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 的 重量 不斷 增加   在 時間 推移 下   沉積物 堆積   以及 不斷 增加 的 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 和 海平面 上升   最終 中國將 有 約 四分之一 的 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 的 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 的 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 的 堤防   「 即使 地層下陷 和 海平面 上升   這樣 龐大 的 沿海 堤防 也 能 在 很大 程度 上 降低 城市 被淹 沒 的 風險 」   就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 的 堤防     陶勝利稱   中國 政府 也 實施 嚴格 的 地下水 管制法 規   減緩 了 上海 周邊 的 地層下陷 速度     全球 多個 城市 都 在 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 的 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 有 海平面 上升 的 問題   大家 比較 關心 沿海 城市   「 但 大多 數 城市 下沉 的 速度   和 沿海 城市 其實 都 差不多   甚至 還更快 」     地層下陷 也 不僅 是 中國 才 有 的 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快 的   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 的 土地 有 下陷 風險   印尼 是 最 嚴重 的 國家 之一   首都 雅加 達 大部分 地區現 在 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 的 44 個 沿海 大城市 當中   有 30 個 在 亞洲  ']</t>
+          <t>['萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北 市萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北 市議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   男女 湯室 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 出動 透地雷達 探測   這次 發現 問題 較 嚴重   建議 邀請 土木 技師 參 與 會勘   經濟 發展局 水利局 應針 對 附近 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  ', '新北 市萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 地層下陷 現象   地質 檢測 人員 檢查   原來 湯室 地底 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北 市萬 里加 投溫泉 公共 浴室 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 泡 湯遊客 反應   燈管   溫度 顯示器 溫泉 管線 設備 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 現象   公所 從 4 號開始 封閉 浴室   趕緊 找 專業 技師 到場 檢查   男女 湯室 地底 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 溫泉 露頭 有關 係     大鵬里長 李建才     露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 東西   地底下 看不到   以 目前 整個 狀況 來講 話   下陷 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 感覺       溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   流入 浴池   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉     技師 建議 我們 要 專業 技師 公會   針對 結構物 下陷 狀況 去 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 部分 改善   還是 可能 要大動 作去 做後續 改建   這個 部分 後 續 可能 會 需要 比較 多 費用       公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 泡 湯空間  ']</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_雲林_高粱_獎勵_沿線</t>
+          <t>6_20_自來_挖_建案</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['雲林', '高粱', '獎勵', '沿線', '灌溉', '農業', '節水', '地層下陷', '作物', '契作']</t>
+          <t>['20', '自來', '挖', '建案', '工地', '管線', '水管', '市府', '道路', '今天']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['雲林 縣高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 內 虎尾   土庫   元長 和 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 在 去年 暫停 辦理   雲林 農民 表示   「 只要 不是 種 水稻 類   其實 它 的 吸 水量 會 真的 會差 很多   這是 實在 話   在 雲林 這邊 就是 水稻 的 需求   地下水 的 需求量 是 最 多 的   」 為 了 鼓勵 高鐵 沿線 的 農民能 在 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林 縣農業 處 副 處長 蔡耿宇 指出   「 高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 的 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 在 一期 作去 推動 的 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元   」 雲林 農民 指出   「 成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過   」 當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 也 說   縣內 高鐵 沿線 四鄉 鎮農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 內 達 到 稻作 1700 公頃 轉出 的 目標  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 內 農民種 植 低耗 水 作物 的 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林 縣府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 在 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 及 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 及 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 內農地   獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 的 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 內 農民種 植 低耗 水 作物 的 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林 縣府 近 幾年 積極 推動 地層下陷 防治 工作   在 農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 ○ 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 內 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 在 二 ○ 一 三年 至 二 ○ 二 ○ 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 及 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 的 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ']</t>
+          <t>['新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹市 長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹市 長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -649,21 +649,21 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_漁港_碼頭_漁業_平台</t>
+          <t>7_北市_道路_坑洞_塌陷</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['漁港', '碼頭', '漁業', '平台', '改善', '經費', '縣府', '珊瑚礁', '漁民', '淹水']</t>
+          <t>['北市', '道路', '坑洞', '塌陷', '事件', '路面', '天坑', '水利', '出現', '今']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 和 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 的 溢 淹 問題 及 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 和 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 在 地養 殖區 穩定 水質 及 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 的 機構 團體 來 「 取經 」   居民 卻長 期苦 於 地層下陷 帶來 的 排水 問題 及 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 和 生活 環境 品質                             她 說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東 縣 最大 的 養殖 漁業 生產區   塭 豐 二中 排旁 的 豐 海路 也 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 也 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 及 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖魚 塭 的 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 的 水環境       屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 和 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 的 溢 淹 問題 及 顛簸 起伏 路況 所苦   圖 ／ 屏東 縣 政府 提供 屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東 縣 政府 提供 屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東 縣 政府 提供', '嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 的 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 在 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 有 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                             「 大潮 來   沒 看到 路 怎麼 走   」 鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 及 平台 改善 工程   目前 已 辦理 設計 工作   預計 在 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 也 指出   漁民向 她 反應 鰲 鼓   副 瀨   網寮 及 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 的 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 有 需求 做 盤點   將一 併 向 中央 爭取 第二期 的 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 也 反應 鰲 鼓   副 瀨   網寮 及 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 及 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 及 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影', '〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 及 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 和 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 的 的 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 在 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 及 捕魚 的 重要 基地   更是 漁民 生命 財產 的 保障   也 是 海洋 漁業 發展 的 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助 的   縣府 就 必須 出手   架 高作業 平台   解決 高漲 的 潮水   既 保障 漁民 日常 工作 需求   也 能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 的 基礎 建設   除 加高 平台 也 協助 清淤   讓 漁民有 更好 的 作業 環境   黃 嫈 珺 也 說   東石 沿海 導航燈 有 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 也 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 的 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 內容 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  ']</t>
+          <t>['〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港 區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  ', '北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港 區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ']</t>
         </is>
       </c>
     </row>
@@ -672,21 +672,21 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_溫泉_浴池_公所_浴室</t>
+          <t>8_研究_速度_每年_公分</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['溫泉', '浴池', '公所', '浴室', '新北', '泳池', '狀況', '設備', '封閉', '公共']</t>
+          <t>['研究', '速度', '每年', '公分', '地區', '地質', '專家', '加上', '更', '部分']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 在 烏日 焚化 廠旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師會 勘 釐 清 下陷 疑慮     「 泳道 南側 比北側 低 了 約 14 公分   」 台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 在 慶光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 及 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會 勘團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  ', '新北 萬里 的 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 有 問題   更 有 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 內 整塊 磁磚 脫落   地磚 也 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 的 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   和 一些 溫泉 管線 設備 有 問題 外   還有 地層下陷 的 跡象   鐵鋁罐 放在 地上   都 會 不 自主 的   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉   「 技師 建議 我們   要 有 專業 的 技師 公會 去   針對 結構物 下陷 狀況   去 做 監測   評估後續 是不是 可以 用   液壓 灌漿 的 部分 做 改善   」   地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   有 大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  ', '新北 市萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 有 地層下陷 的 現象   地質 檢測 人員 檢查   原來 湯室 的 地底 有 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 也 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北 市萬 里加 投溫泉 公共 浴室 在 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 有 泡 湯遊客 反應   燈管   溫度 顯示器 和 溫泉 管線 設備 有 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 的 現象   公所 從 4 號開始 封閉 浴室   也 趕緊 找 專業 技師 到場 檢查   男女 湯室 內 的 地底 有 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 的 溫泉 露頭 有關 係     大鵬里長 李建才   「 露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 的 東西   在 地底下 也 看不到   以 目前 整個 狀況 來講 的 話   下陷 的 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 的 感覺   」   溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   在 流入 浴池 內   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉   「 技師 建議 我們 要 有 專業 的 技師 公會   針對 結構物 下陷 狀況 去 做 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 的 部分 做 改善   還是 可能 要大動 作去 做後續 的 改建   這個 部分 後 續 可能 會 需要 比較 多 的 費用   」   公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 的 泡 湯空間  ']</t>
+          <t>['紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生         這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機       研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米         然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水         研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市       帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題           Take   action   加入   倡議 +    ']</t>
         </is>
       </c>
     </row>
@@ -699,17 +699,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_水利_嘴潭_生態_草屯</t>
+          <t>9_台北市_公尺_工地_下午</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['水利', '嘴潭', '生態', '草屯', '環境', '工程', '萬噸', '人工湖', '烏溪', '保育']</t>
+          <t>['台北市', '公尺', '工地', '下午', '現場', '安置', '坍塌', '13', '3', '建管處']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察 「 草屯 淨水場 新建 工程 」   陳 建仁 提到   為 減緩 地層下陷   水利 署 推動 「 烏溪 鳥 嘴潭 人工湖 工程 計畫 」   以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 及 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 的 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 在 今年 3 月 27 日達 到 最大 設計 的 出水 功能   通過 每日 5 萬噸 的 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能 體現 出台 灣 人民 不分 地區 互助 互惠 的 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 的 工作 量大增   也 承擔 很多 的 任務 與 責任   此外 台水 是 公司   接受 政府 的 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出   「 鳥 嘴潭 人工湖 工程 計畫 」 完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 及 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   及 85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 在 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 訂閱 自由 財經 Youtube 頻道', '水利 署 在 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 生 態 環 境   土方 培厚則 為 河道 治理   經監 測確 有 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 的 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 的 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 的 生態   環境 調查   施工期 間 的 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 也 發現 仍 有 石虎 出 沒 活動   甚至 有 定居 個體   巴氏 銀 鮈 棲地 也 沒 有 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 的 生態 工法 理念 相近   也 有 專業 技師 分析   經比 對 去年 培厚前   後 的 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 在 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片', '水利 署 在 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 生 態 環 境   土方 培厚 為 河道 治理   經監測 有 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 的 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 的 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 的 生態   環境 調查   施工期 間 的 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  ']</t>
+          <t>['首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北市 長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10_骨塔_村民_當地_拉雅山</t>
+          <t>10_作業_改善_萬元_黃</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['骨塔', '村民', '當地', '拉雅山', '喜馬', '稻田', '印度', '撤離', '出現', '頂庄']</t>
+          <t>['作業', '改善', '萬元', '黃', '副', '環境', '爭取', '近期', '工程', '影響']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['印度 北部 喜馬 拉雅山 區   一個經 常有 朝聖者 和 觀光 客造訪 的 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 也 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 在 安全 的 避難 地點   印度 北部 的 山城 地層下陷   房屋   樓梯 及 道路 都 嚴重 龜裂   建築物 的 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示   「 有 5 戶 人家 已經 搬走   其他 好 幾戶 也 計劃 遷移   另 做 打算   」 官員 表示   最近 幾個 星期 當地 通報 有 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 的 地點   「 在 找到 解決 方法 之前   我們 先 把 居民 安置 在 安全 無虞 的 飯店 賓館 跟 民宿   」 喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 的 門戶   也 常有 想要 征服 喜馬 拉雅山 的 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候 變遷 對 喜馬 拉雅山 的 影響   但 如果 不 做好 水土保持   這座 「 沉 沒 的 城鎮 」 可能 很快 就 會 走向 毀滅  ', '彰化 縣 大城 鄉現 有納 骨塔 接近 飽 和   鄉 公所 規畫 在 第六 公墓 新建 第二 納 骨塔   頂庄 村民 群起 反對   已有 140 人連署 陳 情   村民 抱怨 縣府 裁撤 頂庄國 小   鄉 公所 在 村 內蓋 第二座 納 骨塔   「 吃 虧 都 是 我們 」   讓 頂 庄村 發展 雪上加霜   要求 重新 研議 興建 地點   鄉長 陳 玉照 說   納 骨塔 近 飽 和   將持續 溝通       大城 鄉有 8 座 公墓   頂庄村 和 山腳 村設 有納 骨塔   山腳村 的 已 飽 和   頂庄村 的 只 剩 不到 700 個 空位   鄉 公所 認為   興 建新 塔有 迫切性   日前 向 頂庄 村民 說明 新建 計畫   村民 痛批 「 一村 二塔 」 違反公 平原 則   當場 反對                             許姓 村民 表示   縣府 認為 頂 庄村 出生率 低   已 是 大城 鄉 人口 倒數 第 2   前年 裁撤 頂庄國 小   可見 頂 庄村 沒 新建 納 骨塔 的 需求   周邊 地層下陷 易 淹水   無論 地理 和 風水   都 不 適合 安放 往生 親人   新建 第二 納 骨塔 離 村落 僅 200 公尺   違反 縣府 規定 500 公尺 的 審查 原則   嚴 重影 響 村民 的 身心健康       鄉長 陳 玉照 指出   頂庄 第一 納 骨塔 建在 高灘 地   第二 納 骨塔 也 一樣   不開 挖 地下室   還 建造 7 層台 階 升高 塔座   沒 淹水 疑慮   第二 納 骨塔 距離 村落 人口稠密 區約 500 公尺   像 他家 距離 墓地 很近   不會 有 問題       頂庄 村長 許仁寶說   如非建 不可   應 提出 有力 的 說明   並訂定 回饋 辦法  ', '〔 編譯 管淑平 ／ 綜合 報導 〕 印度 的 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 的 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   的 斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 也 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 在 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 有 60 多戶 搬 到 政府 的 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 的 近因 「 似乎 是 有 問題 的 排水 系統 導致 房子 底下 滲水   造成 下陷   」   斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 和 觀光客 也 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 也 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 的 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   也 有 50 多間 房子 出現 不斷 擴大 的 裂縫   該鎮 人口 5 萬人  ']</t>
+          <t>['印尼 海域 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 寧靜 自然   還能 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出     紅樹林 是 很 獨特 生態 系統   一種 植物   有趣 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要     印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 一小部分   過去 一年 就 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示     我們 需要 生存 下去   但 很 難 找到 像樣 工作   當時 唯一 知道 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁     這片 海域 位 東南亞 從菲律 賓到 印尼   澳洲 之間 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 當地 巴迪島   努力 復 育 周邊 3 公頃 珊瑚礁   耐心 說 服漁民 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 海底 回春   熱帶 魚群 穿梭 新生 珊瑚礁 之間   環境 科學家 尤素夫 提及     印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 世界 遺產   一個 小小的 努力 都 可能 影響 世界     印尼 海域 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 18%   珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 海域   一步 一步 把 失去 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  ', '嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影', '〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  ']</t>
         </is>
       </c>
     </row>
@@ -745,17 +745,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11_紐約市_研究_上升_海平面</t>
+          <t>11_住戶_旁_安置_現場</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['紐約市', '研究', '上升', '海平面', '美國', '帕森斯', '建築物', '重量', '紐約', '速度']</t>
+          <t>['住戶', '旁', '安置', '現場', '新建', '15', '天坑', '鄰近', '13', '公尺']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 的 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 的 居民 生存 備受 威脅     紐約 每年 均 在 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 在 內 的 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 的 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 的 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 的 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 內 的 建築物 也 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 和 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成 的   因為 上 一次 冰河 時期 最 寒冷 的 時候   巨大 的 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 的 地區則 開始 下陷     之前 有 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 的 力量 之外   研究 人員 也 認為還 可能 包括 其他人 為 因素   且 科學家 也 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 的 重量 造成     本次 研究 結果 刊登 在 Earth   s   Future 期刊   【 更 多 精采 內容   詳見 】', '一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 的 是   科學家 預期 由 於 人 為 引發 的 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說   「 我們 離 海水倒灌 還有 一段 很長 的 路 … 但 我們 在 紐約 市經 歷過 數次 嚴重 的 颶風 事件   像 颶風珊迪   Sandy   及 艾達   Ida   帶來 的 暴雨 使得 城市 淹水 成災   都市化 帶來 的 部分 影響 也 使得 水災 發生   」   這篇論 文發表 在 期刊 「 地球 的 未來 」   Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 的 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 的 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 的 質量   計算出 這些 建築物 的 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 的 波音 747   400 客機     研究 團隊 接著 利用 模擬 的 方式   計算出 這些 重量 對 地面 的 影響   並和 顯示 實際 地表 地質 情況 的 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 的 地區 每年 下陷 約 4.5 毫米 」     然而   並非 所有 地層下陷 都 是 建築物 造成 的   帕森斯 說   「 我們 可想 見 在 非常 鬆 軟 的 土壤 和 人工 填土 的 地面 上 建造 建築 和 地層下陷 的 關聯 … 在 其他 地方   我們則 看到 難以 解釋 的 地層下陷   它 有 很多 不同 的 成因   例如 上個 冰河 時期 後 發生 的 後 冰期 回落   或是 抽取 地下水   」   研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 在 紐約市     帕森斯 說   「 這是 一個 全球性 的 問題   我來 自羅德島 大學   University   of   Rhode   Island   的 合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 也 有 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題   」', '一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 在 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 的 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 的 是   科學家 預期 由 於 人 為 引發 的 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說   「 我們 離 海水倒灌 還有 一段 很長 的 路 … 但 我們 在 紐約 市經 歷過 數次 嚴重 的 颶風 事件   像 颶風珊迪   Sandy   及 艾達   Ida   帶來 的 暴雨 使得 城市 淹水 成災   都市化 帶來 的 部分 影響 也 使得 水災 發生   」     這篇論 文發表 在 期刊 「 地球 的 未來 」   Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 的 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 的 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 的 質量   計算出 這些 建築物 的 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 的 波音 747   400 客機       研究 團隊 接著 利用 模擬 的 方式   計算出 這些 重量 對 地面 的 影響   並和 顯示 實際 地表 地質 情況 的 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 的 地區 每年 下陷 約 4.5 毫米 」       然而   並非 所有 地層下陷 都 是 建築物 造成 的   帕森斯 說   「 我們 可想 見 在 非常 鬆 軟 的 土壤 和 人工 填土 的 地面 上 建造 建築 和 地層下陷 的 關聯 … 在 其他 地方   我們則 看到 難以 解釋 的 地層下陷   它 有 很多 不同 的 成因   例如 上個 冰河 時期 後 發生 的 後 冰期 回落   或是 抽取 地下水   」     研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 在 紐約市       帕森斯 說   「 這是 一個 全球性 的 問題   我來 自羅德島 大學   University   of   Rhode   Island   的 合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 也 有 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題   」       Take   action   加入   倡議 +    ']</t>
+          <t>['〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  ', '【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  ', '台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -764,21 +764,21 @@
         <v>12</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12_種電_屏東_農地_地主</t>
+          <t>12_當地_裂縫_鄉_出現</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['種電', '屏東', '農地', '地主', '光電', '租金', '縣府', '耕作', '蓮霧', '光電板']</t>
+          <t>['當地', '裂縫', '鄉', '出現', '另', '沒', '已經', '只', '認為', '建築']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 的 果農 只能 忍痛 看著 心血 被毀   也 斬斷 兒子 想 當青農 接班 的 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   也 不給 老 農一畝 田維生   青年 若當 「 漂鳥 」 回農村   肯定 變走 投無路 的 「 落翅仔 」       五十六 歲 鄭明偉 在 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   有 兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 的 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 有 不少 國有 財產 署名 下 的 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 在 枋寮 內 寮 段種 芭樂   她 無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 在 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 也 靠 這片 三分 地 的 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種   「 我 不但 要 吃 土   連農保 都 沒 有 了   」     面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 和 枋寮 有 「 蓮霧 之 鄉 」 美名   四十八 歲 陳 呈祥 在 八八 風災後回 鄉 接手 父親 的 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 做 的 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   有 的 果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 和 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   在 地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改種電   年 輕人 想 返 鄉務農   也 無 低 租金 的 農地 可種   「 蓮霧 故鄉 」 金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   她 忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到   「 這 不是 迫遷 青農去 都市 討 生活 嗎   漂鳥 回農村   恐怕 走 投無路 變 落翅仔 吧   」', '從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不 在   這是 屏東 沿海 地區 這幾年 興起 的 違 和 景致   也 是 全台種 電縮影   在 地 青農批 政府   業者 聯手種 電種 到 失心 瘋   從 農地   山區 到 有 文資 價值 的 二戰 遺跡 都 不放過   不僅家園 變貌   也 迫使 老農離 農   變相迫 遷青農       屏東 農地種 光電原 是 全台 濫觴 和 典範   二 ○ ○ 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   也 重創 屏東 南部 沿海 鄉鎮   不少 魚 塭   果園 被 沖 毀   時任 屏東 縣長 曹啟 鴻 提出 「 養水 種電 」 計畫   縣府 媒合 魚 塭   農 地租 給光 電業者   地主 負責 管理   地主 按 月 收 地租 及 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 ○ 一 三年 修法   允許 不適 耕作 農地 種電   大開種 電之門   但 農地 非 農用 的 罵 聲不斷   二 ○ 一 八年 十月 起   屏縣 府 公告 實施 「 嚴重 地層下陷 地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫 」   開放 下陷 區農地 可變 更 種電       二 ○ 二 ○ 年 七月   農委會 加嚴 農地變 更種 電門檻   二到卅公頃 農地變 更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變 更 種電   但 早 在 二 ○ 一 八年 屏東 縣長 潘孟安任 內   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷 區作 光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 的 光電   如今 變成 農民 的 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 的 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽 「 不利 耕作 聲明書 」   離農 坐收 光電場 租金   但 這些 農地 都 種著蓮霧   水稻   芭樂   何來 不利 耕作       「 沿海 四鄉 鎮美麗 的 鄉間 景致 丕 變   綠地 逐漸 蒸發   」 屏東 縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地將 失去 地 力   衝擊 農產業 服務鏈   受益 的 是 少數 地主   受影響 的 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東 縣府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能 「 五贏 」   前年 已達成 綠電供 應 全縣 民生 用電 的 階段 性 目標  ', '〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東 縣 政府 於 東港   林邊   佳冬 及 枋寮 4 個 沿海 鄉鎮   劃定 「 嚴重 地層下陷 區光 電計畫 」 專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 有 3000 公頃 以上 的 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷 區為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷 區   現 仍屬 第 1   2 級 地下水 管制 區   且 在 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 有 縣府 在 尊重 地主 利用 土地 意願 及 權益 前提 及 既有 電力 設施 併 網 上限 條件 下   有 限度 的 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   在 部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 的 光電板 發電 效率 已較 八八 風災 後 的 「 養水 種電 」 到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 的 在 單位 發電量 更大下   所 需面積 的 比例 一定 更 小   至少 會 有 3000 公頃 以上 的 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 有 土地 鹽化 等 不利因素 無法 耕作 的 年 邁老農   則 可以 有 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供人 種電   一定 要 進行 變 更 地目   但 這是 完全 基 於 地主 的 利用 土地 意願 及 權益   縣府 環保局 從 未 要求 廠商 提供 所謂 「 不利 耕作 同意 書 」 或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 及 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 有 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   在 未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 內 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東 縣綠能 推動 政策 以 「 專案 專區 計畫 」   「 土地 複 合式 利用 」 兩大 策略 為主   專案 為 有 限度 使用 相對 不 適合 耕種 的 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電 的 「 複 合 利用 」 方式     屏東 縣環 保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 有 處置 自家 土地 財產   以及 業者 依法 申請 案件 的 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  ']</t>
+          <t>['插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  ', '〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  ', '印度 北部 喜馬 拉雅山 區   一個經 常有 朝聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  ']</t>
         </is>
       </c>
     </row>
@@ -787,21 +787,21 @@
         <v>13</v>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13_公園_公廁_遊憩_廁所</t>
+          <t>13_結構_建築_可以_地基</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['公園', '公廁', '遊憩', '廁所', '市府', '張桂綿', '水岸', '番仔', '溝公園', '設備']</t>
+          <t>['結構', '建築', '可以', '地基', '表示', '發生', '傾斜', '公里', '市府', '造成']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['嘉義 市 35 座公園 是 國內 密度 最高   其中 20 座公園 有 廁所   曾 有 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 的 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 的 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請 「 優質 公廁 及 美質 環境 推動 計畫 」 經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 及 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 的 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  ', '桃園 市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 和 草原 都 因 地層下陷   出現 大大小小 的 坑洞   遭議員 批評 宛如 成 了 「 地 雷公 園 」   市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 及 建置 自行 車道 會 勘過 程中   發現 有 綠地 及 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區 「 都 會 中 的 綠洲 」                             市議員 張桂綿 近期 發現   公園 中 的 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 和 兒童 奔跑 的 大 草原 也 出現 大小不一 的 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失       「 這裡 宛如 地雷 區   」 張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 她 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除 「 地雷 」   還給 鄉親 安全 的 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 的 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會 勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現 「 無底 洞 」   遭議員 批評 宛如 成 了 「 地 雷公 園 」   圖 ／ 張桂綿 提供']</t>
+          <t>['〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 中正路 425 號前 道 路旁 水溝   發生 下陷   破洞 情形   經 會勘 後 工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 地基 掏空 問題     都 發處 表示   請 土木 技師 公會 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  ', '台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 地梁 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  ', '花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮 市區 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮 縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮 縣 6 強   各地 陸續 傳出 災情   如 花蓮 市區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性']</t>
         </is>
       </c>
     </row>
@@ -810,21 +810,297 @@
         <v>14</v>
       </c>
       <c r="B17" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>14_地下水_抽_水_水利</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['地下水', '抽', '水', '水利', '大', '不會', '它', '地區', '所以', '了']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>['〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林 縣及 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  ', '旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  ', '2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南台 灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>15_自來_地區_出_水</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['自來', '地區', '出', '水', '計畫', '地下水', '水管', '縣', '陳', '完工']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>['〔 記者 羅 欣貞 ／ 屏東 報導 〕 屏東 縣 政府 2018 年 完工 並開始 操作 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫   近年 來 均 能 挹注 超過 5000 萬噸 水源 至 地下 含水 層   然而 由 於 南部 地區 近年 氣候 狀況 不如 預期   人工湖 於 今年 5 月僅 經過 1 個 月 餘 引水 操作   將大約 1000 萬噸 水 注入 含水 層   因應 颱 風 杜蘇芮 與後續 雨勢   從 7 月 27 日當晚 開始 啟動 今年 第二次 引水 作業   一直 持續 至今     屏縣 府 水利 處 表示   大 潮州 補注 湖不僅 是 目前 國內僅   是 東南亞 地區 最 大型 人工湖 補注 地下水 計畫   原理 為 於 洪水期 將林邊 溪 之 較 大 水源 導引 至 人工湖   而 此區 因 具備 入滲 效果 佳 地質 條件   即可 有效 補注 至 地下 含水 層   補注 之 效益 為 可 涵養 屏縣 使用率 較 高 地下水 資源   提高 部分 區域 地下水位   減緩 地層下陷 與 海水 入侵   防止 地下水 鹽化   此外   人工湖 具有 分洪   治洪 功能   而結 合水 銀行 抽補 概念   更是 能 提高 水資源 運用 效益     水利 處 指出   第 1 期 工程 經費 約 14.1 億元   無論 是 取輸水 效果   入滲 效率 與 補 注量 體均 極為 可觀   已具 顯著 成效   此項 目的 啟動 不僅 增加 屏南 地區 水資源 可運 用量   已 初步 達到   增源 減洪   重要 作用   後 續將 提出 第 2 期 人工湖 開闢 計畫   以達成 預估 完成 後 挹注 每年 1.5 億噸 地下水 補注量  ', '烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 產業 發展區   整體 需水量 不斷 增加   造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投 縣有 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投 縣民 配合 政府 政策   但 南投 縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投 縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 能 喝 到 量 好質 優 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒   珍珠 串     讓 台灣 水資源 調度 更好   顯示 台灣 人民 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   會 持續 綠 美化   變成 南投 新 觀光 地標     立委 游顥 說   南投 縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 立法院 繼續 爭取   希望 行政院 重視 南投 用水 問題  ', '因應 極端 氣候   水利 署 投入 123.6 億元展 開   鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫     包括 6 座 人工 蓄水池 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 能 同享 量 好質 優 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定   雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫   中 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投 縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投 縣 自來 水 普及率 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投 縣內 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投 縣 用水 問題  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16_台北市_緊急_街_天坑</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['台北市', '緊急', '街', '天坑', '一處', '60', '旁', '相關', '新建', '工地']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>['台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北市 長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  ', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供']</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>17_工地_檢測_初步_道路</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['工地', '檢測', '初步', '道路', '了解', '回填', '地下室', '就', '經過', '周邊']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>['台北市 松山 區慶城 街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山 區慶城 街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北市 長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  ', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北市 長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ', '新竹 縣竹 北市 天坑 再現   縣政 7 街 昨天 發生 道路 坍塌 形成 大 坑洞   今天上午 建商   住戶 代表   里長 與 技師 等到 現場 查看   討論 施作 透地雷達 範圍   鄰近 社區 住戶 說   這條 道 路旁 邊 就是 車道   且 鄰近 學校   九月 即將 開學   很多 學生 從 此 經過   盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況   安全 為 優先       斗崙里 長 張 琬 媃 表示   今天上午 邀請 土木 結構 技師 拱祥生 到 現場 勘查   盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況   後 將召開 說 明會   讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況                             鄰近 社區 住戶 說   建商 雖然 一周 兩次 監測且 未 超過 標準   然而 一旦 超過 就 來 不及 了   社區 希望 能 了解 整體 趨勢   盼建 商能 固定 給予 監測 數據   此外   地下 六樓 開 挖 深   導致 震動 頻率 高   社區 龜裂 狀況   這 部分 建商 允諾會 負責   未來 社區 會 提鄰損 要求   目前 該條 道路 是 社區 車道   鄰近 學校   開學後有 很多 學生 從 此 經過   希望 能 盡快 檢測 周邊 道路   以 安全 為 優先       拱祥生 表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   至於 後 方 涉及 到 肯德基 店家 與 私人 路段 要 再 確認   被動式 電磁波 檢測 能 偵測 淺   深層   將檢測 道路 範圍 下方 30 公尺 來 了解 地質   有否 潛藏 孔洞 或 疏 鬆 狀 況   以及 昨日 因自來 水 沖 蝕 後   回填 後 初步 結果   預計 最快 7 到 10 日 可 完成 檢測       媒體 追問 拱祥生   此案 與 豐采 520 天坑 事件   是否 都 因為 地下水 或 地理 環境易 地層下陷   拱祥生 回應   會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣   涉及 到 開 挖 工法   若 是 用 非止 水性 壁體   例如 這次 事件 用板 樁 橫板條   此工法 適用 於 林口 台地   桃園 台地 與 部分 竹北 工地   由 於 林口 台地   桃園 台地 屬於紅 土礫 石層   此地 質狀況 相對 不透水   若 使用 透水性 壁體   就 比 較 不怕   然而 遇強 下雨   自來 水管 線 潛 水分   搭配 降雨 形成 路徑   非止 水性 壁體 可能 就 會 帶 入土 沙   一下子 沖 入 基地       拱祥生 指出   這兩個 工地 都 共同 現象   主要 是 開 挖 工地 周遭   主動 破壞區 發生   就 像 開刀 本來 就 會 流血   因此 工地 開 挖 過程 中   正常 就 會導致 地表 沉陷   重點 是 透過 觀測 法來 了解 實際開 挖行 為   與 原來 工程 分析 行為 是否 相同   若 是 相同 就是 安全 範圍   若 是 異常   就 得 要 補強   新竹 縣竹 北市 縣政七 街道 路 塌陷 現場   工地 建商 坦承 疏失   記者 郭政芬 ／ 攝影 技師 拱祥生   右   表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   記者 郭政芬 ／ 攝影']</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18_市府_流失_嚴重_近期</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['市府', '流失', '嚴重', '近期', '會勘', '原因', '改善', '坑洞', '年', '可能']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>['嘉義 市 35 座公園 是 國內 密度 最高   其中 20 座公園 廁所   曾 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請   優質 公廁 美質 環境 推動 計畫   經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  ', '桃園 市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 草 原因 地層下陷   出現 大大小小 坑洞   議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   南 崁 住宅 密集 區營造   都 會 中 綠洲                               市議員 張桂綿 說   公園步 道 近期 嚴重 下陷   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成   無底 洞     推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  ', '桃園 市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 草原 都 因 地層下陷   出現 大大小小 坑洞   遭議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 建置 自行 車道 會勘 過程 中   發現 綠地 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區   都 會 中 綠洲                               市議員 張桂綿 近期 發現   公園 中 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現   無底 洞     遭議員 批評 宛如 成 了   地 雷公 園     圖 ／ 張桂綿 提供']</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>19_抽_技師_不是_住家</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['抽', '技師', '不是', '住家', '看', '我們', '年', '就', '居民', '當地']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>['水岸 第一排 住宅   開門   開窗 即 見 怡然 美景   住家 擁有 永久 棟 距   是 許多人 嚮 往 住居   正因 稀有性   房價 比 一般 房宅略 高   不過   想 坐 擁 水岸 宅   購 屋前 需有 風險 意識   魔鬼 藏 細節裡   思考 後 再 出手   能 避免 踩 雷               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北 市萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北 市議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商 到場 會勘 後 發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   男女 湯室 地底下 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   建議 應該 邀請 土木 技師 一 併 會勘   包含 溫泉 主管 機關 經濟 發展局   水利局 邀請 來   對 於 周邊 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 改善 方法   公所 將再 請 新北 市 土木 技師 公會 等 相關 專家 進行 專業 檢查 評估   期望 確保 安全 無虞 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  ', '宜蘭 縣蘇 澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>20_氣候_開始_當地_擴大</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['氣候', '開始', '當地', '擴大', '速度', '快速', '最大', '坑洞', '中', '塌陷']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>['地球 南北 兩極 這兩天 都 重要 科學 發現 發表 媒體 上   其中 北極 方面   科學家 發現 加拿大 北邊 海底 出現 地層下陷   最大 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 南極 大陸 東邊   3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 144 平方公里 冰架 崩解   相當 於 半個 台北市 大小   科學家 藉 著美國 太空 總署 NASA 衛星   拍 攝到 南極 大陸 東邊   格連澤 冰河     瀕臨 南 印度洋 冰架   2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 過去數 十年 來   冰架 崩解 現象   絕 大多 數出現 西邊 南極 半島   就是 與 南美洲 阿根廷 遙遙 相望 所在   而且 過去 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 冰雪 增厚   對 全球 海平面 衝擊 有限   從 2020 年 開始 南極 東邊 冰河 開始 縮小面積   但 是 以 每天 1 平方公里 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出     但 上星期 我們 發現 快速 氣候 現象   這也許 不足以 說明 事情 全貌   但 確對 冰架 造成 前 所 未 見 壓力     研究 人員 所 說 氣候 現象   是 指 發生 3 月 15 日 大氣 河流   這種 氣候 現 象是 指   高濃度 水蒸 氣沿 著 狹窄 區域 快速 前進   對 於 已經 消退 中 冰架 造成 致命 一擊   而大面積 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域   發現 大面積 地層下陷   最大 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 地下水 緩慢 流動   是 北極海 地層下陷 原因  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>21_環境_水利_工程_月</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['環境', '水利', '工程', '月', '1', '辦理', '5', '向', '水管', '7']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>['行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察   草屯 淨水場 新建 工程     陳 建仁 提到   為 減緩 地層下陷   水利 署 推動   烏溪 鳥 嘴潭 人工湖 工程 計畫     以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 今年 3 月 27 日達 到 最大 設計 出水 功能   通過 每日 5 萬噸 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能 體現 出台 灣 人民 不分 地區 互助 互惠 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 工作 量大增   承擔 很多 任務 與 責任   此外 台水 是 公司   接受 政府 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出     鳥 嘴潭 人工湖 工程 計畫   完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>22_整個_根據_水利_較</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['整個', '根據', '水利', '較', '公分', '無法', '縣', '若', '有效', '不過']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>['[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  ', '根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重     雲林 縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林 縣 必須 去 克服       雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林 縣面 對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應     許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外       水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  ', '根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林 縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林 縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林 縣 必須 去 克服     雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林 縣面 對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應   許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外     水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" t="n">
         <v>2</v>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>14_改善_大利_加里森_波隆</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>['改善', '大利', '加里森', '波隆', '鐵路', '雙塔', '道路', '違規', '所以', '這座']</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>['義 大利 除了 比薩 斜塔 外   在 義 大利 北部 的 波隆 那 也 有 個 知名 的 「 波隆 那 雙塔 」   這兩座 塔 的 歷史 將近 一千年   而 其中 一座 較 低矮 的 塔   最近 幾年 被 發現 結構 愈來 愈 不 穩定   傾斜 角度 也 逐漸 變大   當局 已經 封鎖 附近 區域   並在網 路上 發起 募捐 活動   希望 各界 共同 來 拯救 這座 重要 的 歷史 建築 和 文化 資產   義 大利 的 波隆納 雙塔   右側 的 阿西 內利 塔高 97 公尺   左側 的 加里森 達 塔高 48 公尺   雙塔 在 波隆納 矗立 超過 900 年   如今 張貼 禁止 進入 的 告示   基座 也 被 圍起   且 其中 比較 低 的 加里森 達塔   被 專家 認定   很 有 可能 在 近期 內 倒塌   情況 相當 危急   波隆 那 市民 寶拉 表示   「 這座 塔 是 波隆 那 的 象 徵   如果 它 倒塌 了 那 真的 是 個 恥辱   因為 我們將 失去 這座 城市 最 重要 的 古 蹟 之一   」 14 世紀 發生 一次 地層下陷 後   加里森 達塔持續 傾斜   目前 斜度 已 超越 比薩 斜塔 0.1 度達 到 4 度   當局 曾 於 2020 年 執行 抗傾倒 計畫   但 問題 不但 沒 改善 甚至 還惡化   今年夏天 面臨 極端 高溫 加上 洪水 等 極端 天氣   讓 高塔 難以 承受   當局 展開 搶 救 加里森 達塔 大作 戰   在網 路上 發起 募款 活動   目標 是 籌到 一 億台幣 的 資金   希望 各界 一起 來 拯救 義 大利 重要 的 歷史 建築 和 文化 資產  ', '〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷 區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 的 高鐵橋 下 便 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 的 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   便 道 位 在 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 有 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 在 地層下陷 區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 也 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 的 行車 品質  ']</t>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>23_期_民宅_地基_不斷</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['期', '民宅', '地基', '不斷', '沖', '被', '掏空', '可以', '他', '他們']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>['基隆 一處 屋齡 超過 40 年 公寓 住宅   後 方 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 出現 地層下陷 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   居民 行經 踩 空   才 驚覺 原來 民宅 外側 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   讓 周圍 路面 出現 地層下陷 狀況   從 畫面 中 可以 看到   地層下陷 深度 大概 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 影響   基隆市 議員施 偉政 提醒   地基 被 沖 刷   上面 載重 又 大 話   恐怕 房子 會 很大 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  ', '〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹 縣竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險   希望 相關 單位 幫忙 出面 解決     被 指控 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 原因 不明 下陷   龜裂 問題   看起 來 災害 確實 持續 進行 中   但導致 持續 龜裂 擴大 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 天氣 放晴 後 協助 維修 處理     陳 講   鍾 姓 住戶 主要 是 拿 自家 建物 背 後 另 1 間 民宅 比 對   鍾 認為 2 宅   沒有 一直 線     所以 認定 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護     縣府 工務 處長 江良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 毀損 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 被 徵收 戶   3 樓半 住家 就是 蓋 約 3   40 坪 配回 地上   10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 其中   如果 房子 真的 不安   影響 非常 大     鍾 說   隔鄰 新建 工地 約 是 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 地面   竟 自己 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 牆面 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 已有 他 1 片 手指甲 寬   至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>24_排水_建案_又_建管處</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['排水', '建案', '又', '建管處', '天坑', '前往', '搶', '地基', '施工', '應該']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北 市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>25_縣_鄉_爭取_10</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['縣', '鄉', '爭取', '10', '道路', '改善', '完工', '發展', '今天', '等']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>['農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人 會勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 多 處位 處 嚴重 地層下陷區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷區 等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 新 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會勘 後 會 與 相關 單位 討論 調整 相關 政策   不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 能 發展 三贏     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 溢 淹 問題 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 地養 殖區 穩定 水質 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 機構 團體 來   取經     居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 生活 環境 品質                             說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東 縣 最大 養殖 漁業 生產區   塭 豐 二中 排旁 豐 海路 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 水環境       屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 溢 淹 問題 顛簸 起伏 路況 所苦   圖 ／ 屏東 縣 政府 提供 屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東 縣 政府 提供 屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東 縣 政府 提供']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>26_辦理_地下水_申請_時間</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['辦理', '地下水', '申請', '時間', '起', '請', '方式', '透過', '用', '現場']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['水利局 表示   今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 寶貴 時間   請 於 預定 複 查 日期 前 清除 水井 周圍 草叢   以 加速 複 查作業 進行  ', '▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  ']</t>
         </is>
       </c>
     </row>

--- a/repo/topic_list.xlsx
+++ b/repo/topic_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,21 +465,21 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_北市_公尺_工地_台北市</t>
+          <t>-1_水井_工地_市府_處置</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['北市', '公尺', '工地', '台北市', '天坑', '路面', '下午', '已', '地層下陷', '地下水']</t>
+          <t>['水井', '工地', '市府', '處置', '應變', '挖', '20', '建案', '巷道', '地下水']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ', '北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 坍塌 處 附近   約 10 人 安置 飯店   要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺   天坑     圖 ／ 北市 府 提供', '台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹 縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  ']</t>
+          <t>['▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  ', '新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -492,17 +492,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_鄉_為_計畫_一</t>
+          <t>0_地下水_灌溉_雲林_用水</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['鄉', '為', '計畫', '一', '縣', '大', '年', '使用', '地下水', '發展']</t>
+          <t>['地下水', '灌溉', '雲林', '用水', '水源', '地區', '水', '水資源', '水利', '高雄']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['根據 水利 署 監測 資料   雲林 縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示     就是 都 沒 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋     雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示     非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 灌溉 水源     雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  ', '經濟部 水利 署 監測 雲林 縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林 縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林 縣 近年 地層下陷 顯著 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林 縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林 縣長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   自來 水可到 達 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林 縣大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影', '〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東 縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東 縣綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東 縣環 保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  ']</t>
+          <t>['旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  ', '〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  ', '2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  ']</t>
         </is>
       </c>
     </row>
@@ -515,17 +515,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_工地_塌陷_台北市_現場</t>
+          <t>1_農民_農業_雲林_縣府</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['工地', '塌陷', '台北市', '現場', '回填', '旁', '一處', '路面', '要求', '市府']</t>
+          <t>['農民', '農業', '雲林', '縣府', '土地', '灌溉', '專案', '配合', '二', '推動']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  ', '〔 記者 俞肇福 ／ 基隆 報導 〕 基隆市 七堵 區 10 日 發生 百一街 一處 建案 工地 旁電桿 下陷 2 公尺   由 於 5 月 13 日 台北市 信義區 出現 道路 塌陷   民眾 憂心 忡忡 天坑 基隆 重現   民進 黨籍 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全   基隆 市府 15 日 下午 5 點發布 新聞稿   市府 強調 已 要求 建案 停工   市府 將 全面 清查 基隆市 相關 工地 安全     曾怡芳 指出   10 日 晚間 五堵 國小 附近 一處 建案   突然 發生 建案 旁 電桿 下陷 2 公尺 意外   並 造成 附近 住戶 停電 5 小時   日前 台北市 信義區 發生 工地 旁 道路 塌陷 意外   引起 當地 居民 不安   擔心 天坑 基隆 重現     百一街 工地 旁電桿 下陷 事件 發生 後   基隆 市政府 都市 發展 處 12 日 赴 工地 現場 勘查   當天 結論 是 暫 不 要求 業者 停工   待 完成 固化 後   才 會 檢視 發生 電桿 塌陷 道路 龜裂 部分   但業者 表示   10 日 之所以 會 發生 電桿 塌陷   是 因為 電桿 上 變電箱 太重   土質 太 鬆 軟   才 導致 下陷 停電     曾怡芳 指出   事發 建案 旁 就是 五堵 國小   學童 人 數眾 多   且 鄰近 新台 五路 高架 橋   再 加上 附近 居民 表示   自該 建案 動工 以來   已導致 多處 柱位   地面 破損 龜裂   地面 高低 差達 7 公分   這樣 房子 根本 無法 住 人     曾怡芳 要求 基隆 市政府 重視 工安   不要 讓 4 月 27 日 新竹 天坑   5 月 13 日 北市 信義區 天坑 基隆 重現   並 要求 市府 以 最高 標準   來 審查 檢視此 建案     基隆 市政府 都 發處長 謝孝坤 表示   市府 15 日 已 經先 要求 百一街 工地 停工   後 續會 邀請 第三方 相關 技師 公會 詳細 檢視   釐 清電桿 下陷 原因   確保 安全 無虞後才 會 准許 復工   另外   市府 會 優先 清查 巡檢 全市 正在 開挖 地基 施作 連續 壁 工地   確 保民 眾 安全  ', '台北市 松山 區慶城 街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北市 長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  ']</t>
+          <t>['〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ', '〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ']</t>
         </is>
       </c>
     </row>
@@ -538,12 +538,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_建設_戶_建案_住戶</t>
+          <t>2_大直_建商_鑑定_戶</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['建設', '戶', '建案', '住戶', '公司', '就', '北市', '挖', '安置', '施工']</t>
+          <t>['大直', '建商', '鑑定', '戶', '建設', '鄰房', '住戶', '建物', '建案', '就']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -561,17 +561,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_道_公分_下陷_監測</t>
+          <t>3_雲林_量_路段_道</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['道', '公分', '下陷', '監測', '施工', '持續', '改善', '路面', '結構', '線']</t>
+          <t>['雲林', '量', '路段', '道', '雲林縣', '公分', '下陷', '沉陷', '新北', '交界']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 容許 範圍   結構 安全 無虞     高鐵路線 通過 彰化   雲林 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 縣 溪州 鄉   到 5.4 公分   雲林 縣土 庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 橋墩   反而 是 沉陷 改善 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429', '台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林 縣土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林 縣土 庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  ', '去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇瓶 頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林 縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶 頸 仍 待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林 縣土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶 頸 仍 有待 中央 統籌 解決  ']</t>
+          <t>['台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  ', '  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 容許 範圍   結構 安全 無虞     高鐵路線 通過 彰化   雲林 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化縣 溪州 鄉   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 橋墩   反而 是 沉陷 改善 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429', '去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  ']</t>
         </is>
       </c>
     </row>
@@ -580,21 +580,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_研究_每年_面臨_速度</t>
+          <t>4_工地_台中市_檢測_回填</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['研究', '每年', '面臨', '速度', '釐', '超過', '主要', '於', '萬', '約']</t>
+          <t>['工地', '台中市', '檢測', '回填', '道路', '自來', '昨天', '一輛', '旁', '路面']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['路透社 報導   根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示   中國將 近一半 主要 城市 正 遭受   中等 到 嚴重   程度 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 論文 作者 發現   中國 45% 都市 土地 正以 每年 超過 3 公 釐 速度 下陷   16% 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 原因 不僅 是 地下水位 下降   還有 建築 環境 龐大 重量     華南師 範大學 敖祖銳 領導 研究 團隊 表示   中國 都市人口 已經 超過 9 億   因此   即使 是 一小部分 土地 下陷   都 會 對 都市生活 構成 巨大 威脅       土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 下 一個 世紀   近 四分之一 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示     這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 問題   而 不僅僅 是 一 兩個 地方 問題     他 說     這也 是 世界 其他 地方 正在 發生 事情 縮影       人口 超過 1   500 萬 北部 城市 天津   被確 認為 受災 最 嚴重 城市 之一   去年 一場   突發性 地質 災害   導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 興建     中國 許多 老 煤 礦區 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 另 一份 研究 指出   全球 約 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 已 低 於 海平面     尼科 爾斯說   易受 影響 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 1970 年代 禁止 抽取 地下水     他 補充 說     減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 不 可能 阻止 所有 下陷   因此 要 討論 適應力 建造 海堤       根據 新加坡 2022 年 一項 研究   44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中   30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示     這是 一個 都市化 人口 增長 問題   人口密度 愈大   抽 水 就 愈 多   就 造成 更 多 下陷    ', '中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  ', '最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  ']</t>
+          <t>['新竹市 和平路 20 巷 昨 下午 驚見   天坑     市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 認為   未來須 全面 將 瓦斯 自來 水管 線 更新   同時須 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   後 續 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  ', '新竹縣 竹 北市 天坑 再現   縣政 7 街 昨天 發生 道路 坍塌 形成 大 坑洞   今天上午 建商   住戶 代表   里長 與 技師 等到 現場 查看   討論 施作 透地雷達 範圍   鄰近 社區 住戶 說   這條 道 路旁 邊 就是 車道   且 鄰近 學校   九月 即將 開學   很多 學生 從 此 經過   盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況   安全 為 優先       斗崙里 長 張 琬 媃 表示   今天上午 邀請 土木 結構 技師 拱祥生 到 現場 勘查   盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況   後 將召開 說 明會   讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況                             鄰近 社區 住戶 說   建商 雖然 一周 兩次 監測且 未 超過 標準   然而 一旦 超過 就 來 不及 了   社區 希望 能 了解 整體 趨勢   盼建 商能 固定 給予 監測 數據   此外   地下 六樓 開 挖 深   導致 震動 頻率 高   社區 龜裂 狀況   這 部分 建商 允諾會 負責   未來 社區 會 提鄰損 要求   目前 該條 道路 是 社區 車道   鄰近 學校   開學後有 很多 學生 從 此 經過   希望 能 盡快 檢測 周邊 道路   以 安全 為 優先       拱祥生 表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   至於 後 方 涉及 到 肯德基 店家 與 私人 路段 要 再 確認   被動式 電磁波 檢測 能 偵測 淺   深層   將檢測 道路 範圍 下方 30 公尺 來 了解 地質   有否 潛藏 孔洞 或 疏 鬆 狀 況   以及 昨日 因自來 水 沖 蝕 後   回填 後 初步 結果   預計 最快 7 到 10 日 可 完成 檢測       媒體 追問 拱祥生   此案 與 豐采 520 天坑 事件   是否 都 因為 地下水 或 地理 環境易 地層下陷   拱祥生 回應   會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣   涉及 到 開 挖 工法   若 是 用 非止 水性 壁體   例如 這次 事件 用板 樁 橫板條   此工法 適用 於 林口 台地   桃園 台地 與 部分 竹北 工地   由 於 林口 台地   桃園 台地 屬於紅 土礫 石層   此地 質狀況 相對 不透水   若 使用 透水性 壁體   就 比 較 不怕   然而 遇強 下雨   自來 水管 線 潛 水分   搭配 降雨 形成 路徑   非止 水性 壁體 可能 就 會 帶 入土 沙   一下子 沖 入 基地       拱祥生 指出   這兩個 工地 都 共同 現象   主要 是 開 挖 工地 周遭   主動 破壞區 發生   就 像 開刀 本來 就 會 流血   因此 工地 開 挖 過程 中   正常 就 會導致 地表 沉陷   重點 是 透過 觀測 法來 了解 實際開 挖行 為   與 原來 工程 分析 行為 是否 相同   若 是 相同 就是 安全 範圍   若 是 異常   就 得 要 補強   新竹縣 竹 北市 縣政七 街道 路 塌陷 現場   工地 建商 坦承 疏失   記者 郭政芬 ／ 攝影 技師 拱祥生   右   表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   記者 郭政芬 ／ 攝影', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -603,21 +603,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_公所_技師_現象_發現</t>
+          <t>5_李_四川_塌陷_工地</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['公所', '技師', '現象', '發現', '開放', '專業', '流失', '疑似', '勘查', '去']</t>
+          <t>['李', '四川', '塌陷', '工地', '現場', '台北市', '市府', '事發', '市長', '日']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北 市萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北 市議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   男女 湯室 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 出動 透地雷達 探測   這次 發現 問題 較 嚴重   建議 邀請 土木 技師 參 與 會勘   經濟 發展局 水利局 應針 對 附近 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  ', '新北 市萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 地層下陷 現象   地質 檢測 人員 檢查   原來 湯室 地底 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北 市萬 里加 投溫泉 公共 浴室 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 泡 湯遊客 反應   燈管   溫度 顯示器 溫泉 管線 設備 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 現象   公所 從 4 號開始 封閉 浴室   趕緊 找 專業 技師 到場 檢查   男女 湯室 地底 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 溫泉 露頭 有關 係     大鵬里長 李建才     露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 東西   地底下 看不到   以 目前 整個 狀況 來講 話   下陷 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 感覺       溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   流入 浴池   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉     技師 建議 我們 要 專業 技師 公會   針對 結構物 下陷 狀況 去 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 部分 改善   還是 可能 要大動 作去 做後續 改建   這個 部分 後 續 可能 會 需要 比較 多 費用       公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 泡 湯空間  ']</t>
+          <t>['台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  ', '4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  ', '台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  ']</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_20_自來_挖_建案</t>
+          <t>6_公共_封閉_新北市_公所</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['20', '自來', '挖', '建案', '工地', '管線', '水管', '市府', '道路', '今天']</t>
+          <t>['公共', '封閉', '新北市', '公所', '現象', '技師', '磁磚', '發現', '廠商', '開放']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹市 長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹市 長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影']</t>
+          <t>['萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   男女 湯室 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 出動 透地雷達 探測   這次 發現 問題 較 嚴重   建議 邀請 土木 技師 參 與 會勘   經濟 發展局 水利局 應針 對 附近 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  ', '新北市 萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 地層下陷 現象   地質 檢測 人員 檢查   原來 湯室 地底 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北市 萬 里加 投溫泉 公共 浴室 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 泡 湯遊客 反應   燈管   溫度 顯示器 溫泉 管線 設備 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 現象   公所 從 4 號開始 封閉 浴室   趕緊 找 專業 技師 到場 檢查   男女 湯室 地底 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 溫泉 露頭 有關 係     大鵬里長 李建才     露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 東西   地底下 看不到   以 目前 整個 狀況 來講 話   下陷 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 感覺       溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   流入 浴池   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉     技師 建議 我們 要 專業 技師 公會   針對 結構物 下陷 狀況 去 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 部分 改善   還是 可能 要大動 作去 做後續 改建   這個 部分 後 續 可能 會 需要 比較 多 費用       公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 泡 湯空間  ']</t>
         </is>
       </c>
     </row>
@@ -649,21 +649,21 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_北市_道路_坑洞_塌陷</t>
+          <t>7_北市_路面_道路_19</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['北市', '道路', '坑洞', '塌陷', '事件', '路面', '天坑', '水利', '出現', '今']</t>
+          <t>['北市', '路面', '道路', '19', '坑洞', '通行', '搶修', '連', '水利', '新工處']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港 區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  ', '北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港 區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ']</t>
+          <t>['〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  ', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供']</t>
         </is>
       </c>
     </row>
@@ -676,12 +676,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_研究_速度_每年_公分</t>
+          <t>8_上升_美國_海平面_建築物</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['研究', '速度', '每年', '公分', '地區', '地質', '專家', '加上', '更', '部分']</t>
+          <t>['上升', '美國', '海平面', '建築物', '研究', '重量', '城市', '下沉', '速度', '大樓']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -695,21 +695,21 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_台北市_公尺_工地_下午</t>
+          <t>9_翻攝_崇德_街_台北市</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['台北市', '公尺', '工地', '下午', '現場', '安置', '坍塌', '13', '3', '建管處']</t>
+          <t>['翻攝', '崇德', '街', '台北市', '天坑', '警消', '疏散', '22', '信義區', '號']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北市 長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
+          <t>['台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供']</t>
         </is>
       </c>
     </row>
@@ -718,21 +718,21 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10_作業_改善_萬元_黃</t>
+          <t>10_信義區_住戶_消防局_現場</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['作業', '改善', '萬元', '黃', '副', '環境', '爭取', '近期', '工程', '影響']</t>
+          <t>['信義區', '住戶', '消防局', '現場', '區長', '疏散', '安置', '旁', '警戒', '指揮']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['印尼 海域 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 寧靜 自然   還能 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出     紅樹林 是 很 獨特 生態 系統   一種 植物   有趣 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要     印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 一小部分   過去 一年 就 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示     我們 需要 生存 下去   但 很 難 找到 像樣 工作   當時 唯一 知道 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁     這片 海域 位 東南亞 從菲律 賓到 印尼   澳洲 之間 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 當地 巴迪島   努力 復 育 周邊 3 公頃 珊瑚礁   耐心 說 服漁民 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 海底 回春   熱帶 魚群 穿梭 新生 珊瑚礁 之間   環境 科學家 尤素夫 提及     印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 世界 遺產   一個 小小的 努力 都 可能 影響 世界     印尼 海域 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 18%   珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 海域   一步 一步 把 失去 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  ', '嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影', '〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  ']</t>
+          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供', '〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  ', '台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -741,21 +741,21 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11_住戶_旁_安置_現場</t>
+          <t>11_城市_土地_海平面_研究</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['住戶', '旁', '安置', '現場', '新建', '15', '天坑', '鄰近', '13', '公尺']</t>
+          <t>['城市', '土地', '海平面', '研究', '風險', '公', '下沉', '每年', '沿海', '面臨']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  ', '【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  ', '台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影']</t>
+          <t>['路透社 報導   根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示   中國將 近一半 主要 城市 正 遭受   中等 到 嚴重   程度 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 論文 作者 發現   中國 45% 都市 土地 正以 每年 超過 3 公 釐 速度 下陷   16% 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 原因 不僅 是 地下水位 下降   還有 建築 環境 龐大 重量     華南師 範大學 敖祖銳 領導 研究 團隊 表示   中國 都市人口 已經 超過 9 億   因此   即使 是 一小部分 土地 下陷   都 會 對 都市生活 構成 巨大 威脅       土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 下 一個 世紀   近 四分之一 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示     這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 問題   而 不僅僅 是 一 兩個 地方 問題     他 說     這也 是 世界 其他 地方 正在 發生 事情 縮影       人口 超過 1   500 萬 北部 城市 天津   被確 認為 受災 最 嚴重 城市 之一   去年 一場   突發性 地質 災害   導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 興建     中國 許多 老 煤 礦區 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 另 一份 研究 指出   全球 約 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 已 低 於 海平面     尼科 爾斯說   易受 影響 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 1970 年代 禁止 抽取 地下水     他 補充 說     減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 不 可能 阻止 所有 下陷   因此 要 討論 適應力 建造 海堤       根據 新加坡 2022 年 一項 研究   44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中   30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示     這是 一個 都市化 人口 增長 問題   人口密度 愈大   抽 水 就 愈 多   就 造成 更 多 下陷    ', '中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  ', '最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  ']</t>
         </is>
       </c>
     </row>
@@ -768,17 +768,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12_當地_裂縫_鄉_出現</t>
+          <t>12_公尺_台北市_蔣萬安_崇德</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['當地', '裂縫', '鄉', '出現', '另', '沒', '已經', '只', '認為', '建築']</t>
+          <t>['公尺', '台北市', '蔣萬安', '崇德', '坍塌', '下午', '本來', '信義區', '3', '寬']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  ', '〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  ', '印度 北部 喜馬 拉雅山 區   一個經 常有 朝聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  ']</t>
+          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13_結構_建築_可以_地基</t>
+          <t>13_將近_600_鄉_當地</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['結構', '建築', '可以', '地基', '表示', '發生', '傾斜', '公里', '市府', '造成']</t>
+          <t>['將近', '600', '鄉', '當地', '歷史', '倒塌', '裂縫', '第二', '百年', '200']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 中正路 425 號前 道 路旁 水溝   發生 下陷   破洞 情形   經 會勘 後 工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 地基 掏空 問題     都 發處 表示   請 土木 技師 公會 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  ', '台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 地梁 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  ', '花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮 市區 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮 縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮 縣 6 強   各地 陸續 傳出 災情   如 花蓮 市區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性']</t>
+          <t>['插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  ', '〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  ', '印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  ']</t>
         </is>
       </c>
     </row>
@@ -814,17 +814,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14_地下水_抽_水_水利</t>
+          <t>14_地震_住宅_基本_台灣</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['地下水', '抽', '水', '水利', '大', '不會', '它', '地區', '所以', '了']</t>
+          <t>['地震', '住宅', '基本', '台灣', '淘空', '地表', '房屋', '災情', '變形', '工務處']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林 縣及 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  ', '旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  ', '2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南台 灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  ']</t>
+          <t>['台灣 位處 菲律 賓海板 塊 歐亞板 塊 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出   台灣 真的 動     氣象局 全台 建置 超過 160 個   全球 導航衛 星系 統   測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 台灣 斷層 都   偷偷   地亂動   氣象局 表示     既然 手機 上 GPS 可以 監測 我們 每日 移動 路線 距離   那麼   同樣 概念 技術   是不是 能 監測 台灣 地表   看看 它 每天 移動 了 多少   當然 可以     氣象局 已 全 台灣 建置 超過 160 個   全球 導航衛 星系 統   測站   結合 各 單位 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 地表 位移   像是 車籠埔斷 層 錯動   為 台灣 地表 帶來 一道 劇烈   長 達 105 公里 傷痕   斷層 上盤 水平 位移 為 1 至 9 公尺 不 等   而 大甲溪 更 出現 地殼 抬高   落差 5 公尺 瀑布 景觀   氣象局 表示   除了 地震 期間   短短 數 十秒 出現   同震 滑移   之外   地震 前   間震期     地震 後   震後期     斷層 都   偷偷   地亂動   氣象局 說明   地殼 不 只 地震 時會動   平時 地殼   累積 能量   過程 中   就 會 地表 出現 非常 微量 變形   或者 是 小小的   不起眼 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 一舉 一動   希望 可以 找出 大 地震 發 生前 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 樣態   或是 分析 出 地震 發生 週期   計算 地震 災害 潛勢   評估 台灣 各地 斷層 活動 地震 機制  ', '嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 約 580 萬住 戶 沒 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣 位處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 房屋 倒塌 或 不堪 居住 之   全損   損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓   看房 要 排隊     一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房   房屋 稅 3 千變 3 萬 4     他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師   繳不出 頭期   全場 曝下場   穩死', '花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性']</t>
         </is>
       </c>
     </row>
@@ -833,21 +833,21 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15_自來_地區_出_水</t>
+          <t>15_上升_暖化_馬_海底</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['自來', '地區', '出', '水', '計畫', '地下水', '水管', '縣', '陳', '完工']</t>
+          <t>['上升', '暖化', '馬', '海底', '世界', '海平面', '全球', '保護', '因應', '人口']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['〔 記者 羅 欣貞 ／ 屏東 報導 〕 屏東 縣 政府 2018 年 完工 並開始 操作 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫   近年 來 均 能 挹注 超過 5000 萬噸 水源 至 地下 含水 層   然而 由 於 南部 地區 近年 氣候 狀況 不如 預期   人工湖 於 今年 5 月僅 經過 1 個 月 餘 引水 操作   將大約 1000 萬噸 水 注入 含水 層   因應 颱 風 杜蘇芮 與後續 雨勢   從 7 月 27 日當晚 開始 啟動 今年 第二次 引水 作業   一直 持續 至今     屏縣 府 水利 處 表示   大 潮州 補注 湖不僅 是 目前 國內僅   是 東南亞 地區 最 大型 人工湖 補注 地下水 計畫   原理 為 於 洪水期 將林邊 溪 之 較 大 水源 導引 至 人工湖   而 此區 因 具備 入滲 效果 佳 地質 條件   即可 有效 補注 至 地下 含水 層   補注 之 效益 為 可 涵養 屏縣 使用率 較 高 地下水 資源   提高 部分 區域 地下水位   減緩 地層下陷 與 海水 入侵   防止 地下水 鹽化   此外   人工湖 具有 分洪   治洪 功能   而結 合水 銀行 抽補 概念   更是 能 提高 水資源 運用 效益     水利 處 指出   第 1 期 工程 經費 約 14.1 億元   無論 是 取輸水 效果   入滲 效率 與 補 注量 體均 極為 可觀   已具 顯著 成效   此項 目的 啟動 不僅 增加 屏南 地區 水資源 可運 用量   已 初步 達到   增源 減洪   重要 作用   後 續將 提出 第 2 期 人工湖 開闢 計畫   以達成 預估 完成 後 挹注 每年 1.5 億噸 地下水 補注量  ', '烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 產業 發展區   整體 需水量 不斷 增加   造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投 縣有 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投 縣民 配合 政府 政策   但 南投 縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投 縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 能 喝 到 量 好質 優 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒   珍珠 串     讓 台灣 水資源 調度 更好   顯示 台灣 人民 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   會 持續 綠 美化   變成 南投 新 觀光 地標     立委 游顥 說   南投 縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 立法院 繼續 爭取   希望 行政院 重視 南投 用水 問題  ', '因應 極端 氣候   水利 署 投入 123.6 億元展 開   鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫     包括 6 座 人工 蓄水池 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 能 同享 量 好質 優 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定   雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫   中 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投 縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投 縣 自來 水 普及率 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投 縣內 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投 縣 用水 問題  ']</t>
+          <t>['[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  ', '根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服     雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應   許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外     水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  ', '印尼 海域 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 寧靜 自然   還能 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出     紅樹林 是 很 獨特 生態 系統   一種 植物   有趣 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要     印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 一小部分   過去 一年 就 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示     我們 需要 生存 下去   但 很 難 找到 像樣 工作   當時 唯一 知道 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁     這片 海域 位 東南亞 從菲律 賓到 印尼   澳洲 之間 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 當地 巴迪島   努力 復 育 周邊 3 公頃 珊瑚礁   耐心 說 服漁民 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 海底 回春   熱帶 魚群 穿梭 新生 珊瑚礁 之間   環境 科學家 尤素夫 提及     印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 世界 遺產   一個 小小的 努力 都 可能 影響 世界     印尼 海域 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 18%   珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 海域   一步 一步 把 失去 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  ']</t>
         </is>
       </c>
     </row>
@@ -856,21 +856,21 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16_台北市_緊急_街_天坑</t>
+          <t>16_經費_縣府_寮_淹水</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['台北市', '緊急', '街', '天坑', '一處', '60', '旁', '相關', '新建', '工地']</t>
+          <t>['經費', '縣府', '寮', '淹水', '中央', '嘉義', '縣長', '降雨', '爭取', '改善']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北市 長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  ', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供']</t>
+          <t>['屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 溢 淹 問題 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 地養 殖區 穩定 水質 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 機構 團體 來   取經     居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 生活 環境 品質                             說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東縣 最大 養殖 漁業 生產區   塭 豐 二中 排旁 豐 海路 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 水環境       屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 溢 淹 問題 顛簸 起伏 路況 所苦   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供', '〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  ', '嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -879,21 +879,21 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17_工地_檢測_初步_道路</t>
+          <t>17_生態_署_保育_台灣</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['工地', '檢測', '初步', '道路', '了解', '回填', '地下室', '就', '經過', '周邊']</t>
+          <t>['生態', '署', '保育', '台灣', '破壞', '水利', '環境', '傾倒', '行政', '工程']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['台北市 松山 區慶城 街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山 區慶城 街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北市 長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  ', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北市 長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ', '新竹 縣竹 北市 天坑 再現   縣政 7 街 昨天 發生 道路 坍塌 形成 大 坑洞   今天上午 建商   住戶 代表   里長 與 技師 等到 現場 查看   討論 施作 透地雷達 範圍   鄰近 社區 住戶 說   這條 道 路旁 邊 就是 車道   且 鄰近 學校   九月 即將 開學   很多 學生 從 此 經過   盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況   安全 為 優先       斗崙里 長 張 琬 媃 表示   今天上午 邀請 土木 結構 技師 拱祥生 到 現場 勘查   盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況   後 將召開 說 明會   讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況                             鄰近 社區 住戶 說   建商 雖然 一周 兩次 監測且 未 超過 標準   然而 一旦 超過 就 來 不及 了   社區 希望 能 了解 整體 趨勢   盼建 商能 固定 給予 監測 數據   此外   地下 六樓 開 挖 深   導致 震動 頻率 高   社區 龜裂 狀況   這 部分 建商 允諾會 負責   未來 社區 會 提鄰損 要求   目前 該條 道路 是 社區 車道   鄰近 學校   開學後有 很多 學生 從 此 經過   希望 能 盡快 檢測 周邊 道路   以 安全 為 優先       拱祥生 表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   至於 後 方 涉及 到 肯德基 店家 與 私人 路段 要 再 確認   被動式 電磁波 檢測 能 偵測 淺   深層   將檢測 道路 範圍 下方 30 公尺 來 了解 地質   有否 潛藏 孔洞 或 疏 鬆 狀 況   以及 昨日 因自來 水 沖 蝕 後   回填 後 初步 結果   預計 最快 7 到 10 日 可 完成 檢測       媒體 追問 拱祥生   此案 與 豐采 520 天坑 事件   是否 都 因為 地下水 或 地理 環境易 地層下陷   拱祥生 回應   會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣   涉及 到 開 挖 工法   若 是 用 非止 水性 壁體   例如 這次 事件 用板 樁 橫板條   此工法 適用 於 林口 台地   桃園 台地 與 部分 竹北 工地   由 於 林口 台地   桃園 台地 屬於紅 土礫 石層   此地 質狀況 相對 不透水   若 使用 透水性 壁體   就 比 較 不怕   然而 遇強 下雨   自來 水管 線 潛 水分   搭配 降雨 形成 路徑   非止 水性 壁體 可能 就 會 帶 入土 沙   一下子 沖 入 基地       拱祥生 指出   這兩個 工地 都 共同 現象   主要 是 開 挖 工地 周遭   主動 破壞區 發生   就 像 開刀 本來 就 會 流血   因此 工地 開 挖 過程 中   正常 就 會導致 地表 沉陷   重點 是 透過 觀測 法來 了解 實際開 挖行 為   與 原來 工程 分析 行為 是否 相同   若 是 相同 就是 安全 範圍   若 是 異常   就 得 要 補強   新竹 縣竹 北市 縣政七 街道 路 塌陷 現場   工地 建商 坦承 疏失   記者 郭政芬 ／ 攝影 技師 拱祥生   右   表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   記者 郭政芬 ／ 攝影']</t>
+          <t>['行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察   草屯 淨水場 新建 工程     陳 建仁 提到   為 減緩 地層下陷   水利 署 推動   烏溪 鳥 嘴潭 人工湖 工程 計畫     以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 今年 3 月 27 日達 到 最大 設計 出水 功能   通過 每日 5 萬噸 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能體 現出 台灣 人民 不分 地區 互助 互惠 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 工作 量大增   承擔 很多 任務 與 責任   此外 台水 是 公司   接受 政府 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出     鳥 嘴潭 人工湖 工程 計畫   完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片']</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18_市府_流失_嚴重_近期</t>
+          <t>18_排水_系統_他_機車</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['市府', '流失', '嚴重', '近期', '會勘', '原因', '改善', '坑洞', '年', '可能']</t>
+          <t>['排水', '系統', '他', '機車', '里', '應該', '又', '說', '龜裂', '側溝']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['嘉義 市 35 座公園 是 國內 密度 最高   其中 20 座公園 廁所   曾 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請   優質 公廁 美質 環境 推動 計畫   經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  ', '桃園 市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 草 原因 地層下陷   出現 大大小小 坑洞   議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   南 崁 住宅 密集 區營造   都 會 中 綠洲                               市議員 張桂綿 說   公園步 道 近期 嚴重 下陷   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成   無底 洞     推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  ', '桃園 市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 草原 都 因 地層下陷   出現 大大小小 坑洞   遭議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 建置 自行 車道 會勘 過程 中   發現 綠地 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區   都 會 中 綠洲                               市議員 張桂綿 近期 發現   公園 中 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現   無底 洞     遭議員 批評 宛如 成 了   地 雷公 園     圖 ／ 張桂綿 提供']</t>
+          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ', '〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹縣 竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險   希望 相關 單位 幫忙 出面 解決     被 指控 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 原因 不明 下陷   龜裂 問題   看起 來 災害 確實 持續 進行 中   但導致 持續 龜裂 擴大 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 天氣 放晴 後 協助 維修 處理     陳 講   鍾 姓 住戶 主要 是 拿 自家 建物 背 後 另 1 間 民宅 比 對   鍾 認為 2 宅   沒有 一直 線     所以 認定 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護     縣府 工務處 長江 良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 毀損 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 被 徵收 戶   3 樓半 住家 就是 蓋 約 3   40 坪 配回 地上   10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 其中   如果 房子 真的 不安   影響 非常 大     鍾 說   隔鄰 新建 工地 約 是 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 地面   竟 自己 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 牆面 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 已有 他 1 片 手指甲 寬   至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  ']</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19_抽_技師_不是_住家</t>
+          <t>19_下沉_城市_全球_每年</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['抽', '技師', '不是', '住家', '看', '我們', '年', '就', '居民', '當地']</t>
+          <t>['下沉', '城市', '全球', '每年', '速度', '上升', '泥沙', '海平面', '人口', '風險']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['水岸 第一排 住宅   開門   開窗 即 見 怡然 美景   住家 擁有 永久 棟 距   是 許多人 嚮 往 住居   正因 稀有性   房價 比 一般 房宅略 高   不過   想 坐 擁 水岸 宅   購 屋前 需有 風險 意識   魔鬼 藏 細節裡   思考 後 再 出手   能 避免 踩 雷               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北 市萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北 市議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商 到場 會勘 後 發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   男女 湯室 地底下 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   建議 應該 邀請 土木 技師 一 併 會勘   包含 溫泉 主管 機關 經濟 發展局   水利局 邀請 來   對 於 周邊 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 改善 方法   公所 將再 請 新北 市 土木 技師 公會 等 相關 專家 進行 專業 檢查 評估   期望 確保 安全 無虞 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  ', '宜蘭 縣蘇 澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ']</t>
+          <t>['長江 三角洲 簡稱   長三角     是 中國大陸 經濟 發展 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 三角洲   然而     人無遠慮   必有 近憂     當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 此刻   當 全球 減碳 前景 仍 不樂觀 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長江 三角洲 未來 所 可能 受到 危害   將牽動 著 中國大陸 發展 前景 與 紅色供 應鏈 未來       廿世紀 前 五十年 全球 平均 海水面 升高 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國   政府 間 氣候變遷 小組   去年 報告 書 指出   隨著 不同 暖化 程度   本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 將是 各大 河流 出海口 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 舊 金山 參加 一個 研討 全球 變遷 學術 大會   十幾個 議題 組中 領略 到 密西西比河 三角洲 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 景象 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 中上游 建設 上 了 四萬座 大大小小 壩體   一九六五年 以降   河系 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   擾亂 了 原來 大自然 泥沙 輸送 布局   加上 近 五十年 下游 地區 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧     自然 解方     力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長江 三角洲 似乎 正 走上 密西西比河 老路   長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 社會 變遷   僅 上海 一地   人口 從 八 年代 六百 萬 增加 到 目前 三千 三百 萬   長江 原來 每年 輸送 五 億公噸 泥沙 到 河口   全球排名 第五   長江 三峽 大壩 二 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長江 三角洲 前緣 已 經開 始後退   以 上海 為 發展 中心 三角洲 雖 享受 著開發 豐美果實   承受 著 上游 帶來 一切 災害 危機 總   包括 三角洲 萎縮 以及 水質 汙染   大量 人口 增加 使 地下水 抽取 量大增   地層下陷   局部 地區 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 範圍 約 占 全區 百分之十四   而 長江 三角洲 則占 全區 百分之四十   未來 海水面 上升 風險 下   長三角 面臨 挑戰 顯然 更 為 嚴峻   更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  ', '〔 中央社 〕 一項 新 研究 指出   南亞 東南亞 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 人 更 容易 受到 海平面 上升 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表   自然 永續     Nature   Sustainability   期刊 上 一項 研究   快速 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 需求     研究 指出     這 使得 經歷 當地 土地 快速 下沉 城市 所 面臨 沿海 災害 風險   比 那些 已 因氣候 導致 海平面 上升 城市 所 面臨 風險 更 大       越南 人口 最多 城市 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 緬甸 商業 中心 仰光 高峰 年間 皆 下沉 20 多公 釐     研究 稱     這些 快速 下沉 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 建築 結構   導致 土地 下沉       下沉 城市 本身 並非 氣候變遷 結果   但 研究 人員 說   他們 研究 能 更 深入 了解 下沉 現象 如何   加劇 氣候 所導致 平均 海平面 上升 影響       根據 聯合國   政府 間 氣候變遷 問題 小組     Intergovernmental   Panel   on   Climate   Change     IPCC   資料   到 2050 年   將有 十多 億人 生活 沿海 城市   面臨 海平面 上升 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  ', '地層 嚴重 下陷 問題 不是 只有 台灣 會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 33 座 城市   以 每年 超過 一 公分 速度 下沉   是 海平面 上升 速度 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 是   連美國 南部 大城 休士頓 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 當地 設立 太空中心   但 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 地 平面   根據   世界 經濟 論壇   最近 發布 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 城市   是 西半球 唯一一 個 下沉 速度 排入 前十名 城市   美國氣 候專 家史 特勞斯 表示     雖然 土地 現在 大小 堤防 保護   但   地層下陷   仍 超乎想像     專家 表示   休士頓 下沉 速度快   海平面 上升 迅速   再 加上 氣候變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 惡化 強度 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 下沉 危機 一度 非常 嚴重   全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示     非常 重要   雅加 達 曼谷 從 東京 上海 汲取 成功 經驗     科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 模擬 畫面   都 提醒 人類 要 相信 科學   保護 自己 家園 避免 消失 刻 不容 緩  ']</t>
         </is>
       </c>
     </row>
@@ -952,17 +952,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20_氣候_開始_當地_擴大</t>
+          <t>20_台中市_公分_14_落差</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['氣候', '開始', '當地', '擴大', '速度', '快速', '最大', '坑洞', '中', '塌陷']</t>
+          <t>['台中市', '公分', '14', '落差', '疑慮', '土木', '通報', '起', '水面', '技師']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['地球 南北 兩極 這兩天 都 重要 科學 發現 發表 媒體 上   其中 北極 方面   科學家 發現 加拿大 北邊 海底 出現 地層下陷   最大 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 南極 大陸 東邊   3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 144 平方公里 冰架 崩解   相當 於 半個 台北市 大小   科學家 藉 著美國 太空 總署 NASA 衛星   拍 攝到 南極 大陸 東邊   格連澤 冰河     瀕臨 南 印度洋 冰架   2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 過去數 十年 來   冰架 崩解 現象   絕 大多 數出現 西邊 南極 半島   就是 與 南美洲 阿根廷 遙遙 相望 所在   而且 過去 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 冰雪 增厚   對 全球 海平面 衝擊 有限   從 2020 年 開始 南極 東邊 冰河 開始 縮小面積   但 是 以 每天 1 平方公里 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出     但 上星期 我們 發現 快速 氣候 現象   這也許 不足以 說明 事情 全貌   但 確對 冰架 造成 前 所 未 見 壓力     研究 人員 所 說 氣候 現象   是 指 發生 3 月 15 日 大氣 河流   這種 氣候 現 象是 指   高濃度 水蒸 氣沿 著 狹窄 區域 快速 前進   對 於 已經 消退 中 冰架 造成 致命 一擊   而大面積 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域   發現 大面積 地層下陷   最大 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 地下水 緩慢 流動   是 北極海 地層下陷 原因  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
+          <t>['宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ', '〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 14 公分     台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  ', '〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 十四 公分     環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  ']</t>
         </is>
       </c>
     </row>
@@ -975,17 +975,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21_環境_水利_工程_月</t>
+          <t>21_暖化_科學家_形成_這種</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['環境', '水利', '工程', '月', '1', '辦理', '5', '向', '水管', '7']</t>
+          <t>['暖化', '科學家', '形成', '這種', '氣候', '當地', '年代', '北部', '開始', '消失']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察   草屯 淨水場 新建 工程     陳 建仁 提到   為 減緩 地層下陷   水利 署 推動   烏溪 鳥 嘴潭 人工湖 工程 計畫     以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 今年 3 月 27 日達 到 最大 設計 出水 功能   通過 每日 5 萬噸 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能 體現 出台 灣 人民 不分 地區 互助 互惠 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 工作 量大增   承擔 很多 任務 與 責任   此外 台水 是 公司   接受 政府 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出     鳥 嘴潭 人工湖 工程 計畫   完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片']</t>
+          <t>['地球 南北 兩極 這兩天 都 重要 科學 發現 發表 媒體 上   其中 北極 方面   科學家 發現 加拿大 北邊 海底 出現 地層下陷   最大 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 南極 大陸 東邊   3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 144 平方公里 冰架 崩解   相當 於 半個 台北市 大小   科學家 藉 著美國 太空 總署 NASA 衛星   拍 攝到 南極 大陸 東邊   格連澤 冰河     瀕臨 南 印度洋 冰架   2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 過去數 十年 來   冰架 崩解 現象   絕 大多 數出現 西邊 南極 半島   就是 與 南美洲 阿根廷 遙遙 相望 所在   而且 過去 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 冰雪 增厚   對 全球 海平面 衝擊 有限   從 2020 年 開始 南極 東邊 冰河 開始 縮小面積   但 是 以 每天 1 平方公里 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出     但 上星期 我們 發現 快速 氣候 現象   這也許 不足以 說明 事情 全貌   但 確對 冰架 造成 前 所 未 見 壓力     研究 人員 所 說 氣候 現象   是 指 發生 3 月 15 日 大氣 河流   這種 氣候 現 象是 指   高濃度 水蒸 氣沿 著 狹窄 區域 快速 前進   對 於 已經 消退 中 冰架 造成 致命 一擊   而大面積 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域   發現 大面積 地層下陷   最大 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 地下水 緩慢 流動   是 北極海 地層下陷 原因  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
         </is>
       </c>
     </row>
@@ -994,21 +994,21 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>22_整個_根據_水利_較</t>
+          <t>22_大雨_品質_事件_一次</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['整個', '根據', '水利', '較', '公分', '無法', '縣', '若', '有效', '不過']</t>
+          <t>['大雨', '品質', '事件', '一次', '北市', '今天下午', '路面', '短短', '坑洞', '萬華區']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  ', '根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重     雲林 縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林 縣 必須 去 克服       雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林 縣面 對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應     許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外       水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  ', '根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林 縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林 縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林 縣 必須 去 克服     雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林 縣面 對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應   許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外     水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  ']</t>
+          <t>['台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  ', '北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供']</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1021,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>23_期_民宅_地基_不斷</t>
+          <t>23_市府_設備_不夠_2019</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['期', '民宅', '地基', '不斷', '沖', '被', '掏空', '可以', '他', '他們']</t>
+          <t>['市府', '設備', '不夠', '2019', '功能', '整修', '更新', '水流', '改善', '成']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['基隆 一處 屋齡 超過 40 年 公寓 住宅   後 方 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 出現 地層下陷 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   居民 行經 踩 空   才 驚覺 原來 民宅 外側 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   讓 周圍 路面 出現 地層下陷 狀況   從 畫面 中 可以 看到   地層下陷 深度 大概 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 影響   基隆市 議員施 偉政 提醒   地基 被 沖 刷   上面 載重 又 大 話   恐怕 房子 會 很大 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  ', '〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹 縣竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險   希望 相關 單位 幫忙 出面 解決     被 指控 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 原因 不明 下陷   龜裂 問題   看起 來 災害 確實 持續 進行 中   但導致 持續 龜裂 擴大 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 天氣 放晴 後 協助 維修 處理     陳 講   鍾 姓 住戶 主要 是 拿 自家 建物 背 後 另 1 間 民宅 比 對   鍾 認為 2 宅   沒有 一直 線     所以 認定 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護     縣府 工務 處長 江良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 毀損 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 被 徵收 戶   3 樓半 住家 就是 蓋 約 3   40 坪 配回 地上   10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 其中   如果 房子 真的 不安   影響 非常 大     鍾 說   隔鄰 新建 工地 約 是 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 地面   竟 自己 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 牆面 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 已有 他 1 片 手指甲 寬   至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  ']</t>
+          <t>['嘉義市 35 座公園 是 國內 密度 最高   其中 20 座公園 廁所   曾 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請   優質 公廁 美質 環境 推動 計畫   經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  ', '桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 草 原因 地層下陷   出現 大大小小 坑洞   議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   南 崁 住宅 密集 區營造   都 會 中 綠洲                               市議員 張桂綿 說   公園 步道 近期 嚴重 下陷   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成   無底 洞     推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  ']</t>
         </is>
       </c>
     </row>
@@ -1044,63 +1044,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>24_排水_建案_又_建管處</t>
+          <t>24_工務局_工地_建管處_指示</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['排水', '建案', '又', '建管處', '天坑', '前往', '搶', '地基', '施工', '應該']</t>
+          <t>['工務局', '工地', '建管處', '指示', '開挖', '針對', '警方', '管線', '加強', '建築']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北 市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>25</v>
-      </c>
-      <c r="B28" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>25_縣_鄉_爭取_10</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>['縣', '鄉', '爭取', '10', '道路', '改善', '完工', '發展', '今天', '等']</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>['農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人 會勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 多 處位 處 嚴重 地層下陷區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷區 等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 新 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會勘 後 會 與 相關 單位 討論 調整 相關 政策   不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 能 發展 三贏     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 溢 淹 問題 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 地養 殖區 穩定 水質 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 機構 團體 來   取經     居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 生活 環境 品質                             說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東 縣 最大 養殖 漁業 生產區   塭 豐 二中 排旁 豐 海路 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 水環境       屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 溢 淹 問題 顛簸 起伏 路況 所苦   圖 ／ 屏東 縣 政府 提供 屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東 縣 政府 提供 屏東 縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東 縣 政府 提供']</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>26</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>26_辦理_地下水_申請_時間</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>['辦理', '地下水', '申請', '時間', '起', '請', '方式', '透過', '用', '現場']</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>['水利局 表示   今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 寶貴 時間   請 於 預定 複 查 日期 前 清除 水井 周圍 草叢   以 加速 複 查作業 進行  ', '▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  ']</t>
+          <t>['〔 記者 王捷 ／ 台南 報導 〕 台南市 北區 北華街 一處 工地 傳出 下陷   導致 工地 旁 住戶 外牆   地板 出現 龜裂   警方 今晚 六點 多 接獲 報案   並通報 相關 單位   由 於 台南 前陣子 工地 塌陷 意外   加上 這個 月 花蓮 強震 帶來 災害   警方 呼籲 目前 正在 交通管制   請民眾 不要 靠近     初步 調查 發現   該 工地 建設 公司 近期 開 挖 地下室 過程 中   地下水 湧出   北區 公所 與 工務局 北華里 活動 中心 成立 臨時 指揮 所   由 相關 人員 到場 會勘   認為 可能 是 地下水 湧出   地基 不 穩定   造成 附近 住家 出現 牆壁   地板 龜裂 主因     工務局 人員 除了 要求 建設 公司 立即 停止 工程施工   並要 建設 公司 調派 水泥 車   先將 湧出 地下水 源以 水泥 灌漿 封閉   防止 狀況 持續 惡化   目前 仍 進行 緊急 灌漿 作業 中     建設 公司 表示   一定 會 遵照 工務局 指示   並對 鄰近 住戶 損失 給予 妥善 賠償 與 補償   絕不會 卸責 推諉   工務局 將持續 監控 現場 狀況   待 地下水 源 控制 後   再視 實際 損害 情形     警方 為 了 維護 交通秩序   派員 到場 管制 交通   直到 灌漿 結束   並 希望 民眾 不要 擔心   如果 發生 類似 事件   施工 單位 應當 立即 停工   並 通知 主管 機關   否則將 嚴加 開罰 要求 賠償   受災戶 如有 任何 疑問   可多加 利用 1999 話務 專線 諮 詢  ', '北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ']</t>
         </is>
       </c>
     </row>

--- a/repo/topic_list.xlsx
+++ b/repo/topic_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,21 +465,21 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_水井_工地_市府_處置</t>
+          <t>-1_台北市_市府_信義區_地層下陷</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['水井', '工地', '市府', '處置', '應變', '挖', '20', '建案', '巷道', '地下水']</t>
+          <t>['台北市', '市府', '信義區', '地層下陷', '路面', '道路', '坑洞', '坍塌', '塌陷', '北市']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  ', '新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影']</t>
+          <t>['台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  ', '北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ']</t>
         </is>
       </c>
     </row>
@@ -488,21 +488,21 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_地下水_灌溉_雲林_用水</t>
+          <t>0_道路_地層下陷_路面_台灣</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['地下水', '灌溉', '雲林', '用水', '水源', '地區', '水', '水資源', '水利', '高雄']</t>
+          <t>['道路', '地層下陷', '路面', '台灣', '範圍', '縣府', '下陷', '道', '安全', '下']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  ', '〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  ', '2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  ']</t>
+          <t>['台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影', '去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  ']</t>
         </is>
       </c>
     </row>
@@ -511,21 +511,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_農民_農業_雲林_縣府</t>
+          <t>1_地層下陷_地質_公所_地面</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['農民', '農業', '雲林', '縣府', '土地', '灌溉', '專案', '配合', '二', '推動']</t>
+          <t>['地層下陷', '地質', '公所', '地面', '民眾', '日', '灌漿', '萬', '下陷', '曾']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ', '〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ']</t>
+          <t>['萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   男女 湯室 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 出動 透地雷達 探測   這次 發現 問題 較 嚴重   建議 邀請 土木 技師 參 與 會勘   經濟 發展局 水利局 應針 對 附近 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  ', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商 到場 會勘 後 發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   男女 湯室 地底下 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   建議 應該 邀請 土木 技師 一 併 會勘   包含 溫泉 主管 機關 經濟 發展局   水利局 邀請 來   對 於 周邊 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 改善 方法   公所 將再 請 新北市 土木 技師 公會 等 相關 專家 進行 專業 檢查 評估   期望 確保 安全 無虞 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  ']</t>
         </is>
       </c>
     </row>
@@ -534,21 +534,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_大直_建商_鑑定_戶</t>
+          <t>2_道路_路面_市府_路</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['大直', '建商', '鑑定', '戶', '建設', '鄰房', '住戶', '建物', '建案', '就']</t>
+          <t>['道路', '路面', '市府', '路', '巷', '塌陷', '鄰近', '坍塌', '地下', '下陷']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   透露 來 自 基泰 政治 獻金 是 一位 從 媒體界 轉從商 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬 上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金   想 請問 一下   這 是否是 綠營 想 再次 示範   綠能 不能   雙標   王鴻薇 指出   上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能 公司 政治 獻金 是 雙標   但 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 直播 就 會 知道   是 跟 大家 報告 現場 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 一貫 手法   王鴻薇 表示 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 里 長 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   今 早 建議 市政府   代位 求償     此外 得知 居民 準備 組成 自救 會   承諾 一定 會 全力 協助   最 重要 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 董事 長   總經理 真的 都 不 認識   但是 回頭 去 查 了 一下   是 一位 媒體 前輩去 做生意   確實 議員 選舉 以及 立委 補選時 政治 捐獻   而 由 於 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 要 查詢 是否 虧損   虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 選區   鄰近 以前 蔣萬安 選區   為 何會 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   立刻 跟 團隊 確認   確實 是 沒 接獲 選民 或 議員陳情   這 方面 他們 要 努力 空間還 很多   會勤 走 基層   聽 更 多 聲音   稱 很 遺憾   選民 這幾個 月 這樣 困擾   對民代來講   該 努力 就 應該 繼續 去 努力  ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ']</t>
+          <t>['新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -557,21 +557,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_雲林_量_路段_道</t>
+          <t>3_地下水_水利_水_地層下陷</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['雲林', '量', '路段', '道', '雲林縣', '公分', '下陷', '沉陷', '新北', '交界']</t>
+          <t>['地下水', '水利', '水', '地層下陷', '地區', '區域', '面積', '環境', '土壤', '鄉']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  ', '  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 容許 範圍   結構 安全 無虞     高鐵路線 通過 彰化   雲林 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化縣 溪州 鄉   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 橋墩   反而 是 沉陷 改善 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429', '去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  ']</t>
+          <t>['〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  ', '旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  ', '2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  ']</t>
         </is>
       </c>
     </row>
@@ -580,21 +580,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_工地_台中市_檢測_回填</t>
+          <t>4_水利_地區_地下水_地層下陷</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['工地', '台中市', '檢測', '回填', '道路', '自來', '昨天', '一輛', '旁', '路面']</t>
+          <t>['水利', '地區', '地下水', '地層下陷', '面積', '區域', '鄉', '環境', '縣府', '水']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['新竹市 和平路 20 巷 昨 下午 驚見   天坑     市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 認為   未來須 全面 將 瓦斯 自來 水管 線 更新   同時須 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   後 續 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  ', '新竹縣 竹 北市 天坑 再現   縣政 7 街 昨天 發生 道路 坍塌 形成 大 坑洞   今天上午 建商   住戶 代表   里長 與 技師 等到 現場 查看   討論 施作 透地雷達 範圍   鄰近 社區 住戶 說   這條 道 路旁 邊 就是 車道   且 鄰近 學校   九月 即將 開學   很多 學生 從 此 經過   盼望 能 盡快 施作 被 動式 電磁波 檢測 來 了解 道路 狀況   安全 為 優先       斗崙里 長 張 琬 媃 表示   今天上午 邀請 土木 結構 技師 拱祥生 到 現場 勘查   盼 透過 第三方 檢測 單位 來 協助 了解 周邊 道路 狀況   後 將召開 說 明會   讓 鄰近 社區 了解 施工 過程 與 道路 檢測 狀況                             鄰近 社區 住戶 說   建商 雖然 一周 兩次 監測且 未 超過 標準   然而 一旦 超過 就 來 不及 了   社區 希望 能 了解 整體 趨勢   盼建 商能 固定 給予 監測 數據   此外   地下 六樓 開 挖 深   導致 震動 頻率 高   社區 龜裂 狀況   這 部分 建商 允諾會 負責   未來 社區 會 提鄰損 要求   目前 該條 道路 是 社區 車道   鄰近 學校   開學後有 很多 學生 從 此 經過   希望 能 盡快 檢測 周邊 道路   以 安全 為 優先       拱祥生 表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   至於 後 方 涉及 到 肯德基 店家 與 私人 路段 要 再 確認   被動式 電磁波 檢測 能 偵測 淺   深層   將檢測 道路 範圍 下方 30 公尺 來 了解 地質   有否 潛藏 孔洞 或 疏 鬆 狀 況   以及 昨日 因自來 水 沖 蝕 後   回填 後 初步 結果   預計 最快 7 到 10 日 可 完成 檢測       媒體 追問 拱祥生   此案 與 豐采 520 天坑 事件   是否 都 因為 地下水 或 地理 環境易 地層下陷   拱祥生 回應   會 造成 地層下陷 或 天坑 原因 很多 且 環環 相扣   涉及 到 開 挖 工法   若 是 用 非止 水性 壁體   例如 這次 事件 用板 樁 橫板條   此工法 適用 於 林口 台地   桃園 台地 與 部分 竹北 工地   由 於 林口 台地   桃園 台地 屬於紅 土礫 石層   此地 質狀況 相對 不透水   若 使用 透水性 壁體   就 比 較 不怕   然而 遇強 下雨   自來 水管 線 潛 水分   搭配 降雨 形成 路徑   非止 水性 壁體 可能 就 會 帶 入土 沙   一下子 沖 入 基地       拱祥生 指出   這兩個 工地 都 共同 現象   主要 是 開 挖 工地 周遭   主動 破壞區 發生   就 像 開刀 本來 就 會 流血   因此 工地 開 挖 過程 中   正常 就 會導致 地表 沉陷   重點 是 透過 觀測 法來 了解 實際開 挖行 為   與 原來 工程 分析 行為 是否 相同   若 是 相同 就是 安全 範圍   若 是 異常   就 得 要 補強   新竹縣 竹 北市 縣政七 街道 路 塌陷 現場   工地 建商 坦承 疏失   記者 郭政芬 ／ 攝影 技師 拱祥生   右   表示   會 採用 被 動式 電磁波 檢測   以 光明 六路   縣政七街 為 主   記者 郭政芬 ／ 攝影', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影']</t>
+          <t>['〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ', '根據 水利 署 監測 資料   雲林縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示     就是 都 沒 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋     雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示     非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 灌溉 水源     雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  ', '經濟部 水利 署 監測 雲林縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林縣 長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   自來 水可到 達 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林縣 大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -603,21 +603,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_李_四川_塌陷_工地</t>
+          <t>5_台北市_市府_建物_街</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['李', '四川', '塌陷', '工地', '現場', '台北市', '市府', '事發', '市長', '日']</t>
+          <t>['台北市', '市府', '建物', '街', '建設', '台北', '北市', '施工', '住戶', '建商']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  ', '4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  ', '台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  ']</t>
+          <t>['北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   證交所 召開 重訊 記者 會   董事 長 陳 世銘 道歉 後 宣布 請辭 負責 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者   不 確定 故意   釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 回報 是否 行政 怠惰   瀆職 或 疏 於 監督     建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人     王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
         </is>
       </c>
     </row>
@@ -626,21 +626,21 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_公共_封閉_新北市_公所</t>
+          <t>6_災害_地區_地層下陷_全球</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['公共', '封閉', '新北市', '公所', '現象', '技師', '磁磚', '發現', '廠商', '開放']</t>
+          <t>['災害', '地區', '地層下陷', '全球', '地下水', '環境', '沿海', '大量', '土地', '居民']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   男女 湯室 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 出動 透地雷達 探測   這次 發現 問題 較 嚴重   建議 邀請 土木 技師 參 與 會勘   經濟 發展局 水利局 應針 對 附近 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  ', '新北市 萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 地層下陷 現象   地質 檢測 人員 檢查   原來 湯室 地底 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北市 萬 里加 投溫泉 公共 浴室 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 泡 湯遊客 反應   燈管   溫度 顯示器 溫泉 管線 設備 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 現象   公所 從 4 號開始 封閉 浴室   趕緊 找 專業 技師 到場 檢查   男女 湯室 地底 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 溫泉 露頭 有關 係     大鵬里長 李建才     露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 東西   地底下 看不到   以 目前 整個 狀況 來講 話   下陷 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 感覺       溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   流入 浴池   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉     技師 建議 我們 要 專業 技師 公會   針對 結構物 下陷 狀況 去 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 部分 改善   還是 可能 要大動 作去 做後續 改建   這個 部分 後 續 可能 會 需要 比較 多 費用       公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 泡 湯空間  ']</t>
+          <t>['路透社 報導   根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示   中國將 近一半 主要 城市 正 遭受   中等 到 嚴重   程度 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 論文 作者 發現   中國 45% 都市 土地 正以 每年 超過 3 公 釐 速度 下陷   16% 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 原因 不僅 是 地下水位 下降   還有 建築 環境 龐大 重量     華南師 範大學 敖祖銳 領導 研究 團隊 表示   中國 都市人口 已經 超過 9 億   因此   即使 是 一小部分 土地 下陷   都 會 對 都市生活 構成 巨大 威脅       土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 下 一個 世紀   近 四分之一 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示     這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 問題   而 不僅僅 是 一 兩個 地方 問題     他 說     這也 是 世界 其他 地方 正在 發生 事情 縮影       人口 超過 1   500 萬 北部 城市 天津   被確 認為 受災 最 嚴重 城市 之一   去年 一場   突發性 地質 災害   導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 興建     中國 許多 老 煤 礦區 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 另 一份 研究 指出   全球 約 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 已 低 於 海平面     尼科 爾斯說   易受 影響 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 1970 年代 禁止 抽取 地下水     他 補充 說     減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 不 可能 阻止 所有 下陷   因此 要 討論 適應力 建造 海堤       根據 新加坡 2022 年 一項 研究   44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中   30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示     這是 一個 都市化 人口 增長 問題   人口密度 愈大   抽 水 就 愈 多   就 造成 更 多 下陷    ', '中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  ', '最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  ']</t>
         </is>
       </c>
     </row>
@@ -649,21 +649,21 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_北市_路面_道路_19</t>
+          <t>7_坑洞_地層下陷_地下_區域</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['北市', '路面', '道路', '19', '坑洞', '通行', '搶修', '連', '水利', '新工處']</t>
+          <t>['坑洞', '地層下陷', '地下', '區域', '坍塌', '建管處', '塌陷', '挖', '深', '當地']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  ', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供']</t>
+          <t>['路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  ', '〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ']</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_上升_美國_海平面_建築物</t>
+          <t>8_坍塌_塌陷_坑洞_道路</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['上升', '美國', '海平面', '建築物', '研究', '重量', '城市', '下沉', '速度', '大樓']</t>
+          <t>['坍塌', '塌陷', '坑洞', '道路', '台北市', '路面', '意外', '地面', '路', '巷']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生         這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機       研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米         然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水         研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市       帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題           Take   action   加入   倡議 +    ']</t>
+          <t>['台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ', '台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北 市長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  ', '北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供']</t>
         </is>
       </c>
     </row>
@@ -699,17 +699,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_翻攝_崇德_街_台北市</t>
+          <t>9_地層下陷_大樓_地層_建築</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['翻攝', '崇德', '街', '台北市', '天坑', '警消', '疏散', '22', '信義區', '號']</t>
+          <t>['地層下陷', '大樓', '地層', '建築', '大量', '地區', '極端', '下陷', '地面', '全球']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供']</t>
+          <t>['紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生         這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機       研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米         然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水         研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市       帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題           Take   action   加入   倡議 +    ']</t>
         </is>
       </c>
     </row>
@@ -718,21 +718,21 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10_信義區_住戶_消防局_現場</t>
+          <t>10_台北市_台北_市府_地層下陷</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['信義區', '住戶', '消防局', '現場', '區長', '疏散', '安置', '旁', '警戒', '指揮']</t>
+          <t>['台北市', '台北', '市府', '地層下陷', '信義區', '街', '路面', '坑洞', '塌陷', '地面']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供', '〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  ', '台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影']</t>
+          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -741,21 +741,21 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11_城市_土地_海平面_研究</t>
+          <t>11_地基_坍塌_大樓_混凝土</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['城市', '土地', '海平面', '研究', '風險', '公', '下沉', '每年', '沿海', '面臨']</t>
+          <t>['地基', '坍塌', '大樓', '混凝土', '地質', '建築', '街', '鄰近', '市府', '台北']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['路透社 報導   根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示   中國將 近一半 主要 城市 正 遭受   中等 到 嚴重   程度 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 論文 作者 發現   中國 45% 都市 土地 正以 每年 超過 3 公 釐 速度 下陷   16% 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 原因 不僅 是 地下水位 下降   還有 建築 環境 龐大 重量     華南師 範大學 敖祖銳 領導 研究 團隊 表示   中國 都市人口 已經 超過 9 億   因此   即使 是 一小部分 土地 下陷   都 會 對 都市生活 構成 巨大 威脅       土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 下 一個 世紀   近 四分之一 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示     這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 問題   而 不僅僅 是 一 兩個 地方 問題     他 說     這也 是 世界 其他 地方 正在 發生 事情 縮影       人口 超過 1   500 萬 北部 城市 天津   被確 認為 受災 最 嚴重 城市 之一   去年 一場   突發性 地質 災害   導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 興建     中國 許多 老 煤 礦區 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 另 一份 研究 指出   全球 約 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 已 低 於 海平面     尼科 爾斯說   易受 影響 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 1970 年代 禁止 抽取 地下水     他 補充 說     減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 不 可能 阻止 所有 下陷   因此 要 討論 適應力 建造 海堤       根據 新加坡 2022 年 一項 研究   44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中   30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示     這是 一個 都市化 人口 增長 問題   人口密度 愈大   抽 水 就 愈 多   就 造成 更 多 下陷    ', '中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  ', '最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  ']</t>
+          <t>['台灣 位處 菲律 賓海板 塊 歐亞板 塊 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出   台灣 真的 動     氣象局 全台 建置 超過 160 個   全球 導航衛 星系 統   測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 台灣 斷層 都   偷偷   地亂動   氣象局 表示     既然 手機 上 GPS 可以 監測 我們 每日 移動 路線 距離   那麼   同樣 概念 技術   是不是 能 監測 台灣 地表   看看 它 每天 移動 了 多少   當然 可以     氣象局 已 全 台灣 建置 超過 160 個   全球 導航衛 星系 統   測站   結合 各 單位 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 地表 位移   像是 車籠埔斷 層 錯動   為 台灣 地表 帶來 一道 劇烈   長 達 105 公里 傷痕   斷層 上盤 水平 位移 為 1 至 9 公尺 不 等   而 大甲溪 更 出現 地殼 抬高   落差 5 公尺 瀑布 景觀   氣象局 表示   除了 地震 期間   短短 數 十秒 出現   同震 滑移   之外   地震 前   間震期     地震 後   震後期     斷層 都   偷偷   地亂動   氣象局 說明   地殼 不 只 地震 時會動   平時 地殼   累積 能量   過程 中   就 會 地表 出現 非常 微量 變形   或者 是 小小的   不起眼 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 一舉 一動   希望 可以 找出 大 地震 發 生前 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 樣態   或是 分析 出 地震 發生 週期   計算 地震 災害 潛勢   評估 台灣 各地 斷層 活動 地震 機制  ', '台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 地梁 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  ', '花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性']</t>
         </is>
       </c>
     </row>
@@ -768,17 +768,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12_公尺_台北市_蔣萬安_崇德</t>
+          <t>12_信義區_街_疏散_台北市</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['公尺', '台北市', '蔣萬安', '崇德', '坍塌', '下午', '本來', '信義區', '3', '寬']</t>
+          <t>['信義區', '街', '疏散', '台北市', '鄰近', '撤離', '巷', '區域', '大樓', '北市']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影']</t>
+          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供', '台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  ']</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13_將近_600_鄉_當地</t>
+          <t>13_縣府_公所_鄉_地層下陷</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['將近', '600', '鄉', '當地', '歷史', '倒塌', '裂縫', '第二', '百年', '200']</t>
+          <t>['縣府', '公所', '鄉', '地層下陷', '建築', '當地', '居民', '區', '地', '附近']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  ', '〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  ', '印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  ']</t>
+          <t>['插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  ', '印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  ', '〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  ']</t>
         </is>
       </c>
     </row>
@@ -814,17 +814,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14_地震_住宅_基本_台灣</t>
+          <t>14_沿海_縣府_鄉_道路</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['地震', '住宅', '基本', '台灣', '淘空', '地表', '房屋', '災情', '變形', '工務處']</t>
+          <t>['沿海', '縣府', '鄉', '道路', '路面', '災害', '地層下陷', '設施', '地方', '危險']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['台灣 位處 菲律 賓海板 塊 歐亞板 塊 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出   台灣 真的 動     氣象局 全台 建置 超過 160 個   全球 導航衛 星系 統   測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 台灣 斷層 都   偷偷   地亂動   氣象局 表示     既然 手機 上 GPS 可以 監測 我們 每日 移動 路線 距離   那麼   同樣 概念 技術   是不是 能 監測 台灣 地表   看看 它 每天 移動 了 多少   當然 可以     氣象局 已 全 台灣 建置 超過 160 個   全球 導航衛 星系 統   測站   結合 各 單位 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 地表 位移   像是 車籠埔斷 層 錯動   為 台灣 地表 帶來 一道 劇烈   長 達 105 公里 傷痕   斷層 上盤 水平 位移 為 1 至 9 公尺 不 等   而 大甲溪 更 出現 地殼 抬高   落差 5 公尺 瀑布 景觀   氣象局 表示   除了 地震 期間   短短 數 十秒 出現   同震 滑移   之外   地震 前   間震期     地震 後   震後期     斷層 都   偷偷   地亂動   氣象局 說明   地殼 不 只 地震 時會動   平時 地殼   累積 能量   過程 中   就 會 地表 出現 非常 微量 變形   或者 是 小小的   不起眼 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 一舉 一動   希望 可以 找出 大 地震 發 生前 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 樣態   或是 分析 出 地震 發生 週期   計算 地震 災害 潛勢   評估 台灣 各地 斷層 活動 地震 機制  ', '嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 約 580 萬住 戶 沒 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣 位處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 房屋 倒塌 或 不堪 居住 之   全損   損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓   看房 要 排隊     一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房   房屋 稅 3 千變 3 萬 4     他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師   繳不出 頭期   全場 曝下場   穩死', '花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性']</t>
+          <t>['屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 溢 淹 問題 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 地養 殖區 穩定 水質 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 機構 團體 來   取經     居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 生活 環境 品質                             說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東縣 最大 養殖 漁業 生產區   塭 豐 二中 排旁 豐 海路 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 水環境       屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 溢 淹 問題 顛簸 起伏 路況 所苦   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供', '〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  ', '嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15_上升_暖化_馬_海底</t>
+          <t>15_地區_鄉_縣府_土地</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['上升', '暖化', '馬', '海底', '世界', '海平面', '全球', '保護', '因應', '人口']</t>
+          <t>['地區', '鄉', '縣府', '土地', '環境', '設施', '地方', '地', '周遭', '地面']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  ', '根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服     雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應   許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外     水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  ', '印尼 海域 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 寧靜 自然   還能 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出     紅樹林 是 很 獨特 生態 系統   一種 植物   有趣 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要     印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 一小部分   過去 一年 就 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示     我們 需要 生存 下去   但 很 難 找到 像樣 工作   當時 唯一 知道 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁     這片 海域 位 東南亞 從菲律 賓到 印尼   澳洲 之間 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 當地 巴迪島   努力 復 育 周邊 3 公頃 珊瑚礁   耐心 說 服漁民 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 海底 回春   熱帶 魚群 穿梭 新生 珊瑚礁 之間   環境 科學家 尤素夫 提及     印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 世界 遺產   一個 小小的 努力 都 可能 影響 世界     印尼 海域 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 18%   珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 海域   一步 一步 把 失去 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  ']</t>
+          <t>['從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不   這是 屏東 沿海 地區 這幾年 興起 違 景致   是 全台 種電 縮影   地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 文資 價值 二戰 遺跡 都 不放過   不僅家園 變貌   迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 典範   二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出   養水 種電   計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 罵 聲不斷   二 一 八年 十月 起   屏縣 府 公告 實施   嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫     開放 下陷區 農地 可 變更 種電       二 二 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 二 一 八年 屏東縣 長 潘孟安任   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 光電   如今 變成 農民 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽   不利 耕作 聲明書     離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作         沿海 四鄉 鎮美麗 鄉間 景致 丕 變   綠地 逐漸 蒸發     屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 是 少數 地主   受影響 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能   五贏     前年 已達成 綠電供 應 全縣 民生 用電 階段 性 目標  ', '〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  ', '聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 文資 價值 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為   惡鄰     產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 上限 規定   目前 既有 電力 設施 併 網 上限 下   限度 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             強調   從 未 要求 廠商 提供   不利 耕作 同意 書   或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       指出   屏東 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   等 2 大 策略 為 優先   限度 使用 相對 不 適合 耕種 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活   至於 非 專案 專區 鄉鎮   則優先 鼓勵 廠 商以   土地 複 合式 利用   方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 處置 自家 土地 財產   及業者 依法 申請 案件 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  ']</t>
         </is>
       </c>
     </row>
@@ -860,17 +860,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16_經費_縣府_寮_淹水</t>
+          <t>16_水利_地下水_水_水管</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['經費', '縣府', '寮', '淹水', '中央', '嘉義', '縣長', '降雨', '爭取', '改善']</t>
+          <t>['水利', '地下水', '水', '水管', '地區', '氣候', '面積', '資源', '地層下陷', '計畫']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 溢 淹 問題 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 地養 殖區 穩定 水質 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 機構 團體 來   取經     居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 生活 環境 品質                             說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東縣 最大 養殖 漁業 生產區   塭 豐 二中 排旁 豐 海路 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 水環境       屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 溢 淹 問題 顛簸 起伏 路況 所苦   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供', '〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  ', '嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影']</t>
+          <t>['〔 記者 羅 欣貞 ／ 屏東 報導 〕 屏東縣 政府 2018 年 完工 並開始 操作 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫   近年 來 均 能 挹注 超過 5000 萬噸 水源 至 地下 含水 層   然而 由 於 南部 地區 近年 氣候 狀況 不如 預期   人工湖 於 今年 5 月僅 經過 1 個 月 餘 引水 操作   將大約 1000 萬噸 水 注入 含水 層   因應 颱 風 杜蘇芮 與後續 雨勢   從 7 月 27 日當晚 開始 啟動 今年 第二次 引水 作業   一直 持續 至今     屏縣 府 水利 處 表示   大 潮州 補注 湖不僅 是 目前 國內僅   是 東南亞 地區 最 大型 人工湖 補注 地下水 計畫   原理 為 於 洪水期 將林邊 溪 之 較 大 水源 導引 至 人工湖   而 此區 因 具備 入滲 效果 佳 地質 條件   即可 有效 補注 至 地下 含水 層   補注 之 效益 為 可 涵養 屏縣 使用率 較 高 地下水 資源   提高 部分 區域 地下水位   減緩 地層下陷 與 海水 入侵   防止 地下水 鹽化   此外   人工湖 具有 分洪   治洪 功能   而結 合水 銀行 抽補 概念   更是 能 提高 水資源 運用 效益     水利 處 指出   第 1 期 工程 經費 約 14.1 億元   無論 是 取輸水 效果   入滲 效率 與 補 注量 體均 極為 可觀   已具 顯著 成效   此項 目的 啟動 不僅 增加 屏南 地區 水資源 可運 用量   已 初步 達到   增源 減洪   重要 作用   後 續將 提出 第 2 期 人工湖 開闢 計畫   以達成 預估 完成 後 挹注 每年 1.5 億噸 地下水 補注量  ', '因應 極端 氣候   水利 署 投入 123.6 億元展 開   鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫     包括 6 座 人工 蓄水池 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 能 同享 量 好質 優 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定   雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫   中 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投縣 自來 水 普及率 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投縣 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投縣 用水 問題  ', '烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 產業 發展區   整體 需水量 不斷 增加   造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投縣 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投縣 民 配合 政府 政策   但 南投縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 能 喝 到 量 好質 優 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒   珍珠 串     讓 台灣 水資源 調度 更好   顯示 台灣 人民 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   會 持續 綠 美化   變成 南投 新 觀光 地標     立委 游顥 說   南投縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 立法院 繼續 爭取   希望 行政院 重視 南投 用水 問題  ']</t>
         </is>
       </c>
     </row>
@@ -879,21 +879,21 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17_生態_署_保育_台灣</t>
+          <t>17_全球_地區_未來_氣候</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['生態', '署', '保育', '台灣', '破壞', '水利', '環境', '傾倒', '行政', '工程']</t>
+          <t>['全球', '地區', '未來', '氣候', '區域', '當地', '面積', '水利', '地方', '周邊']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察   草屯 淨水場 新建 工程     陳 建仁 提到   為 減緩 地層下陷   水利 署 推動   烏溪 鳥 嘴潭 人工湖 工程 計畫     以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 今年 3 月 27 日達 到 最大 設計 出水 功能   通過 每日 5 萬噸 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能體 現出 台灣 人民 不分 地區 互助 互惠 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 工作 量大增   承擔 很多 任務 與 責任   此外 台水 是 公司   接受 政府 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出     鳥 嘴潭 人工湖 工程 計畫   完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片']</t>
+          <t>['[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  ', '根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服     雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應   許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外     水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  ', '印尼 海域 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 寧靜 自然   還能 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出     紅樹林 是 很 獨特 生態 系統   一種 植物   有趣 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要     印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 一小部分   過去 一年 就 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示     我們 需要 生存 下去   但 很 難 找到 像樣 工作   當時 唯一 知道 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁     這片 海域 位 東南亞 從菲律 賓到 印尼   澳洲 之間 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 當地 巴迪島   努力 復 育 周邊 3 公頃 珊瑚礁   耐心 說 服漁民 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 海底 回春   熱帶 魚群 穿梭 新生 珊瑚礁 之間   環境 科學家 尤素夫 提及     印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 世界 遺產   一個 小小的 努力 都 可能 影響 世界     印尼 海域 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 18%   珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 海域   一步 一步 把 失去 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  ']</t>
         </is>
       </c>
     </row>
@@ -902,21 +902,21 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18_排水_系統_他_機車</t>
+          <t>18_地層下陷_道路_塌陷_坍塌</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['排水', '系統', '他', '機車', '里', '應該', '又', '說', '龜裂', '側溝']</t>
+          <t>['地層下陷', '道路', '塌陷', '坍塌', '路面', '坑洞', '台北市', '下陷', '建管處', '巷']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ', '〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹縣 竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險   希望 相關 單位 幫忙 出面 解決     被 指控 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 原因 不明 下陷   龜裂 問題   看起 來 災害 確實 持續 進行 中   但導致 持續 龜裂 擴大 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 天氣 放晴 後 協助 維修 處理     陳 講   鍾 姓 住戶 主要 是 拿 自家 建物 背 後 另 1 間 民宅 比 對   鍾 認為 2 宅   沒有 一直 線     所以 認定 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護     縣府 工務處 長江 良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 毀損 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 被 徵收 戶   3 樓半 住家 就是 蓋 約 3   40 坪 配回 地上   10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 其中   如果 房子 真的 不安   影響 非常 大     鍾 說   隔鄰 新建 工地 約 是 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 地面   竟 自己 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 牆面 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 已有 他 1 片 手指甲 寬   至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  ']</t>
+          <t>['北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 開放 機車 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 北市 府 提供 北市 天坑 搶修 完成   圖 北市 府 提供', '台北市 和平東路 三段 一處 工地 旁 道路   凌晨 驚傳 地層下陷   連上頭 停放 轎車   跟 著下 墜   卡 1.5 公尺 深 大洞 裡   還壓 迫到 自來 水管 線   導致 破裂 流出 大灘 積水   居民 聽到 巨響   趕緊 報案 處理   透露 昨   4   天 下午 路面 就 出 現裂 縫   當時 建管處 會勘   把 原因 歸咎 於 地震   但 他們 無法 接受   質疑 是 工地 施工 導致   工地 圍牆 外 一大 塊 路面 下陷 坍塌   上頭 停放 轎車 跟 著 地層 向下 墜 受困   一旁 管線 流出 積水 逐漸 淹進 車頭   就 怕 轎車 泡水 拋錨   警方 請來 吊車 協助 車輛 脫困   但 一移 開 景象 更 驚人   道路 側邊 就 像 破 了 大洞   凹陷 1.5 公尺 坑洞   面積 30 平方公尺   4 日 下午 北市 和平東路 三段 這處 工地 外 道路 開始 出現 裂縫   建管處 與 工地 人員前 來 會勘   歸咎 於 3 日 地牛翻身   還貼 出 警示牌 提醒 民眾   沒 想到 5 日 凌晨 地層 整個 塌陷   不過 這 答案 附近 居民 無法 接受   有人 說 地震 前 就 已經 看到 裂縫   但剛 好 遇上 地震   相關 單位 就 把 責任 推給 地震   還有 住民 透露   這處 工程 打 地基 時   自己 家中 就 曾 感覺 到 震動   就 像 地震 一樣   質疑 根本 是 施工 問題 釀成 地層下陷   居民 滿腔 怒火 恐怕 是 建管處 修補 道路 外   下個 得 要面 對 難題  ', '〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  ']</t>
         </is>
       </c>
     </row>
@@ -925,21 +925,21 @@
         <v>19</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19_下沉_城市_全球_每年</t>
+          <t>19_台北市_台北_市府_信義區</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['下沉', '城市', '全球', '每年', '速度', '上升', '泥沙', '海平面', '人口', '風險']</t>
+          <t>['台北市', '台北', '市府', '信義區', '北市', '道路', '市長', '日', '附近', '塌陷']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['長江 三角洲 簡稱   長三角     是 中國大陸 經濟 發展 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 三角洲   然而     人無遠慮   必有 近憂     當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 此刻   當 全球 減碳 前景 仍 不樂觀 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長江 三角洲 未來 所 可能 受到 危害   將牽動 著 中國大陸 發展 前景 與 紅色供 應鏈 未來       廿世紀 前 五十年 全球 平均 海水面 升高 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國   政府 間 氣候變遷 小組   去年 報告 書 指出   隨著 不同 暖化 程度   本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 將是 各大 河流 出海口 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 舊 金山 參加 一個 研討 全球 變遷 學術 大會   十幾個 議題 組中 領略 到 密西西比河 三角洲 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 景象 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 中上游 建設 上 了 四萬座 大大小小 壩體   一九六五年 以降   河系 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   擾亂 了 原來 大自然 泥沙 輸送 布局   加上 近 五十年 下游 地區 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧     自然 解方     力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長江 三角洲 似乎 正 走上 密西西比河 老路   長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 社會 變遷   僅 上海 一地   人口 從 八 年代 六百 萬 增加 到 目前 三千 三百 萬   長江 原來 每年 輸送 五 億公噸 泥沙 到 河口   全球排名 第五   長江 三峽 大壩 二 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長江 三角洲 前緣 已 經開 始後退   以 上海 為 發展 中心 三角洲 雖 享受 著開發 豐美果實   承受 著 上游 帶來 一切 災害 危機 總   包括 三角洲 萎縮 以及 水質 汙染   大量 人口 增加 使 地下水 抽取 量大增   地層下陷   局部 地區 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 範圍 約 占 全區 百分之十四   而 長江 三角洲 則占 全區 百分之四十   未來 海水面 上升 風險 下   長三角 面臨 挑戰 顯然 更 為 嚴峻   更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  ', '〔 中央社 〕 一項 新 研究 指出   南亞 東南亞 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 人 更 容易 受到 海平面 上升 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表   自然 永續     Nature   Sustainability   期刊 上 一項 研究   快速 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 需求     研究 指出     這 使得 經歷 當地 土地 快速 下沉 城市 所 面臨 沿海 災害 風險   比 那些 已 因氣候 導致 海平面 上升 城市 所 面臨 風險 更 大       越南 人口 最多 城市 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 緬甸 商業 中心 仰光 高峰 年間 皆 下沉 20 多公 釐     研究 稱     這些 快速 下沉 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 建築 結構   導致 土地 下沉       下沉 城市 本身 並非 氣候變遷 結果   但 研究 人員 說   他們 研究 能 更 深入 了解 下沉 現象 如何   加劇 氣候 所導致 平均 海平面 上升 影響       根據 聯合國   政府 間 氣候變遷 問題 小組     Intergovernmental   Panel   on   Climate   Change     IPCC   資料   到 2050 年   將有 十多 億人 生活 沿海 城市   面臨 海平面 上升 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  ', '地層 嚴重 下陷 問題 不是 只有 台灣 會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 33 座 城市   以 每年 超過 一 公分 速度 下沉   是 海平面 上升 速度 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 是   連美國 南部 大城 休士頓 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 當地 設立 太空中心   但 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 地 平面   根據   世界 經濟 論壇   最近 發布 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 城市   是 西半球 唯一一 個 下沉 速度 排入 前十名 城市   美國氣 候專 家史 特勞斯 表示     雖然 土地 現在 大小 堤防 保護   但   地層下陷   仍 超乎想像     專家 表示   休士頓 下沉 速度快   海平面 上升 迅速   再 加上 氣候變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 惡化 強度 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 下沉 危機 一度 非常 嚴重   全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示     非常 重要   雅加 達 曼谷 從 東京 上海 汲取 成功 經驗     科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 模擬 畫面   都 提醒 人類 要 相信 科學   保護 自己 家園 避免 消失 刻 不容 緩  ']</t>
+          <t>['台北市 今   23 日   又 工地 地層下陷   松山區 慶城街 與 興安街 交叉路口 晚間 9 時 01 分許   驚傳 新建 工地 地基 塌陷   路旁 整排 停放 汽車 因故 側翻 超過 45 度   現場 已劃 設 警戒 線   據 了解 台北 市長 蔣萬安正 趕往 現場   今晚 9 時 01 分許   慶城街 興安街 交叉路口 一處   所屬 璞 真建設 新建 工地   地基 下陷     下陷 範圍 評估 中   目前 無人 受傷   目前 影響 路旁 4 台 停放 車輛   現場 已劃 設 警戒 線   事發 後   已有 消防 車到場 指揮   詳細 發生 原因 仍待 釐 清   蔣萬安則 透過 臉書 表示 正 趕往 現場   呼籲 周遭 居民 經過 民眾 注意安全   最新 資訊 市府 會 即刻 通知  ', '〔 記者 俞肇福 ／ 基隆 報導 〕 基隆市 七堵 區 10 日 發生 百一街 一處 建案 工地 旁電桿 下陷 2 公尺   由 於 5 月 13 日 台北市 信義區 出現 道路 塌陷   民眾 憂心 忡忡 天坑 基隆 重現   民進 黨籍 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全   基隆市 府 15 日 下午 5 點發布 新聞稿   市府 強調 已 要求 建案 停工   市府 將 全面 清查 基隆市 相關 工地 安全     曾怡芳 指出   10 日 晚間 五堵 國小 附近 一處 建案   突然 發生 建案 旁 電桿 下陷 2 公尺 意外   並 造成 附近 住戶 停電 5 小時   日前 台北市 信義區 發生 工地 旁 道路 塌陷 意外   引起 當地 居民 不安   擔心 天坑 基隆 重現     百一街 工地 旁電桿 下陷 事件 發生 後   基隆市 政府 都市 發展 處 12 日 赴 工地 現場 勘查   當天 結論 是 暫 不 要求 業者 停工   待 完成 固化 後   才 會 檢視 發生 電桿 塌陷 道路 龜裂 部分   但業者 表示   10 日 之所以 會 發生 電桿 塌陷   是 因為 電桿 上 變電箱 太重   土質 太 鬆 軟   才 導致 下陷 停電     曾怡芳 指出   事發 建案 旁 就是 五堵 國小   學童 人 數眾 多   且 鄰近 新台 五路 高架 橋   再 加上 附近 居民 表示   自該 建案 動工 以來   已導致 多處 柱位   地面 破損 龜裂   地面 高低 差達 7 公分   這樣 房子 根本 無法 住 人     曾怡芳 要求 基隆市 政府 重視 工安   不要 讓 4 月 27 日 新竹 天坑   5 月 13 日 北市 信義區 天坑 基隆 重現   並 要求 市府 以 最高 標準   來 審查 檢視此 建案     基隆市 政府 都 發處長 謝孝坤 表示   市府 15 日 已 經先 要求 百一街 工地 停工   後 續會 邀請 第三方 相關 技師 公會 詳細 檢視   釐 清電桿 下陷 原因   確保 安全 無虞後才 會 准許 復工   另外   市府 會 優先 清查 巡檢 全市 正在 開挖 地基 施作 連續 壁 工地   確 保民 眾 安全  ', '台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  ']</t>
         </is>
       </c>
     </row>
@@ -948,21 +948,21 @@
         <v>20</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20_台中市_公分_14_落差</t>
+          <t>20_台北市_坑洞_地層下陷_信義區</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['台中市', '公分', '14', '落差', '疑慮', '土木', '通報', '起', '水面', '技師']</t>
+          <t>['台北市', '坑洞', '地層下陷', '信義區', '街', '市府', '路面', '巷', '道路', '鄰近']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ', '〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 14 公分     台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  ', '〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 十四 公分     環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  ']</t>
+          <t>['台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝']</t>
         </is>
       </c>
     </row>
@@ -971,21 +971,21 @@
         <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21_暖化_科學家_形成_這種</t>
+          <t>21_大樓_住戶_信義區_市府</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['暖化', '科學家', '形成', '這種', '氣候', '當地', '年代', '北部', '開始', '消失']</t>
+          <t>['大樓', '住戶', '信義區', '市府', '地下室', '房子', '壁', '民宅', '台北市', '建商']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['地球 南北 兩極 這兩天 都 重要 科學 發現 發表 媒體 上   其中 北極 方面   科學家 發現 加拿大 北邊 海底 出現 地層下陷   最大 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 南極 大陸 東邊   3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 144 平方公里 冰架 崩解   相當 於 半個 台北市 大小   科學家 藉 著美國 太空 總署 NASA 衛星   拍 攝到 南極 大陸 東邊   格連澤 冰河     瀕臨 南 印度洋 冰架   2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 過去數 十年 來   冰架 崩解 現象   絕 大多 數出現 西邊 南極 半島   就是 與 南美洲 阿根廷 遙遙 相望 所在   而且 過去 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 冰雪 增厚   對 全球 海平面 衝擊 有限   從 2020 年 開始 南極 東邊 冰河 開始 縮小面積   但 是 以 每天 1 平方公里 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出     但 上星期 我們 發現 快速 氣候 現象   這也許 不足以 說明 事情 全貌   但 確對 冰架 造成 前 所 未 見 壓力     研究 人員 所 說 氣候 現象   是 指 發生 3 月 15 日 大氣 河流   這種 氣候 現 象是 指   高濃度 水蒸 氣沿 著 狹窄 區域 快速 前進   對 於 已經 消退 中 冰架 造成 致命 一擊   而大面積 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域   發現 大面積 地層下陷   最大 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 地下水 緩慢 流動   是 北極海 地層下陷 原因  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
+          <t>['北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 大樓 建案   因為 地下 連續 壁 破洞   都 發局 初步 調查 後   對 承造 人 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 旅館   相關 費用 將由建 商來 負責   巷弄 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 遭殃   鐵門 幾乎 懸空   這樣 情況 就 發生 台北市 信義區   短時間   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出     昨天 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 住戶 一共 5 戶     市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 5 戶   一共 10 人   暫時 住 信義區 旅館   依照 規定   每人每天 可以 請領 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 是 回 不了 家 了   超出 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 是 搶災 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 大樓   地下 4 層   地上 17 層   負責 營造 華熊 營造 公司   興建過 包括 台北 101   世貿 中心 陶朱 隱園   都 是 赫赫有名 建築   如今 卻 發生 工安 意外   讓 工程 暫時 喊 卡   首要 之務得 設法 解決 安全 問題   還給 當地 居民 一個 安全 家  ', '高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 還有 13 歲 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將訴諸 法律 拿 回不應 該給 賠償 金     寶特瓶 放在 地上   馬 上 滾 到 另 一邊   屋主 楊力 欽     這邊 是 整個 傾斜   因為 鑑定 報告 寫 說   它 高低 層 落差       屋主 指控   是 打 開後門 緊鄰 這棟 新蓋 大樓 害   屋主 楊力 欽     它 還是 漏水   止住 可是 好像 過幾個 月過 後   又 開始 水 跑 出來       新大樓 蓋 老舊 房子 中間   後 方 這一棟 舊型 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照後馬 上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲       因為 地下水 修繕   地 下陷 問題 得 補救   2 百多 萬 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者 會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償 金   因為 蓋大樓 建商 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  ', '住戶 拿 寶特瓶 平放   立即 滾去 較 低 地方   證明 地面 傾斜   牆上 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 依法 賠償 修繕 費及 法定 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 質疑     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 取得 使用 執照 之 後   反告 我 這 12 位 房屋 所有 權人       住戶 代表 楊 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道     創下 台灣 建 商史 上 第一 個   跟 人家 鄰損 之後又告 人家       對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 問題 損害 鄰房   而且 經過 台灣 省 土木 技師 公會 鑑定 沒 鄰損 事情   鄰房 很多 是 屋齡 要 40 年 老 公寓   違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   強調 損害 公司 名譽   會 依法 捍衛 權益  ']</t>
         </is>
       </c>
     </row>
@@ -994,21 +994,21 @@
         <v>22</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>22_大雨_品質_事件_一次</t>
+          <t>22_地下水_水利_地層下陷_當地</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['大雨', '品質', '事件', '一次', '北市', '今天下午', '路面', '短短', '坑洞', '萬華區']</t>
+          <t>['地下水', '水利', '地層下陷', '當地', '地方', '塌陷', '地面', '地基', '設施', '道']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  ', '北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供']</t>
+          <t>['宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ', '〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 十四 公分     環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  ', '〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 14 公分     台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  ']</t>
         </is>
       </c>
     </row>
@@ -1017,21 +1017,21 @@
         <v>23</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>23_市府_設備_不夠_2019</t>
+          <t>23_台北市_區域_大樓_向</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['市府', '設備', '不夠', '2019', '功能', '整修', '更新', '水流', '改善', '成']</t>
+          <t>['台北市', '區域', '大樓', '向', '〔', '〕', '建物', '下陷', '道路', '地基']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['嘉義市 35 座公園 是 國內 密度 最高   其中 20 座公園 廁所   曾 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請   優質 公廁 美質 環境 推動 計畫   經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  ', '桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 草 原因 地層下陷   出現 大大小小 坑洞   議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   南 崁 住宅 密集 區營造   都 會 中 綠洲                               市議員 張桂綿 說   公園 步道 近期 嚴重 下陷   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成   無底 洞     推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  ']</t>
+          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ', '〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹縣 竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險   希望 相關 單位 幫忙 出面 解決     被 指控 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 原因 不明 下陷   龜裂 問題   看起 來 災害 確實 持續 進行 中   但導致 持續 龜裂 擴大 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 天氣 放晴 後 協助 維修 處理     陳 講   鍾 姓 住戶 主要 是 拿 自家 建物 背 後 另 1 間 民宅 比 對   鍾 認為 2 宅   沒有 一直 線     所以 認定 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護     縣府 工務處 長江 良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 毀損 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 被 徵收 戶   3 樓半 住家 就是 蓋 約 3   40 坪 配回 地上   10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 其中   如果 房子 真的 不安   影響 非常 大     鍾 說   隔鄰 新建 工地 約 是 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 地面   竟 自己 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 牆面 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 已有 他 1 片 手指甲 寬   至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  ']</t>
         </is>
       </c>
     </row>
@@ -1040,21 +1040,90 @@
         <v>24</v>
       </c>
       <c r="B27" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>24_台北市_市府_台北_塌陷</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['台北市', '市府', '台北', '塌陷', '北市', '地層下陷', '市長', '意外', '下陷', '區']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>['台北市 松山區 慶城街 一處 工地 附近   今   23   晚傳出 地層下陷 狀況   停 路邊 停車格 車輛   車身 甚至 已經 傾斜   影響 4 台車輛 傾斜   現場 為 新建 工地 地基 下陷   下陷 範圍 評估 中   無人 受傷   已劃 設 警戒 線   台北 市長 蔣萬安 副 市長 李 四川 正 趕往 現場   台北 市長 蔣萬安 發文 表示     稍早 慶城街 興安街 交叉口 發生 工地 地基 下陷   我正 趕往 現場   請 周遭 居民 經過 民眾 注意安全   最新 資訊   市府 會 即刻 通知    ', '台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  ', '〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山區 慶城街 興安街 交叉路口 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 路邊 停車格 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前 市長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 問題     台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 發生 好 幾起 地層下陷 事件   柯文 哲今 早 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>25_全球_氣候_沿海_未來</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['全球', '氣候', '沿海', '未來', '地區', '災害', '地層下陷', '地層', '地下水', '大量']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>['〔 中央社 〕 一項 新 研究 指出   南亞 東南亞 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 人 更 容易 受到 海平面 上升 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表   自然 永續     Nature   Sustainability   期刊 上 一項 研究   快速 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 需求     研究 指出     這 使得 經歷 當地 土地 快速 下沉 城市 所 面臨 沿海 災害 風險   比 那些 已 因氣候 導致 海平面 上升 城市 所 面臨 風險 更 大       越南 人口 最多 城市 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 緬甸 商業 中心 仰光 高峰 年間 皆 下沉 20 多公 釐     研究 稱     這些 快速 下沉 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 建築 結構   導致 土地 下沉       下沉 城市 本身 並非 氣候變遷 結果   但 研究 人員 說   他們 研究 能 更 深入 了解 下沉 現象 如何   加劇 氣候 所導致 平均 海平面 上升 影響       根據 聯合國   政府 間 氣候變遷 問題 小組     Intergovernmental   Panel   on   Climate   Change     IPCC   資料   到 2050 年   將有 十多 億人 生活 沿海 城市   面臨 海平面 上升 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  ', '地層 嚴重 下陷 問題 不是 只有 台灣 會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 33 座 城市   以 每年 超過 一 公分 速度 下沉   是 海平面 上升 速度 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 是   連美國 南部 大城 休士頓 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 當地 設立 太空中心   但 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 地 平面   根據   世界 經濟 論壇   最近 發布 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 城市   是 西半球 唯一一 個 下沉 速度 排入 前十名 城市   美國氣 候專 家史 特勞斯 表示     雖然 土地 現在 大小 堤防 保護   但   地層下陷   仍 超乎想像     專家 表示   休士頓 下沉 速度快   海平面 上升 迅速   再 加上 氣候變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 惡化 強度 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 下沉 危機 一度 非常 嚴重   全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示     非常 重要   雅加 達 曼谷 從 東京 上海 汲取 成功 經驗     科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 模擬 畫面   都 提醒 人類 要 相信 科學   保護 自己 家園 避免 消失 刻 不容 緩  ', '長江 三角洲 簡稱   長三角     是 中國大陸 經濟 發展 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 三角洲   然而     人無遠慮   必有 近憂     當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 此刻   當 全球 減碳 前景 仍 不樂觀 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長江 三角洲 未來 所 可能 受到 危害   將牽動 著 中國大陸 發展 前景 與 紅色供 應鏈 未來       廿世紀 前 五十年 全球 平均 海水面 升高 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國   政府 間 氣候變遷 小組   去年 報告 書 指出   隨著 不同 暖化 程度   本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 將是 各大 河流 出海口 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 舊 金山 參加 一個 研討 全球 變遷 學術 大會   十幾個 議題 組中 領略 到 密西西比河 三角洲 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 景象 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 中上游 建設 上 了 四萬座 大大小小 壩體   一九六五年 以降   河系 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   擾亂 了 原來 大自然 泥沙 輸送 布局   加上 近 五十年 下游 地區 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧     自然 解方     力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長江 三角洲 似乎 正 走上 密西西比河 老路   長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 社會 變遷   僅 上海 一地   人口 從 八 年代 六百 萬 增加 到 目前 三千 三百 萬   長江 原來 每年 輸送 五 億公噸 泥沙 到 河口   全球排名 第五   長江 三峽 大壩 二 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長江 三角洲 前緣 已 經開 始後退   以 上海 為 發展 中心 三角洲 雖 享受 著開發 豐美果實   承受 著 上游 帶來 一切 災害 危機 總   包括 三角洲 萎縮 以及 水質 汙染   大量 人口 增加 使 地下水 抽取 量大增   地層下陷   局部 地區 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 範圍 約 占 全區 百分之十四   而 長江 三角洲 則占 全區 百分之四十   未來 海水面 上升 風險 下   長三角 面臨 挑戰 顯然 更 為 嚴峻   更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>26_水利_地下水_水_水管</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['水利', '地下水', '水', '水管', '環境', '地區', '工程', '地', '沿海', '建設']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>['行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察   草屯 淨水場 新建 工程     陳 建仁 提到   為 減緩 地層下陷   水利 署 推動   烏溪 鳥 嘴潭 人工湖 工程 計畫     以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 今年 3 月 27 日達 到 最大 設計 出水 功能   通過 每日 5 萬噸 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能體 現出 台灣 人民 不分 地區 互助 互惠 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 工作 量大增   承擔 很多 任務 與 責任   此外 台水 是 公司   接受 政府 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出     鳥 嘴潭 人工湖 工程 計畫   完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片']</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" t="n">
         <v>2</v>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>24_工務局_工地_建管處_指示</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>['工務局', '工地', '建管處', '指示', '開挖', '針對', '警方', '管線', '加強', '建築']</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>['〔 記者 王捷 ／ 台南 報導 〕 台南市 北區 北華街 一處 工地 傳出 下陷   導致 工地 旁 住戶 外牆   地板 出現 龜裂   警方 今晚 六點 多 接獲 報案   並通報 相關 單位   由 於 台南 前陣子 工地 塌陷 意外   加上 這個 月 花蓮 強震 帶來 災害   警方 呼籲 目前 正在 交通管制   請民眾 不要 靠近     初步 調查 發現   該 工地 建設 公司 近期 開 挖 地下室 過程 中   地下水 湧出   北區 公所 與 工務局 北華里 活動 中心 成立 臨時 指揮 所   由 相關 人員 到場 會勘   認為 可能 是 地下水 湧出   地基 不 穩定   造成 附近 住家 出現 牆壁   地板 龜裂 主因     工務局 人員 除了 要求 建設 公司 立即 停止 工程施工   並要 建設 公司 調派 水泥 車   先將 湧出 地下水 源以 水泥 灌漿 封閉   防止 狀況 持續 惡化   目前 仍 進行 緊急 灌漿 作業 中     建設 公司 表示   一定 會 遵照 工務局 指示   並對 鄰近 住戶 損失 給予 妥善 賠償 與 補償   絕不會 卸責 推諉   工務局 將持續 監控 現場 狀況   待 地下水 源 控制 後   再視 實際 損害 情形     警方 為 了 維護 交通秩序   派員 到場 管制 交通   直到 灌漿 結束   並 希望 民眾 不要 擔心   如果 發生 類似 事件   施工 單位 應當 立即 停工   並 通知 主管 機關   否則將 嚴加 開罰 要求 賠償   受災戶 如有 任何 疑問   可多加 利用 1999 話務 專線 諮 詢  ', '北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ']</t>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>27_地下水_市府_區_地層下陷</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['地下水', '市府', '區', '地層下陷', '地', '市長', '範圍', '作業', '鄉', '調查']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>['水利局 表示   今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 寶貴 時間   請 於 預定 複 查 日期 前 清除 水井 周圍 草叢   以 加速 複 查作業 進行  ', '▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  ']</t>
         </is>
       </c>
     </row>

--- a/repo/topic_list.xlsx
+++ b/repo/topic_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,21 +465,21 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_台北市_市府_信義區_地層下陷</t>
+          <t>-1_台北市_市府_地層下陷_坍塌</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['台北市', '市府', '信義區', '地層下陷', '路面', '道路', '坑洞', '坍塌', '塌陷', '北市']</t>
+          <t>['台北市', '市府', '地層下陷', '坍塌', '縣府', '路面', '地面', '下陷', '地方', '北市']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  ', '北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ']</t>
+          <t>['2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  ', '台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  ', '[ 周刊 王 CTWANT ]   花蓮市 名店   歪 歪歪 甜點     南京 街 店面 竟 被後方 建案   廣朋   建設 公司 以修繕 名義 直接 將廁 所 拆除   業者 忍無可忍 報警 處理   而廣朋 於 建設 新大樓 過程 當中 造成 鄰損 不 只 這一樁   一名 A 房屋 剛好位 基地 旁邊   房屋 早已 因 地層下陷 而 硬生生 斷成 兩截   而廣朋 不但 試圖將 相關 損害 歸咎 於 地震   且 只 買 了 一個 大 水桶 讓 住 戶接 漏水   讓 住戶 完全 無法 接受     A 帶著 本刊 記者 實際 走 進屋   儘 管 該 棟 房屋 為 老舊 3 層 透天   但 屋內 深度 相當 深   穿越 車庫 進入 客廳 後 可以 明顯 感覺 地層 已 下陷   腳下 磁磚 碎裂   屋主 已 鋪 上 軟 墊   避免 踩 上面 時 受傷     A 拿出 一顆 乒乓球 放在 地面 測試 屋內 地板 磁磚 水平   且 明顯 看見 本該 靜止 乒乓球 滾動   證明 地面 出現 傾斜   A 憤怒 表示     這些 損害 早 0403 大 地震 前 就 已經 發生   廣朋還 試圖 想要 將責任 全部 歸咎 地震 上       A 帶著 記者 穿越 客廳 進入 一樓後方 臥室   不但 明顯 感受 到 地面 傾斜   地上 更裂 出 一條 又 深 又 長 裂縫   一路 到 房屋 正後方   而後方 因 房屋 管線 受損 嚴重 已 無電力 照明   A 隨手 拿 起 一條 目測 至少 約 1 公尺 長 木棍   直接 插 進裂 開 縫 中   他 裂縫 中 攪動 木棍 表示     這裂 縫 寬度 至少 約 5 公分   而 這根 木棍 甚至 還沒 到底   跟 我 說 這叫 地震 造成       走上 2 樓   由 於 房屋 後 半段 傾斜   門框 早已 變形 無法 關上   管線 被 嚴重 破壞   不但 沒有 電力 照明   水還 從 四面八方 滴滴答答 滲出   A 說   這樣 到底 要 怎麼 住   而 廣朋所 事 就是   買 了 一個 大 水桶 要 我們 接 漏水       當地 主商里 里 長 廖大慶 5 月 22 日 帶 著 縣府 與 市公所 人員 前往 工地 會勘   廖大慶 比著 工地 一旁 柏油路 上 明顯 裂痕 與 民宅 地板 明顯 落差 表示     這 不是 地層下陷 是 什麼     廣朋 李姓 協理則 表示   柏油路 裂痕 已有 補過   但 主要 應是 3   40 噸 重機具 每天 這裡 進出 所導致   里長 吐 槽 表示     不要 跟 我 說 是 重機具   那為 什麼 只有 工地 這 一段 出現 裂痕 下陷   工地 前 後 柏油路 都 沒 裂開     場面 一度 相當 火爆     22 日 會勘 住 戶 對 建商 一片 罵聲 中 暫時 落幕   花蓮縣 議員 吳東 昇 居中 協調   廣朋 初步 承諾會 先將 裂開 下陷 馬 路 進行 修繕   以維護 公共安全   至於 與 住 戶 所 造成 鄰損 等 狀況   雙方遲 遲無法 達 成共識   因此 相關 損害 修 復 恐怕 還有 得 吵     廣朋總 公司 位 於 台北 市長 安東路   其 於 104 上 敘述 自稱 成立 20 年來 擁有 專業 建築 團隊   除 專注 北市 市中心 精華區 興建 精 緻 住宅   同時 將建築 領域 開發 至 花蓮市   台南 與 高雄   同時 更是 ViVi   PARK 停車 品牌 經營者     但 廣朋在 2017 年 時 與 台灣 知名 視障 慢跑 者     台灣 阿甘   之稱 張文彥 發生 租屋 糾紛   張文彥 向 廣朋租 店面 開設 視障 健康 按摩 養生會館   但 廣朋 卻 將停 車場 以金 店面 名義 承租 給張 文彥   並 要求 提前 解約   甚至 將 店面 大門 以鐵片 封死   搬 2 塊 巨石 擋住 大門   被 批 手段 惡劣   而前 台北市 議員 黃 向 羣 曾 被 周刊 踢 爆   其為 北捷 萬大線   捷七聯 開案   地主 拒絕 加入 聯合 開發 一事   以 優先 投資權   開發 獲利 超過 13 億元 吸引 地主 找廣朋 合作   以此 收取 6500 萬元 顧 問費   造成 地主 200 坪 土地 被 納入 聯開   市價 5 億 多元 土地 僅能 拿 回 1 億餘元     對此   本刊 兩度致 電向位 北市 廣朋總 公司 詢問   該 公司 接線 人員 表示 對 此事 不 了解   並說 公司 沒 有人 可 代表 對外 說明   就 將電話 掛斷   不再 回應  ']</t>
         </is>
       </c>
     </row>
@@ -488,21 +488,21 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_道路_地層下陷_路面_台灣</t>
+          <t>0_台北市_台北_市府_街</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['道路', '地層下陷', '路面', '台灣', '範圍', '縣府', '下陷', '道', '安全', '下']</t>
+          <t>['台北市', '台北', '市府', '街', '路面', '地層下陷', '北市', '道路', '市長', '塌陷']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影', '去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  ']</t>
+          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
         </is>
       </c>
     </row>
@@ -511,16 +511,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_地層下陷_地質_公所_地面</t>
+          <t>1_排水_市府_設施_當地</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['地層下陷', '地質', '公所', '地面', '民眾', '日', '灌漿', '萬', '下陷', '曾']</t>
+          <t>['排水', '市府', '設施', '當地', '水', '地層下陷', '公所', '街', '日', '地質']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -534,21 +534,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_道路_路面_市府_路</t>
+          <t>2_道路_地層下陷_路面_台灣</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['道路', '路面', '市府', '路', '巷', '塌陷', '鄰近', '坍塌', '地下', '下陷']</t>
+          <t>['道路', '地層下陷', '路面', '台灣', '範圍', '下陷', '公尺', '下', '縣府', '地方']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影']</t>
+          <t>['  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 容許 範圍   結構 安全 無虞     高鐵路線 通過 彰化   雲林 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化縣 溪州 鄉   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 橋墩   反而 是 沉陷 改善 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429', '台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  ', '去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  ']</t>
         </is>
       </c>
     </row>
@@ -557,21 +557,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_地下水_水利_水_地層下陷</t>
+          <t>3_坍塌_道路_塌陷_坑洞</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['地下水', '水利', '水', '地層下陷', '地區', '區域', '面積', '環境', '土壤', '鄉']</t>
+          <t>['坍塌', '道路', '塌陷', '坑洞', '路面', '市府', '地面', '台北市', '地下', '地基']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  ', '旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  ', '2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  ']</t>
+          <t>['台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ', '台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北 市長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  ', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -580,21 +580,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_水利_地區_地下水_地層下陷</t>
+          <t>4_台北市_道路_地層下陷_路面</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['水利', '地區', '地下水', '地層下陷', '面積', '區域', '鄉', '環境', '縣府', '水']</t>
+          <t>['台北市', '道路', '地層下陷', '路面', '坑洞', '市府', '塌陷', '坍塌', '北市', '下陷']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ', '根據 水利 署 監測 資料   雲林縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示     就是 都 沒 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋     雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示     非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 灌溉 水源     雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  ', '經濟部 水利 署 監測 雲林縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林縣 長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   自來 水可到 達 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林縣 大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影']</t>
+          <t>['台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供']</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_台北市_市府_建物_街</t>
+          <t>5_沿海_台灣_縣府_中</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['台北市', '市府', '建物', '街', '建設', '台北', '北市', '施工', '住戶', '建商']</t>
+          <t>['沿海', '台灣', '縣府', '中', '地方', '路', '地層下陷', '附近', '陳', '為']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   證交所 召開 重訊 記者 會   董事 長 陳 世銘 道歉 後 宣布 請辭 負責 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者   不 確定 故意   釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 回報 是否 行政 怠惰   瀆職 或 疏 於 監督     建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人     王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
+          <t>['雲林 沿海 受 藍 月 大潮 加上 颱 風 大浪   近日 接連 發生 嚴重 海水倒灌   最大 萡 子 寮 港 到 昨天 仍 一片汪洋   淹水 膝   港口 被迫 封閉   行政院 長 陳 建仁 昨 前往 現場 勘災   地方 陳 情指   漁港 淹水 已嚴 重威脅 下崙 3 個村 安危   應急 工程 不能 再 拖   縣府 盼 中央 補能 加高 延伸 堤防   陳 建仁 允諾 相關 部會 與 縣府 合作   研議 解決 之道       縣府 水利 處長 許 宏博 簡報 指出   因地盤 下陷 嚴重   多年 來 幾次 加高 防波堤 年 年 抽沙 清淤   仍難 敵 天象 變化   港域 高程 約 1.9 公尺   但 這兩天 高達 2.56 公尺   加上 風浪助長 爆發 嚴重 海水倒灌   目前 除應 急 擋 水 措施   要 增高 延伸 防波堤   清理 港域 30 萬 立方米 淤沙   確保 港口 不受 漂沙 封堵   才能 因應 極端 氣候 海象 變化   整建 經費 預估 10 億元                             同為 養殖業者 口湖 鄉 代王 紫陽 說   這 生活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重   鄰近 300 多公頃 養殖區 朝不保夕   政府 不能 坐視 不管   李姓 養殖業 說   這次 海水倒灌 造成 部分 魚苗 流失       議員黃 文祥 指 說   萡 子 寮 港 已 無 法 因 應 現 海象 變化   尤其 漂沙帶 來 淤塞 海水倒灌   連 以前 航行 澎湖 輪 船 因 淤沙 停駛   口湖 代表 會 主席 王溪邊 指   更 扯 是 退潮 水位 變低 時   漁船 竟 要 用 推 進港   實在 可笑   治港刻 不容 緩       昨 陪同 會勘 雲林縣 長 張麗善 當面 遞交 雲林 漁港 治理 海堤 安全 防護 計畫   盼 請 行政院 協助   立委 蘇治芬 建議將 雲林 海岸 治理 一 併 納 入院 會 正在 檢討 國土 沙洲 案   以 擴大 治理 量 能       陳 建仁 說   這次 海水倒灌 對 地方 造成 損失   針對 地方 希望 能 加高 延伸 堤防   此須 經過 水工 模型 試驗   才能 確保不會 加劇 地層下陷 問題   行政院 會 聽取 地方 建議   與 縣府 共同 研議 解方       漁業署 表示   曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討   為 保漁港 漁業 永續   除應 急 工程 應要 進行 水工 研究 與 探測 再行 治理   才能 一勞永逸   由 於 該 漁港屬 地方 管理   中央 會予 協助 建置 長 遠 治理 方案  ', '嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影', '〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  ']</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_災害_地區_地層下陷_全球</t>
+          <t>6_水利_地下水_水管_地區</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['災害', '地區', '地層下陷', '全球', '地下水', '環境', '沿海', '大量', '土地', '居民']</t>
+          <t>['水利', '地下水', '水管', '地區', '環境', '地層下陷', '地', '區', '鄉', '工程']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['路透社 報導   根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示   中國將 近一半 主要 城市 正 遭受   中等 到 嚴重   程度 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 論文 作者 發現   中國 45% 都市 土地 正以 每年 超過 3 公 釐 速度 下陷   16% 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 原因 不僅 是 地下水位 下降   還有 建築 環境 龐大 重量     華南師 範大學 敖祖銳 領導 研究 團隊 表示   中國 都市人口 已經 超過 9 億   因此   即使 是 一小部分 土地 下陷   都 會 對 都市生活 構成 巨大 威脅       土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 下 一個 世紀   近 四分之一 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示     這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 問題   而 不僅僅 是 一 兩個 地方 問題     他 說     這也 是 世界 其他 地方 正在 發生 事情 縮影       人口 超過 1   500 萬 北部 城市 天津   被確 認為 受災 最 嚴重 城市 之一   去年 一場   突發性 地質 災害   導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 興建     中國 許多 老 煤 礦區 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 另 一份 研究 指出   全球 約 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 已 低 於 海平面     尼科 爾斯說   易受 影響 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 1970 年代 禁止 抽取 地下水     他 補充 說     減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 不 可能 阻止 所有 下陷   因此 要 討論 適應力 建造 海堤       根據 新加坡 2022 年 一項 研究   44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中   30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示     這是 一個 都市化 人口 增長 問題   人口密度 愈大   抽 水 就 愈 多   就 造成 更 多 下陷    ', '中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  ', '最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  ']</t>
+          <t>['▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  ']</t>
         </is>
       </c>
     </row>
@@ -653,17 +653,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_坑洞_地層下陷_地下_區域</t>
+          <t>7_地層下陷_地層_建築_地區</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['坑洞', '地層下陷', '地下', '區域', '坍塌', '建管處', '塌陷', '挖', '深', '當地']</t>
+          <t>['地層下陷', '地層', '建築', '地區', '危險', '下陷', '地面', '路', '地質', '很多']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  ', '〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ']</t>
+          <t>['紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生         這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機       研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米         然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水         研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市       帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題           Take   action   加入   倡議 +    ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ']</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_坍塌_塌陷_坑洞_道路</t>
+          <t>8_災害_地層下陷_地區_地下水</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['坍塌', '塌陷', '坑洞', '道路', '台北市', '路面', '意外', '地面', '路', '巷']</t>
+          <t>['災害', '地層下陷', '地區', '地下水', '區域', '環境', '土地', '沿海', '居民', '土壤']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ', '台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北 市長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  ', '北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供']</t>
+          <t>['路透社 報導   根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示   中國將 近一半 主要 城市 正 遭受   中等 到 嚴重   程度 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 論文 作者 發現   中國 45% 都市 土地 正以 每年 超過 3 公 釐 速度 下陷   16% 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 原因 不僅 是 地下水位 下降   還有 建築 環境 龐大 重量     華南師 範大學 敖祖銳 領導 研究 團隊 表示   中國 都市人口 已經 超過 9 億   因此   即使 是 一小部分 土地 下陷   都 會 對 都市生活 構成 巨大 威脅       土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 下 一個 世紀   近 四分之一 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示     這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 問題   而 不僅僅 是 一 兩個 地方 問題     他 說     這也 是 世界 其他 地方 正在 發生 事情 縮影       人口 超過 1   500 萬 北部 城市 天津   被確 認為 受災 最 嚴重 城市 之一   去年 一場   突發性 地質 災害   導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 興建     中國 許多 老 煤 礦區 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 另 一份 研究 指出   全球 約 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 已 低 於 海平面     尼科 爾斯說   易受 影響 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 1970 年代 禁止 抽取 地下水     他 補充 說     減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 不 可能 阻止 所有 下陷   因此 要 討論 適應力 建造 海堤       根據 新加坡 2022 年 一項 研究   44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中   30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示     這是 一個 都市化 人口 增長 問題   人口密度 愈大   抽 水 就 愈 多   就 造成 更 多 下陷    ', '中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  ', '最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  ']</t>
         </is>
       </c>
     </row>
@@ -699,17 +699,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_地層下陷_大樓_地層_建築</t>
+          <t>9_台北市_坑洞_地層下陷_市府</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['地層下陷', '大樓', '地層', '建築', '大量', '地區', '極端', '下陷', '地面', '全球']</t>
+          <t>['台北市', '坑洞', '地層下陷', '市府', '街', '地下', '路面', '鄰近', '道路', '地基']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生         這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機       研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米         然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水         研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市       帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題           Take   action   加入   倡議 +    ']</t>
+          <t>['台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝']</t>
         </is>
       </c>
     </row>
@@ -718,21 +718,21 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10_台北市_台北_市府_地層下陷</t>
+          <t>10_水利_地下水_水_水管</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['台北市', '台北', '市府', '地層下陷', '信義區', '街', '路面', '坑洞', '塌陷', '地面']</t>
+          <t>['水利', '地下水', '水', '水管', '地區', '環境', '地層下陷', '區域', '面積', '氣候']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影']</t>
+          <t>['〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  ', '因應 極端 氣候   水利 署 投入 123.6 億元展 開   鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫     包括 6 座 人工 蓄水池 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 能 同享 量 好質 優 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定   雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫   中 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投縣 自來 水 普及率 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投縣 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投縣 用水 問題  ', '烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 產業 發展區   整體 需水量 不斷 增加   造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投縣 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投縣 民 配合 政府 政策   但 南投縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 能 喝 到 量 好質 優 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒   珍珠 串     讓 台灣 水資源 調度 更好   顯示 台灣 人民 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   會 持續 綠 美化   變成 南投 新 觀光 地標     立委 游顥 說   南投縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 立法院 繼續 爭取   希望 行政院 重視 南投 用水 問題  ']</t>
         </is>
       </c>
     </row>
@@ -745,17 +745,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11_地基_坍塌_大樓_混凝土</t>
+          <t>11_地基_坍塌_地質_建築</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['地基', '坍塌', '大樓', '混凝土', '地質', '建築', '街', '鄰近', '市府', '台北']</t>
+          <t>['地基', '坍塌', '地質', '建築', '街', '鄰近', '市府', '台北', '土壤', '危險']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['台灣 位處 菲律 賓海板 塊 歐亞板 塊 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出   台灣 真的 動     氣象局 全台 建置 超過 160 個   全球 導航衛 星系 統   測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 台灣 斷層 都   偷偷   地亂動   氣象局 表示     既然 手機 上 GPS 可以 監測 我們 每日 移動 路線 距離   那麼   同樣 概念 技術   是不是 能 監測 台灣 地表   看看 它 每天 移動 了 多少   當然 可以     氣象局 已 全 台灣 建置 超過 160 個   全球 導航衛 星系 統   測站   結合 各 單位 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 地表 位移   像是 車籠埔斷 層 錯動   為 台灣 地表 帶來 一道 劇烈   長 達 105 公里 傷痕   斷層 上盤 水平 位移 為 1 至 9 公尺 不 等   而 大甲溪 更 出現 地殼 抬高   落差 5 公尺 瀑布 景觀   氣象局 表示   除了 地震 期間   短短 數 十秒 出現   同震 滑移   之外   地震 前   間震期     地震 後   震後期     斷層 都   偷偷   地亂動   氣象局 說明   地殼 不 只 地震 時會動   平時 地殼   累積 能量   過程 中   就 會 地表 出現 非常 微量 變形   或者 是 小小的   不起眼 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 一舉 一動   希望 可以 找出 大 地震 發 生前 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 樣態   或是 分析 出 地震 發生 週期   計算 地震 災害 潛勢   評估 台灣 各地 斷層 活動 地震 機制  ', '台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 地梁 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  ', '花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性']</t>
+          <t>['〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 中正路 425 號前 道 路旁 水溝   發生 下陷   破洞 情形   經 會勘 後 工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 地基 掏空 問題     都 發處 表示   請 土木 技師 公會 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  ', '台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 地梁 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  ', '花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性']</t>
         </is>
       </c>
     </row>
@@ -768,12 +768,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12_信義區_街_疏散_台北市</t>
+          <t>12_街_台北市_鄰近_撤離</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['信義區', '街', '疏散', '台北市', '鄰近', '撤離', '巷', '區域', '大樓', '北市']</t>
+          <t>['街', '台北市', '鄰近', '撤離', '區域', '北市', '道路', '災害', '地層下陷', '區']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -791,17 +791,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13_縣府_公所_鄉_地層下陷</t>
+          <t>13_土壤_土地_鄉_環境</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['縣府', '公所', '鄉', '地層下陷', '建築', '當地', '居民', '區', '地', '附近']</t>
+          <t>['土壤', '土地', '鄉', '環境', '道路', '縣府', '地層下陷', '區', '設施', '範圍']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  ', '印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  ', '〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  ']</t>
+          <t>['〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ', '〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  ']</t>
         </is>
       </c>
     </row>
@@ -814,17 +814,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14_沿海_縣府_鄉_道路</t>
+          <t>14_市府_住戶_建設_台北市</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['沿海', '縣府', '鄉', '道路', '路面', '災害', '地層下陷', '設施', '地方', '危險']</t>
+          <t>['市府', '住戶', '建設', '台北市', '地下室', '建商', '民宅', '施工', '壁', '地下']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 溢 淹 問題 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 地養 殖區 穩定 水質 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 機構 團體 來   取經     居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 生活 環境 品質                             說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東縣 最大 養殖 漁業 生產區   塭 豐 二中 排旁 豐 海路 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 水環境       屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 溢 淹 問題 顛簸 起伏 路況 所苦   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供', '〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  ', '嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影']</t>
+          <t>['北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 大樓 建案   因為 地下 連續 壁 破洞   都 發局 初步 調查 後   對 承造 人 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 旅館   相關 費用 將由建 商來 負責   巷弄 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 遭殃   鐵門 幾乎 懸空   這樣 情況 就 發生 台北市 信義區   短時間   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出     昨天 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 住戶 一共 5 戶     市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 5 戶   一共 10 人   暫時 住 信義區 旅館   依照 規定   每人每天 可以 請領 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 是 回 不了 家 了   超出 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 是 搶災 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 大樓   地下 4 層   地上 17 層   負責 營造 華熊 營造 公司   興建過 包括 台北 101   世貿 中心 陶朱 隱園   都 是 赫赫有名 建築   如今 卻 發生 工安 意外   讓 工程 暫時 喊 卡   首要 之務得 設法 解決 安全 問題   還給 當地 居民 一個 安全 家  ', '高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 還有 13 歲 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將訴諸 法律 拿 回不應 該給 賠償 金     寶特瓶 放在 地上   馬 上 滾 到 另 一邊   屋主 楊力 欽     這邊 是 整個 傾斜   因為 鑑定 報告 寫 說   它 高低 層 落差       屋主 指控   是 打 開後門 緊鄰 這棟 新蓋 大樓 害   屋主 楊力 欽     它 還是 漏水   止住 可是 好像 過幾個 月過 後   又 開始 水 跑 出來       新大樓 蓋 老舊 房子 中間   後 方 這一棟 舊型 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照後馬 上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲       因為 地下水 修繕   地 下陷 問題 得 補救   2 百多 萬 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者 會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償 金   因為 蓋大樓 建商 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  ', '住戶 拿 寶特瓶 平放   立即 滾去 較 低 地方   證明 地面 傾斜   牆上 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 依法 賠償 修繕 費及 法定 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 質疑     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 取得 使用 執照 之 後   反告 我 這 12 位 房屋 所有 權人       住戶 代表 楊 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道     創下 台灣 建 商史 上 第一 個   跟 人家 鄰損 之後又告 人家       對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 問題 損害 鄰房   而且 經過 台灣 省 土木 技師 公會 鑑定 沒 鄰損 事情   鄰房 很多 是 屋齡 要 40 年 老 公寓   違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   強調 損害 公司 名譽   會 依法 捍衛 權益  ']</t>
         </is>
       </c>
     </row>
@@ -833,21 +833,21 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15_地區_鄉_縣府_土地</t>
+          <t>15_縣府_鄉_當地_居民</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['地區', '鄉', '縣府', '土地', '環境', '設施', '地方', '地', '周遭', '地面']</t>
+          <t>['縣府', '鄉', '當地', '居民', '向', '設施', '地方', '陳', '由', '為']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不   這是 屏東 沿海 地區 這幾年 興起 違 景致   是 全台 種電 縮影   地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 文資 價值 二戰 遺跡 都 不放過   不僅家園 變貌   迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 典範   二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出   養水 種電   計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 罵 聲不斷   二 一 八年 十月 起   屏縣 府 公告 實施   嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫     開放 下陷區 農地 可 變更 種電       二 二 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 二 一 八年 屏東縣 長 潘孟安任   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 光電   如今 變成 農民 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽   不利 耕作 聲明書     離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作         沿海 四鄉 鎮美麗 鄉間 景致 丕 變   綠地 逐漸 蒸發     屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 是 少數 地主   受影響 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能   五贏     前年 已達成 綠電供 應 全縣 民生 用電 階段 性 目標  ', '〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  ', '聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 文資 價值 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為   惡鄰     產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 上限 規定   目前 既有 電力 設施 併 網 上限 下   限度 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             強調   從 未 要求 廠商 提供   不利 耕作 同意 書   或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       指出   屏東 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   等 2 大 策略 為 優先   限度 使用 相對 不 適合 耕種 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活   至於 非 專案 專區 鄉鎮   則優先 鼓勵 廠 商以   土地 複 合式 利用   方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 處置 自家 土地 財產   及業者 依法 申請 案件 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  ']</t>
+          <t>['陳 安邦 等 表示   種電 可以 村外   村內 緊鄰 民宅   不要 說 危害   打 開家門   窗戶 看到 就是 太陽 能板   叫 8   90 歲 老人 情 何以堪   尤其 庄內 種電 作為   請問 哪個 村 可以 接受   所以 村民 大團 結堅 決展 現反 對 到底 決心   任何 回饋 都 不用 說   打死 都 反 對 庄內 種電   任何 法律 問題 他 一個 人承擔   甚至 為 了 爭取 縣長 張麗善 村民 主持公道   特別 今天 前來 向 張縣 長 陳 情   唯一 要求 光場 業者 退出 瓦 磘 村     縣長 張麗善 接下 陳 情書 後 指出   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍   為 了 保護 我們 農地   特別 提出 三不三要   就是 不 希望 農地 上面 一直 種電   破壞 農地 未來 發展 跟 價值   光電業者 聚落 裡面 種電   已經 影響 鄉親 生活 起居 跟 品質   大家 不安 焦慮 我們 都 能 感同身受   縣府 透過 各種 協調 溝通   希望 能 保障 地 鄉親 權益  ', '屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀   斬斷 兒子 想 當青農 接班 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   不給 老 農一畝 田維生   青年 若當   漂鳥   回農村   肯定 變走 投無路   落翅仔         五十六 歲 鄭明偉 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 不少 國有 財產 署名 下 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 枋寮 寮 段種 芭樂   無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 靠 這片 三分 地 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種     我 不但 要 吃 土   連農保 都 沒 了         面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 枋寮   蓮霧 之 鄉   美名   四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改 種電   年 輕人 想 返 鄉務農   無 低 租金 農地 可種     蓮霧 故鄉   金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到     這 不是 迫遷 青農去 都市 討 生活   漂鳥 回農村   恐怕 走 投無路 變 落翅仔    ', '聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 文資 價值 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為   惡鄰     產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 上限 規定   目前 既有 電力 設施 併 網 上限 下   限度 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             強調   從 未 要求 廠商 提供   不利 耕作 同意 書   或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       指出   屏東 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   等 2 大 策略 為 優先   限度 使用 相對 不 適合 耕種 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活   至於 非 專案 專區 鄉鎮   則優先 鼓勵 廠 商以   土地 複 合式 利用   方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 處置 自家 土地 財產   及業者 依法 申請 案件 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  ']</t>
         </is>
       </c>
     </row>
@@ -856,21 +856,21 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16_水利_地下水_水_水管</t>
+          <t>16_環境_地區_造成_發展</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['水利', '地下水', '水', '水管', '地區', '氣候', '面積', '資源', '地層下陷', '計畫']</t>
+          <t>['環境', '地區', '造成', '發展', '地層下陷', '公司', '整體', '很多', '地方', '鄉']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['〔 記者 羅 欣貞 ／ 屏東 報導 〕 屏東縣 政府 2018 年 完工 並開始 操作 全國 首座 大 潮州 地下水 人工湖 第 1 期計畫   近年 來 均 能 挹注 超過 5000 萬噸 水源 至 地下 含水 層   然而 由 於 南部 地區 近年 氣候 狀況 不如 預期   人工湖 於 今年 5 月僅 經過 1 個 月 餘 引水 操作   將大約 1000 萬噸 水 注入 含水 層   因應 颱 風 杜蘇芮 與後續 雨勢   從 7 月 27 日當晚 開始 啟動 今年 第二次 引水 作業   一直 持續 至今     屏縣 府 水利 處 表示   大 潮州 補注 湖不僅 是 目前 國內僅   是 東南亞 地區 最 大型 人工湖 補注 地下水 計畫   原理 為 於 洪水期 將林邊 溪 之 較 大 水源 導引 至 人工湖   而 此區 因 具備 入滲 效果 佳 地質 條件   即可 有效 補注 至 地下 含水 層   補注 之 效益 為 可 涵養 屏縣 使用率 較 高 地下水 資源   提高 部分 區域 地下水位   減緩 地層下陷 與 海水 入侵   防止 地下水 鹽化   此外   人工湖 具有 分洪   治洪 功能   而結 合水 銀行 抽補 概念   更是 能 提高 水資源 運用 效益     水利 處 指出   第 1 期 工程 經費 約 14.1 億元   無論 是 取輸水 效果   入滲 效率 與 補 注量 體均 極為 可觀   已具 顯著 成效   此項 目的 啟動 不僅 增加 屏南 地區 水資源 可運 用量   已 初步 達到   增源 減洪   重要 作用   後 續將 提出 第 2 期 人工湖 開闢 計畫   以達成 預估 完成 後 挹注 每年 1.5 億噸 地下水 補注量  ', '因應 極端 氣候   水利 署 投入 123.6 億元展 開   鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫     包括 6 座 人工 蓄水池 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 能 同享 量 好質 優 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定   雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫   中 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投縣 自來 水 普及率 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投縣 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投縣 用水 問題  ', '烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 產業 發展區   整體 需水量 不斷 增加   造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投縣 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投縣 民 配合 政府 政策   但 南投縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 能 喝 到 量 好質 優 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒   珍珠 串     讓 台灣 水資源 調度 更好   顯示 台灣 人民 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   會 持續 綠 美化   變成 南投 新 觀光 地標     立委 游顥 說   南投縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 立法院 繼續 爭取   希望 行政院 重視 南投 用水 問題  ']</t>
+          <t>['原來 同一 個 新能源 市場   同時 這麼 多 幫人 市場 上 探索   開發     圖片 來源 ／ Pixabay  ', '從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不   這是 屏東 沿海 地區 這幾年 興起 違 景致   是 全台 種電 縮影   地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 文資 價值 二戰 遺跡 都 不放過   不僅家園 變貌   迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 典範   二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出   養水 種電   計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 罵 聲不斷   二 一 八年 十月 起   屏縣 府 公告 實施   嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫     開放 下陷區 農地 可 變更 種電       二 二 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 二 一 八年 屏東縣 長 潘孟安任   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 光電   如今 變成 農民 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽   不利 耕作 聲明書     離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作         沿海 四鄉 鎮美麗 鄉間 景致 丕 變   綠地 逐漸 蒸發     屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 是 少數 地主   受影響 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能   五贏     前年 已達成 綠電供 應 全縣 民生 用電 階段 性 目標  ', '光電亂象 已久   從 之前 良田 種電   砍樹 種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 遺跡   更 一步步 裂解 農漁村 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 社會 衝擊 比 預期 更大且 深   講求 氣候 正義和   企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理     國際 主流 下   政府 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 地產業   恐埋 隱憂       屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區   本可 接軌 屏東縣 前縣 長 曹啟 鴻   養水 種電   政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   被 批評 與   養水 種電   初衷 漸行 漸遠                             屏東 只是 全 台 種電 爭議 縮影   更 多 生態   景觀 敏感 地   追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 副作用   甚至 正向 引導 與 地 共生 共榮   實難辭 其咎   與 執政黨   愛鄉 土   理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 不 例外   猶記 得 台積 電在 被 徵收 用地 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 考慮   民進 黨 種電 國策 若 如   失速 列車     無情 地衝 撞 純樸 農漁村   把 青農   老農 都 當成   農村 最軟 一塊     這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 綠電  ']</t>
         </is>
       </c>
     </row>
@@ -879,21 +879,21 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17_全球_地區_未來_氣候</t>
+          <t>17_台北市_建物_建設_市府</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['全球', '地區', '未來', '氣候', '區域', '當地', '面積', '水利', '地方', '周邊']</t>
+          <t>['台北市', '建物', '建設', '市府', '施工', '坍塌', '北市', '建案', '建商', '工程']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  ', '根據 環境部   國科會 發布 全球 暖化 若 未來 無法 有效 控制 增溫   台灣 夏天 可能 長 達 7 個 月   海平面 上升 會 造成 海岸 溢淹 面積 增加   其中 以 雲林 溢淹 面積 增加 最顯 著   對 此雲縣 府 水利 處 表示   除了 暖化 影響   地層下陷 是 影響 主因   目前 四湖 箔子 寮 漁港 配合 中央 提出 因應 計畫   雲林縣 最大 箔子 寮 漁港   去   2023   年 8 月 發生 嚴重 海水倒灌   整座 漁港 幾乎 都 被淹 沒   甚至 危及 近鄰 村落   根據 環境部   國科會 報告 指出   若 全球 暖化 未來 無法 有效 控制 增溫   未來 海平面 上升 會 再 造成 海岸 溢淹   又 以 雲林 最 嚴重   雲林縣 水利 處長 許 宏博 提及     以大數 據 來 看 幾 十年   可能 就 只有 上升 1 到 2 公分   相對 地層下陷 因素   這 可能 是 較 小影 響 程度   不過 因應 整個 地層下陷 或是 海洋 暖化 海平面 上升   這是 雲林縣 必須 去 克服     雲縣 府 水利 處 表示   除暖化 影響 海岸 溢淹 面積   雲林縣 面對 最大 危機 是 地層下陷   1 年 內陸 地區 平均 5 至 6 公分 下陷   沿海 地區 平均 2 至 3 公分 下陷   現在針 對 四湖 箔子 寮 漁港 提出 因應   許 宏博 說明     較 低 地方 我 就 會 蓋 一個 類似 牆   然後去 墊 高   讓 它們 潮位 來時 不會溢 到 陸裡面   都 擋 防潮 牆 之外     水利 處 表示   若 海平面 上升 淹 水面 積 自然 加大   經盤點 雲林 四湖 箔子 寮 漁港 比 較 危急   去年 9 月經 中央   地方 共同 會勘 後   將花 3500 萬元 加高 碼頭 港岸   以防 海水 再 入侵   整個 工程 預計 再 半年 可 完工  ', '印尼 海域 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 寧靜 自然   還能 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出     紅樹林 是 很 獨特 生態 系統   一種 植物   有趣 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要     印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 一小部分   過去 一年 就 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示     我們 需要 生存 下去   但 很 難 找到 像樣 工作   當時 唯一 知道 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁     這片 海域 位 東南亞 從菲律 賓到 印尼   澳洲 之間 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 當地 巴迪島   努力 復 育 周邊 3 公頃 珊瑚礁   耐心 說 服漁民 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 海底 回春   熱帶 魚群 穿梭 新生 珊瑚礁 之間   環境 科學家 尤素夫 提及     印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 世界 遺產   一個 小小的 努力 都 可能 影響 世界     印尼 海域 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 18%   珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 海域   一步 一步 把 失去 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  ']</t>
+          <t>['基泰 建設位 台北市 大直 新建 案 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   證交所 召開 重訊 記者 會   董事 長 陳 世銘 道歉 後 宣布 請辭 負責 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者   不 確定 故意   釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 回報 是否 行政 怠惰   瀆職 或 疏 於 監督     建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人     王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  ']</t>
         </is>
       </c>
     </row>
@@ -902,21 +902,21 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18_地層下陷_道路_塌陷_坍塌</t>
+          <t>18_坑洞_地層下陷_區域_深度</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['地層下陷', '道路', '塌陷', '坍塌', '路面', '坑洞', '台北市', '下陷', '建管處', '巷']</t>
+          <t>['坑洞', '地層下陷', '區域', '深度', '面積', '地下', '坍塌', '塌陷', '氣候', '地方']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 開放 機車 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 北市 府 提供 北市 天坑 搶修 完成   圖 北市 府 提供', '台北市 和平東路 三段 一處 工地 旁 道路   凌晨 驚傳 地層下陷   連上頭 停放 轎車   跟 著下 墜   卡 1.5 公尺 深 大洞 裡   還壓 迫到 自來 水管 線   導致 破裂 流出 大灘 積水   居民 聽到 巨響   趕緊 報案 處理   透露 昨   4   天 下午 路面 就 出 現裂 縫   當時 建管處 會勘   把 原因 歸咎 於 地震   但 他們 無法 接受   質疑 是 工地 施工 導致   工地 圍牆 外 一大 塊 路面 下陷 坍塌   上頭 停放 轎車 跟 著 地層 向下 墜 受困   一旁 管線 流出 積水 逐漸 淹進 車頭   就 怕 轎車 泡水 拋錨   警方 請來 吊車 協助 車輛 脫困   但 一移 開 景象 更 驚人   道路 側邊 就 像 破 了 大洞   凹陷 1.5 公尺 坑洞   面積 30 平方公尺   4 日 下午 北市 和平東路 三段 這處 工地 外 道路 開始 出現 裂縫   建管處 與 工地 人員前 來 會勘   歸咎 於 3 日 地牛翻身   還貼 出 警示牌 提醒 民眾   沒 想到 5 日 凌晨 地層 整個 塌陷   不過 這 答案 附近 居民 無法 接受   有人 說 地震 前 就 已經 看到 裂縫   但剛 好 遇上 地震   相關 單位 就 把 責任 推給 地震   還有 住民 透露   這處 工程 打 地基 時   自己 家中 就 曾 感覺 到 震動   就 像 地震 一樣   質疑 根本 是 施工 問題 釀成 地層下陷   居民 滿腔 怒火 恐怕 是 建管處 修補 道路 外   下個 得 要面 對 難題  ', '〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  ']</t>
+          <t>['地球 南北 兩極 這兩天 都 重要 科學 發現 發表 媒體 上   其中 北極 方面   科學家 發現 加拿大 北邊 海底 出現 地層下陷   最大 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 南極 大陸 東邊   3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 144 平方公里 冰架 崩解   相當 於 半個 台北市 大小   科學家 藉 著美國 太空 總署 NASA 衛星   拍 攝到 南極 大陸 東邊   格連澤 冰河     瀕臨 南 印度洋 冰架   2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 過去數 十年 來   冰架 崩解 現象   絕 大多 數出現 西邊 南極 半島   就是 與 南美洲 阿根廷 遙遙 相望 所在   而且 過去 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 冰雪 增厚   對 全球 海平面 衝擊 有限   從 2020 年 開始 南極 東邊 冰河 開始 縮小面積   但 是 以 每天 1 平方公里 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出     但 上星期 我們 發現 快速 氣候 現象   這也許 不足以 說明 事情 全貌   但 確對 冰架 造成 前 所 未 見 壓力     研究 人員 所 說 氣候 現象   是 指 發生 3 月 15 日 大氣 河流   這種 氣候 現 象是 指   高濃度 水蒸 氣沿 著 狹窄 區域 快速 前進   對 於 已經 消退 中 冰架 造成 致命 一擊   而大面積 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域   發現 大面積 地層下陷   最大 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 地下水 緩慢 流動   是 北極海 地層下陷 原因  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
         </is>
       </c>
     </row>
@@ -925,21 +925,21 @@
         <v>19</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19_台北市_台北_市府_信義區</t>
+          <t>19_水利_地區_區域_地下水</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['台北市', '台北', '市府', '信義區', '北市', '道路', '市長', '日', '附近', '塌陷']</t>
+          <t>['水利', '地區', '區域', '地下水', '縣府', '鄉', '土地', '面積', '地層下陷', '地']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['台北市 今   23 日   又 工地 地層下陷   松山區 慶城街 與 興安街 交叉路口 晚間 9 時 01 分許   驚傳 新建 工地 地基 塌陷   路旁 整排 停放 汽車 因故 側翻 超過 45 度   現場 已劃 設 警戒 線   據 了解 台北 市長 蔣萬安正 趕往 現場   今晚 9 時 01 分許   慶城街 興安街 交叉路口 一處   所屬 璞 真建設 新建 工地   地基 下陷     下陷 範圍 評估 中   目前 無人 受傷   目前 影響 路旁 4 台 停放 車輛   現場 已劃 設 警戒 線   事發 後   已有 消防 車到場 指揮   詳細 發生 原因 仍待 釐 清   蔣萬安則 透過 臉書 表示 正 趕往 現場   呼籲 周遭 居民 經過 民眾 注意安全   最新 資訊 市府 會 即刻 通知  ', '〔 記者 俞肇福 ／ 基隆 報導 〕 基隆市 七堵 區 10 日 發生 百一街 一處 建案 工地 旁電桿 下陷 2 公尺   由 於 5 月 13 日 台北市 信義區 出現 道路 塌陷   民眾 憂心 忡忡 天坑 基隆 重現   民進 黨籍 基隆市 議員 曾怡芳 要求 市府 確保 週邊 住戶 安全   基隆市 府 15 日 下午 5 點發布 新聞稿   市府 強調 已 要求 建案 停工   市府 將 全面 清查 基隆市 相關 工地 安全     曾怡芳 指出   10 日 晚間 五堵 國小 附近 一處 建案   突然 發生 建案 旁 電桿 下陷 2 公尺 意外   並 造成 附近 住戶 停電 5 小時   日前 台北市 信義區 發生 工地 旁 道路 塌陷 意外   引起 當地 居民 不安   擔心 天坑 基隆 重現     百一街 工地 旁電桿 下陷 事件 發生 後   基隆市 政府 都市 發展 處 12 日 赴 工地 現場 勘查   當天 結論 是 暫 不 要求 業者 停工   待 完成 固化 後   才 會 檢視 發生 電桿 塌陷 道路 龜裂 部分   但業者 表示   10 日 之所以 會 發生 電桿 塌陷   是 因為 電桿 上 變電箱 太重   土質 太 鬆 軟   才 導致 下陷 停電     曾怡芳 指出   事發 建案 旁 就是 五堵 國小   學童 人 數眾 多   且 鄰近 新台 五路 高架 橋   再 加上 附近 居民 表示   自該 建案 動工 以來   已導致 多處 柱位   地面 破損 龜裂   地面 高低 差達 7 公分   這樣 房子 根本 無法 住 人     曾怡芳 要求 基隆市 政府 重視 工安   不要 讓 4 月 27 日 新竹 天坑   5 月 13 日 北市 信義區 天坑 基隆 重現   並 要求 市府 以 最高 標準   來 審查 檢視此 建案     基隆市 政府 都 發處長 謝孝坤 表示   市府 15 日 已 經先 要求 百一街 工地 停工   後 續會 邀請 第三方 相關 技師 公會 詳細 檢視   釐 清電桿 下陷 原因   確保 安全 無虞後才 會 准許 復工   另外   市府 會 優先 清查 巡檢 全市 正在 開挖 地基 施作 連續 壁 工地   確 保民 眾 安全  ', '台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  ']</t>
+          <t>['農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人 會勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 多 處位 處 嚴重 地層下陷區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷區 等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 新 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會勘 後 會 與 相關 單位 討論 調整 相關 政策   不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 能 發展 三贏     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '〔 記者黃淑莉 ／ 雲林 報導 〕 根據 水利 署 監測 資料   全國 最大 米 鄉 — 大 埤 鄉 近 5 年 地層下陷 面積 深度 惡化 情況   分析 原因 極端 氣候 水情 不穩   地下水 用量 增   對此   縣府 爭取 農業部 農田 水利 署將 大 埤納入 擴大溉 灌 服務範圍   可 從 北港溪 引水 高灘 地 建置 蓄水池   再 新建 管路 供農田 灌溉 用   經費 約 3.3 億元     縣府 水利 處 指出   水利 署 2023 雲林 地層下陷 監測 結果 顯示   雲林 顯著 下陷 面積 247.7 平方公里   比 前年 2022 年略增 一些   顯著 下陷 重點 地區 土庫   元長 地下水位 仍有 持續 下陷 形     水利 處長 許 宏博 表示   整體 監測 結果 可 看出   雲林 沿海 地層下陷 趨緩   顯著 下陷 主要 虎尾   土庫   元長   北港   四湖   褒忠   水林   崙 背 大 埤   值得注意 是 大 埤 鄉 下陷 面積   深度 近 5 年 惡化 現象     許 宏博 指出   大 埤 是 全國 水稻 種植 面積 最 多 鄉鎮   但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作   無水 可 灌溉 一定 要 抽 地下水 使用   水稻 面積 不變   用水量 都 固定 情況 下   地層下陷 應 不致 惡化   主要 變數 就是 水情   尤其 這幾年 極端 氣候   2021 遇 百年 大旱   2023 去年 又 遇 200 年 大旱   這 2 次 地下水 抽得 多   去年 枯水期 地下水位 洩降 大 埤 達 15 公尺 最 嚴重     許 宏博 說   目前 大 埤 農民 灌溉 情況 3 種   第一 種是 引 地面水 即區 排   第二 種是 抽 地下水   由 幾個 農民 共同 一個 公井   再分 擔電費   第三 種是 抽 北港溪 水   為 減緩 大 埤 地層下陷 持續 惡化   縣府 早先 已建議 列為 優先 防治 地   針對 大 埤 取水 灌溉 進行 初步 規劃 及構 想   考量 北港溪 尚有 水權 可 申請   即 從 北港溪 引 地面水 到 高灘 地 蓄水池   供給 農田 灌溉 使用  ', '媒體 報導 雲林縣 大 埤 鄉 水情 不穩   地下水 用量 增加   地層下陷 惡化   農田 水利 署 今天 表示   雲林縣 府 提出 納入 擴大 灌溉 服務構 想   已 請 其 提擬 更具 體的 計畫   再 共同 推動 擴大 灌溉 服務     媒體 報導   水稻 產區 雲林縣 大 埤 鄉 近年 地層下陷 情況 惡化   可能 與 水情 不穩   抽取 地下水 用量 增加 有關   雲林縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍                           農水署 副署 長 陳 衍源 告訴 中央社 記者   雲林縣 政府 提出 構想   農水署 已 回覆   請 縣府 提出 更具 體的 計畫   收到 計畫後會 審查   然後跟 縣府 共同 推動 擴大 灌區 服務 計畫     針對 成立 3 年 3 個 月 來   已 擴大 5.6 萬公頃 農田 獲得 灌溉 用水   約 8 萬 多名 農民 受惠   農水署 並規劃 114 年 要 擴 增至 8.8 萬公頃   陳 衍源 說   要 等 縣府 提出 具體 計畫後會 審查   因此 能否 納入 114 年 8.8 萬公頃 目標   尚未 確定   但應 不 受此 影響   擴大 灌溉 服務計 畫會 持續 推動     另外   陳 衍源 說   如果 能 設計 引用 河川 水作 為 灌溉 使用   希望 能 替代 當地 抽用 地下水   對 減緩 地層下陷 有所 幫助  ']</t>
         </is>
       </c>
     </row>
@@ -948,21 +948,21 @@
         <v>20</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20_台北市_坑洞_地層下陷_信義區</t>
+          <t>20_氣候_沿海_未來_地區</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['台北市', '坑洞', '地層下陷', '信義區', '街', '市府', '路面', '巷', '道路', '鄰近']</t>
+          <t>['氣候', '沿海', '未來', '地區', '災害', '地層下陷', '危險', '地層', '地下水', '許多']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝']</t>
+          <t>['〔 中央社 〕 一項 新 研究 指出   南亞 東南亞 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 人 更 容易 受到 海平面 上升 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表   自然 永續     Nature   Sustainability   期刊 上 一項 研究   快速 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 需求     研究 指出     這 使得 經歷 當地 土地 快速 下沉 城市 所 面臨 沿海 災害 風險   比 那些 已 因氣候 導致 海平面 上升 城市 所 面臨 風險 更 大       越南 人口 最多 城市 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 緬甸 商業 中心 仰光 高峰 年間 皆 下沉 20 多公 釐     研究 稱     這些 快速 下沉 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 建築 結構   導致 土地 下沉       下沉 城市 本身 並非 氣候變遷 結果   但 研究 人員 說   他們 研究 能 更 深入 了解 下沉 現象 如何   加劇 氣候 所導致 平均 海平面 上升 影響       根據 聯合國   政府 間 氣候變遷 問題 小組     Intergovernmental   Panel   on   Climate   Change     IPCC   資料   到 2050 年   將有 十多 億人 生活 沿海 城市   面臨 海平面 上升 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  ', '長江 三角洲 簡稱   長三角     是 中國大陸 經濟 發展 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 三角洲   然而     人無遠慮   必有 近憂     當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 此刻   當 全球 減碳 前景 仍 不樂觀 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長江 三角洲 未來 所 可能 受到 危害   將牽動 著 中國大陸 發展 前景 與 紅色供 應鏈 未來       廿世紀 前 五十年 全球 平均 海水面 升高 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國   政府 間 氣候變遷 小組   去年 報告 書 指出   隨著 不同 暖化 程度   本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 將是 各大 河流 出海口 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 舊 金山 參加 一個 研討 全球 變遷 學術 大會   十幾個 議題 組中 領略 到 密西西比河 三角洲 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 景象 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 中上游 建設 上 了 四萬座 大大小小 壩體   一九六五年 以降   河系 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   擾亂 了 原來 大自然 泥沙 輸送 布局   加上 近 五十年 下游 地區 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧     自然 解方     力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長江 三角洲 似乎 正 走上 密西西比河 老路   長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 社會 變遷   僅 上海 一地   人口 從 八 年代 六百 萬 增加 到 目前 三千 三百 萬   長江 原來 每年 輸送 五 億公噸 泥沙 到 河口   全球排名 第五   長江 三峽 大壩 二 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長江 三角洲 前緣 已 經開 始後退   以 上海 為 發展 中心 三角洲 雖 享受 著開發 豐美果實   承受 著 上游 帶來 一切 災害 危機 總   包括 三角洲 萎縮 以及 水質 汙染   大量 人口 增加 使 地下水 抽取 量大增   地層下陷   局部 地區 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 範圍 約 占 全區 百分之十四   而 長江 三角洲 則占 全區 百分之四十   未來 海水面 上升 風險 下   長三角 面臨 挑戰 顯然 更 為 嚴峻   更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  ', '地層 嚴重 下陷 問題 不是 只有 台灣 會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 33 座 城市   以 每年 超過 一 公分 速度 下沉   是 海平面 上升 速度 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 是   連美國 南部 大城 休士頓 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 當地 設立 太空中心   但 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 地 平面   根據   世界 經濟 論壇   最近 發布 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 城市   是 西半球 唯一一 個 下沉 速度 排入 前十名 城市   美國氣 候專 家史 特勞斯 表示     雖然 土地 現在 大小 堤防 保護   但   地層下陷   仍 超乎想像     專家 表示   休士頓 下沉 速度快   海平面 上升 迅速   再 加上 氣候變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 惡化 強度 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 下沉 危機 一度 非常 嚴重   全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示     非常 重要   雅加 達 曼谷 從 東京 上海 汲取 成功 經驗     科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 模擬 畫面   都 提醒 人類 要 相信 科學   保護 自己 家園 避免 消失 刻 不容 緩  ']</t>
         </is>
       </c>
     </row>
@@ -971,21 +971,21 @@
         <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21_大樓_住戶_信義區_市府</t>
+          <t>21_市府_道路_地下_路</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['大樓', '住戶', '信義區', '市府', '地下室', '房子', '壁', '民宅', '台北市', '建商']</t>
+          <t>['市府', '道路', '地下', '路', '當地', '下陷', '塌陷', '下', '建物', '市長']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 大樓 建案   因為 地下 連續 壁 破洞   都 發局 初步 調查 後   對 承造 人 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 旅館   相關 費用 將由建 商來 負責   巷弄 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 遭殃   鐵門 幾乎 懸空   這樣 情況 就 發生 台北市 信義區   短時間   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出     昨天 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 住戶 一共 5 戶     市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 5 戶   一共 10 人   暫時 住 信義區 旅館   依照 規定   每人每天 可以 請領 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 是 回 不了 家 了   超出 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 是 搶災 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 大樓   地下 4 層   地上 17 層   負責 營造 華熊 營造 公司   興建過 包括 台北 101   世貿 中心 陶朱 隱園   都 是 赫赫有名 建築   如今 卻 發生 工安 意外   讓 工程 暫時 喊 卡   首要 之務得 設法 解決 安全 問題   還給 當地 居民 一個 安全 家  ', '高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 還有 13 歲 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將訴諸 法律 拿 回不應 該給 賠償 金     寶特瓶 放在 地上   馬 上 滾 到 另 一邊   屋主 楊力 欽     這邊 是 整個 傾斜   因為 鑑定 報告 寫 說   它 高低 層 落差       屋主 指控   是 打 開後門 緊鄰 這棟 新蓋 大樓 害   屋主 楊力 欽     它 還是 漏水   止住 可是 好像 過幾個 月過 後   又 開始 水 跑 出來       新大樓 蓋 老舊 房子 中間   後 方 這一棟 舊型 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照後馬 上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲       因為 地下水 修繕   地 下陷 問題 得 補救   2 百多 萬 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者 會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償 金   因為 蓋大樓 建商 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  ', '住戶 拿 寶特瓶 平放   立即 滾去 較 低 地方   證明 地面 傾斜   牆上 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 依法 賠償 修繕 費及 法定 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 質疑     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 取得 使用 執照 之 後   反告 我 這 12 位 房屋 所有 權人       住戶 代表 楊 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道     創下 台灣 建 商史 上 第一 個   跟 人家 鄰損 之後又告 人家       對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 問題 損害 鄰房   而且 經過 台灣 省 土木 技師 公會 鑑定 沒 鄰損 事情   鄰房 很多 是 屋齡 要 40 年 老 公寓   違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   強調 損害 公司 名譽   會 依法 捍衛 權益  ']</t>
+          <t>['北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影', '新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -998,17 +998,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>22_地下水_水利_地層下陷_當地</t>
+          <t>22_地層下陷_鄉_建築_當地</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['地下水', '水利', '地層下陷', '當地', '地方', '塌陷', '地面', '地基', '設施', '道']</t>
+          <t>['地層下陷', '鄉', '建築', '當地', '下陷', '居民', '區', '撤離', '附近', '日']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ', '〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 十四 公分     環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  ', '〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 14 公分     台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  ']</t>
+          <t>['插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  ', '印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  ', '〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  ']</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>23_台北市_區域_大樓_向</t>
+          <t>23_台北市_區域_北市_向</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['台北市', '區域', '大樓', '向', '〔', '〕', '建物', '下陷', '道路', '地基']</t>
+          <t>['台北市', '區域', '北市', '向', '〔', '〕', '建物', '地方', '下陷', '道路']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>24_台北市_市府_台北_塌陷</t>
+          <t>24_水利_地下水_地區_地層下陷</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['台北市', '市府', '台北', '塌陷', '北市', '地層下陷', '市長', '意外', '下陷', '區']</t>
+          <t>['水利', '地下水', '地區', '地層下陷', '區域', '面積', '鄉', '水管', '縣府', '當地']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['台北市 松山區 慶城街 一處 工地 附近   今   23   晚傳出 地層下陷 狀況   停 路邊 停車格 車輛   車身 甚至 已經 傾斜   影響 4 台車輛 傾斜   現場 為 新建 工地 地基 下陷   下陷 範圍 評估 中   無人 受傷   已劃 設 警戒 線   台北 市長 蔣萬安 副 市長 李 四川 正 趕往 現場   台北 市長 蔣萬安 發文 表示     稍早 慶城街 興安街 交叉口 發生 工地 地基 下陷   我正 趕往 現場   請 周遭 居民 經過 民眾 注意安全   最新 資訊   市府 會 即刻 通知    ', '台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  ', '〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山區 慶城街 興安街 交叉路口 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 路邊 停車格 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前 市長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 問題     台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 發生 好 幾起 地層下陷 事件   柯文 哲今 早 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  ']</t>
+          <t>['雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  ', '根據 水利 署 監測 資料   雲林縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示     就是 都 沒 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋     雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示     非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 灌溉 水源     雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  ', '經濟部 水利 署 監測 雲林縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林縣 長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   自來 水可到 達 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林縣 大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -1063,21 +1063,21 @@
         <v>25</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>25_全球_氣候_沿海_未來</t>
+          <t>25_坑洞_台北市_市府_地層下陷</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['全球', '氣候', '沿海', '未來', '地區', '災害', '地層下陷', '地層', '地下水', '大量']</t>
+          <t>['坑洞', '台北市', '市府', '地層下陷', '地基', '街', '坍塌', '塌陷', '台北', '路面']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['〔 中央社 〕 一項 新 研究 指出   南亞 東南亞 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 人 更 容易 受到 海平面 上升 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表   自然 永續     Nature   Sustainability   期刊 上 一項 研究   快速 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 需求     研究 指出     這 使得 經歷 當地 土地 快速 下沉 城市 所 面臨 沿海 災害 風險   比 那些 已 因氣候 導致 海平面 上升 城市 所 面臨 風險 更 大       越南 人口 最多 城市 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 緬甸 商業 中心 仰光 高峰 年間 皆 下沉 20 多公 釐     研究 稱     這些 快速 下沉 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 建築 結構   導致 土地 下沉       下沉 城市 本身 並非 氣候變遷 結果   但 研究 人員 說   他們 研究 能 更 深入 了解 下沉 現象 如何   加劇 氣候 所導致 平均 海平面 上升 影響       根據 聯合國   政府 間 氣候變遷 問題 小組     Intergovernmental   Panel   on   Climate   Change     IPCC   資料   到 2050 年   將有 十多 億人 生活 沿海 城市   面臨 海平面 上升 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  ', '地層 嚴重 下陷 問題 不是 只有 台灣 會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 33 座 城市   以 每年 超過 一 公分 速度 下沉   是 海平面 上升 速度 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 是   連美國 南部 大城 休士頓 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 當地 設立 太空中心   但 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 地 平面   根據   世界 經濟 論壇   最近 發布 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 城市   是 西半球 唯一一 個 下沉 速度 排入 前十名 城市   美國氣 候專 家史 特勞斯 表示     雖然 土地 現在 大小 堤防 保護   但   地層下陷   仍 超乎想像     專家 表示   休士頓 下沉 速度快   海平面 上升 迅速   再 加上 氣候變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 惡化 強度 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 下沉 危機 一度 非常 嚴重   全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示     非常 重要   雅加 達 曼谷 從 東京 上海 汲取 成功 經驗     科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 模擬 畫面   都 提醒 人類 要 相信 科學   保護 自己 家園 避免 消失 刻 不容 緩  ', '長江 三角洲 簡稱   長三角     是 中國大陸 經濟 發展 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 三角洲   然而     人無遠慮   必有 近憂     當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 此刻   當 全球 減碳 前景 仍 不樂觀 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長江 三角洲 未來 所 可能 受到 危害   將牽動 著 中國大陸 發展 前景 與 紅色供 應鏈 未來       廿世紀 前 五十年 全球 平均 海水面 升高 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國   政府 間 氣候變遷 小組   去年 報告 書 指出   隨著 不同 暖化 程度   本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 將是 各大 河流 出海口 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 舊 金山 參加 一個 研討 全球 變遷 學術 大會   十幾個 議題 組中 領略 到 密西西比河 三角洲 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 景象 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 中上游 建設 上 了 四萬座 大大小小 壩體   一九六五年 以降   河系 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   擾亂 了 原來 大自然 泥沙 輸送 布局   加上 近 五十年 下游 地區 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧     自然 解方     力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長江 三角洲 似乎 正 走上 密西西比河 老路   長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 社會 變遷   僅 上海 一地   人口 從 八 年代 六百 萬 增加 到 目前 三千 三百 萬   長江 原來 每年 輸送 五 億公噸 泥沙 到 河口   全球排名 第五   長江 三峽 大壩 二 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長江 三角洲 前緣 已 經開 始後退   以 上海 為 發展 中心 三角洲 雖 享受 著開發 豐美果實   承受 著 上游 帶來 一切 災害 危機 總   包括 三角洲 萎縮 以及 水質 汙染   大量 人口 增加 使 地下水 抽取 量大增   地層下陷   局部 地區 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 範圍 約 占 全區 百分之十四   而 長江 三角洲 則占 全區 百分之四十   未來 海水面 上升 風險 下   長三角 面臨 挑戰 顯然 更 為 嚴峻   更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  ']</t>
+          <t>['高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 永新 五街 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝', '首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  ']</t>
         </is>
       </c>
     </row>
@@ -1086,21 +1086,21 @@
         <v>26</v>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>26_水利_地下水_水_水管</t>
+          <t>26_地層下陷_塌陷_縣府_當地</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['水利', '地下水', '水', '水管', '環境', '地區', '工程', '地', '沿海', '建設']</t>
+          <t>['地層下陷', '塌陷', '縣府', '當地', '街', '路面', '居民', '地下水', '道路', '下陷']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['行政院 長 陳 建仁視察 草屯 淨水場 工程     台水 提供     〔 記者 林菁 樺 ／ 台北 報導 〕 行政院 長 陳 建仁今   4   視察   草屯 淨水場 新建 工程     陳 建仁 提到   為 減緩 地層下陷   水利 署 推動   烏溪 鳥 嘴潭 人工湖 工程 計畫     以 地面水 取代 地下水   透過 台 水興建 之 草屯 淨水場 下游 自來 水管 線   每日 可供給 草屯 地區 4 萬噸潔 淨及 穩定 自來 水     陳 建仁 感謝 台水 讓 工程 提前 3 個 月 通水   草屯 淨水場 新建 工程 今年 3 月 27 日達 到 最大 設計 出水 功能   通過 每日 5 萬噸 供水 能力 測試   未來 完工 後   可 穩定 供水   台水 與 水利 署 近年 強化 供水 韌性 與 水源 調度   珍珠 串計畫 更 能體 現出 台灣 人民 不分 地區 互助 互惠 團結 精神     經濟 部長 王美花 表示   110 年 百年 大旱 開始   全 台 水利 建設 加深 加快   台水 與 水利 署 工作 量大增   承擔 很多 任務 與 責任   此外 台水 是 公司   接受 政府 挹注 較少   因此 特別 為 台水 爭取 80 億元 經費   讓 台水 公司 能 順利 執行 計畫     台水 董事 長 李嘉榮 指出     鳥 嘴潭 人工湖 工程 計畫   完成 後   可供給 彰化 每日 21 萬噸 水量   草屯 每日 4 萬噸 水量   台水 共 投入 123.6 億經費   辦理 草屯 淨水場 鳥 嘴潭淨 水場 等 2 座淨 水場   並埋設 10 公里 原水 導 水管   85 公里 清水 送 水管     草屯 淨水場 新建 工程 導入 現代化 自動 監控 設備   場區 綠化率 達 60% 友善 環境   並採用 減少 電力 動能 之 設計   以達淨 零 轉型 之 目標   並 重建 七支 圳 圳 路 與 地 農民 共存 共榮     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片']</t>
+          <t>['地層下陷   居住 環境 出現 疑慮   宜蘭 蘇澳鎮 民富 街   持續 嚴重 地層下陷   除了 騎樓 路面 出現 裂縫   家裡 牆壁 地磚 都 是 裂痕   讓民眾 膽戰心 驚   質疑 是 附近 蘇澳 海事 水產 職業 學校 游泳池   超 抽 地下水 造成   10 號會同 當地 立委   縣府 官員 進行 協商   希望 解決 問題   道路 傾斜 越來 越 嚴重   路面 持續 裂痕 產生   地層下陷 越陷越深   民眾 憂心 忡忡   因為 騎樓 道路 出 現明 顯裂 縫   家門口 緊鄰 水溝 都 脫離 了 3 公分   走 進家裡 更是 驚險   白色 地磚 出現 裂痕   銜接 處變 得 高低不平   整個 牆 壁上 是 超長 裂痕   怵 目驚心   這裡 是 宜蘭 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 水產 職業 學校 游泳池   當地 地層 持續 嚴重 下陷   遊 泳池 用 了 四年 就 塌陷   讓 居民 質疑   是 學校 不當 抽取 地下水 惹 得 禍   10 號這天會 同 立委   縣府 官員 共同 協商   不過 水利 署 官員 分析 指出   地層下陷 除了 跟 抽水 行為 有關   泳池 載重 有關 係   還要 再 進 一步 釐 清   居家 環境 不 安全   民眾 生活 都 膽戰心 驚   只 盼望 可以 盡快 改善 問題   還給 居民 安全 生活 環境  ', '基隆 一處 屋齡 超過 40 年 公寓 住宅   後 方 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 出現 地層下陷 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   居民 行經 踩 空   才 驚覺 原來 民宅 外側 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   讓 周圍 路面 出現 地層下陷 狀況   從 畫面 中 可以 看到   地層下陷 深度 大概 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 影響   基隆市 議員施 偉政 提醒   地基 被 沖 刷   上面 載重 又 大 話   恐怕 房子 會 很大 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  ']</t>
         </is>
       </c>
     </row>
@@ -1113,17 +1113,63 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>27_地下水_市府_區_地層下陷</t>
+          <t>27_台北市_台北_建物_市長</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['地下水', '市府', '區', '地層下陷', '地', '市長', '範圍', '作業', '鄉', '調查']</t>
+          <t>['台北市', '台北', '建物', '市長', '北市', '建設', '住戶', '施工', '府', '民宅']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['水利局 表示   今年 預計 4 月 起 辦理 地下水 井現 地 複 查作業   規劃 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人 無法親 自到場 辦理   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除了 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 寶貴 時間   請 於 預定 複 查 日期 前 清除 水井 周圍 草叢   以 加速 複 查作業 進行  ', '▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  ']</t>
+          <t>['台北市 中山 區 大直 民宅 疑因 附近 建案   基泰 大直   施工 不慎   整棟 下陷   建商 基泰 建設 今天 認了   施工 不慎     表示 相關責 任絕 不 推卸   會 對 受 損戶 盡 最大 慰問   協助 安置   台北 市長 蔣萬安 上午 到 顯場 視察   指 預防性 撤離 可能 再 擴大       基泰 建設 表示   台北市 中山 區   基泰 大直   建案 於 9 月 7 日 晚間   因營 造廠 施工 不慎   造成 鄰房 損壞   深表 遺憾   為維護 公共安全   已 於 第一 時間 要求 停工   同時 進行 相關 措施       蔣萬安 表示   市府 第一 時間 就 進行 疏散   跨局 處 到場 預防性 撤離   撤離 人數 規模 大   共 197 戶   約 369 人   但 可能 再持續 擴大   道 明外 僑學校 操場   圍牆 裂開   教育局 緊急 確認 後   宣布 今日 預防性 停課 1 日   以策安全               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>28_地下水_水利_水_地區</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['地下水', '水利', '水', '地區', '地層下陷', '區域', '沿海', '土地', '區', '地下']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>['資訊視 覺化 地層下陷                   書名     書上 設計展 2021       作者   尼 普利 編輯室 企劃     出版社   尼 普利 出版     出版 時間   2022 年 1 月 15 日           臺 灣 地層下陷   人們 對 於 這塊 土地 不當 利用   可說 是 現今 臺 灣 地層下陷 主要 肇因   像是 水資源 缺乏 所導致 超 抽 地下水   抑或 是 高鐵興 建所 造成 地面 荷重 大量 增加 等   都 加速 了 地層下陷 問題 發生   〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計   將其分 為 兩 部分   分別 以線 裝及 摺 頁 書 方式 呈現   運用 資訊視 覺化 設計 為 主軸   介紹 臺 灣國土 下陷 四大 原因   九大 下陷 地區 說明   各個 地區 圖文細節   藉由 閱讀 理解 各 下陷 地區 之間 差異   引領民眾 快速 了解 現今 臺 灣 地層下陷 嚴重 程度       複 合式 裝幀 結構 設計     有別 於 過往 百科 全書 呆板 形式   本 專書 運用 複 合式 裝幀 結構 設計   利用 資訊視 覺化 手法   將 原本 龐雜 數據   輔以 凸顯 重點 視覺 編排   呈現 一幅 巨型 資訊 圖表   並 搭配 注目 性較 高 紅色   警惕 民眾 地層下陷 所 造成 危害   以及 對 居住 與 國土 安全 威脅                                           以 專書設 計為 主軸   書籍 以 複 合式 裝幀 設計   圖 ／ 尼 普利   提供                           封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型   圖 ／ 尼 普利   提供                           重點 介紹 九大 下陷 地區 數據表現 與 相 關訊息   圖 ／ 尼 普利   提供           ● 編輯 觀點     地層下陷 問題   好像 溫水 煮 青蛙   水平 看似 一致   卻 可能 正在 下移 而 渾然 未覺   安全 此刻 懸崖邊   搖搖欲 墜   〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法   視覺化 呈現 臺 灣 地層下陷 現況   讓 人 意識 到 問題 存在   進而 思考 土地 規劃   臺 灣 四面 環海   地層下陷 問題 格外 隱憂   國土 一旦 保持 不佳   負載 過度   一不留神 就是 海水倒灌 等 不 可逆 嚴重後患   那些 存在 許無力 一次 解決   但 不放棄   盡己 所能   喚起 危機 意識   是 一種 改變 開始     設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉   楊皓鈞   黃 上溢   廖楷平   林靜芬   黃 麒 樺     Advisor ｜ 陳 月 英                             【 本 文摘 選自尼 普利 編輯室 出版   書上 設計展 2021   一書   授權 刊登 於 聯合 新聞網   琅琅 悅讀   頻道   未經 同意   請 勿 轉載   】 加入   琅琅 悅讀   Google   News   按下 追 蹤   精選 好文 不 漏接       五月 藝文 專題 活動 一覽     🎁 \u3000 抽獎 ｜ 海明威   金城武 都 來過   法國 巴黎 左岸 莎士 比亞書店   📰 \u3000 師大美術館   一拍 即影   300 件 拍 立得   見證 攝 影大師 黃 金 年代   📰 \u3000 漫步 青島 老城 區   探訪 上 世紀 文藝書店   民宿 咖啡 館   📰 \u3000 不一樣 山水 畫   M ＋ 博物 館   山鳴 水應   用 新視角 看藝術   📰 \u3000 南美 館 雙館 共展   沃克   海怪   炮火 與 他們   以藝術 視角 回望 歷史   📰 \u3000 吃 是 什麼 烤 鴨   北京 與 廣式 烤 鴨 之間 3 種差異   📌 \u3000 梁朝 偉   劉德華 都 演過   盤點 金庸 武俠 劇中 經典 選角', '旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>29_未來_地區_氣候_當地</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['未來', '地區', '氣候', '當地', '月', '重要', '目前', '計畫', '希望', '設施']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>['[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  ', '科技 大亨 馬 斯克   Elon   Musk   今天   5 19   抵達 印尼 峇里島   將與 印尼 總統 佐科威   Joko   Widodo   一起 參加 星鏈   Starlink   網路 服務 啟用   印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   政府 希望 星鏈 能夠 提高 各島嶼 網路 普及 度   這是 印尼 一個 月 迎接 第 3 名 科技 企業 執行長   此前 蘋果   微軟 執行長 都 已來訪     綜合 路透社 與 美聯社 報導   太空 科技 公司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場   印尼 首席 投資部長 盧胡特   Luhut   Binsar   Pandjaitan   機場 迎接   預計 兩人 將會 討論 一些 重要 合作   包含 星鏈 服務 啟動   馬 斯克 還會 簽署 一項 協助 印尼 加強 衛生 與 教育 單位 聯絡 互通 合約     盧胡特 表示   馬 斯克 今天 稍晚 將和 印尼 總統 佐科威 一起 峇里島 首府 登巴薩   Denpasar   社區 衛生 中心 一起 啟動 星鏈   盧胡特 說   衛生 機構 啟動 這項 服務   呼應 星鏈   提供 平價 高速 網路   宗旨   尤其 是 網路 收訊 不佳 或過 於 偏遠 地區     印尼 是 個 群島 國家   約 1.7 萬座 島嶼   橫跨 3 個 時區   人口 超過 2.7 億   盧胡特 說   印尼 偏鄉 需要 星鏈 來 拓展 高速 網路   尤其 是 要 用 來 解決 衛生   教育 海事 單位 問題     印尼 通訊 部長 布迪   Budi   Arie   Setiadi   上週 表示   星鏈 已經 獲得 印尼 營運許 可   布迪 強調   星鏈 低 軌衛星 可以 讓 網路 擴及 目前 印尼 通訊 商無法 到 達 地區     據報   位 於 印尼 婆羅洲   Borneo   新 首都 努山 塔拉   Nusantara   本月 將先 試用 星鏈   8 月 正式 上線   印尼 正準備 遷都 努山 塔拉   因為 受 海平面 上升 與 地層下陷 影響   預計 目前 首都 雅加 達 大部分 地區將 2050 年 被淹 沒     印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   馬 來 西亞 去年 已核 發許 可證 給營 運星鏈 SpaceX 公司   菲律賓 一家 公司 則是 2022 年 與 SpaceX 簽約 合作     馬 斯克訪 印尼 前   蘋果 公司 執行長 庫克   Tim   Cook   4 月 17 與 印尼 總統佐科 威會面   並 表示 會將 印尼 產能 納入 考慮   兩周 後   微軟 執行長 納 德拉   Satya   Nadella   同月 30 日訪 印尼   承諾 未來 4 年 印尼 投資 17 億 美元   強化 印尼 新雲端 運算 與 人工智慧 基礎 設施     馬 斯克 此次 訪 峇里島   將參加 第十 屆 世界 水論壇   World   Water   Forum     研討 全球 水資源 衛生 挑戰  ']</t>
         </is>
       </c>
     </row>

--- a/repo/topic_list.xlsx
+++ b/repo/topic_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,21 +465,21 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_台北市_市府_地層下陷_坍塌</t>
+          <t>-1_台北市_信義區_地層下陷_坑洞</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['台北市', '市府', '地層下陷', '坍塌', '縣府', '路面', '地面', '下陷', '地方', '北市']</t>
+          <t>['台北市', '信義區', '地層下陷', '坑洞', '路面', '道路', '坍塌', '北市', '下陷', '當地']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  ', '台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  ', '[ 周刊 王 CTWANT ]   花蓮市 名店   歪 歪歪 甜點     南京 街 店面 竟 被後方 建案   廣朋   建設 公司 以修繕 名義 直接 將廁 所 拆除   業者 忍無可忍 報警 處理   而廣朋 於 建設 新大樓 過程 當中 造成 鄰損 不 只 這一樁   一名 A 房屋 剛好位 基地 旁邊   房屋 早已 因 地層下陷 而 硬生生 斷成 兩截   而廣朋 不但 試圖將 相關 損害 歸咎 於 地震   且 只 買 了 一個 大 水桶 讓 住 戶接 漏水   讓 住戶 完全 無法 接受     A 帶著 本刊 記者 實際 走 進屋   儘 管 該 棟 房屋 為 老舊 3 層 透天   但 屋內 深度 相當 深   穿越 車庫 進入 客廳 後 可以 明顯 感覺 地層 已 下陷   腳下 磁磚 碎裂   屋主 已 鋪 上 軟 墊   避免 踩 上面 時 受傷     A 拿出 一顆 乒乓球 放在 地面 測試 屋內 地板 磁磚 水平   且 明顯 看見 本該 靜止 乒乓球 滾動   證明 地面 出現 傾斜   A 憤怒 表示     這些 損害 早 0403 大 地震 前 就 已經 發生   廣朋還 試圖 想要 將責任 全部 歸咎 地震 上       A 帶著 記者 穿越 客廳 進入 一樓後方 臥室   不但 明顯 感受 到 地面 傾斜   地上 更裂 出 一條 又 深 又 長 裂縫   一路 到 房屋 正後方   而後方 因 房屋 管線 受損 嚴重 已 無電力 照明   A 隨手 拿 起 一條 目測 至少 約 1 公尺 長 木棍   直接 插 進裂 開 縫 中   他 裂縫 中 攪動 木棍 表示     這裂 縫 寬度 至少 約 5 公分   而 這根 木棍 甚至 還沒 到底   跟 我 說 這叫 地震 造成       走上 2 樓   由 於 房屋 後 半段 傾斜   門框 早已 變形 無法 關上   管線 被 嚴重 破壞   不但 沒有 電力 照明   水還 從 四面八方 滴滴答答 滲出   A 說   這樣 到底 要 怎麼 住   而 廣朋所 事 就是   買 了 一個 大 水桶 要 我們 接 漏水       當地 主商里 里 長 廖大慶 5 月 22 日 帶 著 縣府 與 市公所 人員 前往 工地 會勘   廖大慶 比著 工地 一旁 柏油路 上 明顯 裂痕 與 民宅 地板 明顯 落差 表示     這 不是 地層下陷 是 什麼     廣朋 李姓 協理則 表示   柏油路 裂痕 已有 補過   但 主要 應是 3   40 噸 重機具 每天 這裡 進出 所導致   里長 吐 槽 表示     不要 跟 我 說 是 重機具   那為 什麼 只有 工地 這 一段 出現 裂痕 下陷   工地 前 後 柏油路 都 沒 裂開     場面 一度 相當 火爆     22 日 會勘 住 戶 對 建商 一片 罵聲 中 暫時 落幕   花蓮縣 議員 吳東 昇 居中 協調   廣朋 初步 承諾會 先將 裂開 下陷 馬 路 進行 修繕   以維護 公共安全   至於 與 住 戶 所 造成 鄰損 等 狀況   雙方遲 遲無法 達 成共識   因此 相關 損害 修 復 恐怕 還有 得 吵     廣朋總 公司 位 於 台北 市長 安東路   其 於 104 上 敘述 自稱 成立 20 年來 擁有 專業 建築 團隊   除 專注 北市 市中心 精華區 興建 精 緻 住宅   同時 將建築 領域 開發 至 花蓮市   台南 與 高雄   同時 更是 ViVi   PARK 停車 品牌 經營者     但 廣朋在 2017 年 時 與 台灣 知名 視障 慢跑 者     台灣 阿甘   之稱 張文彥 發生 租屋 糾紛   張文彥 向 廣朋租 店面 開設 視障 健康 按摩 養生會館   但 廣朋 卻 將停 車場 以金 店面 名義 承租 給張 文彥   並 要求 提前 解約   甚至 將 店面 大門 以鐵片 封死   搬 2 塊 巨石 擋住 大門   被 批 手段 惡劣   而前 台北市 議員 黃 向 羣 曾 被 周刊 踢 爆   其為 北捷 萬大線   捷七聯 開案   地主 拒絕 加入 聯合 開發 一事   以 優先 投資權   開發 獲利 超過 13 億元 吸引 地主 找廣朋 合作   以此 收取 6500 萬元 顧 問費   造成 地主 200 坪 土地 被 納入 聯開   市價 5 億 多元 土地 僅能 拿 回 1 億餘元     對此   本刊 兩度致 電向位 北市 廣朋總 公司 詢問   該 公司 接線 人員 表示 對 此事 不 了解   並說 公司 沒 有人 可 代表 對外 說明   就 將電話 掛斷   不再 回應  ']</t>
+          <t>['北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ', '北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ']</t>
         </is>
       </c>
     </row>
@@ -488,21 +488,21 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_台北市_台北_市府_街</t>
+          <t>0_台北市_消防局_巷道_市府</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['台北市', '台北', '市府', '街', '路面', '地層下陷', '北市', '道路', '市長', '塌陷']</t>
+          <t>['台北市', '消防局', '巷道', '市府', '街', '信義區', '地層下陷', '坑洞', '鄰近', '巷']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
+          <t>['台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝', '〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  ', '台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -511,21 +511,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_排水_市府_設施_當地</t>
+          <t>1_地下水_地層下陷_面積_區域</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['排水', '市府', '設施', '當地', '水', '地層下陷', '公所', '街', '日', '地質']</t>
+          <t>['地下水', '地層下陷', '面積', '區域', '坑洞', '環境', '水', '當地', '地', '洞']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   男女 湯室 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 出動 透地雷達 探測   這次 發現 問題 較 嚴重   建議 邀請 土木 技師 參 與 會勘   經濟 發展局 水利局 應針 對 附近 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  ', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商 到場 會勘 後 發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   男女 湯室 地底下 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   建議 應該 邀請 土木 技師 一 併 會勘   包含 溫泉 主管 機關 經濟 發展局   水利局 邀請 來   對 於 周邊 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 改善 方法   公所 將再 請 新北市 土木 技師 公會 等 相關 專家 進行 專業 檢查 評估   期望 確保 安全 無虞 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  ']</t>
+          <t>['桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 草原 都 因 地層下陷   出現 大大小小 坑洞   遭議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 建置 自行 車道 會勘 過程 中   發現 綠地 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區   都 會 中 綠洲                               市議員 張桂綿 近期 發現   公園 中 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現   無底 洞     遭議員 批評 宛如 成 了   地 雷公 園     圖 ／ 張桂綿 提供', '〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ', '〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  ']</t>
         </is>
       </c>
     </row>
@@ -534,21 +534,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_道路_地層下陷_路面_台灣</t>
+          <t>2_道路_路段_地層下陷_路面</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['道路', '地層下陷', '路面', '台灣', '範圍', '下陷', '公尺', '下', '縣府', '地方']</t>
+          <t>['道路', '路段', '地層下陷', '路面', '交通', '混凝土', '施工', '水泥', '下陷', '凹陷']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 容許 範圍   結構 安全 無虞     高鐵路線 通過 彰化   雲林 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化縣 溪州 鄉   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 橋墩   反而 是 沉陷 改善 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429', '台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  ', '去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  ']</t>
+          <t>['〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 高鐵橋 下 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   道 位 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 行車 品質  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -557,21 +557,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_坍塌_道路_塌陷_坑洞</t>
+          <t>3_台北市_王玉芬_四川_北市</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['坍塌', '道路', '塌陷', '坑洞', '路面', '市府', '地面', '台北市', '地下', '地基']</t>
+          <t>['台北市', '王玉芬', '四川', '北市', '建設', '施工', '住戶', '下陷', '陳', '建案']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ', '台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北 市長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  ', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影']</t>
+          <t>['台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
         </is>
       </c>
     </row>
@@ -580,21 +580,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_台北市_道路_地層下陷_路面</t>
+          <t>4_地層下陷_大樓_地下水_地層</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['台北市', '道路', '地層下陷', '路面', '坑洞', '市府', '塌陷', '坍塌', '北市', '下陷']</t>
+          <t>['地層下陷', '大樓', '地下水', '地層', '建築', '地區', '下陷', '未來', '多', '地面']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供']</t>
+          <t>['一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ', '美國 紐約 是 東部 最熱鬧 城市 之一   是 美國 人口 最多 城市   但 研究 顯示   這座 重要 城市 卻 每年 都 下沉 中   部分 地區 最 後 可能 還會 被淹 沒   電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   美國 紐約 摩天 大樓 林立   但 多 達 百萬棟 建築物實 太重 了   讓 整座 城市 地層 正在 下陷   再 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   長 久 下來 恐發生 海水倒灌 等 洪水 災害   美國 地質 調查 所 專家 帕森斯 表示     無可 避免   地面 下降   水面 上升   某些 時候   這兩層 面會 同時 發生   但 我 沒辦 法給 確切 時間點     帕森斯 說   超過 百萬座 建築物 分布 五個 行政 區上   加起 來 約 1.7 兆 磅 混凝土   金屬 玻璃 等 建材   相當 於 4700 座帝 國大廈 重量 壓在 地球 上   其中   部分 大樓 建築 布魯克林   皇后 區和曼 哈頓 市中心 土 質 鬆 散 地 區 上   下沉 速度 更 快   美國 地質 調查 所 專家 帕森斯 表示     中部 大陸 上升   東 海岸 每年 下沉 約 1 至 2 公 釐   這是 我們 看到 主要 警訊   再 加上 紐約市 不同 土壤 質地   還有 人工 填土 來 增加 土地 面積   但 它們 土壤 固結度 很 差   還是 可以 讓 地層下陷     帕森斯 還說   雖然 下沉 速度 很 緩慢   但 紐約 部分 地區 最 終將 被淹 沒   猶如 電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   至於 紐約 是否 會 變成 美國版 威尼斯   帕森斯 表示   確切 時間點 目前 尚 不 清楚   可能 還 需要 數 百年 時間   但 他 研究 不是 危言 聳 聽   只是 希望 透過 科學 數據   問題 擴大前   採取 行動  ', '紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】']</t>
         </is>
       </c>
     </row>
@@ -603,21 +603,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_沿海_台灣_縣府_中</t>
+          <t>5_巷道_地層下陷_市府_道路</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['沿海', '台灣', '縣府', '中', '地方', '路', '地層下陷', '附近', '陳', '為']</t>
+          <t>['巷道', '地層下陷', '市府', '道路', '塌陷', '巷', '路', '下陷', '地下', '下']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['雲林 沿海 受 藍 月 大潮 加上 颱 風 大浪   近日 接連 發生 嚴重 海水倒灌   最大 萡 子 寮 港 到 昨天 仍 一片汪洋   淹水 膝   港口 被迫 封閉   行政院 長 陳 建仁 昨 前往 現場 勘災   地方 陳 情指   漁港 淹水 已嚴 重威脅 下崙 3 個村 安危   應急 工程 不能 再 拖   縣府 盼 中央 補能 加高 延伸 堤防   陳 建仁 允諾 相關 部會 與 縣府 合作   研議 解決 之道       縣府 水利 處長 許 宏博 簡報 指出   因地盤 下陷 嚴重   多年 來 幾次 加高 防波堤 年 年 抽沙 清淤   仍難 敵 天象 變化   港域 高程 約 1.9 公尺   但 這兩天 高達 2.56 公尺   加上 風浪助長 爆發 嚴重 海水倒灌   目前 除應 急 擋 水 措施   要 增高 延伸 防波堤   清理 港域 30 萬 立方米 淤沙   確保 港口 不受 漂沙 封堵   才能 因應 極端 氣候 海象 變化   整建 經費 預估 10 億元                             同為 養殖業者 口湖 鄉 代王 紫陽 說   這 生活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重   鄰近 300 多公頃 養殖區 朝不保夕   政府 不能 坐視 不管   李姓 養殖業 說   這次 海水倒灌 造成 部分 魚苗 流失       議員黃 文祥 指 說   萡 子 寮 港 已 無 法 因 應 現 海象 變化   尤其 漂沙帶 來 淤塞 海水倒灌   連 以前 航行 澎湖 輪 船 因 淤沙 停駛   口湖 代表 會 主席 王溪邊 指   更 扯 是 退潮 水位 變低 時   漁船 竟 要 用 推 進港   實在 可笑   治港刻 不容 緩       昨 陪同 會勘 雲林縣 長 張麗善 當面 遞交 雲林 漁港 治理 海堤 安全 防護 計畫   盼 請 行政院 協助   立委 蘇治芬 建議將 雲林 海岸 治理 一 併 納 入院 會 正在 檢討 國土 沙洲 案   以 擴大 治理 量 能       陳 建仁 說   這次 海水倒灌 對 地方 造成 損失   針對 地方 希望 能 加高 延伸 堤防   此須 經過 水工 模型 試驗   才能 確保不會 加劇 地層下陷 問題   行政院 會 聽取 地方 建議   與 縣府 共同 研議 解方       漁業署 表示   曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討   為 保漁港 漁業 永續   除應 急 工程 應要 進行 水工 研究 與 探測 再行 治理   才能 一勞永逸   由 於 該 漁港屬 地方 管理   中央 會予 協助 建置 長 遠 治理 方案  ', '嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影', '〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  ']</t>
+          <t>['新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影', '新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -626,21 +626,21 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_水利_地下水_水管_地區</t>
+          <t>6_台北市_台北_市府_地層下陷</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['水利', '地下水', '水管', '地區', '環境', '地層下陷', '地', '區', '鄉', '工程']</t>
+          <t>['台北市', '台北', '市府', '地層下陷', '信義區', '街', '面積', '地面', '塌陷', '坍塌']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  ']</t>
+          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
         </is>
       </c>
     </row>
@@ -649,21 +649,21 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_地層下陷_地層_建築_地區</t>
+          <t>7_坑洞_破洞_區域_地下</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['地層下陷', '地層', '建築', '地區', '危險', '下陷', '地面', '路', '地質', '很多']</t>
+          <t>['坑洞', '破洞', '區域', '地下', '建管處', '坍陷', '塌陷', '土', '當地', '現場']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生         這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機       研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米         然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水         研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市       帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題           Take   action   加入   倡議 +    ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ']</t>
+          <t>['路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  ', '〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ']</t>
         </is>
       </c>
     </row>
@@ -672,21 +672,21 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_災害_地層下陷_地區_地下水</t>
+          <t>8_台北市_區域_當地_〔</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['災害', '地層下陷', '地區', '地下水', '區域', '環境', '土地', '沿海', '居民', '土壤']</t>
+          <t>['台北市', '區域', '當地', '〔', '〕', '地層下陷', '地下水', '路段', '地方', '地基']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['路透社 報導   根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示   中國將 近一半 主要 城市 正 遭受   中等 到 嚴重   程度 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 論文 作者 發現   中國 45% 都市 土地 正以 每年 超過 3 公 釐 速度 下陷   16% 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 原因 不僅 是 地下水位 下降   還有 建築 環境 龐大 重量     華南師 範大學 敖祖銳 領導 研究 團隊 表示   中國 都市人口 已經 超過 9 億   因此   即使 是 一小部分 土地 下陷   都 會 對 都市生活 構成 巨大 威脅       土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 下 一個 世紀   近 四分之一 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示     這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 問題   而 不僅僅 是 一 兩個 地方 問題     他 說     這也 是 世界 其他 地方 正在 發生 事情 縮影       人口 超過 1   500 萬 北部 城市 天津   被確 認為 受災 最 嚴重 城市 之一   去年 一場   突發性 地質 災害   導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 興建     中國 許多 老 煤 礦區 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 另 一份 研究 指出   全球 約 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 已 低 於 海平面     尼科 爾斯說   易受 影響 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 1970 年代 禁止 抽取 地下水     他 補充 說     減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 不 可能 阻止 所有 下陷   因此 要 討論 適應力 建造 海堤       根據 新加坡 2022 年 一項 研究   44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中   30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示     這是 一個 都市化 人口 增長 問題   人口密度 愈大   抽 水 就 愈 多   就 造成 更 多 下陷    ', '中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  ', '最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  ']</t>
+          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ', '宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ']</t>
         </is>
       </c>
     </row>
@@ -695,21 +695,21 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_台北市_坑洞_地層下陷_市府</t>
+          <t>9_坑洞_市府_坍陷_路面</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['台北市', '坑洞', '地層下陷', '市府', '街', '地下', '路面', '鄰近', '道路', '地基']</t>
+          <t>['坑洞', '市府', '坍陷', '路面', '塌陷', '道路', '北市', '巷', '地基', '天坑']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝']</t>
+          <t>['北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ']</t>
         </is>
       </c>
     </row>
@@ -718,21 +718,21 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10_水利_地下水_水_水管</t>
+          <t>10_大樓_巷弄_信義區_破洞</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['水利', '地下水', '水', '水管', '地區', '環境', '地層下陷', '區域', '面積', '氣候']</t>
+          <t>['大樓', '巷弄', '信義區', '破洞', '市府', '倒塌', '地下', '台北市', '牆壁', '壁']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  ', '因應 極端 氣候   水利 署 投入 123.6 億元展 開   鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫     包括 6 座 人工 蓄水池 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 能 同享 量 好質 優 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定   雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫   中 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投縣 自來 水 普及率 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投縣 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投縣 用水 問題  ', '烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 產業 發展區   整體 需水量 不斷 增加   造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投縣 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投縣 民 配合 政府 政策   但 南投縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 能 喝 到 量 好質 優 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒   珍珠 串     讓 台灣 水資源 調度 更好   顯示 台灣 人民 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   會 持續 綠 美化   變成 南投 新 觀光 地標     立委 游顥 說   南投縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 立法院 繼續 爭取   希望 行政院 重視 南投 用水 問題  ']</t>
+          <t>['台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見   蹦   聲響   工地 先緊 急 疏散 工人   才 通知 住戶     說   附近 民眾 提到 此建案 動工 後   住家 就 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  ', '北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 大樓 建案   因為 地下 連續 壁 破洞   都 發局 初步 調查 後   對 承造 人 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 旅館   相關 費用 將由建 商來 負責   巷弄 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 遭殃   鐵門 幾乎 懸空   這樣 情況 就 發生 台北市 信義區   短時間   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出     昨天 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 住戶 一共 5 戶     市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 5 戶   一共 10 人   暫時 住 信義區 旅館   依照 規定   每人每天 可以 請領 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 是 回 不了 家 了   超出 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 是 搶災 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 大樓   地下 4 層   地上 17 層   負責 營造 華熊 營造 公司   興建過 包括 台北 101   世貿 中心 陶朱 隱園   都 是 赫赫有名 建築   如今 卻 發生 工安 意外   讓 工程 暫時 喊 卡   首要 之務得 設法 解決 安全 問題   還給 當地 居民 一個 安全 家  ']</t>
         </is>
       </c>
     </row>
@@ -741,435 +741,21 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11_地基_坍塌_地質_建築</t>
+          <t>11_台北市_道路_塌陷_地層下陷</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['地基', '坍塌', '地質', '建築', '街', '鄰近', '市府', '台北', '土壤', '危險']</t>
+          <t>['台北市', '道路', '塌陷', '地層下陷', '路面', '市府', '台北', '巷', '下', '地下水位']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 中正路 425 號前 道 路旁 水溝   發生 下陷   破洞 情形   經 會勘 後 工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 地基 掏空 問題     都 發處 表示   請 土木 技師 公會 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  ', '台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 地梁 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  ', '花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性']</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>12_街_台北市_鄰近_撤離</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>['街', '台北市', '鄰近', '撤離', '區域', '北市', '道路', '災害', '地層下陷', '區']</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供', '台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>13</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>13_土壤_土地_鄉_環境</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>['土壤', '土地', '鄉', '環境', '道路', '縣府', '地層下陷', '區', '設施', '範圍']</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>['〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ', '〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>14</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>14_市府_住戶_建設_台北市</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>['市府', '住戶', '建設', '台北市', '地下室', '建商', '民宅', '施工', '壁', '地下']</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>['北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 大樓 建案   因為 地下 連續 壁 破洞   都 發局 初步 調查 後   對 承造 人 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 旅館   相關 費用 將由建 商來 負責   巷弄 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 遭殃   鐵門 幾乎 懸空   這樣 情況 就 發生 台北市 信義區   短時間   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出     昨天 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 住戶 一共 5 戶     市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 5 戶   一共 10 人   暫時 住 信義區 旅館   依照 規定   每人每天 可以 請領 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 是 回 不了 家 了   超出 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 是 搶災 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 大樓   地下 4 層   地上 17 層   負責 營造 華熊 營造 公司   興建過 包括 台北 101   世貿 中心 陶朱 隱園   都 是 赫赫有名 建築   如今 卻 發生 工安 意外   讓 工程 暫時 喊 卡   首要 之務得 設法 解決 安全 問題   還給 當地 居民 一個 安全 家  ', '高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 還有 13 歲 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將訴諸 法律 拿 回不應 該給 賠償 金     寶特瓶 放在 地上   馬 上 滾 到 另 一邊   屋主 楊力 欽     這邊 是 整個 傾斜   因為 鑑定 報告 寫 說   它 高低 層 落差       屋主 指控   是 打 開後門 緊鄰 這棟 新蓋 大樓 害   屋主 楊力 欽     它 還是 漏水   止住 可是 好像 過幾個 月過 後   又 開始 水 跑 出來       新大樓 蓋 老舊 房子 中間   後 方 這一棟 舊型 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照後馬 上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲       因為 地下水 修繕   地 下陷 問題 得 補救   2 百多 萬 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者 會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償 金   因為 蓋大樓 建商 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  ', '住戶 拿 寶特瓶 平放   立即 滾去 較 低 地方   證明 地面 傾斜   牆上 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 依法 賠償 修繕 費及 法定 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 質疑     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 取得 使用 執照 之 後   反告 我 這 12 位 房屋 所有 權人       住戶 代表 楊 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道     創下 台灣 建 商史 上 第一 個   跟 人家 鄰損 之後又告 人家       對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 問題 損害 鄰房   而且 經過 台灣 省 土木 技師 公會 鑑定 沒 鄰損 事情   鄰房 很多 是 屋齡 要 40 年 老 公寓   違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   強調 損害 公司 名譽   會 依法 捍衛 權益  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>15</v>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>15_縣府_鄉_當地_居民</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>['縣府', '鄉', '當地', '居民', '向', '設施', '地方', '陳', '由', '為']</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>['陳 安邦 等 表示   種電 可以 村外   村內 緊鄰 民宅   不要 說 危害   打 開家門   窗戶 看到 就是 太陽 能板   叫 8   90 歲 老人 情 何以堪   尤其 庄內 種電 作為   請問 哪個 村 可以 接受   所以 村民 大團 結堅 決展 現反 對 到底 決心   任何 回饋 都 不用 說   打死 都 反 對 庄內 種電   任何 法律 問題 他 一個 人承擔   甚至 為 了 爭取 縣長 張麗善 村民 主持公道   特別 今天 前來 向 張縣 長 陳 情   唯一 要求 光場 業者 退出 瓦 磘 村     縣長 張麗善 接下 陳 情書 後 指出   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍   為 了 保護 我們 農地   特別 提出 三不三要   就是 不 希望 農地 上面 一直 種電   破壞 農地 未來 發展 跟 價值   光電業者 聚落 裡面 種電   已經 影響 鄉親 生活 起居 跟 品質   大家 不安 焦慮 我們 都 能 感同身受   縣府 透過 各種 協調 溝通   希望 能 保障 地 鄉親 權益  ', '屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀   斬斷 兒子 想 當青農 接班 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   不給 老 農一畝 田維生   青年 若當   漂鳥   回農村   肯定 變走 投無路   落翅仔         五十六 歲 鄭明偉 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 不少 國有 財產 署名 下 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 枋寮 寮 段種 芭樂   無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 靠 這片 三分 地 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種     我 不但 要 吃 土   連農保 都 沒 了         面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 枋寮   蓮霧 之 鄉   美名   四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改 種電   年 輕人 想 返 鄉務農   無 低 租金 農地 可種     蓮霧 故鄉   金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到     這 不是 迫遷 青農去 都市 討 生活   漂鳥 回農村   恐怕 走 投無路 變 落翅仔    ', '聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 文資 價值 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為   惡鄰     產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 上限 規定   目前 既有 電力 設施 併 網 上限 下   限度 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             強調   從 未 要求 廠商 提供   不利 耕作 同意 書   或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       指出   屏東 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   等 2 大 策略 為 優先   限度 使用 相對 不 適合 耕種 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活   至於 非 專案 專區 鄉鎮   則優先 鼓勵 廠 商以   土地 複 合式 利用   方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 處置 自家 土地 財產   及業者 依法 申請 案件 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>16</v>
-      </c>
-      <c r="B19" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16_環境_地區_造成_發展</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>['環境', '地區', '造成', '發展', '地層下陷', '公司', '整體', '很多', '地方', '鄉']</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>['原來 同一 個 新能源 市場   同時 這麼 多 幫人 市場 上 探索   開發     圖片 來源 ／ Pixabay  ', '從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不   這是 屏東 沿海 地區 這幾年 興起 違 景致   是 全台 種電 縮影   地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 文資 價值 二戰 遺跡 都 不放過   不僅家園 變貌   迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 典範   二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出   養水 種電   計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 罵 聲不斷   二 一 八年 十月 起   屏縣 府 公告 實施   嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫     開放 下陷區 農地 可 變更 種電       二 二 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 二 一 八年 屏東縣 長 潘孟安任   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 光電   如今 變成 農民 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽   不利 耕作 聲明書     離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作         沿海 四鄉 鎮美麗 鄉間 景致 丕 變   綠地 逐漸 蒸發     屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 是 少數 地主   受影響 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能   五贏     前年 已達成 綠電供 應 全縣 民生 用電 階段 性 目標  ', '光電亂象 已久   從 之前 良田 種電   砍樹 種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 遺跡   更 一步步 裂解 農漁村 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 社會 衝擊 比 預期 更大且 深   講求 氣候 正義和   企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理     國際 主流 下   政府 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 地產業   恐埋 隱憂       屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區   本可 接軌 屏東縣 前縣 長 曹啟 鴻   養水 種電   政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   被 批評 與   養水 種電   初衷 漸行 漸遠                             屏東 只是 全 台 種電 爭議 縮影   更 多 生態   景觀 敏感 地   追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 副作用   甚至 正向 引導 與 地 共生 共榮   實難辭 其咎   與 執政黨   愛鄉 土   理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 不 例外   猶記 得 台積 電在 被 徵收 用地 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 考慮   民進 黨 種電 國策 若 如   失速 列車     無情 地衝 撞 純樸 農漁村   把 青農   老農 都 當成   農村 最軟 一塊     這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 綠電  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>17</v>
-      </c>
-      <c r="B20" t="n">
-        <v>3</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>17_台北市_建物_建設_市府</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>['台北市', '建物', '建設', '市府', '施工', '坍塌', '北市', '建案', '建商', '工程']</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>['基泰 建設位 台北市 大直 新建 案 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   證交所 召開 重訊 記者 會   董事 長 陳 世銘 道歉 後 宣布 請辭 負責 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者   不 確定 故意   釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 回報 是否 行政 怠惰   瀆職 或 疏 於 監督     建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人     王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>18</v>
-      </c>
-      <c r="B21" t="n">
-        <v>3</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>18_坑洞_地層下陷_區域_深度</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>['坑洞', '地層下陷', '區域', '深度', '面積', '地下', '坍塌', '塌陷', '氣候', '地方']</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>['地球 南北 兩極 這兩天 都 重要 科學 發現 發表 媒體 上   其中 北極 方面   科學家 發現 加拿大 北邊 海底 出現 地層下陷   最大 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 南極 大陸 東邊   3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 144 平方公里 冰架 崩解   相當 於 半個 台北市 大小   科學家 藉 著美國 太空 總署 NASA 衛星   拍 攝到 南極 大陸 東邊   格連澤 冰河     瀕臨 南 印度洋 冰架   2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 過去數 十年 來   冰架 崩解 現象   絕 大多 數出現 西邊 南極 半島   就是 與 南美洲 阿根廷 遙遙 相望 所在   而且 過去 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 冰雪 增厚   對 全球 海平面 衝擊 有限   從 2020 年 開始 南極 東邊 冰河 開始 縮小面積   但 是 以 每天 1 平方公里 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出     但 上星期 我們 發現 快速 氣候 現象   這也許 不足以 說明 事情 全貌   但 確對 冰架 造成 前 所 未 見 壓力     研究 人員 所 說 氣候 現象   是 指 發生 3 月 15 日 大氣 河流   這種 氣候 現 象是 指   高濃度 水蒸 氣沿 著 狹窄 區域 快速 前進   對 於 已經 消退 中 冰架 造成 致命 一擊   而大面積 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域   發現 大面積 地層下陷   最大 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 地下水 緩慢 流動   是 北極海 地層下陷 原因  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>19_水利_地區_區域_地下水</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>['水利', '地區', '區域', '地下水', '縣府', '鄉', '土地', '面積', '地層下陷', '地']</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>['農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人 會勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 多 處位 處 嚴重 地層下陷區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷區 等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 新 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會勘 後 會 與 相關 單位 討論 調整 相關 政策   不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 能 發展 三贏     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '〔 記者黃淑莉 ／ 雲林 報導 〕 根據 水利 署 監測 資料   全國 最大 米 鄉 — 大 埤 鄉 近 5 年 地層下陷 面積 深度 惡化 情況   分析 原因 極端 氣候 水情 不穩   地下水 用量 增   對此   縣府 爭取 農業部 農田 水利 署將 大 埤納入 擴大溉 灌 服務範圍   可 從 北港溪 引水 高灘 地 建置 蓄水池   再 新建 管路 供農田 灌溉 用   經費 約 3.3 億元     縣府 水利 處 指出   水利 署 2023 雲林 地層下陷 監測 結果 顯示   雲林 顯著 下陷 面積 247.7 平方公里   比 前年 2022 年略增 一些   顯著 下陷 重點 地區 土庫   元長 地下水位 仍有 持續 下陷 形     水利 處長 許 宏博 表示   整體 監測 結果 可 看出   雲林 沿海 地層下陷 趨緩   顯著 下陷 主要 虎尾   土庫   元長   北港   四湖   褒忠   水林   崙 背 大 埤   值得注意 是 大 埤 鄉 下陷 面積   深度 近 5 年 惡化 現象     許 宏博 指出   大 埤 是 全國 水稻 種植 面積 最 多 鄉鎮   但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作   無水 可 灌溉 一定 要 抽 地下水 使用   水稻 面積 不變   用水量 都 固定 情況 下   地層下陷 應 不致 惡化   主要 變數 就是 水情   尤其 這幾年 極端 氣候   2021 遇 百年 大旱   2023 去年 又 遇 200 年 大旱   這 2 次 地下水 抽得 多   去年 枯水期 地下水位 洩降 大 埤 達 15 公尺 最 嚴重     許 宏博 說   目前 大 埤 農民 灌溉 情況 3 種   第一 種是 引 地面水 即區 排   第二 種是 抽 地下水   由 幾個 農民 共同 一個 公井   再分 擔電費   第三 種是 抽 北港溪 水   為 減緩 大 埤 地層下陷 持續 惡化   縣府 早先 已建議 列為 優先 防治 地   針對 大 埤 取水 灌溉 進行 初步 規劃 及構 想   考量 北港溪 尚有 水權 可 申請   即 從 北港溪 引 地面水 到 高灘 地 蓄水池   供給 農田 灌溉 使用  ', '媒體 報導 雲林縣 大 埤 鄉 水情 不穩   地下水 用量 增加   地層下陷 惡化   農田 水利 署 今天 表示   雲林縣 府 提出 納入 擴大 灌溉 服務構 想   已 請 其 提擬 更具 體的 計畫   再 共同 推動 擴大 灌溉 服務     媒體 報導   水稻 產區 雲林縣 大 埤 鄉 近年 地層下陷 情況 惡化   可能 與 水情 不穩   抽取 地下水 用量 增加 有關   雲林縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍                           農水署 副署 長 陳 衍源 告訴 中央社 記者   雲林縣 政府 提出 構想   農水署 已 回覆   請 縣府 提出 更具 體的 計畫   收到 計畫後會 審查   然後跟 縣府 共同 推動 擴大 灌區 服務 計畫     針對 成立 3 年 3 個 月 來   已 擴大 5.6 萬公頃 農田 獲得 灌溉 用水   約 8 萬 多名 農民 受惠   農水署 並規劃 114 年 要 擴 增至 8.8 萬公頃   陳 衍源 說   要 等 縣府 提出 具體 計畫後會 審查   因此 能否 納入 114 年 8.8 萬公頃 目標   尚未 確定   但應 不 受此 影響   擴大 灌溉 服務計 畫會 持續 推動     另外   陳 衍源 說   如果 能 設計 引用 河川 水作 為 灌溉 使用   希望 能 替代 當地 抽用 地下水   對 減緩 地層下陷 有所 幫助  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" t="n">
-        <v>3</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>20_氣候_沿海_未來_地區</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>['氣候', '沿海', '未來', '地區', '災害', '地層下陷', '危險', '地層', '地下水', '許多']</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>['〔 中央社 〕 一項 新 研究 指出   南亞 東南亞 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 人 更 容易 受到 海平面 上升 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表   自然 永續     Nature   Sustainability   期刊 上 一項 研究   快速 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 需求     研究 指出     這 使得 經歷 當地 土地 快速 下沉 城市 所 面臨 沿海 災害 風險   比 那些 已 因氣候 導致 海平面 上升 城市 所 面臨 風險 更 大       越南 人口 最多 城市 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 緬甸 商業 中心 仰光 高峰 年間 皆 下沉 20 多公 釐     研究 稱     這些 快速 下沉 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 建築 結構   導致 土地 下沉       下沉 城市 本身 並非 氣候變遷 結果   但 研究 人員 說   他們 研究 能 更 深入 了解 下沉 現象 如何   加劇 氣候 所導致 平均 海平面 上升 影響       根據 聯合國   政府 間 氣候變遷 問題 小組     Intergovernmental   Panel   on   Climate   Change     IPCC   資料   到 2050 年   將有 十多 億人 生活 沿海 城市   面臨 海平面 上升 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  ', '長江 三角洲 簡稱   長三角     是 中國大陸 經濟 發展 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 三角洲   然而     人無遠慮   必有 近憂     當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 此刻   當 全球 減碳 前景 仍 不樂觀 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長江 三角洲 未來 所 可能 受到 危害   將牽動 著 中國大陸 發展 前景 與 紅色供 應鏈 未來       廿世紀 前 五十年 全球 平均 海水面 升高 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國   政府 間 氣候變遷 小組   去年 報告 書 指出   隨著 不同 暖化 程度   本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 將是 各大 河流 出海口 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 舊 金山 參加 一個 研討 全球 變遷 學術 大會   十幾個 議題 組中 領略 到 密西西比河 三角洲 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 景象 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 中上游 建設 上 了 四萬座 大大小小 壩體   一九六五年 以降   河系 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   擾亂 了 原來 大自然 泥沙 輸送 布局   加上 近 五十年 下游 地區 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧     自然 解方     力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長江 三角洲 似乎 正 走上 密西西比河 老路   長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 社會 變遷   僅 上海 一地   人口 從 八 年代 六百 萬 增加 到 目前 三千 三百 萬   長江 原來 每年 輸送 五 億公噸 泥沙 到 河口   全球排名 第五   長江 三峽 大壩 二 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長江 三角洲 前緣 已 經開 始後退   以 上海 為 發展 中心 三角洲 雖 享受 著開發 豐美果實   承受 著 上游 帶來 一切 災害 危機 總   包括 三角洲 萎縮 以及 水質 汙染   大量 人口 增加 使 地下水 抽取 量大增   地層下陷   局部 地區 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 範圍 約 占 全區 百分之十四   而 長江 三角洲 則占 全區 百分之四十   未來 海水面 上升 風險 下   長三角 面臨 挑戰 顯然 更 為 嚴峻   更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  ', '地層 嚴重 下陷 問題 不是 只有 台灣 會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 33 座 城市   以 每年 超過 一 公分 速度 下沉   是 海平面 上升 速度 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 是   連美國 南部 大城 休士頓 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 當地 設立 太空中心   但 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 地 平面   根據   世界 經濟 論壇   最近 發布 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 城市   是 西半球 唯一一 個 下沉 速度 排入 前十名 城市   美國氣 候專 家史 特勞斯 表示     雖然 土地 現在 大小 堤防 保護   但   地層下陷   仍 超乎想像     專家 表示   休士頓 下沉 速度快   海平面 上升 迅速   再 加上 氣候變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 惡化 強度 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 下沉 危機 一度 非常 嚴重   全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示     非常 重要   雅加 達 曼谷 從 東京 上海 汲取 成功 經驗     科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 模擬 畫面   都 提醒 人類 要 相信 科學   保護 自己 家園 避免 消失 刻 不容 緩  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>21</v>
-      </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>21_市府_道路_地下_路</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>['市府', '道路', '地下', '路', '當地', '下陷', '塌陷', '下', '建物', '市長']</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>['北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影', '新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影']</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>22</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>22_地層下陷_鄉_建築_當地</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>['地層下陷', '鄉', '建築', '當地', '下陷', '居民', '區', '撤離', '附近', '日']</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>['插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  ', '印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  ', '〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>23</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>23_台北市_區域_北市_向</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>['台北市', '區域', '北市', '向', '〔', '〕', '建物', '地方', '下陷', '道路']</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ', '〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹縣 竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險   希望 相關 單位 幫忙 出面 解決     被 指控 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 原因 不明 下陷   龜裂 問題   看起 來 災害 確實 持續 進行 中   但導致 持續 龜裂 擴大 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 天氣 放晴 後 協助 維修 處理     陳 講   鍾 姓 住戶 主要 是 拿 自家 建物 背 後 另 1 間 民宅 比 對   鍾 認為 2 宅   沒有 一直 線     所以 認定 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護     縣府 工務處 長江 良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 毀損 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 被 徵收 戶   3 樓半 住家 就是 蓋 約 3   40 坪 配回 地上   10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 其中   如果 房子 真的 不安   影響 非常 大     鍾 說   隔鄰 新建 工地 約 是 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 地面   竟 自己 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 牆面 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 已有 他 1 片 手指甲 寬   至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>24</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>24_水利_地下水_地區_地層下陷</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>['水利', '地下水', '地區', '地層下陷', '區域', '面積', '鄉', '水管', '縣府', '當地']</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>['雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  ', '根據 水利 署 監測 資料   雲林縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示     就是 都 沒 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋     雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示     非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 灌溉 水源     雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  ', '經濟部 水利 署 監測 雲林縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林縣 長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   自來 水可到 達 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林縣 大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影']</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>25</v>
-      </c>
-      <c r="B28" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>25_坑洞_台北市_市府_地層下陷</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>['坑洞', '台北市', '市府', '地層下陷', '地基', '街', '坍塌', '塌陷', '台北', '路面']</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>['高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 永新 五街 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝', '首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>26</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>26_地層下陷_塌陷_縣府_當地</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>['地層下陷', '塌陷', '縣府', '當地', '街', '路面', '居民', '地下水', '道路', '下陷']</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>['地層下陷   居住 環境 出現 疑慮   宜蘭 蘇澳鎮 民富 街   持續 嚴重 地層下陷   除了 騎樓 路面 出現 裂縫   家裡 牆壁 地磚 都 是 裂痕   讓民眾 膽戰心 驚   質疑 是 附近 蘇澳 海事 水產 職業 學校 游泳池   超 抽 地下水 造成   10 號會同 當地 立委   縣府 官員 進行 協商   希望 解決 問題   道路 傾斜 越來 越 嚴重   路面 持續 裂痕 產生   地層下陷 越陷越深   民眾 憂心 忡忡   因為 騎樓 道路 出 現明 顯裂 縫   家門口 緊鄰 水溝 都 脫離 了 3 公分   走 進家裡 更是 驚險   白色 地磚 出現 裂痕   銜接 處變 得 高低不平   整個 牆 壁上 是 超長 裂痕   怵 目驚心   這裡 是 宜蘭 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 水產 職業 學校 游泳池   當地 地層 持續 嚴重 下陷   遊 泳池 用 了 四年 就 塌陷   讓 居民 質疑   是 學校 不當 抽取 地下水 惹 得 禍   10 號這天會 同 立委   縣府 官員 共同 協商   不過 水利 署 官員 分析 指出   地層下陷 除了 跟 抽水 行為 有關   泳池 載重 有關 係   還要 再 進 一步 釐 清   居家 環境 不 安全   民眾 生活 都 膽戰心 驚   只 盼望 可以 盡快 改善 問題   還給 居民 安全 生活 環境  ', '基隆 一處 屋齡 超過 40 年 公寓 住宅   後 方 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 出現 地層下陷 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   居民 行經 踩 空   才 驚覺 原來 民宅 外側 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   讓 周圍 路面 出現 地層下陷 狀況   從 畫面 中 可以 看到   地層下陷 深度 大概 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 影響   基隆市 議員施 偉政 提醒   地基 被 沖 刷   上面 載重 又 大 話   恐怕 房子 會 很大 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>27</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>27_台北市_台北_建物_市長</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>['台北市', '台北', '建物', '市長', '北市', '建設', '住戶', '施工', '府', '民宅']</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>['台北市 中山 區 大直 民宅 疑因 附近 建案   基泰 大直   施工 不慎   整棟 下陷   建商 基泰 建設 今天 認了   施工 不慎     表示 相關責 任絕 不 推卸   會 對 受 損戶 盡 最大 慰問   協助 安置   台北 市長 蔣萬安 上午 到 顯場 視察   指 預防性 撤離 可能 再 擴大       基泰 建設 表示   台北市 中山 區   基泰 大直   建案 於 9 月 7 日 晚間   因營 造廠 施工 不慎   造成 鄰房 損壞   深表 遺憾   為維護 公共安全   已 於 第一 時間 要求 停工   同時 進行 相關 措施       蔣萬安 表示   市府 第一 時間 就 進行 疏散   跨局 處 到場 預防性 撤離   撤離 人數 規模 大   共 197 戶   約 369 人   但 可能 再持續 擴大   道 明外 僑學校 操場   圍牆 裂開   教育局 緊急 確認 後   宣布 今日 預防性 停課 1 日   以策安全               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>28</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>28_地下水_水利_水_地區</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>['地下水', '水利', '水', '地區', '地層下陷', '區域', '沿海', '土地', '區', '地下']</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>['資訊視 覺化 地層下陷                   書名     書上 設計展 2021       作者   尼 普利 編輯室 企劃     出版社   尼 普利 出版     出版 時間   2022 年 1 月 15 日           臺 灣 地層下陷   人們 對 於 這塊 土地 不當 利用   可說 是 現今 臺 灣 地層下陷 主要 肇因   像是 水資源 缺乏 所導致 超 抽 地下水   抑或 是 高鐵興 建所 造成 地面 荷重 大量 增加 等   都 加速 了 地層下陷 問題 發生   〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計   將其分 為 兩 部分   分別 以線 裝及 摺 頁 書 方式 呈現   運用 資訊視 覺化 設計 為 主軸   介紹 臺 灣國土 下陷 四大 原因   九大 下陷 地區 說明   各個 地區 圖文細節   藉由 閱讀 理解 各 下陷 地區 之間 差異   引領民眾 快速 了解 現今 臺 灣 地層下陷 嚴重 程度       複 合式 裝幀 結構 設計     有別 於 過往 百科 全書 呆板 形式   本 專書 運用 複 合式 裝幀 結構 設計   利用 資訊視 覺化 手法   將 原本 龐雜 數據   輔以 凸顯 重點 視覺 編排   呈現 一幅 巨型 資訊 圖表   並 搭配 注目 性較 高 紅色   警惕 民眾 地層下陷 所 造成 危害   以及 對 居住 與 國土 安全 威脅                                           以 專書設 計為 主軸   書籍 以 複 合式 裝幀 設計   圖 ／ 尼 普利   提供                           封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型   圖 ／ 尼 普利   提供                           重點 介紹 九大 下陷 地區 數據表現 與 相 關訊息   圖 ／ 尼 普利   提供           ● 編輯 觀點     地層下陷 問題   好像 溫水 煮 青蛙   水平 看似 一致   卻 可能 正在 下移 而 渾然 未覺   安全 此刻 懸崖邊   搖搖欲 墜   〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法   視覺化 呈現 臺 灣 地層下陷 現況   讓 人 意識 到 問題 存在   進而 思考 土地 規劃   臺 灣 四面 環海   地層下陷 問題 格外 隱憂   國土 一旦 保持 不佳   負載 過度   一不留神 就是 海水倒灌 等 不 可逆 嚴重後患   那些 存在 許無力 一次 解決   但 不放棄   盡己 所能   喚起 危機 意識   是 一種 改變 開始     設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉   楊皓鈞   黃 上溢   廖楷平   林靜芬   黃 麒 樺     Advisor ｜ 陳 月 英                             【 本 文摘 選自尼 普利 編輯室 出版   書上 設計展 2021   一書   授權 刊登 於 聯合 新聞網   琅琅 悅讀   頻道   未經 同意   請 勿 轉載   】 加入   琅琅 悅讀   Google   News   按下 追 蹤   精選 好文 不 漏接       五月 藝文 專題 活動 一覽     🎁 \u3000 抽獎 ｜ 海明威   金城武 都 來過   法國 巴黎 左岸 莎士 比亞書店   📰 \u3000 師大美術館   一拍 即影   300 件 拍 立得   見證 攝 影大師 黃 金 年代   📰 \u3000 漫步 青島 老城 區   探訪 上 世紀 文藝書店   民宿 咖啡 館   📰 \u3000 不一樣 山水 畫   M ＋ 博物 館   山鳴 水應   用 新視角 看藝術   📰 \u3000 南美 館 雙館 共展   沃克   海怪   炮火 與 他們   以藝術 視角 回望 歷史   📰 \u3000 吃 是 什麼 烤 鴨   北京 與 廣式 烤 鴨 之間 3 種差異   📌 \u3000 梁朝 偉   劉德華 都 演過   盤點 金庸 武俠 劇中 經典 選角', '旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>29</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>29_未來_地區_氣候_當地</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>['未來', '地區', '氣候', '當地', '月', '重要', '目前', '計畫', '希望', '設施']</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>['[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  ', '科技 大亨 馬 斯克   Elon   Musk   今天   5 19   抵達 印尼 峇里島   將與 印尼 總統 佐科威   Joko   Widodo   一起 參加 星鏈   Starlink   網路 服務 啟用   印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   政府 希望 星鏈 能夠 提高 各島嶼 網路 普及 度   這是 印尼 一個 月 迎接 第 3 名 科技 企業 執行長   此前 蘋果   微軟 執行長 都 已來訪     綜合 路透社 與 美聯社 報導   太空 科技 公司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場   印尼 首席 投資部長 盧胡特   Luhut   Binsar   Pandjaitan   機場 迎接   預計 兩人 將會 討論 一些 重要 合作   包含 星鏈 服務 啟動   馬 斯克 還會 簽署 一項 協助 印尼 加強 衛生 與 教育 單位 聯絡 互通 合約     盧胡特 表示   馬 斯克 今天 稍晚 將和 印尼 總統 佐科威 一起 峇里島 首府 登巴薩   Denpasar   社區 衛生 中心 一起 啟動 星鏈   盧胡特 說   衛生 機構 啟動 這項 服務   呼應 星鏈   提供 平價 高速 網路   宗旨   尤其 是 網路 收訊 不佳 或過 於 偏遠 地區     印尼 是 個 群島 國家   約 1.7 萬座 島嶼   橫跨 3 個 時區   人口 超過 2.7 億   盧胡特 說   印尼 偏鄉 需要 星鏈 來 拓展 高速 網路   尤其 是 要 用 來 解決 衛生   教育 海事 單位 問題     印尼 通訊 部長 布迪   Budi   Arie   Setiadi   上週 表示   星鏈 已經 獲得 印尼 營運許 可   布迪 強調   星鏈 低 軌衛星 可以 讓 網路 擴及 目前 印尼 通訊 商無法 到 達 地區     據報   位 於 印尼 婆羅洲   Borneo   新 首都 努山 塔拉   Nusantara   本月 將先 試用 星鏈   8 月 正式 上線   印尼 正準備 遷都 努山 塔拉   因為 受 海平面 上升 與 地層下陷 影響   預計 目前 首都 雅加 達 大部分 地區將 2050 年 被淹 沒     印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   馬 來 西亞 去年 已核 發許 可證 給營 運星鏈 SpaceX 公司   菲律賓 一家 公司 則是 2022 年 與 SpaceX 簽約 合作     馬 斯克訪 印尼 前   蘋果 公司 執行長 庫克   Tim   Cook   4 月 17 與 印尼 總統佐科 威會面   並 表示 會將 印尼 產能 納入 考慮   兩周 後   微軟 執行長 納 德拉   Satya   Nadella   同月 30 日訪 印尼   承諾 未來 4 年 印尼 投資 17 億 美元   強化 印尼 新雲端 運算 與 人工智慧 基礎 設施     馬 斯克 此次 訪 峇里島   將參加 第十 屆 世界 水論壇   World   Water   Forum     研討 全球 水資源 衛生 挑戰  ']</t>
+          <t>['〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  ', '4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  ']</t>
         </is>
       </c>
     </row>

--- a/repo/topic_list.xlsx
+++ b/repo/topic_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,21 +465,21 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_台北市_市府_地層下陷_坍塌</t>
+          <t>-1_台北市_市府_高雄_路面</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['台北市', '市府', '地層下陷', '坍塌', '縣府', '路面', '地面', '下陷', '地方', '北市']</t>
+          <t>['台北市', '市府', '高雄', '路面', '四川', '道路', '台北', '坍塌', '鄉', '下陷']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  ', '台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  ', '[ 周刊 王 CTWANT ]   花蓮市 名店   歪 歪歪 甜點     南京 街 店面 竟 被後方 建案   廣朋   建設 公司 以修繕 名義 直接 將廁 所 拆除   業者 忍無可忍 報警 處理   而廣朋 於 建設 新大樓 過程 當中 造成 鄰損 不 只 這一樁   一名 A 房屋 剛好位 基地 旁邊   房屋 早已 因 地層下陷 而 硬生生 斷成 兩截   而廣朋 不但 試圖將 相關 損害 歸咎 於 地震   且 只 買 了 一個 大 水桶 讓 住 戶接 漏水   讓 住戶 完全 無法 接受     A 帶著 本刊 記者 實際 走 進屋   儘 管 該 棟 房屋 為 老舊 3 層 透天   但 屋內 深度 相當 深   穿越 車庫 進入 客廳 後 可以 明顯 感覺 地層 已 下陷   腳下 磁磚 碎裂   屋主 已 鋪 上 軟 墊   避免 踩 上面 時 受傷     A 拿出 一顆 乒乓球 放在 地面 測試 屋內 地板 磁磚 水平   且 明顯 看見 本該 靜止 乒乓球 滾動   證明 地面 出現 傾斜   A 憤怒 表示     這些 損害 早 0403 大 地震 前 就 已經 發生   廣朋還 試圖 想要 將責任 全部 歸咎 地震 上       A 帶著 記者 穿越 客廳 進入 一樓後方 臥室   不但 明顯 感受 到 地面 傾斜   地上 更裂 出 一條 又 深 又 長 裂縫   一路 到 房屋 正後方   而後方 因 房屋 管線 受損 嚴重 已 無電力 照明   A 隨手 拿 起 一條 目測 至少 約 1 公尺 長 木棍   直接 插 進裂 開 縫 中   他 裂縫 中 攪動 木棍 表示     這裂 縫 寬度 至少 約 5 公分   而 這根 木棍 甚至 還沒 到底   跟 我 說 這叫 地震 造成       走上 2 樓   由 於 房屋 後 半段 傾斜   門框 早已 變形 無法 關上   管線 被 嚴重 破壞   不但 沒有 電力 照明   水還 從 四面八方 滴滴答答 滲出   A 說   這樣 到底 要 怎麼 住   而 廣朋所 事 就是   買 了 一個 大 水桶 要 我們 接 漏水       當地 主商里 里 長 廖大慶 5 月 22 日 帶 著 縣府 與 市公所 人員 前往 工地 會勘   廖大慶 比著 工地 一旁 柏油路 上 明顯 裂痕 與 民宅 地板 明顯 落差 表示     這 不是 地層下陷 是 什麼     廣朋 李姓 協理則 表示   柏油路 裂痕 已有 補過   但 主要 應是 3   40 噸 重機具 每天 這裡 進出 所導致   里長 吐 槽 表示     不要 跟 我 說 是 重機具   那為 什麼 只有 工地 這 一段 出現 裂痕 下陷   工地 前 後 柏油路 都 沒 裂開     場面 一度 相當 火爆     22 日 會勘 住 戶 對 建商 一片 罵聲 中 暫時 落幕   花蓮縣 議員 吳東 昇 居中 協調   廣朋 初步 承諾會 先將 裂開 下陷 馬 路 進行 修繕   以維護 公共安全   至於 與 住 戶 所 造成 鄰損 等 狀況   雙方遲 遲無法 達 成共識   因此 相關 損害 修 復 恐怕 還有 得 吵     廣朋總 公司 位 於 台北 市長 安東路   其 於 104 上 敘述 自稱 成立 20 年來 擁有 專業 建築 團隊   除 專注 北市 市中心 精華區 興建 精 緻 住宅   同時 將建築 領域 開發 至 花蓮市   台南 與 高雄   同時 更是 ViVi   PARK 停車 品牌 經營者     但 廣朋在 2017 年 時 與 台灣 知名 視障 慢跑 者     台灣 阿甘   之稱 張文彥 發生 租屋 糾紛   張文彥 向 廣朋租 店面 開設 視障 健康 按摩 養生會館   但 廣朋 卻 將停 車場 以金 店面 名義 承租 給張 文彥   並 要求 提前 解約   甚至 將 店面 大門 以鐵片 封死   搬 2 塊 巨石 擋住 大門   被 批 手段 惡劣   而前 台北市 議員 黃 向 羣 曾 被 周刊 踢 爆   其為 北捷 萬大線   捷七聯 開案   地主 拒絕 加入 聯合 開發 一事   以 優先 投資權   開發 獲利 超過 13 億元 吸引 地主 找廣朋 合作   以此 收取 6500 萬元 顧 問費   造成 地主 200 坪 土地 被 納入 聯開   市價 5 億 多元 土地 僅能 拿 回 1 億餘元     對此   本刊 兩度致 電向位 北市 廣朋總 公司 詢問   該 公司 接線 人員 表示 對 此事 不 了解   並說 公司 沒 有人 可 代表 對外 說明   就 將電話 掛斷   不再 回應  ']</t>
+          <t>['張信 哲杜拜 站 演唱 會 原定 2 月 登場   後 來 撞 上 極端 氣候 出現 冰雹   淹水 災害   因而 延期 至 端午 假期 6 月 9 日舉行   他 笑 說     很 開心   差點 變成 不是 第一 個     透露 目前 已經 很多 歌手   陸續 安排 開唱 計畫   原本 很 擔心 阿拉伯 國家 演出 會 很多 限制   像是 有些 景點 不能 比 出 特定 手勢   演唱 會太過 喧鬧   後 來 才 發現 他們 對 外國人 很 禮遇   很 支持 娛樂 活動     第一次 得知 邀請 時   張信哲 心想     真的假 啦   有人 要 聽     過往 都 只有 杜拜 轉機 經驗   從 未 入境 過旅遊 他 說     他們 來 邀 請 時 就 說   以中 東來 說 這邊 是 華人 最 多 地方   30 萬人     杜拜位 處國際 航班 交通 樞紐   因此 有來 自 歐洲   俄羅斯 華人 歌迷   特地 飛來 欣賞 演唱 會   因為 天災 延期 開唱   歌迷 們 沒 太 多 抱怨 問題   把 票 留著 就 為 了 等到 正式 演出 這 一天 朝聖     首次 前進 沙漠 開唱   張信哲 歌喉 完全 沒有 受 影響     還好   場館 冷氣 很足   我 提前 4 天來   杜拜   調時 差     本來 就 沒 計畫 要 衝場 次 演出   1 週 1 場已 是 最大 限度     未來式   巡演 開唱 6 年   亞洲 站 預計 至 2024 年底 結束   前進 海外 開唱   他 最 想 攻 佔 場館 是 英國倫敦 皇家 阿爾伯特 音樂廳   Royal   Albert   Hall       張信 哲新 專輯 已經 籌備 中   下半年 會釋 出 更 多 新歌   台北 小 巨蛋   高雄 巨蛋 演唱 會   則要 排到 2025 年 才能 開唱     第一 個 要 搶 時間   現在 場館 太難 搶 了     記者 提議 大 巨蛋 開唱   張信哲 卻 謙虛回     大 巨蛋 周董   周杰倫   都 還排 不到   哪 還輪 到 我   等 別人 有空 給我用   我 再 用 就 好       歌神 張學友 因為 身體 不適   日前 取消 台北 站 演唱 會   張信哲 關注 此事     好 害怕   我 吃 增強 免疫力 的藥   醫生開     即將 前進 海拔 2000 多 公尺 青海 西寧站 開唱   張信哲 提到   前輩   薛之謙唱 到 吸氧 氣   私下 還嚇 他     一定 不要 亂動   不要 突然 爆衝    ', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ', '台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  ']</t>
         </is>
       </c>
     </row>
@@ -492,17 +492,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_台北市_台北_市府_街</t>
+          <t>0_台北市_鄰損_大樓_建物</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['台北市', '台北', '市府', '街', '路面', '地層下陷', '北市', '道路', '市長', '塌陷']</t>
+          <t>['台北市', '鄰損', '大樓', '建物', '市府', '損鄰', '台北', '中山', '建設', '高雄']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
+          <t>['基泰 建設位 台北市 大直 新建 案 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  ', '台北 捷運 信義線 東延段 工程   疑似 造成 松山 家商 校舍 下陷 5 公分   引發 安全 疑慮   直擊 北市 福德街   住戶 反映   下陷 情況 相當 明顯   連房價 都 跌 了   對此 台北市 捷運局 表示   已 安排 台北市 結構 技師 公會 辦理 結構 安全 鑑定   同時 已針 對 周邊 建物 鄰房 損壞 部分   進行 立即 修繕 作業   台北 捷運 信義線 東延段 工程   2016 年 開工 至今   工程 目前 還在 進行 中   不過 近期 北市 議員接 獲民眾 陳 情   說 先前 開 挖 工程   釀成 鄰近 建物 塌陷   實際到 現場 一看   發現 原本 馬 路 是 平   但 塌陷 狀況 確實 越來 越 明顯   附近 住戶 說     對   本來 都 是 平   這邊 全部 都 下陷   我 就 住 二樓   那個 球 很 明顯 從 這樣 滑下去     說 到 地層下陷   附近 住戶 超級 有感   北市 福德街 一旁 騎樓   明顯 受到 捷運開 挖 工程 影響   下陷 相當 嚴重   連住 戶 都 直呼   這裡 房價 都 跌 了     里長 更 指出   福德街 51 巷到 89 巷是 影響 最明顯 地方   附近 住戶 擔心 說     補 了 沒用   看 就 這樣   結構 已經 不行 了   除非 重建     對此 台北市 土木 技師 公會 理事 長 莊均緯 表示     通常 捷運 施工 比較 容易 下陷 部分   就 是非 結構體   像是 水溝   人行道   瓷磚 部分   要 安全 檢測   看 是否 造成 結構 上 問題     而 松山 家商 校舍 被 發現 下陷 狀況   議員 指出   經過 一年 監測   確認 已經 下陷 約 5 公分   安全 疑慮 浮上 檯 面   捷運 工程局 承包商   趕緊 進行 結構 補強   施作 地質 鑽 探作業   要 確認 校舍 承受能力   台北市 政府 捷運局 第二 工程 處 主任 陳 建仁則 表示   110 年 9 年 接到 學校 通報   監測 作業 進行 修繕   今年 暑假 陸續 修繕 完成   這個 月 安全 鑑定   兩個 月 後 就 安全 報告   而 台北 捷運局 表示   施工期 間 因為 極端 地質 水文 條件 不利   釀成 地下 土層 沉陷   目前 已經 安排 結構 安全 鑑定   並進行 立即 修繕   捷運 施工 周邊 建物   都 有安裝 建物 監測 儀器   按時 觀測 監控   研判 施工 是否 再 造成 影響  ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
         </is>
       </c>
     </row>
@@ -511,21 +511,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_排水_市府_設施_當地</t>
+          <t>1_地層下陷區_高鐵_道路_壅塞</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['排水', '市府', '設施', '當地', '水', '地層下陷', '公所', '街', '日', '地質']</t>
+          <t>['地層下陷區', '高鐵', '道路', '壅塞', '路段', '捷運局', '交通', '沿線', '路面', '台灣']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   男女 湯室 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 出動 透地雷達 探測   這次 發現 問題 較 嚴重   建議 邀請 土木 技師 參 與 會勘   經濟 發展局 水利局 應針 對 附近 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  ', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   因 係 屬免 費泡湯   不但 金山 萬里 當地民眾 喜愛   就連 基隆 人 搭車 專程 前來 免費 泡湯   因 日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認無 危險   才 會 再行 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆有 裂縫 等 事宜   廠商 到場 會勘 後 發現   懷疑 是 地層下陷   為確 保民 眾泡湯 安全   自 3 月 4 日 起先 封閉 浴室   經技師 以 透地雷達 探測 後   男女 湯室 地底下 土壤 流失 現象   公所 再度 發起 現勘   商討後續 改善 辦法     周雅玲 指出   萬 里加 投溫泉 公共 浴室 10 多年 前 曾 經修繕   當時 就 曾 經有 出動 透地雷達 探測   這次 透地雷達 探測   與 當年 比較 發現 問題 較 為 嚴重   建議 應該 邀請 土木 技師 一 併 會勘   包含 溫泉 主管 機關 經濟 發展局   水利局 邀請 來   對 於 周邊 溫泉開 發應 予以 總量 管制   以免 加投 溫泉 公共 浴室 慘遭 池魚 之殃     萬里區 區長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   為 瞭解 確切 原因   找出 有效 改善 方法   公所 將再 請 新北市 土木 技師 公會 等 相關 專家 進行 專業 檢查 評估   期望 確保 安全 無虞 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   呼籲   加投 溫泉 公共 浴室 封閉 期間   民眾 切勿 擅 闖 翻越 圍籬 進入 使用   以維護 自身 安全  ']</t>
+          <t>['去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  ', '台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  ', '  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 容許 範圍   結構 安全 無虞     高鐵路線 通過 彰化   雲林 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化縣 溪州 鄉   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 橋墩   反而 是 沉陷 改善 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429']</t>
         </is>
       </c>
     </row>
@@ -534,21 +534,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_道路_地層下陷_路面_台灣</t>
+          <t>2_中國_北京_城市_都市</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['道路', '地層下陷', '路面', '台灣', '範圍', '下陷', '公尺', '下', '縣府', '地方']</t>
+          <t>['中國', '北京', '城市', '都市', '災害', '氣候變遷', '洪水', '風險', '地區', '人口']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 容許 範圍   結構 安全 無虞     高鐵路線 通過 彰化   雲林 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化縣 溪州 鄉   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 橋墩   反而 是 沉陷 改善 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429', '台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  ', '去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  ']</t>
+          <t>['中國 過度 抽取 地下水   導致 近 40% 主要 城市 土地 下陷     路透     陳 麗珠 ／ 核稿 編輯   〔 財經 頻道 ／ 綜合 報導 〕 中國 近一半 主要 城市 正 遭受   中度 至 重度   不 等 程度 沉降   海平面 上升 情況 下   恐有 數百萬人將 面臨 洪水 風險     路透   指出   中國 都市人口 約 9 億人   當中 約 2.7 億人 生活 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     中國 82 個 城市 中   約 45% 每年 下沉 超過 3 公 釐   16% 土地 平均 每年 下沉 更是 超過 10 公 釐   約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     據 了解   而 造成 中國 土地 逐年 下沉   最 主要 是 地下水位 下降 所致     路透 表示     土地 下陷   對 中國 每年 造成 超過 75 億元 人民 幣   約 新 台幣 337 億元   損失   研究 人員 預計   下個 世紀   中國將 約 近 四分之一 沿海 土地   恐低 於 海平面   數億人將 面臨 大 洪水 風險     最 嚴重 受災 城市 是 北方 天津   這 城市 約 1500 萬 人口   2023 年 一場   突發 地質 災害     導致 3000 名 居民 被 疏散   調查 人員將 這場 災害 歸咎 於   水資源 枯竭 地 熱井 建設       一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  ', '最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  ']</t>
         </is>
       </c>
     </row>
@@ -557,21 +557,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_坍塌_道路_塌陷_坑洞</t>
+          <t>3_台北市_慶城街_興安街_基隆市</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['坍塌', '道路', '塌陷', '坑洞', '路面', '市府', '地面', '台北市', '地下', '地基']</t>
+          <t>['台北市', '慶城街', '興安街', '基隆市', '松山區', '新竹', '市府', '路旁', '台北', '交叉路口']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ', '台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北 市長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  ', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影']</t>
+          <t>['台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  ', '〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山區 慶城街 興安街 交叉路口 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 路邊 停車格 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前 市長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 問題     台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 發生 好 幾起 地層下陷 事件   柯文 哲今 早 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  ', '台北市 松山區 慶城街 一處 工地 附近   今   23   晚傳出 地層下陷 狀況   停 路邊 停車格 車輛   車身 甚至 已經 傾斜   影響 4 台車輛 傾斜   現場 為 新建 工地 地基 下陷   下陷 範圍 評估 中   無人 受傷   已劃 設 警戒 線   台北 市長 蔣萬安 副 市長 李 四川 正 趕往 現場   台北 市長 蔣萬安 發文 表示     稍早 慶城街 興安街 交叉口 發生 工地 地基 下陷   我正 趕往 現場   請 周遭 居民 經過 民眾 注意安全   最新 資訊   市府 會 即刻 通知    ']</t>
         </is>
       </c>
     </row>
@@ -580,21 +580,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_台北市_道路_地層下陷_路面</t>
+          <t>4_道路_萬華區_路面_坑洞</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['台北市', '道路', '地層下陷', '路面', '坑洞', '市府', '塌陷', '坍塌', '北市', '下陷']</t>
+          <t>['道路', '萬華區', '路面', '坑洞', '塌陷', '南京', '水溝', '北市', '巷', '南港路']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供']</t>
+          <t>['北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ']</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_沿海_台灣_縣府_中</t>
+          <t>5_碼頭_漁港_沿海_嘉義</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['沿海', '台灣', '縣府', '中', '地方', '路', '地層下陷', '附近', '陳', '為']</t>
+          <t>['碼頭', '漁港', '沿海', '嘉義', '漁業', '屏東縣', '海水', '海', '海水倒灌', '縣府']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['雲林 沿海 受 藍 月 大潮 加上 颱 風 大浪   近日 接連 發生 嚴重 海水倒灌   最大 萡 子 寮 港 到 昨天 仍 一片汪洋   淹水 膝   港口 被迫 封閉   行政院 長 陳 建仁 昨 前往 現場 勘災   地方 陳 情指   漁港 淹水 已嚴 重威脅 下崙 3 個村 安危   應急 工程 不能 再 拖   縣府 盼 中央 補能 加高 延伸 堤防   陳 建仁 允諾 相關 部會 與 縣府 合作   研議 解決 之道       縣府 水利 處長 許 宏博 簡報 指出   因地盤 下陷 嚴重   多年 來 幾次 加高 防波堤 年 年 抽沙 清淤   仍難 敵 天象 變化   港域 高程 約 1.9 公尺   但 這兩天 高達 2.56 公尺   加上 風浪助長 爆發 嚴重 海水倒灌   目前 除應 急 擋 水 措施   要 增高 延伸 防波堤   清理 港域 30 萬 立方米 淤沙   確保 港口 不受 漂沙 封堵   才能 因應 極端 氣候 海象 變化   整建 經費 預估 10 億元                             同為 養殖業者 口湖 鄉 代王 紫陽 說   這 生活 60 幾年 從 沒見 過淹 水淹 得 如此 嚴重   鄰近 300 多公頃 養殖區 朝不保夕   政府 不能 坐視 不管   李姓 養殖業 說   這次 海水倒灌 造成 部分 魚苗 流失       議員黃 文祥 指 說   萡 子 寮 港 已 無 法 因 應 現 海象 變化   尤其 漂沙帶 來 淤塞 海水倒灌   連 以前 航行 澎湖 輪 船 因 淤沙 停駛   口湖 代表 會 主席 王溪邊 指   更 扯 是 退潮 水位 變低 時   漁船 竟 要 用 推 進港   實在 可笑   治港刻 不容 緩       昨 陪同 會勘 雲林縣 長 張麗善 當面 遞交 雲林 漁港 治理 海堤 安全 防護 計畫   盼 請 行政院 協助   立委 蘇治芬 建議將 雲林 海岸 治理 一 併 納 入院 會 正在 檢討 國土 沙洲 案   以 擴大 治理 量 能       陳 建仁 說   這次 海水倒灌 對 地方 造成 損失   針對 地方 希望 能 加高 延伸 堤防   此須 經過 水工 模型 試驗   才能 確保不會 加劇 地層下陷 問題   行政院 會 聽取 地方 建議   與 縣府 共同 研議 解方       漁業署 表示   曾 與 立委 蘇治芬 多次 召開 海岸 治理 檢討   為 保漁港 漁業 永續   除應 急 工程 應要 進行 水工 研究 與 探測 再行 治理   才能 一勞永逸   由 於 該 漁港屬 地方 管理   中央 會予 協助 建置 長 遠 治理 方案  ', '嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影', '〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  ']</t>
+          <t>['屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 溢 淹 問題 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 地養 殖區 穩定 水質 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 機構 團體 來   取經     居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 生活 環境 品質                             說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東縣 最大 養殖 漁業 生產區   塭 豐 二中 排旁 豐 海路 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 水環境       屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 溢 淹 問題 顛簸 起伏 路況 所苦   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供', '嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影', '〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  ']</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_水利_地下水_水管_地區</t>
+          <t>6_台北市_台北_市府_信義區</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['水利', '地下水', '水管', '地區', '環境', '地層下陷', '地', '區', '鄉', '工程']</t>
+          <t>['台北市', '台北', '市府', '信義區', '街', '危險區', '地面', '北市', '道路', '塌陷']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  ']</t>
+          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
         </is>
       </c>
     </row>
@@ -653,17 +653,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_地層下陷_地層_建築_地區</t>
+          <t>7_浴室_地底_溫泉_新北市</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['地層下陷', '地層', '建築', '地區', '危險', '下陷', '地面', '路', '地質', '很多']</t>
+          <t>['浴室', '地底', '溫泉', '新北市', '投溫泉', '地面', '公共', '地上', '新北', '萬里區']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生         這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機       研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米         然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水         研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市       帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題           Take   action   加入   倡議 +    ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ']</t>
+          <t>['新北市 萬里   加投 溫泉   公共 浴室   算是 古 蹟 了   它 是 日據 時期 就 蓋 好   而且 到現 很多 人   喜歡 來 這裡 泡湯   不過 上個 月 開始   這裡 出現 大大小小 問題   浴池 磁磚 掉落   水泥柱 裂痕   地面 嚴重 傾斜   因此 現在 浴池 已經 暫時 封閉 了   等到 廠 商都 修繕 完畢   確認 安全 都 沒 問題   才 會 再度 開放       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   reurl . cc kqyqML   鏡新聞 APP   Android 👉 https   reurl . cc Ay2y63   有話 鏡來講 YT 👉 https   reurl . cc A4DjQj   少年 新聞 週記 YT 👉 https   reurl . cc K4DeN9', '新北 萬里 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 問題   更 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 整塊 磁磚 脫落   地磚 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   一些 溫泉 管線 設備 問題 外   還有 地層下陷 跡象   鐵鋁罐 放在 地上   都 會 不 自主   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉     技師 建議 我們   要 專業 技師 公會 去   針對 結構物 下陷 狀況   去 監測   評估後續 是不是 可以 用   液壓 灌漿 部分 改善       地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  ', '新北市 萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 地層下陷 現象   地質 檢測 人員 檢查   原來 湯室 地底 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北市 萬 里加 投溫泉 公共 浴室 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 泡 湯遊客 反應   燈管   溫度 顯示器 溫泉 管線 設備 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 現象   公所 從 4 號開始 封閉 浴室   趕緊 找 專業 技師 到場 檢查   男女 湯室 地底 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 溫泉 露頭 有關 係     大鵬里長 李建才     露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 東西   地底下 看不到   以 目前 整個 狀況 來講 話   下陷 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 感覺       溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   流入 浴池   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉     技師 建議 我們 要 專業 技師 公會   針對 結構物 下陷 狀況 去 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 部分 改善   還是 可能 要大動 作去 做後續 改建   這個 部分 後 續 可能 會 需要 比較 多 費用       公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 泡 湯空間  ']</t>
         </is>
       </c>
     </row>
@@ -676,17 +676,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_災害_地層下陷_地區_地下水</t>
+          <t>8_紐約市_紐約_城市_市區</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['災害', '地層下陷', '地區', '地下水', '區域', '環境', '土地', '沿海', '居民', '土壤']</t>
+          <t>['紐約市', '紐約', '城市', '市區', '高樓', '洪災', '海水倒灌', '大樓', '防洪', '建築物']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['路透社 報導   根據 今天 ( 19 日 ) 發布 一份 全國衛星 資料 研究 顯示   中國將 近一半 主要 城市 正 遭受   中等 到 嚴重   程度 地層下陷   數百萬人將 面臨 洪災 風險   尤其 海平面 正在 上升     這篇 發表 於   科學   ( Science ) 期刊 論文 作者 發現   中國 45% 都市 土地 正以 每年 超過 3 公 釐 速度 下陷   16% 都市 土地 下陷 速度 每年 超過 10 公 釐   造成 原因 不僅 是 地下水位 下降   還有 建築 環境 龐大 重量     華南師 範大學 敖祖銳 領導 研究 團隊 表示   中國 都市人口 已經 超過 9 億   因此   即使 是 一小部分 土地 下陷   都 會 對 都市生活 構成 巨大 威脅       土地 下陷 已導致 中國 每年 損失 超過 75 億 人民 幣 ( 10.4 億 美元 )   而 下 一個 世紀   近 四分之一 沿海 陸地 可能 將低 於 海平面   使數 億人 面臨 更大 洪水 風險     東安 格利 亞大學 ( University   of   East   Anglia ) 丁道爾 氣候變遷 研究 中心 ( Tyndall   Centre   for   Climate   Change   Research ) 尼科 爾斯 ( Robert   Nicholls ) 表示     這讓 我們 真正 認識 到   對 中國來 說   這是 一個 全國性 問題   而 不僅僅 是 一 兩個 地方 問題     他 說     這也 是 世界 其他 地方 正在 發生 事情 縮影       人口 超過 1   500 萬 北部 城市 天津   被確 認為 受災 最 嚴重 城市 之一   去年 一場   突發性 地質 災害   導致 3 千名 居民 撤離   調查 人員將 原因 歸咎 於 水資源 枯竭 以及 地熱井 興建     中國 許多 老 煤 礦區 因為 過度 開採 而 受到 影響   當局 經常 被迫 向 搖搖欲 墜 礦井 注入 水泥   以 強化 土地     這個 問題 並不 只限 於 中國   今年 2 月 發表 另 一份 研究 指出   全球 約 630 萬 平方公里 ( 240   萬 平方英里 ) 土地 處 於 風險 之中   印尼 是 受 影響 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 已 低 於 海平面     尼科 爾斯說   易受 影響 城市 可以 從 東京 汲取 教訓   東京 曾經 下陷 約 5 公尺 ( 16 英尺 )   後 來 1970 年代 禁止 抽取 地下水     他 補充 說     減緩 土地 下陷 問題 應該 被 非常 認真 看待   但 不 可能 阻止 所有 下陷   因此 要 討論 適應力 建造 海堤       根據 新加坡 2022 年 一項 研究   44 個 飽 受 這個 問題 困擾 主要 沿海 城市 中   30 個位 於 亞洲     羅 德島 大學 ( University   of   Rhode   Island ) 地球物理 學專家 魏馬特 ( Matt   Wei ) 表示     這是 一個 都市化 人口 增長 問題   人口密度 愈大   抽 水 就 愈 多   就 造成 更 多 下陷    ', '中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  ', '最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  ']</t>
+          <t>['紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生         這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機       研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米         然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水         研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市       帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題           Take   action   加入   倡議 +    ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ']</t>
         </is>
       </c>
     </row>
@@ -699,17 +699,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_台北市_坑洞_地層下陷_市府</t>
+          <t>9_農地_耕作_公頃_農業</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['台北市', '坑洞', '地層下陷', '市府', '街', '地下', '路面', '鄰近', '道路', '地基']</t>
+          <t>['農地', '耕作', '公頃', '農業', '農會', '作物', '環保局', '土地', '國產', '農民']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝']</t>
+          <t>['〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ']</t>
         </is>
       </c>
     </row>
@@ -718,21 +718,21 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10_水利_地下水_水_水管</t>
+          <t>10_印尼_曼谷_東南亞_全球</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['水利', '地下水', '水', '水管', '地區', '環境', '地層下陷', '區域', '面積', '氣候']</t>
+          <t>['印尼', '曼谷', '東南亞', '全球', '海平面', '海域', '遊客', '海岸', '地區', '世界']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  ', '因應 極端 氣候   水利 署 投入 123.6 億元展 開   鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫     包括 6 座 人工 蓄水池 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 能 同享 量 好質 優 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定   雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫   中 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投縣 自來 水 普及率 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投縣 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投縣 用水 問題  ', '烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 產業 發展區   整體 需水量 不斷 增加   造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投縣 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投縣 民 配合 政府 政策   但 南投縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 能 喝 到 量 好質 優 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒   珍珠 串     讓 台灣 水資源 調度 更好   顯示 台灣 人民 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   會 持續 綠 美化   變成 南投 新 觀光 地標     立委 游顥 說   南投縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 立法院 繼續 爭取   希望 行政院 重視 南投 用水 問題  ']</t>
+          <t>['[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  ', '科技 大亨 馬 斯克   Elon   Musk   今天   5 19   抵達 印尼 峇里島   將與 印尼 總統 佐科威   Joko   Widodo   一起 參加 星鏈   Starlink   網路 服務 啟用   印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   政府 希望 星鏈 能夠 提高 各島嶼 網路 普及 度   這是 印尼 一個 月 迎接 第 3 名 科技 企業 執行長   此前 蘋果   微軟 執行長 都 已來訪     綜合 路透社 與 美聯社 報導   太空 科技 公司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場   印尼 首席 投資部長 盧胡特   Luhut   Binsar   Pandjaitan   機場 迎接   預計 兩人 將會 討論 一些 重要 合作   包含 星鏈 服務 啟動   馬 斯克 還會 簽署 一項 協助 印尼 加強 衛生 與 教育 單位 聯絡 互通 合約     盧胡特 表示   馬 斯克 今天 稍晚 將和 印尼 總統 佐科威 一起 峇里島 首府 登巴薩   Denpasar   社區 衛生 中心 一起 啟動 星鏈   盧胡特 說   衛生 機構 啟動 這項 服務   呼應 星鏈   提供 平價 高速 網路   宗旨   尤其 是 網路 收訊 不佳 或過 於 偏遠 地區     印尼 是 個 群島 國家   約 1.7 萬座 島嶼   橫跨 3 個 時區   人口 超過 2.7 億   盧胡特 說   印尼 偏鄉 需要 星鏈 來 拓展 高速 網路   尤其 是 要 用 來 解決 衛生   教育 海事 單位 問題     印尼 通訊 部長 布迪   Budi   Arie   Setiadi   上週 表示   星鏈 已經 獲得 印尼 營運許 可   布迪 強調   星鏈 低 軌衛星 可以 讓 網路 擴及 目前 印尼 通訊 商無法 到 達 地區     據報   位 於 印尼 婆羅洲   Borneo   新 首都 努山 塔拉   Nusantara   本月 將先 試用 星鏈   8 月 正式 上線   印尼 正準備 遷都 努山 塔拉   因為 受 海平面 上升 與 地層下陷 影響   預計 目前 首都 雅加 達 大部分 地區將 2050 年 被淹 沒     印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   馬 來 西亞 去年 已核 發許 可證 給營 運星鏈 SpaceX 公司   菲律賓 一家 公司 則是 2022 年 與 SpaceX 簽約 合作     馬 斯克訪 印尼 前   蘋果 公司 執行長 庫克   Tim   Cook   4 月 17 與 印尼 總統佐科 威會面   並 表示 會將 印尼 產能 納入 考慮   兩周 後   微軟 執行長 納 德拉   Satya   Nadella   同月 30 日訪 印尼   承諾 未來 4 年 印尼 投資 17 億 美元   強化 印尼 新雲端 運算 與 人工智慧 基礎 設施     馬 斯克 此次 訪 峇里島   將參加 第十 屆 世界 水論壇   World   Water   Forum     研討 全球 水資源 衛生 挑戰  ', '印尼 海域 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 寧靜 自然   還能 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出     紅樹林 是 很 獨特 生態 系統   一種 植物   有趣 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要     印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 一小部分   過去 一年 就 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示     我們 需要 生存 下去   但 很 難 找到 像樣 工作   當時 唯一 知道 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁     這片 海域 位 東南亞 從菲律 賓到 印尼   澳洲 之間 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 當地 巴迪島   努力 復 育 周邊 3 公頃 珊瑚礁   耐心 說 服漁民 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 海底 回春   熱帶 魚群 穿梭 新生 珊瑚礁 之間   環境 科學家 尤素夫 提及     印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 世界 遺產   一個 小小的 努力 都 可能 影響 世界     印尼 海域 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 18%   珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 海域   一步 一步 把 失去 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  ']</t>
         </is>
       </c>
     </row>
@@ -745,17 +745,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11_地基_坍塌_地質_建築</t>
+          <t>11_坍塌_坍方_崩塌_塌陷</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['地基', '坍塌', '地質', '建築', '街', '鄰近', '市府', '台北', '土壤', '危險']</t>
+          <t>['坍塌', '坍方', '崩塌', '塌陷', '路旁', '意外', '慶城街', '路邊', '災情', '路面']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['〔 記者 盧賢秀 ／ 基隆 報導 〕 基隆 中正路 425 號至 447 號間   去年 發現 水溝 下陷 破洞 情形   市府 進場 改善   但 花蓮 地震 後   發現 騎樓 有裂 縫   地基 可能 掏空   房屋 疑似 傾斜   市議員 許睿慈 與 市府 相關 單位 勘查   要求 儘 速 鑑 定 地基 與 房屋 結構   讓 居民 可以 住 得 安心 且 安全     市府 表示   經技師 鑑定 房屋 結構 目前 安全   工務處 將加強 下水道 巡檢補強     市議員 許睿慈 指出   居民 去年 陳 情   舊漁會 大樓 附近 中正路 425 號前 道 路旁 水溝   發生 下陷   破洞 情形   經 會勘 後 工務處 已 進場 施作   但 日前 卻 發現 騎樓 裂縫 與 地基 掏空 狀況   令 附近 住戶 人心惶惶     許睿慈 與 議長 童子 瑋 秘書 與 市府 工務處 等 相關 單位 今至 現場 會勘   許睿慈 表示   花蓮 地震 後   427 號至 447 號沿線 都 發生 了 地層 陷落   其中 4 戶 騎樓 有裂 縫   居民 地下室 出現 滲水 現象   擔憂 地質 結構 是否 安全   要求 市府 儘 速 完成 房屋 與 地質 安全 檢測     市府 工務處 表示   該 民宅 鄰近 海岸   可能 因 地震 造成 地下室 牆面 裂痕 滲加   工務處 將針 對 此處 沿線 下水道 箱涵 與 附近 地基 加巡檢   確認 中正路 425 號至 447 號沿線 是否 地基 掏空 問題     都 發處 表示   請 土木 技師 公會 技師 前往 勘查   初步 認為 沒有 傾斜 狀況   騎樓 裂 縫區 公所 近期 就 會 整修  ', '台中市 西屯區 大墩 20 街   大聖 街口   正在 進行 自來 水管 線 工程   議員 表示   6 日 晚間 地層下陷   懷疑 是 地震 造成 鄰近 大樓 集 水井 破裂   水流 淘空 地基   塌陷 約 50 公分   還 露出 地梁   中市 建設局 表示   該處 側溝 老舊 破損   滲漏 導致 側溝 淘空   已 填補集 水井 溝底   並 拆除 損毀 溝底   今將 重新 灌漿 穩固   都 發局 表示   未影響 結構 無 安全 疑慮       民進 黨 議員林 祈烽 表示   花蓮 強震 後 各地 災情 多   何南里長 曹豐洋陳情   大墩 二十 街   大聖 街口 路面 坍塌   崩塌 處離 鄰近 大樓 很 近   疑因 地震 造成 大樓 集 水井 破漏   水流 淘空 地基 才 塌陷   該 社區 地梁 露出   深度 至少 坍塌 50 公分                             建設局 表示   現場 勘查 發現 側溝 老舊 破損   上游 建設 工地 施工   長 時間 抽 地下水 排放   側溝 淘空 損壞 下陷   目前 已 完成 集 水井 溝底 填補   拆除 損壞 溝體   並 重新 灌漿   周六 前 改善 完成       台中市 都 發局 表示   坍塌 側溝 旁 建築 為 地下 2 層   地上 7 層 鋼筋 混凝土 建築   淘空 範圍 臨大聖街 人行道   推測 為 早期 邊溝 斷裂 滲水   造成 騎樓 下方 土壤 淘空   樓板 下陷 深度 50 公分   長 1 公尺   目前 已 封鎖 騎樓   將 混凝土 回填   未影響 建築 結構   沒有 安全 疑慮       都 發局 長 李正偉 表示   花蓮 強震 後   收到 13 件 民眾 通報   住家 出現 裂痕   經 第三方 公正 單位 檢測   均 非 結構 性破壞   無 立即 危險   都 發局 提供 多項 補助 方案   供民眾 申請  ', '花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性']</t>
+          <t>['台北市 松山區 慶城街   興安街 一處 新建 工地   昨   23   天晚間 發生 地基 塌陷 意外   造成 停 路旁 四台 車 受到 波及   人行道 路面 呈現 V 字型 凹陷   面積 約 4 公尺 長   30 公尺 寬   深度 約 1.5 公尺   所幸 週邊 建築物 沒有 危險   相關 單位 連夜 現場 進行 回填 作業   不過 工地 遭罰 18 萬 勒令停工   事發 原因 尚待 調查   慶城街 新建 工地 地基 下陷   路面 坍塌   人行道   工程 圍籬 都 明顯 下陷   路旁 停車格 消失 一大半   當時 路邊 4 輛汽車 遭殃 歪斜   建商 連夜 回填 灌漿   避免 塌陷 擴大   據 了解   該 處興 建工 地原 是 要 蓋 豪宅 大樓   原先 工地 上 地下 三層 地下室 建物   疑似 拆除 建物 後   地下室 進行 導溝 作業 時候   內部導 溝支 撐力 不足 才 發生 坍塌 意外   所幸 工地 尚未 進行 大規模 開 挖   沒 再 釀 更 大 事故   此次 路面 坍塌 面積長 約 4 公尺   寬約 30 公尺   深度 1.5 公尺   目前 週邊 建築物 沒有 相關 安危   而 北市 建管處 勘查 後   昨天 深夜 確定 裁罰 18 萬   並 勒令 回填 穩定 後 停工   待 確保 工地 安全   業者   建商 提出 復工 審查   才 會 進行後續 作業   至於 事發 原因 仍待 調查  ', '台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 今天 塌陷   一輛 預拌 混凝土車 側翻   壓傷 一名 工人   被 送醫 急救   台中市 勞檢處 已 派 人 到場 調查   並 勒令停工   因 工地 沒 擋 土   地面 承載力 不足 等 缺失       台中市 消防局 今天 早上 9 點接 獲 報案   沙鹿 區錦華街 一處 工地 旁發生 緊急 創傷 救護   出動 沙鹿   龍井   梧棲   西屯 分隊 第四 大隊   各式 消防 車輛 10 輛   消防人 員 25 名   由大隊 長 蔡孟栩帶 隊 指揮 搶 救                             現場 是 路面 坍方   造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人   工地 營建廠 商已 協助 聯 繫 吊 車 到 場   地層下陷 造成 預拌 混 泥土 車車輛 翻覆   沙鹿 消防 分隊 到 場後先 以 消防 車絞盤   梧棲分隊 使用 車 吊臂 共同 固定 預拌 混 泥土 車   確保 傷者 安全 無虞   因 該車 重量 達 35 噸 以上   需 等待 業者 配合 大型 吊車 到 場方能 吊掛   先由救護 人員 接觸 患者 進行 緊 急救 護處 置       早上 9 點 34 分   業者 調派 吊車 至 現場 進行 車輛 吊掛   消防局 搶 救人 員協助 以油 壓破壞 器材   協助 傷者 脫困   10 點 4 分傷者 順利 脫困   送 梧棲童 綜合 醫院       傷者 到 醫院 時 意識 清楚   雙 下肢 背部 擦 挫傷   右 大腿 燙傷   應是 鋼版 高溫 造成   目前 仍 醫院 檢查 中   台中市 勞檢處 表示   工地 地面 承載力 不足   造成 地面 塌陷   車翻 傷心 意外   已 要求 停工   將開罰 3 到 30 萬元 不 等 罰 鍰   台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供', '台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北 市長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  ']</t>
         </is>
       </c>
     </row>
@@ -768,17 +768,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12_街_台北市_鄰近_撤離</t>
+          <t>12_水利局_水權_水利_淨水場</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['街', '台北市', '鄰近', '撤離', '區域', '北市', '道路', '災害', '地層下陷', '區']</t>
+          <t>['水利局', '水權', '水利', '淨水場', '水資源', '地下水', '供水', '水電比', '用水', '水量']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供', '台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  ']</t>
+          <t>['▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片']</t>
         </is>
       </c>
     </row>
@@ -791,17 +791,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13_土壤_土地_鄉_環境</t>
+          <t>13_消防局_台北市_信義區_街</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['土壤', '土地', '鄉', '環境', '道路', '縣府', '地層下陷', '區', '設施', '範圍']</t>
+          <t>['消防局', '台北市', '信義區', '街', '巷道', '疏散', '坐鎮', '鄰近', '大樓', '巷']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ', '〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  ']</t>
+          <t>['【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  ', '台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供']</t>
         </is>
       </c>
     </row>
@@ -814,17 +814,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14_市府_住戶_建設_台北市</t>
+          <t>14_村落_村民_縣府_公所</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['市府', '住戶', '建設', '台北市', '地下室', '建商', '民宅', '施工', '壁', '地下']</t>
+          <t>['村落', '村民', '縣府', '公所', '鄉', '城鎮', '鄉長', '縣', '建築', '倒塌']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 大樓 建案   因為 地下 連續 壁 破洞   都 發局 初步 調查 後   對 承造 人 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 旅館   相關 費用 將由建 商來 負責   巷弄 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 遭殃   鐵門 幾乎 懸空   這樣 情況 就 發生 台北市 信義區   短時間   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出     昨天 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 住戶 一共 5 戶     市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 5 戶   一共 10 人   暫時 住 信義區 旅館   依照 規定   每人每天 可以 請領 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 是 回 不了 家 了   超出 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 是 搶災 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 大樓   地下 4 層   地上 17 層   負責 營造 華熊 營造 公司   興建過 包括 台北 101   世貿 中心 陶朱 隱園   都 是 赫赫有名 建築   如今 卻 發生 工安 意外   讓 工程 暫時 喊 卡   首要 之務得 設法 解決 安全 問題   還給 當地 居民 一個 安全 家  ', '高雄 小港 一棟 新蓋 大樓 旁邊 一棟 老舊 公寓   10 戶 屋主 指控 因為 蓋 大樓關 係 損害 房屋   建商 本來 願意 賠償 2 百多 萬元 修繕   但給 了 錢 後   屋主 指控 建商 拿到 使用 執照 開始 反悔   還告 10 戶 屋主 不當 得利   其中 被告 還有 13 歲 少年   但 建商 說 大樓 地下室 開挖 已經 超過 三年   經過 土木 技師 公會 鑑定 沒有 損鄰   將訴諸 法律 拿 回不應 該給 賠償 金     寶特瓶 放在 地上   馬 上 滾 到 另 一邊   屋主 楊力 欽     這邊 是 整個 傾斜   因為 鑑定 報告 寫 說   它 高低 層 落差       屋主 指控   是 打 開後門 緊鄰 這棟 新蓋 大樓 害   屋主 楊力 欽     它 還是 漏水   止住 可是 好像 過幾個 月過 後   又 開始 水 跑 出來       新大樓 蓋 老舊 房子 中間   後 方 這一棟 舊型 公寓 總共 10 戶   施工 時 造成 鄰房 損壞   損壞 民宅 屋主 指控   建商 說 好 要給 總共 2 百多 萬 為 鄰 損修 復 費用   但是 建商 拿到 使用 執照後馬 上 反悔   還告 10 戶 住家 不當 得利     屋主 楊力 欽     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   透過 法律 去 看 說   這個 合約 書無效   這個 鑑定 無效   而是 使用 執照 之 後   告 我們 12 位 所有 權人   最小 13 歲 年 長 者 71 歲       因為 地下水 修繕   地 下陷 問題 得 補救   2 百多 萬 修繕 費先 撥給 其中 一戶   現在 10 戶 屋主 全 被告 不當 得利   氣炸開 記者 會     不過 建商 說 大樓 地下室 開挖 至今   已經 超過 3 年   經過 土木 技師 公會 鑑定 沒有 損鄰   堅持 要求 拿 回 2 百多 萬修繕 賠償 金   因為 蓋大樓 建商 附近 住戶 互槓   雙方 都 指控 對方 不公   還有 得 吵  ', '住戶 拿 寶特瓶 平放   立即 滾去 較 低 地方   證明 地面 傾斜   牆上 有明 顯裂 縫   多次 修補 依然 出現     住戶 指控 自從 2019 年 11 月 開始   旁邊 大樓 興建 就 發現 他們 公寓 牆面 漏水   龜裂 還有 地層下陷   後 續 與 開遠 建設 協調   同意 透過 台中市 土木 技師 公會 鑑定     但 住戶 指控   公會 4 次 鑑定 確認 鄰損   建商 依法 賠償 修繕 費及 法定 4 成 加成 費用 224 萬   近日 卻 反 被 建商 提告 不當 得利     鄰損 住戶 代表 楊 質疑     既然 不承認 話   為 什麼 當初 不 直接 訴諸 法律   由 法律 來 去 判說 這個 合意 書無效   這個 鑑定 無效   而是 取得 使用 執照 之 後   反告 我 這 12 位 房屋 所有 權人       住戶 代表 楊 說   此案 因為 建商 被 市府 列管   建商 解除 列管 拿到 建照 後 就 不 認帳   反告 他們 不當 得利   使得 鄰近 10 戶   12 名 房屋 所有 權人 都 被告   不能 接受 當初 協調 找 公正 單位 鑑定   建商 卻 不認   還找 來 不是 雙方 都 同意 單位 檢驗     民進 黨 高雄市 議員 鄭光峰 說 道     創下 台灣 建 商史 上 第一 個   跟 人家 鄰損 之後又告 人家       對此 建商 不 受訪   只 透過 文字 聲明 表示   建案 地下室 開挖 3 年 多   不會 因地質 問題 損害 鄰房   而且 經過 台灣 省 土木 技師 公會 鑑定 沒 鄰損 事情   鄰房 很多 是 屋齡 要 40 年 老 公寓   違法 增建 防火巷   卻 仍然 企圖 向 本 公司 要求 高額 賠償   本案 進入 司法   等待 判決   強調 損害 公司 名譽   會 依法 捍衛 權益  ']</t>
+          <t>['插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  ', '印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  ', '彰化縣 大城 鄉現 有納 骨塔 接近 飽   鄉 公所 規畫 第六 公墓 新建 第二 納 骨塔   頂庄 村民 群起 反對   已有 140 人連署 陳 情   村民 抱怨 縣府 裁撤 頂庄國 小   鄉 公所 村 內蓋 第二座 納 骨塔     吃 虧 都 是 我們     讓 頂 庄村 發展 雪上加霜   要求 重新 研議 興建 地點   鄉長 陳 玉照 說   納 骨塔 近 飽   將持續 溝通       大城 鄉有 8 座 公墓   頂庄村 山腳 村設 有納 骨塔   山腳村 已 飽   頂庄村 只 剩 不到 700 個 空位   鄉 公所 認為   興 建新 塔有 迫切性   日前 向 頂庄 村民 說明 新建 計畫   村民 痛批   一村 二塔   違反公 平原 則   當場 反對                             許姓 村民 表示   縣府 認為 頂 庄村 出生率 低   已 是 大城 鄉 人口 倒數 第 2   前年 裁撤 頂庄國 小   可見 頂 庄村 沒 新建 納 骨塔 需求   周邊 地層下陷 易 淹水   無論 地理 風水   都 不 適合 安放 往生 親人   新建 第二 納 骨塔 離 村落 僅 200 公尺   違反 縣府 規定 500 公尺 審查 原則   嚴 重影 響 村民 身心健康       鄉長 陳 玉照 指出   頂庄 第一 納 骨塔 建在 高灘 地   第二 納 骨塔 一樣   不開 挖 地下室   還 建造 7 層台 階 升高 塔座   沒 淹水 疑慮   第二 納 骨塔 距離 村落 人口稠密 區約 500 公尺   像 他家 距離 墓地 很近   不會 問題       頂庄 村長 許仁寶說   如非建 不可   應 提出 有力 說明   並訂定 回饋 辦法  ']</t>
         </is>
       </c>
     </row>
@@ -833,21 +833,21 @@
         <v>15</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15_縣府_鄉_當地_居民</t>
+          <t>15_地震_花蓮縣_花蓮市_地基</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['縣府', '鄉', '當地', '居民', '向', '設施', '地方', '陳', '由', '為']</t>
+          <t>['地震', '花蓮縣', '花蓮市', '地基', '地表', '大樓', '大地', '花蓮', '建築', '地球']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['陳 安邦 等 表示   種電 可以 村外   村內 緊鄰 民宅   不要 說 危害   打 開家門   窗戶 看到 就是 太陽 能板   叫 8   90 歲 老人 情 何以堪   尤其 庄內 種電 作為   請問 哪個 村 可以 接受   所以 村民 大團 結堅 決展 現反 對 到底 決心   任何 回饋 都 不用 說   打死 都 反 對 庄內 種電   任何 法律 問題 他 一個 人承擔   甚至 為 了 爭取 縣長 張麗善 村民 主持公道   特別 今天 前來 向 張縣 長 陳 情   唯一 要求 光場 業者 退出 瓦 磘 村     縣長 張麗善 接下 陳 情書 後 指出   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍   為 了 保護 我們 農地   特別 提出 三不三要   就是 不 希望 農地 上面 一直 種電   破壞 農地 未來 發展 跟 價值   光電業者 聚落 裡面 種電   已經 影響 鄉親 生活 起居 跟 品質   大家 不安 焦慮 我們 都 能 感同身受   縣府 透過 各種 協調 溝通   希望 能 保障 地 鄉親 權益  ', '屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀   斬斷 兒子 想 當青農 接班 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   不給 老 農一畝 田維生   青年 若當   漂鳥   回農村   肯定 變走 投無路   落翅仔         五十六 歲 鄭明偉 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 不少 國有 財產 署名 下 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 枋寮 寮 段種 芭樂   無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 靠 這片 三分 地 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種     我 不但 要 吃 土   連農保 都 沒 了         面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 枋寮   蓮霧 之 鄉   美名   四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改 種電   年 輕人 想 返 鄉務農   無 低 租金 農地 可種     蓮霧 故鄉   金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到     這 不是 迫遷 青農去 都市 討 生活   漂鳥 回農村   恐怕 走 投無路 變 落翅仔    ', '聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 文資 價值 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為   惡鄰     產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 上限 規定   目前 既有 電力 設施 併 網 上限 下   限度 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             強調   從 未 要求 廠商 提供   不利 耕作 同意 書   或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       指出   屏東 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   等 2 大 策略 為 優先   限度 使用 相對 不 適合 耕種 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活   至於 非 專案 專區 鄉鎮   則優先 鼓勵 廠 商以   土地 複 合式 利用   方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 處置 自家 土地 財產   及業者 依法 申請 案件 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  ']</t>
+          <t>['台灣 位處 菲律 賓海板 塊 歐亞板 塊 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出   台灣 真的 動     氣象局 全台 建置 超過 160 個   全球 導航衛 星系 統   測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 台灣 斷層 都   偷偷   地亂動   氣象局 表示     既然 手機 上 GPS 可以 監測 我們 每日 移動 路線 距離   那麼   同樣 概念 技術   是不是 能 監測 台灣 地表   看看 它 每天 移動 了 多少   當然 可以     氣象局 已 全 台灣 建置 超過 160 個   全球 導航衛 星系 統   測站   結合 各 單位 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 地表 位移   像是 車籠埔斷 層 錯動   為 台灣 地表 帶來 一道 劇烈   長 達 105 公里 傷痕   斷層 上盤 水平 位移 為 1 至 9 公尺 不 等   而 大甲溪 更 出現 地殼 抬高   落差 5 公尺 瀑布 景觀   氣象局 表示   除了 地震 期間   短短 數 十秒 出現   同震 滑移   之外   地震 前   間震期     地震 後   震後期     斷層 都   偷偷   地亂動   氣象局 說明   地殼 不 只 地震 時會動   平時 地殼   累積 能量   過程 中   就 會 地表 出現 非常 微量 變形   或者 是 小小的   不起眼 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 一舉 一動   希望 可以 找出 大 地震 發 生前 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 樣態   或是 分析 出 地震 發生 週期   計算 地震 災害 潛勢   評估 台灣 各地 斷層 活動 地震 機制  ', '花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性', '嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 約 580 萬住 戶 沒 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣 位處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 房屋 倒塌 或 不堪 居住 之   全損   損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓   看房 要 排隊     一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房   房屋 稅 3 千變 3 萬 4     他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師   繳不出 頭期   全場 曝下場   穩死']</t>
         </is>
       </c>
     </row>
@@ -856,21 +856,21 @@
         <v>16</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16_環境_地區_造成_發展</t>
+          <t>16_地下水_台中_溫水_水面</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['環境', '地區', '造成', '發展', '地層下陷', '公司', '整體', '很多', '地方', '鄉']</t>
+          <t>['地下水', '台中', '溫水', '水面', '台中市', '水', '池', '水壓', '抽水', '蘇澳']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['原來 同一 個 新能源 市場   同時 這麼 多 幫人 市場 上 探索   開發     圖片 來源 ／ Pixabay  ', '從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不   這是 屏東 沿海 地區 這幾年 興起 違 景致   是 全台 種電 縮影   地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 文資 價值 二戰 遺跡 都 不放過   不僅家園 變貌   迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 典範   二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出   養水 種電   計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 罵 聲不斷   二 一 八年 十月 起   屏縣 府 公告 實施   嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫     開放 下陷區 農地 可 變更 種電       二 二 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 二 一 八年 屏東縣 長 潘孟安任   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 光電   如今 變成 農民 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽   不利 耕作 聲明書     離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作         沿海 四鄉 鎮美麗 鄉間 景致 丕 變   綠地 逐漸 蒸發     屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 是 少數 地主   受影響 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能   五贏     前年 已達成 綠電供 應 全縣 民生 用電 階段 性 目標  ', '光電亂象 已久   從 之前 良田 種電   砍樹 種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 遺跡   更 一步步 裂解 農漁村 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 社會 衝擊 比 預期 更大且 深   講求 氣候 正義和   企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理     國際 主流 下   政府 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 地產業   恐埋 隱憂       屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區   本可 接軌 屏東縣 前縣 長 曹啟 鴻   養水 種電   政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   被 批評 與   養水 種電   初衷 漸行 漸遠                             屏東 只是 全 台 種電 爭議 縮影   更 多 生態   景觀 敏感 地   追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 副作用   甚至 正向 引導 與 地 共生 共榮   實難辭 其咎   與 執政黨   愛鄉 土   理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 不 例外   猶記 得 台積 電在 被 徵收 用地 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 考慮   民進 黨 種電 國策 若 如   失速 列車     無情 地衝 撞 純樸 農漁村   把 青農   老農 都 當成   農村 最軟 一塊     這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 綠電  ']</t>
+          <t>['宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ', '〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 14 公分     台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  ', '〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 十四 公分     環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  ']</t>
         </is>
       </c>
     </row>
@@ -879,21 +879,21 @@
         <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17_台北市_建物_建設_市府</t>
+          <t>17_雲林縣_村_鄉鎮_電場</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['台北市', '建物', '建設', '市府', '施工', '坍塌', '北市', '建案', '建商', '工程']</t>
+          <t>['雲林縣', '村', '鄉鎮', '電場', '光電業者', '屏東', '種電', '光電場', '枋寮', '鄉']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['基泰 建設位 台北市 大直 新建 案 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '北市 基泰 大直 建案 釀成 民宅 傾斜 下陷 案   基泰 建設 昨   10 日   證交所 召開 重訊 記者 會   董事 長 陳 世銘 道歉 後 宣布 請辭 負責 離 去   北市 議員 王世堅 指出   從 監測 資料 判斷   基泰 大直 連續 壁施 作後保養 期間   就 已 出現 監測 數據 異常   基泰 仍選擇 繼續 開 挖   業者   不 確定 故意   釀成 大禍   今   11 日   上午 11 點他將 與 議員陳怡君 共赴 北檢加告 基泰 負責人 殺 人 未遂   王世堅 說   基泰 大直 這類 建案   依規定 進行 深開 挖 工程 前   建商 必須 安裝 監測 系統   並記錄 每日 施工 導致 各種 建物   馬 路 位移 等 情況   依照 議員陳怡君 會勘 紀錄   附近 居民 檢舉 已 8 個 月   市府 卻 一再 回應 安全 無虞   從 監測 資料   就 可 推斷 市府 回報 是否 行政 怠惰   瀆職 或 疏 於 監督     建商 老 闆 是 起造 人   出 了 事 怎麼 可能 讓 他 拍拍 屁股 就 走 人     王世堅 說   基泰 董事 長 陳 世銘 昨天 請辭   擺明 就是 只想用 民事 賠償 解決   不想 負 刑事 責任   他 今天 將赴 北檢加告 殺 人 未遂   就是 希望 檢方 要 儘 快 蒐 證   確保 事件 發生 時 起造 人應 負起 完全 責任   不能 出 了 事 就 落 跑  ']</t>
+          <t>['陳 安邦 等 表示   種電 可以 村外   村內 緊鄰 民宅   不要 說 危害   打 開家門   窗戶 看到 就是 太陽 能板   叫 8   90 歲 老人 情 何以堪   尤其 庄內 種電 作為   請問 哪個 村 可以 接受   所以 村民 大團 結堅 決展 現反 對 到底 決心   任何 回饋 都 不用 說   打死 都 反 對 庄內 種電   任何 法律 問題 他 一個 人承擔   甚至 為 了 爭取 縣長 張麗善 村民 主持公道   特別 今天 前來 向 張縣 長 陳 情   唯一 要求 光場 業者 退出 瓦 磘 村     縣長 張麗善 接下 陳 情書 後 指出   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍   為 了 保護 我們 農地   特別 提出 三不三要   就是 不 希望 農地 上面 一直 種電   破壞 農地 未來 發展 跟 價值   光電業者 聚落 裡面 種電   已經 影響 鄉親 生活 起居 跟 品質   大家 不安 焦慮 我們 都 能 感同身受   縣府 透過 各種 協調 溝通   希望 能 保障 地 鄉親 權益  ', '屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀   斬斷 兒子 想 當青農 接班 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   不給 老 農一畝 田維生   青年 若當   漂鳥   回農村   肯定 變走 投無路   落翅仔         五十六 歲 鄭明偉 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 不少 國有 財產 署名 下 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 枋寮 寮 段種 芭樂   無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 靠 這片 三分 地 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種     我 不但 要 吃 土   連農保 都 沒 了         面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 枋寮   蓮霧 之 鄉   美名   四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改 種電   年 輕人 想 返 鄉務農   無 低 租金 農地 可種     蓮霧 故鄉   金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到     這 不是 迫遷 青農去 都市 討 生活   漂鳥 回農村   恐怕 走 投無路 變 落翅仔    ', '聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 文資 價值 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為   惡鄰     產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 上限 規定   目前 既有 電力 設施 併 網 上限 下   限度 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             強調   從 未 要求 廠商 提供   不利 耕作 同意 書   或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       指出   屏東 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   等 2 大 策略 為 優先   限度 使用 相對 不 適合 耕種 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活   至於 非 專案 專區 鄉鎮   則優先 鼓勵 廠 商以   土地 複 合式 利用   方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 處置 自家 土地 財產   及業者 依法 申請 案件 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  ']</t>
         </is>
       </c>
     </row>
@@ -902,21 +902,21 @@
         <v>18</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>18_坑洞_地層下陷_區域_深度</t>
+          <t>18_水資源_水源_地下水_水利</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['坑洞', '地層下陷', '區域', '深度', '面積', '地下', '坍塌', '塌陷', '氣候', '地方']</t>
+          <t>['水資源', '水源', '地下水', '水利', '用水量', '阻水層', '缺水', '供水', '用水', '水庫']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['地球 南北 兩極 這兩天 都 重要 科學 發現 發表 媒體 上   其中 北極 方面   科學家 發現 加拿大 北邊 海底 出現 地層下陷   最大 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 南極 大陸 東邊   3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 144 平方公里 冰架 崩解   相當 於 半個 台北市 大小   科學家 藉 著美國 太空 總署 NASA 衛星   拍 攝到 南極 大陸 東邊   格連澤 冰河     瀕臨 南 印度洋 冰架   2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 過去數 十年 來   冰架 崩解 現象   絕 大多 數出現 西邊 南極 半島   就是 與 南美洲 阿根廷 遙遙 相望 所在   而且 過去 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 冰雪 增厚   對 全球 海平面 衝擊 有限   從 2020 年 開始 南極 東邊 冰河 開始 縮小面積   但 是 以 每天 1 平方公里 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出     但 上星期 我們 發現 快速 氣候 現象   這也許 不足以 說明 事情 全貌   但 確對 冰架 造成 前 所 未 見 壓力     研究 人員 所 說 氣候 現象   是 指 發生 3 月 15 日 大氣 河流   這種 氣候 現 象是 指   高濃度 水蒸 氣沿 著 狹窄 區域 快速 前進   對 於 已經 消退 中 冰架 造成 致命 一擊   而大面積 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域   發現 大面積 地層下陷   最大 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 地下水 緩慢 流動   是 北極海 地層下陷 原因  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
+          <t>['〔 記者 顏宏駿 ／ 彰化 報導 〕 彰化縣 沒有 水庫   多年 以來 不 缺水   民生 用水   原因 係 倚賴 全縣 200 多口 地下水 井   但 已 造成 地層下陷 問題   惟鳥 嘴潭 人工湖 淨水廠 完工 後 將可 改變 現今 抽 地下水 窘境   目前 台一線 南 彰化 段 正 進行 大型 管路 埋設 工程   2026 年 完工 後   這條 管路 成為 彰化縣 給水大動脈   透過 管路 連結   達到 鳥 嘴潭 人工湖   湖山 水庫   鯉魚 潭 水庫 水源 靈活 調度 目的     台水 公司 指出   目前 鳥 嘴潭淨 水廠 工程 進行 中   埋管 工程 多線 展開   直徑 1.2 公尺 幹管 埋設 工程   為 避免 影響 交通   採 分段 施工   預計 2026 年 全部 完工   最後可達 到 北水南 送   南 水北 送   靈活 供水 目標     台水 公司 表示   目前 彰化縣 每日 用水量 約 為 40 萬公噸   地面水 部分   彰化市 與 美   花壇 部分 地區 每日 用水量 約 為 8 萬公噸   主要 靠 台中 支援   鯉魚 潭 水庫     南 彰化 北斗   二林 與 溪湖 一帶   則由 雲林   湖山 水庫   每日 支援 約 5 萬公噸   烏嘴潭淨 水廠 完工 送水 後   彰化縣 每年 可減 抽 6100 萬噸 地下水   解決 農民 枯水期 經常 抽 不到 地下水 窘境     台水 公司 說   未來 鳥 嘴潭淨 水廠 每天 可供 應 彰化 地區 21 萬噸 水量   加上 現有 每日 來 自 雲林 湖山 水庫 5 萬公噸   而 透過 台 一線 埋設 幹管   南   北 水路 相通   增加 水資源 調度 彈性   上游 採 一般 水庫 採高 水位 操作   依循   蓄豐濟 枯   邏輯   趁 豐水期 盡量 蓄滿   枯水期 才 水 可用   包含 中水 局轄區 鯉 魚潭   湖山 水庫   目前 處 於 枯水期 階段   卻 仍 持續 滿水 溢流   未來 能 應付 極端 氣候 或 突發 供水 危機     台水 公司 第十一 處長 曾 盛一說   水資源 運用 已 不 像 過去   單一 水庫 供水 區 固定   水利 署力 拚 打造 西部 廊道 供水管 網   強化 區域 調度 同時   鳥 嘴潭 雖 不是 直接 參與 管網   但 透過 減少 中部 水庫 支援 彰化 水量     其實 達 到 調度 功能    ', '旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  ', '2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  ']</t>
         </is>
       </c>
     </row>
@@ -925,21 +925,21 @@
         <v>19</v>
       </c>
       <c r="B22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>19_水利_地區_區域_地下水</t>
+          <t>19_新竹市_地下水位_新竹_巷道</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>['水利', '地區', '區域', '地下水', '縣府', '鄉', '土地', '面積', '地層下陷', '地']</t>
+          <t>['新竹市', '地下水位', '新竹', '巷道', '地下水', '市府', '水井', '巷', '地下', '高雄']</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['農委會 主委 陳 吉   右 3   與 立委 蘇治芬   右 2   等 人 會勘 雲林 口湖   台西 等 地 耕作 困難 地     記者 黃 淑莉攝     〔 記者黃淑莉 ／ 雲林 報導 〕 立委 蘇治芬 今天下午 邀請 農委會 主委 陳 吉仲等 人   到 雲林 口湖   台西 實地 勘查 多處 嚴重 地層下陷區   土地 數 10 年來 無法 耕作   養殖   陳 吉仲說   不 排除 以 專案   示範場域 方式   與 國家 綠能 政策 結合   附予 這類 土地 新價值   進而 創造 多贏     蘇治芬 指出   口湖   台西 等 沿海 地區 多 處位 處 嚴重 地層下陷區 土地   卻 具有 困難 耕作 地   養殖 專區   地層下陷區 等 多重 身分   現況 是數 10 年來 因難 耕作   地上 荒涼   地主 怨嘆 又 無奈     蘇治芬 說   若 沒 新 土地 政策 進場 協助   數 10 年後還 是 與 現況 一樣   接到 許多 農民陳情   今天 邀請 農委會 主委 現勘   盼能 盤點 政策 協助   才能 附予 土地 新價值     陳 吉仲 表示   會勘 後 會 與 相關 單位 討論 調整 相關 政策   不 影響 農漁業 生產 又 兼顧 農漁 民生 計   考慮 結合國家 綠電 發展   並以 專案 或示 範場域 方式 進行   進而 創造 農民   地方 發展   國家 重要 政策 能 發展 三贏     一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '〔 記者黃淑莉 ／ 雲林 報導 〕 根據 水利 署 監測 資料   全國 最大 米 鄉 — 大 埤 鄉 近 5 年 地層下陷 面積 深度 惡化 情況   分析 原因 極端 氣候 水情 不穩   地下水 用量 增   對此   縣府 爭取 農業部 農田 水利 署將 大 埤納入 擴大溉 灌 服務範圍   可 從 北港溪 引水 高灘 地 建置 蓄水池   再 新建 管路 供農田 灌溉 用   經費 約 3.3 億元     縣府 水利 處 指出   水利 署 2023 雲林 地層下陷 監測 結果 顯示   雲林 顯著 下陷 面積 247.7 平方公里   比 前年 2022 年略增 一些   顯著 下陷 重點 地區 土庫   元長 地下水位 仍有 持續 下陷 形     水利 處長 許 宏博 表示   整體 監測 結果 可 看出   雲林 沿海 地層下陷 趨緩   顯著 下陷 主要 虎尾   土庫   元長   北港   四湖   褒忠   水林   崙 背 大 埤   值得注意 是 大 埤 鄉 下陷 面積   深度 近 5 年 惡化 現象     許 宏博 指出   大 埤 是 全國 水稻 種植 面積 最 多 鄉鎮   但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作   無水 可 灌溉 一定 要 抽 地下水 使用   水稻 面積 不變   用水量 都 固定 情況 下   地層下陷 應 不致 惡化   主要 變數 就是 水情   尤其 這幾年 極端 氣候   2021 遇 百年 大旱   2023 去年 又 遇 200 年 大旱   這 2 次 地下水 抽得 多   去年 枯水期 地下水位 洩降 大 埤 達 15 公尺 最 嚴重     許 宏博 說   目前 大 埤 農民 灌溉 情況 3 種   第一 種是 引 地面水 即區 排   第二 種是 抽 地下水   由 幾個 農民 共同 一個 公井   再分 擔電費   第三 種是 抽 北港溪 水   為 減緩 大 埤 地層下陷 持續 惡化   縣府 早先 已建議 列為 優先 防治 地   針對 大 埤 取水 灌溉 進行 初步 規劃 及構 想   考量 北港溪 尚有 水權 可 申請   即 從 北港溪 引 地面水 到 高灘 地 蓄水池   供給 農田 灌溉 使用  ', '媒體 報導 雲林縣 大 埤 鄉 水情 不穩   地下水 用量 增加   地層下陷 惡化   農田 水利 署 今天 表示   雲林縣 府 提出 納入 擴大 灌溉 服務構 想   已 請 其 提擬 更具 體的 計畫   再 共同 推動 擴大 灌溉 服務     媒體 報導   水稻 產區 雲林縣 大 埤 鄉 近年 地層下陷 情況 惡化   可能 與 水情 不穩   抽取 地下水 用量 增加 有關   雲林縣 政府 因此 想 爭取 農業部 農田 水利 署將 之納入 擴大 灌溉 服務範圍                           農水署 副署 長 陳 衍源 告訴 中央社 記者   雲林縣 政府 提出 構想   農水署 已 回覆   請 縣府 提出 更具 體的 計畫   收到 計畫後會 審查   然後跟 縣府 共同 推動 擴大 灌區 服務 計畫     針對 成立 3 年 3 個 月 來   已 擴大 5.6 萬公頃 農田 獲得 灌溉 用水   約 8 萬 多名 農民 受惠   農水署 並規劃 114 年 要 擴 增至 8.8 萬公頃   陳 衍源 說   要 等 縣府 提出 具體 計畫後會 審查   因此 能否 納入 114 年 8.8 萬公頃 目標   尚未 確定   但應 不 受此 影響   擴大 灌溉 服務計 畫會 持續 推動     另外   陳 衍源 說   如果 能 設計 引用 河川 水作 為 灌溉 使用   希望 能 替代 當地 抽用 地下水   對 減緩 地層下陷 有所 幫助  ']</t>
+          <t>['順著 高屏溪 右岸 來 到 高雄 大樹區 九曲堂 工作站   從 空中 俯瞰 一個 個 用圍 欄圍 起 方形 區塊   排列 整齊   錯落 其中   靠近 一看 才 發現 這是 一根 根 打入 地底下 水管   稱為 抗旱 水井   高雄市 政府 水利局 表示   所謂 抗旱 水井 是 抽取 深層 地下水   從 地表 往下 150 米 深   透過 抽水 設備   將深層 地下水 經由 抗旱 水井 取出   相較 於 海淡廠   再生 水 等等   取水 更為 快速   成本 更 低   供水量 更 大 地下水   成為 抗旱 期間 關鍵 水源   類 似的 抗旱 水井 已 高雄 陸續 開鑿 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井 卻 讓 當地 農民相 當憂心   是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間 淺層 地下水 農業 灌溉 井   含水 層 不同   且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產生 影響   水利局 局長 蔡長 展 指出   抗旱 水井 是備 援用 水   使用 時間 大約 每年 3 月 至 5 月   藉由 雨水 對 地下水 進行 補注   對 農業 灌溉 用水 不受 影響   根據 地下水位 監測 資料 顯示   112 年 1 月份 地下水位 高點 落 14 公尺   接著 隨著 枯水期 到 來   地下水位 5 月份 降到 了 大約 6 公尺   隨後迅 期到 來 開始 降雨   加上 高雄市 政府 與 水利 署 合作   推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫   增加 地下水 量   使得 9 月份 地下水位 上升 到 16 公尺   足足 比 枯水期 高出 了 10 公尺   甚至 高 於 1 月份 水位   枯水期 嚴密 監控   視情況 抽用   豐水期 加強 地下水 補注   能夠 達 到 水資源 永續 發展 目標   經濟部 水利 署 副署 長 林元鵬 說明   高雄 地區 總 共有 11 口 觀測 水井   所有 水井 都 會 進行 管控   只要 是 有效 地去 管控 數據   地下水 高雄 地區 是 可以 當作 一個 安全 用水   嚴密監 控確 保不會 造成 地層下陷 影響 水源 保育 情況 之下   短期 備援 抗旱 水井 不僅成 了 抗旱 功臣   賦予 地下水 資源 更 多元 運用 可能  ', '新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -948,21 +948,21 @@
         <v>20</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>20_氣候_沿海_未來_地區</t>
+          <t>20_新竹市_道路_市公所_路面</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>['氣候', '沿海', '未來', '地區', '災害', '地層下陷', '危險', '地層', '地下水', '許多']</t>
+          <t>['新竹市', '道路', '市公所', '路面', '市府', '新竹', '坍塌', '巷', '台北', '施工']</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['〔 中央社 〕 一項 新 研究 指出   南亞 東南亞 沿海 大城市   下沉 速度 要 比 世界 其他 地方 更 快   使數 以千萬計 人 更 容易 受到 海平面 上升 影響     法新社 報導   根據 新加坡 南洋 理工大 學   Nanyang   Technological   University   上週 發表   自然 永續     Nature   Sustainability   期刊 上 一項 研究   快速 城市化 使 這些 城市 大量 抽取 地下水   以 因應 不斷 成長 人口 需求     研究 指出     這 使得 經歷 當地 土地 快速 下沉 城市 所 面臨 沿海 災害 風險   比 那些 已 因氣候 導致 海平面 上升 城市 所 面臨 風險 更 大       越南 人口 最多 城市 主要 商業 中心 胡志明市   Ho   Chi   Minh   City     每年 平均 下沉 16.2 公 釐   這項 對 全球 48 座 大型 沿海 城市 衛星 資料 研究 調查 中 名列前茅     排名 第二 是 孟加拉 南部 港口城市 吉大港   Chittagong     吉大港 與 印度 西部 城市 阿默達 巴德   Ahmedabad     印尼 首都 雅加 達 緬甸 商業 中心 仰光 高峰 年間 皆 下沉 20 多公 釐     研究 稱     這些 快速 下沉 沿海 城市 許多正 快速 擴張 成為 巨型 城市   megacity     這些 地方 … 抽取 地下水 以及 承受 密集 建築 結構   導致 土地 下沉       下沉 城市 本身 並非 氣候變遷 結果   但 研究 人員 說   他們 研究 能 更 深入 了解 下沉 現象 如何   加劇 氣候 所導致 平均 海平面 上升 影響       根據 聯合國   政府 間 氣候變遷 問題 小組     Intergovernmental   Panel   on   Climate   Change     IPCC   資料   到 2050 年   將有 十多 億人 生活 沿海 城市   面臨 海平面 上升 風險     IPCC 稱   就算 溫室 氣體 排放量 大幅 減少   到 本世紀 末   全球 海平面 仍 可能 上升 至多 60 公分  ', '長江 三角洲 簡稱   長三角     是 中國大陸 經濟 發展 前緣 地區   人口 超過 三千 萬   年 生產 毛額 兩千 兩百億 美元   是 全球 最 富裕 三角洲   然而     人無遠慮   必有 近憂     當聯合國 氣候 變化 綱要 公約 締約 方大會 COP28 閉幕 不久 此刻   當 全球 減碳 前景 仍 不樂觀 當下   我們 要 想想 全球 暖化   北極 冰融   海水面 上升 加劇 趨勢 中   長江 三角洲 未來 所 可能 受到 危害   將牽動 著 中國大陸 發展 前景 與 紅色供 應鏈 未來       廿世紀 前 五十年 全球 平均 海水面 升高 速率 為 每年 一點 五 毫米   近 卅年 來 該 速率 已經 加倍   達到 每年 三點 四 毫米   就是 說   卅 多年 來 全球 海水面 升高 了 十一 公分   聯合國   政府 間 氣候變遷 小組   去年 報告 書 指出   隨著 不同 暖化 程度   本世紀 前 海水面 將 升高 一 公尺 到 二點 五 公尺 不 等   衝擊 最 嚴重 將是 各大 河流 出海口 三角洲 — 洪水 淹 沒   土地 侵蝕   鹽水 入侵   生態 崩解                             近日 筆者 舊 金山 參加 一個 研討 全球 變遷 學術 大會   十幾個 議題 組中 領略 到 密西西比河 三角洲 海陸 變化   從 航空 照片 到 衛星 遙測   桑田 變滄海 景象 眼前 一幕幕 展開   述 說 著數 十年 來 淤積 與 滅頂 故事   十九 世紀   這個 大河 系 每年 輸送 四 億噸 泥沙 入海   廿世紀 中期 之 後   以 水利 為名   密西西比河 中上游 建設 上 了 四萬座 大大小小 壩體   一九六五年 以降   河系 輸 沙量 已經 減半 不止   只 剩下 每年 一億 三千 萬公噸   上游 蓋壩 是 為 了 蓄水 與 發電   頭痛 醫頭   下游 三角洲 因 缺乏 泥沙 而 飽 受 侵蝕   人們 又 開始 腳痛 醫腳   建造 了 許多 堤防   防範 海水 入侵   總長 三萬 公里   擾亂 了 原來 大自然 泥沙 輸送 布局   加上 近 五十年 下游 地區 墨西哥 灣的 石油 與 天然 氣開發   地層下陷   河道 漂移   人們 總以 為 人定 勝天   救東牆   補西牆   整個 地區 亂成 一鍋 粥   現在 又 奢言 利用 人工智慧     自然 解方     力挽狂 瀾 於 既 倒   扶大廈 之將 傾   只怕 是 痴人 說 夢   為 時 已 晚       長江 三角洲 似乎 正 走上 密西西比河 老路   長江 上下游 這 卅年 來 正經 歷人類 歷史 上 最 迅猛 社會 變遷   僅 上海 一地   人口 從 八 年代 六百 萬 增加 到 目前 三千 三百 萬   長江 原來 每年 輸送 五 億公噸 泥沙 到 河口   全球排名 第五   長江 三峽 大壩 二 三年 啟用 之 後   目前 輸 沙量 大約 每年 一億公噸   長江 三角洲 前緣 已 經開 始後退   以 上海 為 發展 中心 三角洲 雖 享受 著開發 豐美果實   承受 著 上游 帶來 一切 災害 危機 總   包括 三角洲 萎縮 以及 水質 汙染   大量 人口 增加 使 地下水 抽取 量大增   地層下陷   局部 地區 下陷 量 曾一度 高達 每年 十七 公分   使得 淹水 危機 更 甚   雪上加霜   近年 上海 當局 投入 大量 資源 填海 造陸 與 地下水 補助   才 暫時 阻延 了 一些 頹勢       密西西比 三角洲 海拔 低 於 二米 範圍 約 占 全區 百分之十四   而 長江 三角洲 則占 全區 百分之四十   未來 海水面 上升 風險 下   長三角 面臨 挑戰 顯然 更 為 嚴峻   更 為 棘手         作者 為 逢甲 大學 創能 學院 教授  ', '地層 嚴重 下陷 問題 不是 只有 台灣 會 發生   國外 一份 專業 調查 報告 顯示   全球 至少 33 座 城市   以 每年 超過 一 公分 速度 下沉   是 海平面 上升 速度 五倍   尤其 中國 天津 最 嚴重   印尼 雅加達 一樣 危險   令人 驚訝 是   連美國 南部 大城 休士頓 拉 警報   專家 甚至 悲觀 預測 到 了 2100 年   休士頓 就 可能 從 地表 消失   休士頓 是 美國 德州 第一 大城   工商 業發達   美國 太空 總署 當地 設立 太空中心   但 能否 想像   專家 已經 預測 80 年 後   大約 2100 年   休士 頓會 因為 地層 嚴重 下沉   整座 城市 消失 地 平面   根據   世界 經濟 論壇   最近 發布 報告   休士頓 平均 每年 以 1.95 公分 速度 下沉   是 全球 下沉 速度 第 10 快 城市   是 西半球 唯一一 個 下沉 速度 排入 前十名 城市   美國氣 候專 家史 特勞斯 表示     雖然 土地 現在 大小 堤防 保護   但   地層下陷   仍 超乎想像     專家 表示   休士頓 下沉 速度快   海平面 上升 迅速   再 加上 氣候變遷 因素   用科學 模型 推估   已經 無法 準確 預測 洪水 侵襲 惡化 強度 速度   呼籲 當局 必 須 儘 快 因 應   專家 還列舉 全球 下沉 速度 最快 城市 是 中國 天津市   每年 以 5.22 公分 速度 下沉   非常 驚人   印尼 雅加 達 下沉 危機 一度 非常 嚴重   全球 名列前茅   幸好 當局 嚴格 限制 抽取 地下水   地層下陷 從 每年 28 公分 大幅 減少 到 3 公分   印尼 學者 表示     非常 重要   雅加 達 曼谷 從 東京 上海 汲取 成功 經驗     科學家 不斷 公 佈 全球 各 大城市 面臨 地層下陷   土地 沉 沒 模擬 畫面   都 提醒 人類 要 相信 科學   保護 自己 家園 避免 消失 刻 不容 緩  ']</t>
+          <t>['疑因   豐采 520   建案 導致 竹 北市 莊敬 六街 發生 道路 坍塌   一輛 特斯拉 還掉 進去   新竹縣 長 楊 文科 今天 表示   已 與 竹北 市長 鄭 朝方 協議   市公所 將 全力 配合 相關 作業   並 要求 建商以 透地雷達 設備   預防性 檢測 建案 四周 道路 土質 情形   預防 再次 坍塌   工務處 表示   目前 初判 造成 此次 坍塌   原因 是 建商開 挖 地下室 抽取 地下水   導致 土砂 層 部分 帶 走 地層下陷   為 防止 附近 道路 再次 發生 坍塌   已 要求 建商以 透地雷達 設備 詳實 檢測 建案 四周 勝利 二路   勝利 一路   莊敬 六街 自強 北路   確認 是否 仍有 土質 流失 造成 坑洞   由 於 該 路段 路權 為 竹北 市公所 權責   縣長 楊 文科 與 竹北 市長 鄭 朝方 達 成共識   市公所 將 全力 配合 周邊 道路 封鎖 透地雷達 監測 等   展開 全面 檢測   縣府 已 與 市公所 研議 相關 作業   確保 附近 住戶 安全 無虞   工務處 指出   縣府 已 要求 建商 於 維生 管線   自來 水   電力   瓦斯 等 檢測 維修 完成 後   會同 竹北 市公所 同意   以低 強度 混凝土 灌漿 補強   針對 承造 監造 人   縣府 希望 加重 懲罰 機制   將 蒐集 近幾次 相關 違 失事 證   移送 新竹縣 營造業 審議 委員會 建築師 懲戒 委員會 審議   另外   縣府 也將 此次 工安 事件 提列 為 建築 爭議 損鄰 事件   立案 列管   通知 起造   承造 監造 人 改善 鄰房 損害 情況   並 於 完成 安全 改善 修 復 後   檢具 相關 證明 文件 與 同意 書 報府 核備   後 續 建商 必須 與 受 損戶 達成 和解   縣府 才 會 核發 使用 執照   工務處 說   縣府 將持續 配合 新竹 地檢署 調查   後 續 該 工地 建商 如 欲 復工   縣府將 與 竹檢 取得 共識   要求 工地 完善 工地 安全   確定 鑑定 報告 結果 無 虞   舉辦 施工 說 明會   繳清 所有 罰 鍰   以 嚴格 標準 檢視 改善 結果 後   再 評估 是否 辦理 復工  ', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影', '新竹市 和平路 20 巷 昨 下午 驚見   天坑     市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 認為   未來須 全面 將 瓦斯 自來 水管 線 更新   同時須 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   後 續 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  ']</t>
         </is>
       </c>
     </row>
@@ -971,21 +971,21 @@
         <v>21</v>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>21_市府_道路_地下_路</t>
+          <t>21_水資源_水源_水利_蓄水量</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>['市府', '道路', '地下', '路', '當地', '下陷', '塌陷', '下', '建物', '市長']</t>
+          <t>['水資源', '水源', '水利', '蓄水量', '淨水場', '供水量', '水場', '供水', '用水', '地下水']</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影', '新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影']</t>
+          <t>['〔 記者 李容萍 ／ 桃園 報導 〕 桃園市 石門 水庫 水情 吃緊   截至 今   21 日   中午   蓄水量 7131 萬噸   蓄水 率 34.75 ％   經濟部 水利 署自 19 日起 調整 桃竹苗 地區 水情 燈號 為   水情 提醒   綠燈   提醒 各界 節約 用水   國立 中央 大學 研究 團隊 今 發表 於 新屋 綠色 隧道 海岸 線 TaiCOAST 臨海 工作站   發現 地下水 出流 現象 非常 強勁   每年 出 流量 達 1 億公噸   相當 半座 石門 水庫 容量   這項 成果 刊載 於 新一期   水文 學雜誌   Journal   of   Hydrology     Regional   Studies 頂尖 期刊   未來 可進 一步 研究 探討 如何 適度 使用 不會 造成 環境 危害     中央 大學應 用地 質 研究所 教授 倪春發 表示   海岸 帶 地下水 出流   Submarine   Groundwater   Discharge     SGD   為 地下水 直接 流進 海洋 自然 現象   普遍存在 於 世界各地   中央 大學 TaiCOAST 臨海 工作站 自 2021 年 開始 進行 新屋 海岸 帶 地下水 出 流量 調查   發現 即使 2021 年 大旱 期間   遭遇 台灣 56 年 來 最 嚴重 缺水 危機   出 流量 仍 相當 豐沛     研究 團隊 透過 鑽井   深入 地下 100 公尺   發現 打出 仍 是 淡水   透過 數學 模型 計算 流速 面積 累加   發現 新屋 地區 海岸 帶 地下水 出 流量 每天 可達 30 萬噸   1 年 高達 1 億噸   相當 半座 石門 水庫 容量   近年 來 調查 結果 更 發現   新屋 區往 北 海岸 出 流量 更 高潛勢   顯示 桃園 海岸 帶 整體 地下水 出 流量 更為 可觀     研究 團隊 指出   台灣 年 降雨量 約 2500 毫米   約 為 全球 平均 3 倍   但 因 台灣 地形 梯度 較大   60 ％ 流入 海洋   只有 5 ％ 含水 層   儘 管 台灣 降水量 高   但 水資源 有限   雖然 發現 地下水 出 流量 資源 豐沛   但 如何 汲水 開發   不致 造成 海水 入侵 地層下陷   涉及 政策   科學 工程 等 多重 挑戰   還需 兼顧 出海口 生態 平衡   才能 造福 國家 社會     此 研究 團隊 涵蓋 中央 大學 地球 科學學院 各系所 老師   包括 應 用地 質 研究所 教授 倪春發   副教授 王士榮   水文 與 海洋 科學 研究所 教授 李明旭   錢樺   副教授 黃 志 誠   以及 地球 科學學系 教授 顏宏元   陳 建志 等 人   各自 發揮 所長   追求 科學 卓越   期許 對 人類 社會 有所 貢獻  ', '因應 極端 氣候   水利 署 投入 123.6 億元展 開   鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫     包括 6 座 人工 蓄水池 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 能 同享 量 好質 優 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定   雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫   中 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投縣 自來 水 普及率 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投縣 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投縣 用水 問題  ', '烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 產業 發展區   整體 需水量 不斷 增加   造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投縣 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投縣 民 配合 政府 政策   但 南投縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 能 喝 到 量 好質 優 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒   珍珠 串     讓 台灣 水資源 調度 更好   顯示 台灣 人民 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   會 持續 綠 美化   變成 南投 新 觀光 地標     立委 游顥 說   南投縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 立法院 繼續 爭取   希望 行政院 重視 南投 用水 問題  ']</t>
         </is>
       </c>
     </row>
@@ -998,17 +998,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>22_地層下陷_鄉_建築_當地</t>
+          <t>22_灌區_水稻_灌溉_農田</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>['地層下陷', '鄉', '建築', '當地', '下陷', '居民', '區', '撤離', '附近', '日']</t>
+          <t>['灌區', '水稻', '灌溉', '農田', '水利', '水源', '農業', '地面水', '農委會', '平方公里']</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  ', '印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  ', '〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  ']</t>
+          <t>['雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  ', '根據 水利 署 監測 資料   雲林縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示     就是 都 沒 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋     雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示     非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 灌溉 水源     雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  ', '經濟部 水利 署 監測 雲林縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林縣 長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   自來 水可到 達 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林縣 大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1021,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>23_台北市_區域_北市_向</t>
+          <t>23_北極_冰河_坑洞_大陸</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>['台北市', '區域', '北市', '向', '〔', '〕', '建物', '地方', '下陷', '道路']</t>
+          <t>['北極', '冰河', '坑洞', '大陸', '平方公里', '坑', '冬季', '全球', '土', '區域']</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ', '〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹縣 竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險   希望 相關 單位 幫忙 出面 解決     被 指控 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 原因 不明 下陷   龜裂 問題   看起 來 災害 確實 持續 進行 中   但導致 持續 龜裂 擴大 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 天氣 放晴 後 協助 維修 處理     陳 講   鍾 姓 住戶 主要 是 拿 自家 建物 背 後 另 1 間 民宅 比 對   鍾 認為 2 宅   沒有 一直 線     所以 認定 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護     縣府 工務處 長江 良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 毀損 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 被 徵收 戶   3 樓半 住家 就是 蓋 約 3   40 坪 配回 地上   10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 其中   如果 房子 真的 不安   影響 非常 大     鍾 說   隔鄰 新建 工地 約 是 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 地面   竟 自己 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 牆面 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 已有 他 1 片 手指甲 寬   至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  ']</t>
+          <t>['地球 南北 兩極 這兩天 都 重要 科學 發現 發表 媒體 上   其中 北極 方面   科學家 發現 加拿大 北邊 海底 出現 地層下陷   最大 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 南極 大陸 東邊   3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 144 平方公里 冰架 崩解   相當 於 半個 台北市 大小   科學家 藉 著美國 太空 總署 NASA 衛星   拍 攝到 南極 大陸 東邊   格連澤 冰河     瀕臨 南 印度洋 冰架   2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 過去數 十年 來   冰架 崩解 現象   絕 大多 數出現 西邊 南極 半島   就是 與 南美洲 阿根廷 遙遙 相望 所在   而且 過去 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 冰雪 增厚   對 全球 海平面 衝擊 有限   從 2020 年 開始 南極 東邊 冰河 開始 縮小面積   但 是 以 每天 1 平方公里 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出     但 上星期 我們 發現 快速 氣候 現象   這也許 不足以 說明 事情 全貌   但 確對 冰架 造成 前 所 未 見 壓力     研究 人員 所 說 氣候 現象   是 指 發生 3 月 15 日 大氣 河流   這種 氣候 現 象是 指   高濃度 水蒸 氣沿 著 狹窄 區域 快速 前進   對 於 已經 消退 中 冰架 造成 致命 一擊   而大面積 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域   發現 大面積 地層下陷   最大 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 地下水 緩慢 流動   是 北極海 地層下陷 原因  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
         </is>
       </c>
     </row>
@@ -1044,17 +1044,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>24_水利_地下水_地區_地層下陷</t>
+          <t>24_綠電_電業_種電_光電場</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>['水利', '地下水', '地區', '地層下陷', '區域', '面積', '鄉', '水管', '縣府', '當地']</t>
+          <t>['綠電', '電業', '種電', '光電場', '綠能', '光電', '環境', '全台', '地層下陷區', '光電板']</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  ', '根據 水利 署 監測 資料   雲林縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示     就是 都 沒 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋     雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示     非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 灌溉 水源     雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  ', '經濟部 水利 署 監測 雲林縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林縣 長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   自來 水可到 達 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林縣 大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影']</t>
+          <t>['原來 同一 個 新能源 市場   同時 這麼 多 幫人 市場 上 探索   開發     圖片 來源 ／ Pixabay  ', '從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不   這是 屏東 沿海 地區 這幾年 興起 違 景致   是 全台 種電 縮影   地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 文資 價值 二戰 遺跡 都 不放過   不僅家園 變貌   迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 典範   二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出   養水 種電   計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 罵 聲不斷   二 一 八年 十月 起   屏縣 府 公告 實施   嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫     開放 下陷區 農地 可 變更 種電       二 二 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 二 一 八年 屏東縣 長 潘孟安任   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 光電   如今 變成 農民 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽   不利 耕作 聲明書     離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作         沿海 四鄉 鎮美麗 鄉間 景致 丕 變   綠地 逐漸 蒸發     屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 是 少數 地主   受影響 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能   五贏     前年 已達成 綠電供 應 全縣 民生 用電 階段 性 目標  ', '光電亂象 已久   從 之前 良田 種電   砍樹 種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 遺跡   更 一步步 裂解 農漁村 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 社會 衝擊 比 預期 更大且 深   講求 氣候 正義和   企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理     國際 主流 下   政府 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 地產業   恐埋 隱憂       屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區   本可 接軌 屏東縣 前縣 長 曹啟 鴻   養水 種電   政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   被 批評 與   養水 種電   初衷 漸行 漸遠                             屏東 只是 全 台 種電 爭議 縮影   更 多 生態   景觀 敏感 地   追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 副作用   甚至 正向 引導 與 地 共生 共榮   實難辭 其咎   與 執政黨   愛鄉 土   理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 不 例外   猶記 得 台積 電在 被 徵收 用地 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 考慮   民進 黨 種電 國策 若 如   失速 列車     無情 地衝 撞 純樸 農漁村   把 青農   老農 都 當成   農村 最軟 一塊     這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 綠電  ']</t>
         </is>
       </c>
     </row>
@@ -1063,21 +1063,21 @@
         <v>25</v>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>25_坑洞_台北市_市府_地層下陷</t>
+          <t>25_坑洞_建管處_破洞_地下</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>['坑洞', '台北市', '市府', '地層下陷', '地基', '街', '坍塌', '塌陷', '台北', '路面']</t>
+          <t>['坑洞', '建管處', '破洞', '地下', '台北市', '巷道', '信義區', '街', '坍陷', '道路']</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['高雄 仁武 區 今晚 9 時 30 分許   有民眾 發現 出現 一個 大 天坑   地點 就 永新 五街 永仁 街 路口 旁電線桿 周邊   高雄市 議員黃 飛鳳 獲報 隨即 到場 關心   並 通知 相關 單位 到場 協處   目前 高 市府 水利局 已調 派 機具 場開 挖 釐 清 下陷 肇因       由 於   天坑 發生 位置 就 電線桿 周圍   為 避免 電線桿 倒塌 造成 停電 意外   台灣 電力 公司 鳳山 營業 處 派員 前往 現場   暫以 吊桿 支撐 固定 電線桿   至於   地層下陷 肇因   水利局 人員 正在 現場 以管 挖 機具 進行 開 挖 調查                             仁武 分局 表示   因 路面 出現 坍塌 情事   為 安全 著想 避免 影響 用路 人   警方 獲報 後 已 將該 路段 封閉   經 水利局 挖開 查看   發現 不明 水源 流入 導致 地基 塌陷   屬 水利局 權責   遂 先行 填補 搶修   目前 水利局 污水 二科科長 張進 二 正在 現場 監督   台灣 電力 公司 鳳山 營業 處 暫以 吊桿 支撐 電線桿   避免 意外 發生 造成 停電   記者 古和純 ／ 翻攝 高雄 仁武 區出現 地層下陷   圖 ／ 取自 高雄市 議員黃 飛鳳個 人 臉書 高雄市 府 水利局 人員 現場 開 挖後填補 路面   記者 古和純 ／ 翻攝', '首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  ']</t>
+          <t>['台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供', '〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ', '首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  ']</t>
         </is>
       </c>
     </row>
@@ -1086,21 +1086,21 @@
         <v>26</v>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>26_地層下陷_塌陷_縣府_當地</t>
+          <t>26_萬華區_台北市_新竹_新北</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>['地層下陷', '塌陷', '縣府', '當地', '街', '路面', '居民', '地下水', '道路', '下陷']</t>
+          <t>['萬華區', '台北市', '新竹', '新北', '台北', '向', '〔', '〕', '鄰', '建路']</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['地層下陷   居住 環境 出現 疑慮   宜蘭 蘇澳鎮 民富 街   持續 嚴重 地層下陷   除了 騎樓 路面 出現 裂縫   家裡 牆壁 地磚 都 是 裂痕   讓民眾 膽戰心 驚   質疑 是 附近 蘇澳 海事 水產 職業 學校 游泳池   超 抽 地下水 造成   10 號會同 當地 立委   縣府 官員 進行 協商   希望 解決 問題   道路 傾斜 越來 越 嚴重   路面 持續 裂痕 產生   地層下陷 越陷越深   民眾 憂心 忡忡   因為 騎樓 道路 出 現明 顯裂 縫   家門口 緊鄰 水溝 都 脫離 了 3 公分   走 進家裡 更是 驚險   白色 地磚 出現 裂痕   銜接 處變 得 高低不平   整個 牆 壁上 是 超長 裂痕   怵 目驚心   這裡 是 宜蘭 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 水產 職業 學校 游泳池   當地 地層 持續 嚴重 下陷   遊 泳池 用 了 四年 就 塌陷   讓 居民 質疑   是 學校 不當 抽取 地下水 惹 得 禍   10 號這天會 同 立委   縣府 官員 共同 協商   不過 水利 署 官員 分析 指出   地層下陷 除了 跟 抽水 行為 有關   泳池 載重 有關 係   還要 再 進 一步 釐 清   居家 環境 不 安全   民眾 生活 都 膽戰心 驚   只 盼望 可以 盡快 改善 問題   還給 居民 安全 生活 環境  ', '基隆 一處 屋齡 超過 40 年 公寓 住宅   後 方 排水 溝壁 破損   導致 流水 長 期 沖 刷   部分 住宅 地基 被 掏空   周圍 路面 出現 地層下陷 狀況   杜蘇芮 颱 風來襲   居民 擔心 大雨 不斷   後 果 不堪 設想   地基 掏空 發生 基隆 西定 路   一棟 公寓 住宅 住家 門口   破 了 一個 大 洞口   居民 行經 踩 空   才 驚覺 原來 民宅 外側 地基 被 掏空 了   進 一步 了解 才 發現   是 排水 溝壁 破損   長 期 沖 刷 造成   而且 長 期 土石 流失   讓 周圍 路面 出現 地層下陷 狀況   從 畫面 中 可以 看到   地層下陷 深度 大概 3 到 5 公分   可以 把手 機 放置 進去   居民 擔憂   地層下陷 將會 影響 住宅 結構 安全   尤其 杜蘇芮 颱 風期間   帶來 雨勢   恐怕 會帶 來 嚴重 影響   基隆市 議員施 偉政 提醒   地基 被 沖 刷   上面 載重 又 大 話   恐怕 房子 會 很大 問題   工務處 表示   會先 就 壁體 破損 坍方 處   施作 水溝 溝牆 再 回填   避免 淘空 範圍 擴大  ']</t>
+          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹縣 竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險   希望 相關 單位 幫忙 出面 解決     被 指控 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 原因 不明 下陷   龜裂 問題   看起 來 災害 確實 持續 進行 中   但導致 持續 龜裂 擴大 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 天氣 放晴 後 協助 維修 處理     陳 講   鍾 姓 住戶 主要 是 拿 自家 建物 背 後 另 1 間 民宅 比 對   鍾 認為 2 宅   沒有 一直 線     所以 認定 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護     縣府 工務處 長江 良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 毀損 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 被 徵收 戶   3 樓半 住家 就是 蓋 約 3   40 坪 配回 地上   10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 其中   如果 房子 真的 不安   影響 非常 大     鍾 說   隔鄰 新建 工地 約 是 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 地面   竟 自己 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 牆面 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 已有 他 1 片 手指甲 寬   至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ']</t>
         </is>
       </c>
     </row>
@@ -1109,21 +1109,21 @@
         <v>27</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>27_台北市_台北_建物_市長</t>
+          <t>27_新竹市_台北市_坑洞_坑中</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>['台北市', '台北', '建物', '市長', '北市', '建設', '住戶', '施工', '府', '民宅']</t>
+          <t>['新竹市', '台北市', '坑洞', '坑中', '街', '信義區', '消防局', '市府', '道路', '鄰近']</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['台北市 中山 區 大直 民宅 疑因 附近 建案   基泰 大直   施工 不慎   整棟 下陷   建商 基泰 建設 今天 認了   施工 不慎     表示 相關責 任絕 不 推卸   會 對 受 損戶 盡 最大 慰問   協助 安置   台北 市長 蔣萬安 上午 到 顯場 視察   指 預防性 撤離 可能 再 擴大       基泰 建設 表示   台北市 中山 區   基泰 大直   建案 於 9 月 7 日 晚間   因營 造廠 施工 不慎   造成 鄰房 損壞   深表 遺憾   為維護 公共安全   已 於 第一 時間 要求 停工   同時 進行 相關 措施       蔣萬安 表示   市府 第一 時間 就 進行 疏散   跨局 處 到場 預防性 撤離   撤離 人數 規模 大   共 197 戶   約 369 人   但 可能 再持續 擴大   道 明外 僑學校 操場   圍牆 裂開   教育局 緊急 確認 後   宣布 今日 預防性 停課 1 日   以策安全               登入 看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     登入 閱讀     還 不是 會員     馬 上 註 冊   ｜   立即 搶購         看 完整 精彩   5 26 前成 為 年 訂戶 就 機會 抽 最新   Macbook   Air     支持', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
+          <t>['先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 一輛車 面積   根據 了解   天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   如 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  ', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝']</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1136,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>28_地下水_水利_水_地區</t>
+          <t>28_公園_步道_水路_坑洞</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>['地下水', '水利', '水', '地區', '地層下陷', '區域', '沿海', '土地', '區', '地下']</t>
+          <t>['公園', '步道', '水路', '坑洞', '廣場', '向區', '夯土', '環境', '園', '市府']</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['資訊視 覺化 地層下陷                   書名     書上 設計展 2021       作者   尼 普利 編輯室 企劃     出版社   尼 普利 出版     出版 時間   2022 年 1 月 15 日           臺 灣 地層下陷   人們 對 於 這塊 土地 不當 利用   可說 是 現今 臺 灣 地層下陷 主要 肇因   像是 水資源 缺乏 所導致 超 抽 地下水   抑或 是 高鐵興 建所 造成 地面 荷重 大量 增加 等   都 加速 了 地層下陷 問題 發生   〈 B1 － 臺 灣 地層下陷 〉 專書以 複 合式 裝幀 結構 來 設計   將其分 為 兩 部分   分別 以線 裝及 摺 頁 書 方式 呈現   運用 資訊視 覺化 設計 為 主軸   介紹 臺 灣國土 下陷 四大 原因   九大 下陷 地區 說明   各個 地區 圖文細節   藉由 閱讀 理解 各 下陷 地區 之間 差異   引領民眾 快速 了解 現今 臺 灣 地層下陷 嚴重 程度       複 合式 裝幀 結構 設計     有別 於 過往 百科 全書 呆板 形式   本 專書 運用 複 合式 裝幀 結構 設計   利用 資訊視 覺化 手法   將 原本 龐雜 數據   輔以 凸顯 重點 視覺 編排   呈現 一幅 巨型 資訊 圖表   並 搭配 注目 性較 高 紅色   警惕 民眾 地層下陷 所 造成 危害   以及 對 居住 與 國土 安全 威脅                                           以 專書設 計為 主軸   書籍 以 複 合式 裝幀 設計   圖 ／ 尼 普利   提供                           封面 以 雷射 切割 紙材 方式 呈現 下陷 層次 造型   圖 ／ 尼 普利   提供                           重點 介紹 九大 下陷 地區 數據表現 與 相 關訊息   圖 ／ 尼 普利   提供           ● 編輯 觀點     地層下陷 問題   好像 溫水 煮 青蛙   水平 看似 一致   卻 可能 正在 下移 而 渾然 未覺   安全 此刻 懸崖邊   搖搖欲 墜   〈 B1 － 臺 灣 地層下陷 〉 透過 設計 手法   視覺化 呈現 臺 灣 地層下陷 現況   讓 人 意識 到 問題 存在   進而 思考 土地 規劃   臺 灣 四面 環海   地層下陷 問題 格外 隱憂   國土 一旦 保持 不佳   負載 過度   一不留神 就是 海水倒灌 等 不 可逆 嚴重後患   那些 存在 許無力 一次 解決   但 不放棄   盡己 所能   喚起 危機 意識   是 一種 改變 開始     設計 團隊     樹德 科技 大學   視覺 傳達 設計系     Designer ｜ 江蓉   楊皓鈞   黃 上溢   廖楷平   林靜芬   黃 麒 樺     Advisor ｜ 陳 月 英                             【 本 文摘 選自尼 普利 編輯室 出版   書上 設計展 2021   一書   授權 刊登 於 聯合 新聞網   琅琅 悅讀   頻道   未經 同意   請 勿 轉載   】 加入   琅琅 悅讀   Google   News   按下 追 蹤   精選 好文 不 漏接       五月 藝文 專題 活動 一覽     🎁 \u3000 抽獎 ｜ 海明威   金城武 都 來過   法國 巴黎 左岸 莎士 比亞書店   📰 \u3000 師大美術館   一拍 即影   300 件 拍 立得   見證 攝 影大師 黃 金 年代   📰 \u3000 漫步 青島 老城 區   探訪 上 世紀 文藝書店   民宿 咖啡 館   📰 \u3000 不一樣 山水 畫   M ＋ 博物 館   山鳴 水應   用 新視角 看藝術   📰 \u3000 南美 館 雙館 共展   沃克   海怪   炮火 與 他們   以藝術 視角 回望 歷史   📰 \u3000 吃 是 什麼 烤 鴨   北京 與 廣式 烤 鴨 之間 3 種差異   📌 \u3000 梁朝 偉   劉德華 都 演過   盤點 金庸 武俠 劇中 經典 選角', '旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  ']</t>
+          <t>['嘉義市 35 座公園 是 國內 密度 最高   其中 20 座公園 廁所   曾 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請   優質 公廁 美質 環境 推動 計畫   經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  ', '桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 草 原因 地層下陷   出現 大大小小 坑洞   議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   南 崁 住宅 密集 區營造   都 會 中 綠洲                               市議員 張桂綿 說   公園 步道 近期 嚴重 下陷   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成   無底 洞     推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  ']</t>
         </is>
       </c>
     </row>
@@ -1159,17 +1159,40 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>29_未來_地區_氣候_當地</t>
+          <t>29_新北市_萬里區_致建築物_投溫泉</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>['未來', '地區', '氣候', '當地', '月', '重要', '目前', '計畫', '希望', '設施']</t>
+          <t>['新北市', '萬里區', '致建築物', '投溫泉', '溫泉', '當地民眾', '地民眾', '公共', '俞肇福', '湯空間']</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  ', '科技 大亨 馬 斯克   Elon   Musk   今天   5 19   抵達 印尼 峇里島   將與 印尼 總統 佐科威   Joko   Widodo   一起 參加 星鏈   Starlink   網路 服務 啟用   印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   政府 希望 星鏈 能夠 提高 各島嶼 網路 普及 度   這是 印尼 一個 月 迎接 第 3 名 科技 企業 執行長   此前 蘋果   微軟 執行長 都 已來訪     綜合 路透社 與 美聯社 報導   太空 科技 公司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場   印尼 首席 投資部長 盧胡特   Luhut   Binsar   Pandjaitan   機場 迎接   預計 兩人 將會 討論 一些 重要 合作   包含 星鏈 服務 啟動   馬 斯克 還會 簽署 一項 協助 印尼 加強 衛生 與 教育 單位 聯絡 互通 合約     盧胡特 表示   馬 斯克 今天 稍晚 將和 印尼 總統 佐科威 一起 峇里島 首府 登巴薩   Denpasar   社區 衛生 中心 一起 啟動 星鏈   盧胡特 說   衛生 機構 啟動 這項 服務   呼應 星鏈   提供 平價 高速 網路   宗旨   尤其 是 網路 收訊 不佳 或過 於 偏遠 地區     印尼 是 個 群島 國家   約 1.7 萬座 島嶼   橫跨 3 個 時區   人口 超過 2.7 億   盧胡特 說   印尼 偏鄉 需要 星鏈 來 拓展 高速 網路   尤其 是 要 用 來 解決 衛生   教育 海事 單位 問題     印尼 通訊 部長 布迪   Budi   Arie   Setiadi   上週 表示   星鏈 已經 獲得 印尼 營運許 可   布迪 強調   星鏈 低 軌衛星 可以 讓 網路 擴及 目前 印尼 通訊 商無法 到 達 地區     據報   位 於 印尼 婆羅洲   Borneo   新 首都 努山 塔拉   Nusantara   本月 將先 試用 星鏈   8 月 正式 上線   印尼 正準備 遷都 努山 塔拉   因為 受 海平面 上升 與 地層下陷 影響   預計 目前 首都 雅加 達 大部分 地區將 2050 年 被淹 沒     印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   馬 來 西亞 去年 已核 發許 可證 給營 運星鏈 SpaceX 公司   菲律賓 一家 公司 則是 2022 年 與 SpaceX 簽約 合作     馬 斯克訪 印尼 前   蘋果 公司 執行長 庫克   Tim   Cook   4 月 17 與 印尼 總統佐科 威會面   並 表示 會將 印尼 產能 納入 考慮   兩周 後   微軟 執行長 納 德拉   Satya   Nadella   同月 30 日訪 印尼   承諾 未來 4 年 印尼 投資 17 億 美元   強化 印尼 新雲端 運算 與 人工智慧 基礎 設施     馬 斯克 此次 訪 峇里島   將參加 第十 屆 世界 水論壇   World   Water   Forum     研討 全球 水資源 衛生 挑戰  ']</t>
+          <t>['萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   男女 湯室 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 出動 透地雷達 探測   這次 發現 問題 較 嚴重   建議 邀請 土木 技師 參 與 會勘   經濟 發展局 水利局 應針 對 附近 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>30_坑洞_台北市_街巷_坍塌</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['坑洞', '台北市', '街巷', '坍塌', '信義區', '塌陷', '路面', '小洞', '建管處', '混凝土']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>['北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 坍塌 處 附近   約 10 人 安置 飯店   要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺   天坑     圖 ／ 北市 府 提供', '台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  ']</t>
         </is>
       </c>
     </row>

--- a/repo/topic_list.xlsx
+++ b/repo/topic_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,21 +465,21 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_台北市_市府_高雄_路面</t>
+          <t>-1_台北市_信義區_地層下陷_坑洞</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['台北市', '市府', '高雄', '路面', '四川', '道路', '台北', '坍塌', '鄉', '下陷']</t>
+          <t>['台北市', '信義區', '地層下陷', '坑洞', '路面', '道路', '坍塌', '北市', '下陷', '當地']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['張信 哲杜拜 站 演唱 會 原定 2 月 登場   後 來 撞 上 極端 氣候 出現 冰雹   淹水 災害   因而 延期 至 端午 假期 6 月 9 日舉行   他 笑 說     很 開心   差點 變成 不是 第一 個     透露 目前 已經 很多 歌手   陸續 安排 開唱 計畫   原本 很 擔心 阿拉伯 國家 演出 會 很多 限制   像是 有些 景點 不能 比 出 特定 手勢   演唱 會太過 喧鬧   後 來 才 發現 他們 對 外國人 很 禮遇   很 支持 娛樂 活動     第一次 得知 邀請 時   張信哲 心想     真的假 啦   有人 要 聽     過往 都 只有 杜拜 轉機 經驗   從 未 入境 過旅遊 他 說     他們 來 邀 請 時 就 說   以中 東來 說 這邊 是 華人 最 多 地方   30 萬人     杜拜位 處國際 航班 交通 樞紐   因此 有來 自 歐洲   俄羅斯 華人 歌迷   特地 飛來 欣賞 演唱 會   因為 天災 延期 開唱   歌迷 們 沒 太 多 抱怨 問題   把 票 留著 就 為 了 等到 正式 演出 這 一天 朝聖     首次 前進 沙漠 開唱   張信哲 歌喉 完全 沒有 受 影響     還好   場館 冷氣 很足   我 提前 4 天來   杜拜   調時 差     本來 就 沒 計畫 要 衝場 次 演出   1 週 1 場已 是 最大 限度     未來式   巡演 開唱 6 年   亞洲 站 預計 至 2024 年底 結束   前進 海外 開唱   他 最 想 攻 佔 場館 是 英國倫敦 皇家 阿爾伯特 音樂廳   Royal   Albert   Hall       張信 哲新 專輯 已經 籌備 中   下半年 會釋 出 更 多 新歌   台北 小 巨蛋   高雄 巨蛋 演唱 會   則要 排到 2025 年 才能 開唱     第一 個 要 搶 時間   現在 場館 太難 搶 了     記者 提議 大 巨蛋 開唱   張信哲 卻 謙虛回     大 巨蛋 周董   周杰倫   都 還排 不到   哪 還輪 到 我   等 別人 有空 給我用   我 再 用 就 好       歌神 張學友 因為 身體 不適   日前 取消 台北 站 演唱 會   張信哲 關注 此事     好 害怕   我 吃 增強 免疫力 的藥   醫生開     即將 前進 海拔 2000 多 公尺 青海 西寧站 開唱   張信哲 提到   前輩   薛之謙唱 到 吸氧 氣   私下 還嚇 他     一定 不要 亂動   不要 突然 爆衝    ', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ', '台北市 信義區 崇德 街今   13   日 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     而 台北 市長 蔣萬安 稍早 前往 現場 勘查   受訪 時 表示   第一 時間 就 即刻 派員前 來   相關 單位 了 緊急 疏散   強調   當這次 事件 緊急 處置 告一段落 之 後   會 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   積極 相關 處置   目前 對廠 商及 建築師 各 開罰 9 萬元   工地 勒令停工   蔣萬安 表示   初步 了解   聽 了 相關 單位 說明   我們 下午 3 點 13 分   消防局 接收 到 地方 反應 這邊 地層下陷   第一 時間 就 即刻 派員前 來   趕快 連絡 了 警察局   新工處   建管處   區 公所   自來 水處   瓦斯 公司   台電 等 相關 單位   了 緊急 疏散   蔣萬安 指出   跟 指揮官   相關 單位 來 說明   第一   人員 安全 最 重要   所以 相關 緊急 應變 處置 必須 盡速 完成   包括 疏散   安置 等等   將這次 地面 坍塌 可能 造成 損害 降到 最低   第二   就 旁邊 工地   目前 了解 可能 是 連續 壁 滲水 問題   已經 趕快 了 處理   盡速 找出 坍塌 原因   然後盡 快 排除   避免 坍塌 面積 持續 擴大   第三   會 就 這次 地面 坍塌 事件 進行 調查   當然 包括 工地 實施者   營造 商過 去 相關 紀錄   第四   當這次 事件 緊急 處置 告一段落 之 後   要 台北市 相關 工地 全面 清查   了解 是否 有類 似 這次 地面 坍塌 原因   要積 極來 相關 處置   蔣萬安 表示     我們 現在 已經 非常 努力 緊急 應變   處置   第一 時間 盡快 疏散 了 住戶   我 想 市民 朋友 安全 是 最 重要   目前 還在 緊急 處置   我 想 必要 話 我們 還是 希望 預防性 疏散     而 台北市 土木 技師 公會 理事 長 莊均緯 指出   還要 再 把 崩塌 孔洞 填補 完成   現在 還在 灌水 當中   水頭 差會 慢慢 達到 平衡   而 因 地質 條件屬 於 沙 跟 水   因此 擔心 擋 土 設施 破洞   只要 衝破 連續 壁 洞   勢必 擋 土 牆後面 會 崩塌   目前 要 把 崩塌 部分 用 混 泥土 灌足外   開 挖面 水平衡   只要 水 與 地下水位 一 平衡   土沙 部分 就 會靜止   就 不會 往開 挖面 流動   防止 二次 下陷   目前 搶救 可控 範圍   莊均緯 表示   通常 會 發生 這狀況   是 地面 本來 就 下陷   只是 下陷 又 再 造成 第二 崩塌   灌漿 部分 還是 從 最 底下 往上 灌   表層 部分 基本上 還是 有些 鬆 動   需要 等 水位 平衡 後   才能 達到 搶災 最終 停止 狀態   估計 應該 都 要 到 凌晨  ']</t>
+          <t>['北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ', '北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ']</t>
         </is>
       </c>
     </row>
@@ -488,21 +488,21 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_台北市_鄰損_大樓_建物</t>
+          <t>0_台北市_消防局_巷道_市府</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['台北市', '鄰損', '大樓', '建物', '市府', '損鄰', '台北', '中山', '建設', '高雄']</t>
+          <t>['台北市', '消防局', '巷道', '市府', '街', '信義區', '地層下陷', '坑洞', '鄰近', '巷']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['基泰 建設位 台北市 大直 新建 案 去   2023   年 9 月 7 日 晚間 突然 發生 崩塌   導致 附近 5 樓 民宅 下陷 成 4 樓   台北 地檢署 偵查 終結   將 工地 邱姓 負責人   基泰 公司 工程部 人員 張姓 工地 主任   王姓 劉姓 建築師   姜姓 專案 人員 等 5 人   依涉 犯 違背 建築術 成規   偽造 文書 等 罪 起訴   檢方 查出   大直 基泰 建案 坍塌 後   所幸 住戶 時 撤離   無人 傷亡   檢方 發現 建案 商未 依圖 施工   應該 60 公分 厚 連續 壁   只施作 50 公分   此外   建商 為 了 趕工   改變 施工 順序   竟 調整 監測 異常數 據   導致 工安 意外   至於 基泰 董事 長 陳 世銘 等 2 人 被控 殺人 未遂 部分 則 予以 簽結  ', '台北 捷運 信義線 東延段 工程   疑似 造成 松山 家商 校舍 下陷 5 公分   引發 安全 疑慮   直擊 北市 福德街   住戶 反映   下陷 情況 相當 明顯   連房價 都 跌 了   對此 台北市 捷運局 表示   已 安排 台北市 結構 技師 公會 辦理 結構 安全 鑑定   同時 已針 對 周邊 建物 鄰房 損壞 部分   進行 立即 修繕 作業   台北 捷運 信義線 東延段 工程   2016 年 開工 至今   工程 目前 還在 進行 中   不過 近期 北市 議員接 獲民眾 陳 情   說 先前 開 挖 工程   釀成 鄰近 建物 塌陷   實際到 現場 一看   發現 原本 馬 路 是 平   但 塌陷 狀況 確實 越來 越 明顯   附近 住戶 說     對   本來 都 是 平   這邊 全部 都 下陷   我 就 住 二樓   那個 球 很 明顯 從 這樣 滑下去     說 到 地層下陷   附近 住戶 超級 有感   北市 福德街 一旁 騎樓   明顯 受到 捷運開 挖 工程 影響   下陷 相當 嚴重   連住 戶 都 直呼   這裡 房價 都 跌 了     里長 更 指出   福德街 51 巷到 89 巷是 影響 最明顯 地方   附近 住戶 擔心 說     補 了 沒用   看 就 這樣   結構 已經 不行 了   除非 重建     對此 台北市 土木 技師 公會 理事 長 莊均緯 表示     通常 捷運 施工 比較 容易 下陷 部分   就 是非 結構體   像是 水溝   人行道   瓷磚 部分   要 安全 檢測   看 是否 造成 結構 上 問題     而 松山 家商 校舍 被 發現 下陷 狀況   議員 指出   經過 一年 監測   確認 已經 下陷 約 5 公分   安全 疑慮 浮上 檯 面   捷運 工程局 承包商   趕緊 進行 結構 補強   施作 地質 鑽 探作業   要 確認 校舍 承受能力   台北市 政府 捷運局 第二 工程 處 主任 陳 建仁則 表示   110 年 9 年 接到 學校 通報   監測 作業 進行 修繕   今年 暑假 陸續 修繕 完成   這個 月 安全 鑑定   兩個 月 後 就 安全 報告   而 台北 捷運局 表示   施工期 間 因為 極端 地質 水文 條件 不利   釀成 地下 土層 沉陷   目前 已經 安排 結構 安全 鑑定   並進行 立即 修繕   捷運 施工 周邊 建物   都 有安裝 建物 監測 儀器   按時 觀測 監控   研判 施工 是否 再 造成 影響  ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
+          <t>['台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝', '〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  ', '台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -511,21 +511,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_地層下陷區_高鐵_道路_壅塞</t>
+          <t>1_地下水_地層下陷_面積_區域</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['地層下陷區', '高鐵', '道路', '壅塞', '路段', '捷運局', '交通', '沿線', '路面', '台灣']</t>
+          <t>['地下水', '地層下陷', '面積', '區域', '坑洞', '環境', '水', '當地', '地', '洞']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['去年 再增 5.4 公分   累計達 114.2 公分   防治 卻 遇 瓶頸   〔 記者 鄭旭凱 ／ 雲林 報導 〕 鐵道局 公布 台灣 高鐵 路段 下陷 監測 報告   去年 雲林 路段 不僅 持續 下陷 五 ． 四 公分   且 累積 下陷 量 已 達 一一 四 ． 二 公分   全國 最高   雲林縣 政府 水利 處處長 許 宏博 表示   針對 高鐵 沿線 地層下陷 問題   中央 成立 跨部會 平台 進行 監控   整治   但 沿途 現有 十二 萬 六千 口 灌溉 水井   政府 只能 管制 限制 其繼續 深挖   無權 禁止 使用   地下水 入不敷出   地層 自然 持續 下陷   地層下陷 遭遇 瓶頸 仍待 解決     12.6 萬口 灌溉 水井   無法 禁用   台灣 高鐵行經 彰化   雲林 嘉義 等 地層下陷區   高鐵 公司 從 二 三年 起委 託 學術 單位 監測   最新 監測 報告 指出   去年 高鐵 沿線 持續 下陷 路段 包 彰化 雲林 共八處   最 值得 關注 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨雲一 五八 縣道 高鐵 跨台 七八 線 快速道路 等 四個 地點   下陷 量 從 二 ． 六 公分 到 五 ． 四 公分 不 等   且 比 前年 增加   但 嘉義 卻 未 再 下陷   甚至 已連續 兩年 地層還 上升     與 土庫 台 78 線 交界 處   下陷 最 多   監測 報告 指出   高鐵 沿線 最大 累積 下陷 量 已 達 一一 四 ． 二 公分   地點 雲林縣 土庫 鎮台 七八 線 與 高鐵 交界 處   進行 改善 工程 後   墩柱 差異 沉陷 量 逐年 降低   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 容許 範圍   高鐵 結構 安全 無虞     許 宏博 表示   地層下陷 防治 工作 遭遇 瓶頸   雲林 高鐵 沿線 既有 水井 擁有 合法 水權   數量 多 達 十二 萬 六千 口   政府 不能 禁止 農民 抽水   何況 這更關 係 到 大約 十二 萬 六千 戶農民 生計   農民持續 抽水   地層 自然 持續 下陷     輔導 水田 轉作 旱田   推動 不易   許 宏博 表示   一公頃 水田 轉作 旱田   一年 可望 省下 八千 噸 灌溉水   縣府 積極 輔導 高鐵 沿線 種植 水稻 農民 轉作 大豆 玉米 等   但 雲林 農村 人力 嚴重 老化   種植 水田 老 農無力 自行 耕種   多數委 託 代耕   但 旱田 卻 沒 代耕 業者   即使 水田 利潤 低   農民 無力 轉作   類 似的 瓶頸 仍 有待 中央 統籌 解決  ', '台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 2023 年 監測 報告   根據 最新 報告   高鐵 彰化   雲林 路段 下陷 持續   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   2023 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化 溪洲   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 2022 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 2023 年 回脹量 比 2022 年少     鐵道局 說   較 值得 關注 高鐵 下陷 路段   包括   彰化 溪州 高鐵 與 中山 高 跨交   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 皆 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 說   高鐵有 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案   根據 監測 報告   目前 高鐵累 積角 變量 過標 準值 橋墩   反而 是 位 沉陷 改善 嘉義 路段   位 朴子溪 河 中   目前 簡支 梁累積 角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 2020 年 起 逐年 增加  ', '  中央社 記者 汪淑芬 台北 29 日電   根據 鐵道 局新 公布 台灣 高鐵 路段 下陷 監測 報告   彰化   雲林 下陷 持續   累積 下陷 量 最大 是 雲林 114.2 公分   鐵道局 表示   高鐵墩 柱角 變量 都 容許 範圍   結構 安全 無虞     高鐵路線 通過 彰化   雲林 嘉義 主要 地層下陷區   台灣 高鐵 公司 從民國 92 年 至今   委 託 學術 單位   持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測   並提報 交通部   鐵道局 日前 公布 112 年 監測 報告     根據 最新 報告   高鐵路線 最大 累積 下陷 量 已 達 到 114.2 公分   其位 於 雲林縣 土庫 鎮台 78 線 與 高鐵 交界 處 墩 柱   但 自 103 年 進行 改善 工程 後   目標 範圍 墩 柱 差異 沉陷 量 呈 逐年 降低 趨勢     監測 報告 顯示   112 年 高鐵 彰化   雲林 共 8 處 路段 下陷 量 從 2.6 公分   彰化縣 溪州 鄉   到 5.4 公分   雲林縣 土庫鎮 與 元長 鄉 交界     都 比 111 年 增加   嘉義 不但 未 再 下陷   還連續 2 年 回脹   但 112 年 回脹量 比 111 年少     鐵道局 指出   較 值得 關注 高鐵 下陷 路段   包括 彰化 溪州 高鐵 與 中山 高 跨交段   高鐵 雲林 車站區   高鐵 跨 雲 158 縣道   高鐵 跨台 78 號 快速道路   與 高鐵行車 安全 有關 橋墩 間 差異 沉陷 所累 積角 變量   目前 都 仍 容許 範圍   連續 梁為 1 1500   簡支梁 1 1000     高鐵 結構 安全 無虞     鐵道局 指出   高鐵 零星 數處 累積角 變量 逾容 許範圍 橋墩   結構 型式 皆 為 簡支梁     台灣 高鐵 已納入 定期 軌道 巡檢及 土建 設施 維護 計畫   持續 密切 關注   並依角 變量 變化 速率   按風險 等級 高低   採取 相應 加密 監測 頻率   並已備 妥 軌道 調整 預防性 結構 補強 方案     根據 監測 報告   目前 高鐵累 積角 變量 超過 標準值 橋墩   反而 是 沉陷 改善 嘉義 路段   位 於 朴子溪 河 中   目前 簡支 梁累 積角 變量 達 1.96 1000   而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.395 1000   雖 仍 許值 範圍   但 已 從 109 年 起 逐年 增加     編輯   張雅淨   1130429']</t>
+          <t>['桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 草原 都 因 地層下陷   出現 大大小小 坑洞   遭議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 建置 自行 車道 會勘 過程 中   發現 綠地 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區   都 會 中 綠洲                               市議員 張桂綿 近期 發現   公園 中 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現   無底 洞     遭議員 批評 宛如 成 了   地 雷公 園     圖 ／ 張桂綿 提供', '〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ', '〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  ']</t>
         </is>
       </c>
     </row>
@@ -534,21 +534,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_中國_北京_城市_都市</t>
+          <t>2_道路_路段_地層下陷_路面</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['中國', '北京', '城市', '都市', '災害', '氣候變遷', '洪水', '風險', '地區', '人口']</t>
+          <t>['道路', '路段', '地層下陷', '路面', '交通', '混凝土', '施工', '水泥', '下陷', '凹陷']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['中國 過度 抽取 地下水   導致 近 40% 主要 城市 土地 下陷     路透     陳 麗珠 ／ 核稿 編輯   〔 財經 頻道 ／ 綜合 報導 〕 中國 近一半 主要 城市 正 遭受   中度 至 重度   不 等 程度 沉降   海平面 上升 情況 下   恐有 數百萬人將 面臨 洪水 風險     路透   指出   中國 都市人口 約 9 億人   當中 約 2.7 億人 生活 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     中國 82 個 城市 中   約 45% 每年 下沉 超過 3 公 釐   16% 土地 平均 每年 下沉 更是 超過 10 公 釐   約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     據 了解   而 造成 中國 土地 逐年 下沉   最 主要 是 地下水位 下降 所致     路透 表示     土地 下陷   對 中國 每年 造成 超過 75 億元 人民 幣   約 新 台幣 337 億元   損失   研究 人員 預計   下個 世紀   中國將 約 近 四分之一 沿海 土地   恐低 於 海平面   數億人將 面臨 大 洪水 風險     最 嚴重 受災 城市 是 北方 天津   這 城市 約 1500 萬 人口   2023 年 一場   突發 地質 災害     導致 3000 名 居民 被 疏散   調查 人員將 這場 災害 歸咎 於   水資源 枯竭 地 熱井 建設       一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '中國 有將 近一半 主要 城市 正 面臨   中度 至 重度   地層下陷 威脅   根據 最新 研究 顯示   中國 都市人口 約 9 億   其中 約 2.7 億人 生活 每年 下陷 逾 3 公分 地區   相當 於 都市人口 29%   加上 海平面 上升 情形 日漸 加劇   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   上 億 居民 將 面臨 洪水 危機     綜合外 媒報導   這篇 有關 中國 土地 現況 報告 期刊   科學     Science   上 發表   研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形   發現 約 45% 地區 每年 下沉 超過 3 公 釐   更 16% 土地 平均 每年 下沉 超過 10 公 釐   且 約 6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 眾多   即使 地層下陷 只 占 一小部分   威脅 仍 不容 忽視     根據 了解   造成 中國 土地 逐年 下沉 主因 是 過度 抽用 地下水   另 一 因素 為 城市 土地 上 重量 不斷 增加   不斷 增加 沉重 建物 將 土壤 越壓 越 緊實   且 研究 人員 預計   由 於 地層下陷 海平面 上升   最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面   包含 天津   上海   廣州 等 都市   數億人將 面臨 洪水 威脅     人口 超過 1   500 萬 天津市 被 認為 是   最 嚴重 受災 城市     2023 年 6 月間   一場   突發 地質 災害   讓 3 幢 大樓 出現 裂痕   地下室 滲水   3   000 名 居民 被 緊急 疏散   事發 後   調查 人員將 災害 肇因 歸咎 於 地下水 資源 枯竭   以及 地熱井 鑽井 施工 觸動 深層   地質 空腔   所致     不僅 是 中國 此 問題   世界各地 皆 面臨 地層下陷 危機   今年 2 月 發表 另項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   尤為 印尼 情況 最為 告急   首都 雅加 達 大部分 地區現 已 低 於 海平面   另據 新加坡 2022 年 一項 研究   提及 全世界 有著 嚴重 地層下陷 44 個 沿海 主要 城市 中   就 30 個位 於 亞洲  ', '最新 一份 根據 衛星 雷達 觀測 研究 顯示   中國近 40% 主要 城市 土地 正發生   中度 至 重度   地層下陷   上 億 居民 面臨 洪水 風險   加上 海平面 上升   上海   廣州   天津 都 面臨 災害 風險     綜合 路透社 與 美國 有線 電視 新聞網   CNN   報導   這篇 研究 今天   4 19   發表 期刊   科學     Science   上   由 中國華南師 範大學 教授 敖祖銳領 軍 研究 小組   透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況   發現 40% 城市 土地 每年 平均 下沉 超過 3 公 釐     中國 都市人口 約 9 億   約 2.7 億 人口 生活 這些 每年 下陷 逾 3 公 釐 地區   相當 於 都市人口 29%     這 82 個 城市 中   更 16% 土地 平均 每年 下沉 超過 10 公 釐   6700 萬 居民 生活 於 此   研究 小組 指出   由 於 中國 城市 人口 多   即使 是 一小部分 地層下陷   可能 造成 重大 威脅     導致 中國 都市 地層下陷 主因 是 過度 抽用 地下水   另 一大 因素 是 城市 土地 上 重量 不斷 增加   時間 推移 下   沉積物 堆積   以及 不斷 增加 沉重 建物   將 土壤 越壓 越 緊實   導致 土地 下沉     研究 顯示   由 於 地層下陷 海平面 上升   最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面   天津   上海   廣州 周邊 都 面臨 這樣 風險     中國 一些 地區 已經 建立 保護 措施   這份 研究 並未 探討 這些 措施 效果   報告 合著 者   北京 大學 城市 與 環境 學院 教授 陶勝利 說   上海 就 建造 了數 公尺 高 堤防     即使 地層下陷 海平面 上升   這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒 風險     就 他 所知   沒有 其他 國家 打造 過規模 這麼 大 堤防     陶勝利稱   中國 政府 實施 嚴格 地下水 管制法 規   減緩 了 上海 周邊 地層下陷 速度     全球 多個 城市 都 下陷   維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨   Leonard   Ohenhen   最近 一份 針對 美國 地層下陷 狀況 報告 指出   大部分 城市 都 會 發生 土地 下沉   但 因為 沿海 地區 海平面 上升 問題   大家 比較 關心 沿海 城市     但 大多 數 城市 下沉 速度   沿海 城市 其實 都 差不多   甚至 還更快       地層下陷 不僅 是 中國 才 問題   CNN 指出   美國 紐約市 等 數十個 沿海 城市 正在 下沉   墨西哥 首都 墨西哥城   土地 每年 最 多 下沉 50 公分   可能 是 全球 沉 最快   荷蘭 已有 25% 土地 低 於 海平面     今年 2 月 另 一項 研究 指出   全球 約 630 萬 平方公里 土地 下陷 風險   印尼 是 最 嚴重 國家 之一   首都 雅加 達 大部分 地區現 都 已 低 於 海平面   新加坡 2022 年 一項 研究 提到   全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中   30 個 亞洲  ']</t>
+          <t>['〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 高鐵橋 下 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   道 位 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 行車 品質  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -557,21 +557,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_台北市_慶城街_興安街_基隆市</t>
+          <t>3_台北市_王玉芬_四川_北市</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['台北市', '慶城街', '興安街', '基隆市', '松山區', '新竹', '市府', '路旁', '台北', '交叉路口']</t>
+          <t>['台北市', '王玉芬', '四川', '北市', '建設', '施工', '住戶', '下陷', '陳', '建案']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['台北市 松山區 慶城街 一處 新建 工地 昨   23   天晚間 發生 地基 塌陷 意外   停 路旁 4 台車 受到 波及   人行道 路面 凹陷   北市 府 緊急 成立 指揮 中心 處理   台北 市長 蔣萬安今 早 二度 到 現場 視察 現況   被 問及 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報   市府 無 因應   對此 他 表示 會 請 建管處 全面 清查   台北 慶城街 塌陷 案   截至 上午 11 點   已 回填 360 立方公尺   回填 高度 已近 安全 目標值 3 公尺   約 12 點 左右 就 會 完成 作業   而 比 對 相關 數據 檢測   目前 僅有 塌陷 處東側 超過 15 公分 裂痕   西 南北 側比 對 監測 數值 正常   都 沒 地面 塌陷   鄰房 傾斜 狀況   管線   路樹 等 一 併 檢查 處理   此次 台北市 政府 昨晚 慶城街 工地 塌陷 事發 後   緊急 成立 指揮 中心   開罰 18 萬並 勒令 停業   要求 工作 灌漿 回填   確保 安全   這也 是 蔣萬安任 二度 建案 塌陷 發生   此次 處理 速度 較 上次 更 快   蔣萬安強 調   每 一次 事件 發生 都 會 一次 檢視   只要 機制 完善   每個 人員落 實運作   其實 反應 就 會 快速 確實   確保 各項 安全   讓 一切 恢 復 正常   不過 外界 質疑   相比 日前 雙北惡 臭案   市府 被質 疑動作 慢半拍   蔣萬安 回應   往後相關 機制 調整 完善   確 保人 員透過 機制 系統 運作   其實 各項 反應 就 能 即刻 因應   後 續 處理 就 會 到位   至於 許淑華 透露 年前 就 接獲 異常 通報   且 未來 可以 跟 外審 單位   大地   工程   結構 技師 等 一起 監工   對此 蔣萬安 表示   異常 通報   會 請 建管處 全面 清查     另外 此次 第一 時間 邀 請 四大 工會   技師   結構   大地   建築師 工會 參 與   謝 謝里長 到 現場 協助 各項 監測   這 部份 第一 時間 都 溝通 聯 繫  ', '〔 記者 陳 奕 劭 ／ 台北 報導 〕 台北市 松山區 慶城街 興安街 交叉路口 一處 工地   昨晚   23 日   發生 地基 塌陷   工地 旁有 4 輛停 路邊 停車格 轎車   車身 隨著 地基 塌陷 呈 70 度 傾斜   幸好 無人 傷亡   對此   台北市 前 市長 柯文 哲今 早   24 日   受訪 表示   台北市 是 地層下陷 警示 區   這是 本來 就 問題     台北市 松山區 慶城街 興安街 交叉路口 一處 工地 昨晚 發生 地基 塌陷   而 柯文 哲 卸任 後 發生 好 幾起 地層下陷 事件   柯文 哲今 早 關渡 宮前 受訪 表示   台北市 本來 就是 地層下陷 警示 區   其實 去 工務局 網站 看 就 知道   地層下陷 警示 區有 好 幾個   台北 是 盆地   這是 本來 就 問題     媒體 詢問   地層下陷 是 建商 問題 或是 地質 需進 一步 檢查   柯文 哲回 應   他們 地圖 已經 相當 完整   高 危險區 要 能夠 事先 知道  ', '台北市 松山區 慶城街 一處 工地 附近   今   23   晚傳出 地層下陷 狀況   停 路邊 停車格 車輛   車身 甚至 已經 傾斜   影響 4 台車輛 傾斜   現場 為 新建 工地 地基 下陷   下陷 範圍 評估 中   無人 受傷   已劃 設 警戒 線   台北 市長 蔣萬安 副 市長 李 四川 正 趕往 現場   台北 市長 蔣萬安 發文 表示     稍早 慶城街 興安街 交叉口 發生 工地 地基 下陷   我正 趕往 現場   請 周遭 居民 經過 民眾 注意安全   最新 資訊   市府 會 即刻 通知    ']</t>
+          <t>['台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
         </is>
       </c>
     </row>
@@ -580,21 +580,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_道路_萬華區_路面_坑洞</t>
+          <t>4_地層下陷_大樓_地下水_地層</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['道路', '萬華區', '路面', '坑洞', '塌陷', '南京', '水溝', '北市', '巷', '南港路']</t>
+          <t>['地層下陷', '大樓', '地下水', '地層', '建築', '地區', '下陷', '未來', '多', '地面']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ']</t>
+          <t>['一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ', '美國 紐約 是 東部 最熱鬧 城市 之一   是 美國 人口 最多 城市   但 研究 顯示   這座 重要 城市 卻 每年 都 下沉 中   部分 地區 最 後 可能 還會 被淹 沒   電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   美國 紐約 摩天 大樓 林立   但 多 達 百萬棟 建築物實 太重 了   讓 整座 城市 地層 正在 下陷   再 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   長 久 下來 恐發生 海水倒灌 等 洪水 災害   美國 地質 調查 所 專家 帕森斯 表示     無可 避免   地面 下降   水面 上升   某些 時候   這兩層 面會 同時 發生   但 我 沒辦 法給 確切 時間點     帕森斯 說   超過 百萬座 建築物 分布 五個 行政 區上   加起 來 約 1.7 兆 磅 混凝土   金屬 玻璃 等 建材   相當 於 4700 座帝 國大廈 重量 壓在 地球 上   其中   部分 大樓 建築 布魯克林   皇后 區和曼 哈頓 市中心 土 質 鬆 散 地 區 上   下沉 速度 更 快   美國 地質 調查 所 專家 帕森斯 表示     中部 大陸 上升   東 海岸 每年 下沉 約 1 至 2 公 釐   這是 我們 看到 主要 警訊   再 加上 紐約市 不同 土壤 質地   還有 人工 填土 來 增加 土地 面積   但 它們 土壤 固結度 很 差   還是 可以 讓 地層下陷     帕森斯 還說   雖然 下沉 速度 很 緩慢   但 紐約 部分 地區 最 終將 被淹 沒   猶如 電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   至於 紐約 是否 會 變成 美國版 威尼斯   帕森斯 表示   確切 時間點 目前 尚 不 清楚   可能 還 需要 數 百年 時間   但 他 研究 不是 危言 聳 聽   只是 希望 透過 科學 數據   問題 擴大前   採取 行動  ', '紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】']</t>
         </is>
       </c>
     </row>
@@ -603,21 +603,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_碼頭_漁港_沿海_嘉義</t>
+          <t>5_巷道_地層下陷_市府_道路</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['碼頭', '漁港', '沿海', '嘉義', '漁業', '屏東縣', '海水', '海', '海水倒灌', '縣府']</t>
+          <t>['巷道', '地層下陷', '市府', '道路', '塌陷', '巷', '路', '下陷', '地下', '下']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   當地 漁民 卻 一直 飽受 地層下陷 帶來 溢 淹 問題 道路 顛簸 路況 所苦   縣府 向 中央 爭取 8861 萬元 經費 投入 治水 道路 改善 工程   縣長 周春米 今天 主持 動工 儀式   將 改善 排水 護岸 總長 854.8 公尺   道路 面 平均 抬升 1.3 公尺   定 明年 10 月 完工       周春米 說   佳冬 鄉 塭 豐養殖 漁業 生產區 擁有 全台 首座 大型 海水 供水 設施   供 地養 殖區 穩定 水質 足夠 水量   以達 養殖 環境 永續 經營 目的   成為 全台 指標性 建設   吸引 各地 機構 團體 來   取經     居民 卻長 期苦 於 地層下陷 帶來 排水 問題 既有 路況 顛簸 起伏   縣府 向 中央 爭取 經費 改善   可 降低 區域 淹水 風險   提升 當地 生產 生活 環境 品質                             說   佳冬 鄉 塭 豐養殖 漁業 生產區 面積 470 公頃   是 屏東縣 最大 養殖 漁業 生產區   塭 豐 二中 排旁 豐 海路 是 塭 豐生 產區 東西 向 重要 主要 聯絡 道路   改善 工程 不僅針 對 塭 豐 二中 排進行 改善   對豐 海路 路面 裂化   高程 不足 等 問題 一 併 改善   完工 後 可 改善 路面 破損   道路 淹水 等 問題   讓 風災來 臨時 漁民有 安全 通行 道路 進出 養殖區   強化 養殖 漁業 生產 環境 安全       縣府 海洋 漁業 事務 管理所 表示   工程 護岸 採用 預力 混凝土 板樁   具有 施工 快速   振動 噪音 低及 材料 品質 穩定 等 優點   減少 施工 時 對 養殖 魚塭 影響   防汛 道路 高度 平均 抬升 1.3 公尺   路面 鋪設 厚度 為 10 公分   讓 道路 平順銜 接   防止 溢淹 情形   營造 優質 自然 安全 水環境       屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   養殖 面積 漁產量 居 全縣 之冠   居民 卻 一直 為 地層下陷 帶來 溢 淹 問題 顛簸 起伏 路況 所苦   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供 屏東縣 沿海 佳冬 鄉 塭 豐養殖 漁業 生產區   縣府 爭取 8861 萬元 經費 治水   縣長 周春米 今天 主持 動工 儀式   定 明年 10 月 完工   圖 ／ 屏東縣 政府 提供', '嘉義 縣東 石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   因 地層下陷 問題   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全   為解 決此 問題   今天 縣長 翁章 梁 抵副瀨漁港 現勘 聽 簡報   將採取 由 縣府 自掏腰包 以稅 收超 徵數 支應 1510 萬元   來 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工       縣長 翁章 梁 表示   鰲 鼓及 副瀨等 二個 漁港   是 中央 列冊 低 利用 度漁港   另網 寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   因此 無法 爭取 中央 經費 挹注 改善   他 深知 這 3 個 漁港 碼頭 作業 平台 高度 不足   危及 漁民作業 安全   即 指示 農業 處 規畫 改善                               大潮 來   沒 看到 路 怎麼 走     鰲 鼓 蚵 農何 金聰 說   大潮 時   整個 平台 都 淹滿水   碼頭 完全 消失   漁民 不得已 都 要 冒險 拿 著長 竹竿   撐 著 地面 去 探路   走下 碼頭 上船 隻   長 期 都 很 危險       漁業 科長 張 建成 表示   3 處 增高 碼頭 平台 改善 工程   目前 已 辦理 設計 工作   預計 今年 6 月 完成 發包動工   10 月底 前 完工   讓 各 碼頭 高度 可 提升 到暴 潮位 以上   讓 漁民有 安全 作業 環境       縣議員 黃 嫈 珺 在場 指出   漁民向 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 都 是 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 設置 完成       對此 科長 張 建成 回應   前年 導航燈 已 爭取 到 中央 經費 完成 第一期 改善   議員 反應 4 處漁港   他 已 跟 東石 漁會 總幹事 討論   並進行 其他 漁港 是否 需求 盤點   將一 併 向 中央 爭取 第二期 改善 經費   嘉縣 議員 黃 嫈 珺 今天 現勘 反應 鰲 鼓   副 瀨   網寮 白水 湖導 航燈 壞 掉   導致 漁民 摸黑 出海   靠 得 全是 經驗值   相當 危險   盼 增經費 盡快 改善   記者 呂慧瑜 ／ 攝影嘉縣 長 翁 章梁 今現 勘東 石鄉 副 瀨漁港   包括 鰲 鼓 及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   逢農 曆 大潮 時   就會 發生 海水 溢漫 淹過 碼頭 平台   長 期 危及 漁民作業 安全 問題   記者 呂慧瑜 ／ 攝影嘉縣 東石鄉 鰲 鼓   副瀨及網 寮 等 3 漁港 碼頭 作業 平台   縣府 自掏腰包 1510 萬元   增高 改善 漁港 環境   預計 今年 6 月 動工 10 月 完工   記者 呂慧瑜 ／ 攝影', '〔 記者 林宜 樟 ／ 嘉義 報導 〕 嘉義 縣東 石鄉 鰲 鼓   副瀨和網 寮 等 3 座 漁港 碼頭 作業 平台 因 高度 不足   每逢 大潮 海水 經常 漫溢 危及 船 隻 漁民作業 安全   嘉義 縣 政府 斥資 1510 萬元 規劃 改善   今天 縣長 翁章 梁 前往 副瀨漁港現 勘時 表示   3 座 漁港 加高 工程 預計 今年 6 月 發包動工   10 月底 完工   讓 碼頭 高度 可 提升 至暴 潮位 以上   解決 漁民 多年 來 面臨 作業 困難 困境     翁章 梁   立委 蔡易餘   東石 鄉長 林俊雄   嘉義 區漁會 總幹事 林佳瑩   縣議員 姜梅紅   李國勝   黃 嫈 珺 等 今天 到 副 瀨漁港 現勘   翁章 梁說   為 保障 漁民 需求   因此 以 縣府 經費 1510 萬元 進行 加高 工程   規劃 完善 基礎 建設     農業 處漁業 科長 張 建成 說   鰲 鼓   副瀨漁港 碼頭 及網 寮 漁港 南側 作業 平台 因 地層下陷   高度 明顯 不足   每逢 大潮   海水 漫溢 到 碼頭 影響 安危   由 於 鰲 鼓及 副 瀨漁港 為 中央 列冊 低 利用 度漁港   網寮 漁港 南側 作業 平台 則是 位 漁港 範圍 外   無法 爭取 中央 經費     翁章 梁說   漁港 是 出海 養殖 牡蠣 捕魚 重要 基地   更是 漁民 生命 財產 保障   是 海洋 漁業 發展 最 基本 建設   但 小漁港 年久失修   加上 地層下陷   漁民作業 困難   漲潮 時海 水淹 沒 港口   中央 無法 補助   縣府 就 必須 出手   架 高作業 平台   解決 高漲 潮水   既 保障 漁民 日常 工作 需求   能 化解 安全 問題     副瀨村長 林泰平 說   因副瀨漁港 很 淺   數 十年 來 出入 困難   感謝 翁 縣長 關心 漁港 基礎 建設   除 加高 平台 協助 清淤   讓 漁民有 更好 作業 環境   黃 嫈 珺 說   東石 沿海 導航燈 多處 損壞   漁民 只能 摸黑 出海   靠 經驗 航行   建議 縣府 要 修繕 導航燈   張 建成 回應   將再 請 嘉義 區漁會 盤點 損壞 導航燈   再 向 中央 爭取 經費 改善     農業 處 表示   鰲 鼓   副瀨及網 寮 漁港 加高 工程 改善 包括 碼頭面   作業區 加高   以及 其他 附屬 設施 銜接   鰲 鼓 工程 預算 經費 288 萬元   副 瀨 工程 經費 912 萬元   網寮 工程 預算 經費 310 萬元  ']</t>
+          <t>['新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影', '新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -626,16 +626,16 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_台北市_台北_市府_信義區</t>
+          <t>6_台北市_台北_市府_地層下陷</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['台北市', '台北', '市府', '信義區', '街', '危險區', '地面', '北市', '道路', '塌陷']</t>
+          <t>['台北市', '台北', '市府', '地層下陷', '信義區', '街', '面積', '地面', '塌陷', '坍塌']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -649,21 +649,21 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_浴室_地底_溫泉_新北市</t>
+          <t>7_坑洞_破洞_區域_地下</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['浴室', '地底', '溫泉', '新北市', '投溫泉', '地面', '公共', '地上', '新北', '萬里區']</t>
+          <t>['坑洞', '破洞', '區域', '地下', '建管處', '坍陷', '塌陷', '土', '當地', '現場']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['新北市 萬里   加投 溫泉   公共 浴室   算是 古 蹟 了   它 是 日據 時期 就 蓋 好   而且 到現 很多 人   喜歡 來 這裡 泡湯   不過 上個 月 開始   這裡 出現 大大小小 問題   浴池 磁磚 掉落   水泥柱 裂痕   地面 嚴重 傾斜   因此 現在 浴池 已經 暫時 封閉 了   等到 廠 商都 修繕 完畢   確認 安全 都 沒 問題   才 會 再度 開放       鏡新聞 已 上架 86 台   若無法 收看   請 洽詢 當地系 統台     鏡新聞 APP   iOS 👉 https   reurl . cc kqyqML   鏡新聞 APP   Android 👉 https   reurl . cc Ay2y63   有話 鏡來講 YT 👉 https   reurl . cc A4DjQj   少年 新聞 週記 YT 👉 https   reurl . cc K4DeN9', '新北 萬里 加頭 溫泉 2 月份 被 遊客 發現   不僅 燈管   溫度 顯示氣 等等 設備 問題   更 地層下陷   因此 趕緊 請 公所 找人 檢修   目前 已經 緊急 封閉   確認 沒有 安全 疑慮   才 會 再度 開放     浴池 整塊 磁磚 脫落   地磚 不平   甚至 還 有些 地層下陷   看起 來 相當 老舊   這裡 是 新北 萬里 加頭 溫泉   從 日據 時代起   就 受到 不少 民眾 喜愛   許多人 泡 完湯   都 覺得 放 鬆 筋骨     不過 2 月份 卻 被 發現   不僅 燈管   溫度 顯示器   一些 溫泉 管線 設備 問題 外   還有 地層下陷 跡象   鐵鋁罐 放在 地上   都 會 不 自主   滾向 一邊   加上 後 方 就是 溫泉 露頭   要是 坍方 相當 危險   萬里區 長 黃 雱 勉     技師 建議 我們   要 專業 技師 公會 去   針對 結構物 下陷 狀況   去 監測   評估後續 是不是 可以 用   液壓 灌漿 部分 改善       地質 人員 透過 地雷 達 偵測 結果 發現   確實 男女 湯內 地底   大量 孔隙   造成 土壤 流失   目前 公所 已經   緊急 封閉 浴室   以民眾 安全 為 第一 考量   盡快 修建       封面 圖 ／ 東森新聞  ', '新北市 萬 里加 投溫泉 公共 浴室 歷史 悠久   吸引 許多人 前來 泡湯   不過   今年 2 月   有民眾 反應 溫泉 設備 出 問題   沒 想到 廠商 進場 維修 後   發現 浴池 磁磚 掉落   水泥柱 充滿 裂痕   地面 嚴重 傾斜 等 狀況   更 仔細 勘查 下   竟然 地層下陷 現象   地質 檢測 人員 檢查   原來 湯室 地底 大量 孔隙   造成 土壤 流失   目前 封閉 整修     鋁罐 放在 地上 一路 滾 不停   不 只 地面 嚴重 傾斜   浴池 還有 一 大片 磁磚 脫落   水泥柱 充滿 裂痕   原來 這處 溫泉 發生 地層下陷     新北市 萬 里加 投溫泉 公共 浴室 日治時 代興建   歷史 相當 悠久   水質 相當 不錯   吸引 許多人 前來 泡湯     不過 今年 2 月 開始   就 泡 湯遊客 反應   燈管   溫度 顯示器 溫泉 管線 設備 問題   區 公所 派 人 前往 了解 狀況   由廠 商進場 維修   發現 不 只是 設備 故障   還有 磁磚 脫落   地磚 不 平等 狀況   仔細 勘查 下 發現 地層下陷 現象   公所 從 4 號開始 封閉 浴室   趕緊 找 專業 技師 到場 檢查   男女 湯室 地底 大量 孔隙   造成 土壤 流失   懷疑 可能 跟 一旁 溫泉 露頭 有關 係     大鵬里長 李建才     露頭 我 不敢 說絕 對 沒 有關 係   因為 這個 是 相通 東西   地底下 看不到   以 目前 整個 狀況 來講 話   下陷 狀況 速度 應該 不是 很 急速   這是 很多年 類似 有點 掏空 感覺       溫泉 從 溫泉 露頭 自然 湧出   抽到 蓄水池 後   流入 浴池   可能 連帶 影響 地基 被 掏空     萬里區 長 黃 雱 勉     技師 建議 我們 要 專業 技師 公會   針對 結構物 下陷 狀況 去 監測   再 去 評 估後續 是不是 可以 用液 壓 灌漿 部分 改善   還是 可能 要大動 作去 做後續 改建   這個 部分 後 續 可能 會 需要 比較 多 費用       公所 強 調 儘 快 修建 完成   提供 民眾 安全 舒適 泡 湯空間  ']</t>
+          <t>['路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  ', '〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ']</t>
         </is>
       </c>
     </row>
@@ -672,21 +672,21 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_紐約市_紐約_城市_市區</t>
+          <t>8_台北市_區域_當地_〔</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['紐約市', '紐約', '城市', '市區', '高樓', '洪災', '海水倒灌', '大樓', '防洪', '建築物']</t>
+          <t>['台北市', '區域', '當地', '〔', '〕', '地層下陷', '地下水', '路段', '地方', '地基']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     圖 ／ Unsplash   一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機       美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現       美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生         這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊       研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機       研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米         然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水         研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市       帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題           Take   action   加入   倡議 +    ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ']</t>
+          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ', '宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ']</t>
         </is>
       </c>
     </row>
@@ -695,21 +695,21 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_農地_耕作_公頃_農業</t>
+          <t>9_坑洞_市府_坍陷_路面</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['農地', '耕作', '公頃', '農業', '農會', '作物', '環保局', '土地', '國產', '農民']</t>
+          <t>['坑洞', '市府', '坍陷', '路面', '塌陷', '道路', '北市', '巷', '地基', '天坑']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['〔 記者 陳 彥廷 ／ 屏東 報導 〕 屏東縣 政府 於 東港   林邊   佳冬 枋寮 4 個 沿海 鄉鎮   劃定   嚴重 地層下陷區 光電計畫   專區   為確 保農民 耕作 權   不過   近來坊 間質 疑聲 浪漸 漲   環保局 強調   該區 計畫 發電量 為 800MW   百萬瓦     不會 無 限制 擴張   因此 至少 會 仍 3000 公頃 以上 農地 可供 農作     地面 型 光電場 成為 選戰 攻防 議題   屏東 因 沿海 嚴重 地層下陷區 為 全國 首個 縣府 核淮得 設光 電案場 專案   成 在野 黨攻 詰 對象   近期 坊 間 又 再 傳出 農民因 種電 失去 農保   老農 退場 又 留不住 青農及 蛇 鼠 窩 藏 副作用 等 爭議     屏縣 府 環保局 指出   這 4 鄉鎮過 去 因超 抽 地下水   曾列 為 嚴重 地層下陷區   現 仍屬 第 1   2 級 地下水 管制 區   且 海水 上溯 下   許多 土地 都 已 出現 鹽化   不少 已 是 不利 耕地 多年   因此 縣府 尊重 地主 利用 土地 意願 權益 前提 既有 電力 設施 併 網 上限 條件 下   限度 推動 光電 專區   預計 發電量 為 800MW     環保局 指出   部分 農地 轉作 太陽 光電 後   減少 農民 抽取 林邊 溪 下游 地下水 需求   並 搭配 上游 設置 大 潮州 人工湖 補注 地下水   減緩 地層下陷   達到 國土 復 育及 產業 永續 發展 目的   而 近年 同樣 大小 光電板 發電 效率 已較 八八 風災 後   養水 種電   到 近 2 倍   單 一片 就 可 發電達 400w   以 目前 併 網約 300MW 太陽光 電裝置 容量   使用 農地 比例 約 250 公頃 左右   未來 達 到 目標 單位 發電量 更大下   所 需面積 比例 一定 更 小   至少 會 3000 公頃 以上 農地 可供 農作 使用   另外   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活     至於 農保 問題   環保局 重申   農地 若 有意 願 出租 供 人 種電   一定 要 進行 變更 地目   但 這是 完全 基 於 地主 利用 土地 意願 權益   縣府 環保局 從 未 要求 廠商 提供 所謂   不利 耕作 同意 書   或 其他 網路 媒體 謠傳 不 平等 條約 相關 文件   先前 更 製 作 地主 注意 事項 手冊 Q &amp; A 圖卡   公告 於 縣府 綠辦 官網   讓 地主 了解 相關 權利 與 義務   只要 民眾 對 合約 疑問   均 可 撥 打 專線 電話詢 問綠能 專案 推動辦 公室   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   縣府 已 要求 業者 停止 施工     蛇鼠 患 問題   縣府 環保局 長 顏幸 苑則 認為   作物 收成 期間 食物 充沛 易 引鼠   鳥禽 覓 食   但 太陽能 案場 並無食源   應非屬 引鼠 主因   縣府 要求 專案 輔導業者 維護 周遭 環境 整潔   至於 選址 不當   縣府 重申   屏東縣 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   兩大 策略 為主   專案 為 限度 使用 相對 不 適合 耕種 土地 發展 綠能   專案 專區 外 鄉鎮 優先 鼓勵 結合 既有 設施 與 光電   複 合 利用   方式     屏東縣 環保局 表示   民眾 對 於 光電 發展 與 環境 保護 議題 逐漸 重視   縣府 尊重 私有 地主 處置 自家 土地 財產   以及 業者 依法 申請 案件 權利   惟審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ']</t>
+          <t>['北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ']</t>
         </is>
       </c>
     </row>
@@ -718,21 +718,21 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10_印尼_曼谷_東南亞_全球</t>
+          <t>10_大樓_巷弄_信義區_破洞</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['印尼', '曼谷', '東南亞', '全球', '海平面', '海域', '遊客', '海岸', '地區', '世界']</t>
+          <t>['大樓', '巷弄', '信義區', '破洞', '市府', '倒塌', '地下', '台北市', '牆壁', '壁']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['[ 周刊 王 CTWANT ]   泰國以 觀光業 聞名   不少 觀光客 都 會 造訪 首都 曼谷   Bangkok     然而 全球 暖化 問題 加劇   導致 海平面 不斷 上升   泰國 氣候變遷 辦 公室 評估   曼谷 本世紀 末 恐 被 海 水淹 沒   為 了 避免 曼谷 成為   海底 之 城     泰國 官方 為此 考慮 遷都   不過 目前 仍處 於 假 設階段     根據 新加坡   亞洲 新聞台   等 外媒 報導   泰國 首都 曼谷 過往 雨季 時   經常 飽受 洪水 問題 困擾   天災 一直 是 政府 頭痛 議題   隨著 曼谷 人口 已破千萬   加上 全球 暖化 趨勢   專家 示警   因為 海平面 不斷 上升   曼谷 恐在 21 世紀 結束 前 遭海 水淹 沒     根據 泰國 氣候 變化 與 環境局 副 局長 帕維奇   Pavich   Kesavawong   警告   曼谷 可能 無法 適應 當前 全球 暖化 趨勢     全球 暖化 已經 超過 攝氏 1.5 度   如果 我們 繼續 保持 當前 趨勢   曼谷 大概 會 被淹 沒     他 透露   關於 首都 曼谷 面臨 氣候 危機   政府 正在 研究 因應 措施   像是 參考 歐洲 著名 低 地國 荷蘭   藉由 興建 堤防 方式 來 防堵 海水倒灌   同時 當局 有將   遷都   納入 計畫 之中     這並 非泰國 首次 提出 遷都   前首相 帕拉 育 在位 時   曾 提出 同樣 建議   2019 年時   這位 前 總理   泰國 與 世界 相連大會     Connecting   Thailand   with   the   World   Conference   拋出 遷都 議題   藉此 因應 曼谷 海平面 上升 以及 交通 壅塞   環境 汙染 人口 過度 稠密 問題     針對 遷都 議題   帕維奇 提到   這 部分 牽涉 問題 太過 複 雜   因此 仍 初期   假設 階段   除了 泰國 打算 遷都   目前 東南亞 計劃 遷都 國家 就 緬甸   當地 軍 政府 於 2005 年 11 月 6 日將 首都 從 仰光 遷到 北方 320 公里 奈 比 多   Naypyidaw     此外   印尼 首都 雅加 達   Jakarta   因為 面臨 人口 過剩   環境 污染   於 交通 壅塞 地層下陷 等 危機   預計 今年 正式   遷都   至婆羅洲島 東 加里曼丹 省   East   Kalimantan     新 首都 名為   努山 塔拉     Nusantara     印尼 語中   群島   之意   不過 高達 350 億 美元 遷都 計畫 備受 爭議  ', '科技 大亨 馬 斯克   Elon   Musk   今天   5 19   抵達 印尼 峇里島   將與 印尼 總統 佐科威   Joko   Widodo   一起 參加 星鏈   Starlink   網路 服務 啟用   印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   政府 希望 星鏈 能夠 提高 各島嶼 網路 普及 度   這是 印尼 一個 月 迎接 第 3 名 科技 企業 執行長   此前 蘋果   微軟 執行長 都 已來訪     綜合 路透社 與 美聯社 報導   太空 科技 公司 SpaceX 執行長 馬 斯克 今天 搭乘 私人 飛機 抵達 印尼 峇里島 機場   印尼 首席 投資部長 盧胡特   Luhut   Binsar   Pandjaitan   機場 迎接   預計 兩人 將會 討論 一些 重要 合作   包含 星鏈 服務 啟動   馬 斯克 還會 簽署 一項 協助 印尼 加強 衛生 與 教育 單位 聯絡 互通 合約     盧胡特 表示   馬 斯克 今天 稍晚 將和 印尼 總統 佐科威 一起 峇里島 首府 登巴薩   Denpasar   社區 衛生 中心 一起 啟動 星鏈   盧胡特 說   衛生 機構 啟動 這項 服務   呼應 星鏈   提供 平價 高速 網路   宗旨   尤其 是 網路 收訊 不佳 或過 於 偏遠 地區     印尼 是 個 群島 國家   約 1.7 萬座 島嶼   橫跨 3 個 時區   人口 超過 2.7 億   盧胡特 說   印尼 偏鄉 需要 星鏈 來 拓展 高速 網路   尤其 是 要 用 來 解決 衛生   教育 海事 單位 問題     印尼 通訊 部長 布迪   Budi   Arie   Setiadi   上週 表示   星鏈 已經 獲得 印尼 營運許 可   布迪 強調   星鏈 低 軌衛星 可以 讓 網路 擴及 目前 印尼 通訊 商無法 到 達 地區     據報   位 於 印尼 婆羅洲   Borneo   新 首都 努山 塔拉   Nusantara   本月 將先 試用 星鏈   8 月 正式 上線   印尼 正準備 遷都 努山 塔拉   因為 受 海平面 上升 與 地層下陷 影響   預計 目前 首都 雅加 達 大部分 地區將 2050 年 被淹 沒     印尼 將是 東南亞 第三 個 使用 星鏈 服務 國家   馬 來 西亞 去年 已核 發許 可證 給營 運星鏈 SpaceX 公司   菲律賓 一家 公司 則是 2022 年 與 SpaceX 簽約 合作     馬 斯克訪 印尼 前   蘋果 公司 執行長 庫克   Tim   Cook   4 月 17 與 印尼 總統佐科 威會面   並 表示 會將 印尼 產能 納入 考慮   兩周 後   微軟 執行長 納 德拉   Satya   Nadella   同月 30 日訪 印尼   承諾 未來 4 年 印尼 投資 17 億 美元   強化 印尼 新雲端 運算 與 人工智慧 基礎 設施     馬 斯克 此次 訪 峇里島   將參加 第十 屆 世界 水論壇   World   Water   Forum     研討 全球 水資源 衛生 挑戰  ', '印尼 海域 珊瑚礁 面積 超過 5 萬 平方公里   占 全世界 18%   但過 去 飽 受 非法 炸魚 破壞   一項 復 育計畫 讓 非法 捕撈 漁民搖身 一變   成 了 保護 珊瑚礁 尖兵   另外 印尼 首都 雅加 達 地層下陷 嚴重   當局 開發 紅樹林 生態 觀光   讓 遊客 種樹救 環境   寓教 於 樂   印尼 首都 雅加 達 北部 海岸 一片 紅樹林 自然 保護區   遊客 划著 小艇 來 這裡 享受 遠離 塵囂 寧靜 自然   還能 環保 人士 引導 下親 手種 植紅樹 林樹苗   為 保護 首都 環境 盡 一份 心力   保護區 遊客 娜塔莉 亞 指出     紅樹林 是 很 獨特 生態 系統   一種 植物   有趣 是 紅樹林 可 吸收 危險 金屬   還 可以 改善 空氣 品質   這不 正是 我們 人類 所 需要     印尼 首都 雅加 達長 期受 極端 氣候 引發 洪水 暴風雨 衝擊   加上 超 抽 地下水   地層下陷 快速   平均 一年 15 公分   已經 面臨 遷都 危機   紅樹林 是 能夠 抵擋 潮汐 上升   保護 土地 天然屏障   印尼 當局 去   2022   年 啟動 了 一項 恢 復 60 萬公頃 紅樹林 計畫   但 紅樹林 必須 成長 5 到 10 年   才夠 強壯能 抵禦 海浪 潮汐   而 周邊 還有 很多 建商虎視 眈眈   想 把 紅樹林 開發 成沙 灘遊樂區   保育 計畫 困難 重重 卻 是 必須 堅持 到底   而 這片 98 公頃 保護區   只是 印尼 全國 沿岸 410 萬公頃 紅樹林 一小部分   過去 一年 就 70 萬公頃 被 砍伐   另外 印尼 望 加錫海峽 120 個 珊瑚礁 島組成 斯珀 蒙德 群島 海域   20 年前 因為 非法 捕魚 猖獗   海底 珊瑚礁 被 炸魚 毒魚 破壞 成 了 廢墟 般的 碎片   只 剩 2% 倖存   前偷 獵者 達林 表示     我們 需要 生存 下去   但 很 難 找到 像樣 工作   當時 唯一 知道 工作 是 盜獵   所以 我們 開始 炸 珊瑚礁     這片 海域 位 東南亞 從菲律 賓到 印尼   澳洲 之間 珊瑚 大 三角 區域   物種 豐富 多樣   是 海底 生態 搖籃   破壞 至此 非常 可惜   科學家 尤素夫 教授 過去 20 年 來 當地 巴迪島   努力 復 育 周邊 3 公頃 珊瑚礁   耐心 說 服漁民 保育   從 珊瑚 產卵 受精 繁殖 開始 做起   把 蜘蛛 型 框架 結構 放入 海底   上面 綁 著 珊瑚 碎片 讓 它們 生長   過去 炸魚 毒魚 盜 獵者   變成 生態 守護者   長 期紀錄 並且 細 心照 顧   已經 慢慢 看到 荒蕪 海底 回春   熱帶 魚群 穿梭 新生 珊瑚礁 之間   環境 科學家 尤素夫 提及     印尼   菲律賓 與 印度 太平洋   這片 珊瑚 大 三角 必須 得到 保護   才能 為 後 代子 孫 保留 這片 海中 世界 遺產   一個 小小的 努力 都 可能 影響 世界     印尼 海域 珊瑚礁 面積 5 萬 875 平方公里   占 世界 珊瑚礁 總面積 18%   珊瑚 大 三角 區域 佔 比 更 高達 65%   尤素夫 教授 了 成功 經驗   現在 把 保育 觸角 擴展 到 鄰近 兩個 島嶼   將近 5 公頃 海域   一步 一步 把 失去 珊瑚礁 補 救回 來   但 這還 是 一條 漫漫 長 路  ']</t>
+          <t>['台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見   蹦   聲響   工地 先緊 急 疏散 工人   才 通知 住戶     說   附近 民眾 提到 此建案 動工 後   住家 就 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  ', '北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 大樓 建案   因為 地下 連續 壁 破洞   都 發局 初步 調查 後   對 承造 人 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 旅館   相關 費用 將由建 商來 負責   巷弄 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 遭殃   鐵門 幾乎 懸空   這樣 情況 就 發生 台北市 信義區   短時間   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出     昨天 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 住戶 一共 5 戶     市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 5 戶   一共 10 人   暫時 住 信義區 旅館   依照 規定   每人每天 可以 請領 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 是 回 不了 家 了   超出 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 是 搶災 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 大樓   地下 4 層   地上 17 層   負責 營造 華熊 營造 公司   興建過 包括 台北 101   世貿 中心 陶朱 隱園   都 是 赫赫有名 建築   如今 卻 發生 工安 意外   讓 工程 暫時 喊 卡   首要 之務得 設法 解決 安全 問題   還給 當地 居民 一個 安全 家  ']</t>
         </is>
       </c>
     </row>
@@ -741,458 +741,21 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11_坍塌_坍方_崩塌_塌陷</t>
+          <t>11_台北市_道路_塌陷_地層下陷</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['坍塌', '坍方', '崩塌', '塌陷', '路旁', '意外', '慶城街', '路邊', '災情', '路面']</t>
+          <t>['台北市', '道路', '塌陷', '地層下陷', '路面', '市府', '台北', '巷', '下', '地下水位']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['台北市 松山區 慶城街   興安街 一處 新建 工地   昨   23   天晚間 發生 地基 塌陷 意外   造成 停 路旁 四台 車 受到 波及   人行道 路面 呈現 V 字型 凹陷   面積 約 4 公尺 長   30 公尺 寬   深度 約 1.5 公尺   所幸 週邊 建築物 沒有 危險   相關 單位 連夜 現場 進行 回填 作業   不過 工地 遭罰 18 萬 勒令停工   事發 原因 尚待 調查   慶城街 新建 工地 地基 下陷   路面 坍塌   人行道   工程 圍籬 都 明顯 下陷   路旁 停車格 消失 一大半   當時 路邊 4 輛汽車 遭殃 歪斜   建商 連夜 回填 灌漿   避免 塌陷 擴大   據 了解   該 處興 建工 地原 是 要 蓋 豪宅 大樓   原先 工地 上 地下 三層 地下室 建物   疑似 拆除 建物 後   地下室 進行 導溝 作業 時候   內部導 溝支 撐力 不足 才 發生 坍塌 意外   所幸 工地 尚未 進行 大規模 開 挖   沒 再 釀 更 大 事故   此次 路面 坍塌 面積長 約 4 公尺   寬約 30 公尺   深度 1.5 公尺   目前 週邊 建築物 沒有 相關 安危   而 北市 建管處 勘查 後   昨天 深夜 確定 裁罰 18 萬   並 勒令 回填 穩定 後 停工   待 確保 工地 安全   業者   建商 提出 復工 審查   才 會 進行後續 作業   至於 事發 原因 仍待 調查  ', '台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 今天 塌陷   一輛 預拌 混凝土車 側翻   壓傷 一名 工人   被 送醫 急救   台中市 勞檢處 已 派 人 到場 調查   並 勒令停工   因 工地 沒 擋 土   地面 承載力 不足 等 缺失       台中市 消防局 今天 早上 9 點接 獲 報案   沙鹿 區錦華街 一處 工地 旁發生 緊急 創傷 救護   出動 沙鹿   龍井   梧棲   西屯 分隊 第四 大隊   各式 消防 車輛 10 輛   消防人 員 25 名   由大隊 長 蔡孟栩帶 隊 指揮 搶 救                             現場 是 路面 坍方   造成 一輛 預拌 混凝土車 側翻 壓傷 一名 工人   工地 營建廠 商已 協助 聯 繫 吊 車 到 場   地層下陷 造成 預拌 混 泥土 車車輛 翻覆   沙鹿 消防 分隊 到 場後先 以 消防 車絞盤   梧棲分隊 使用 車 吊臂 共同 固定 預拌 混 泥土 車   確保 傷者 安全 無虞   因 該車 重量 達 35 噸 以上   需 等待 業者 配合 大型 吊車 到 場方能 吊掛   先由救護 人員 接觸 患者 進行 緊 急救 護處 置       早上 9 點 34 分   業者 調派 吊車 至 現場 進行 車輛 吊掛   消防局 搶 救人 員協助 以油 壓破壞 器材   協助 傷者 脫困   10 點 4 分傷者 順利 脫困   送 梧棲童 綜合 醫院       傷者 到 醫院 時 意識 清楚   雙 下肢 背部 擦 挫傷   右 大腿 燙傷   應是 鋼版 高溫 造成   目前 仍 醫院 檢查 中   台中市 勞檢處 表示   工地 地面 承載力 不足   造成 地面 塌陷   車翻 傷心 意外   已 要求 停工   將開罰 3 到 30 萬元 不 等 罰 鍰   台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供 台中市 沙鹿 區一處 工地 旁 路面 坍方   今天 造成 一輛 預拌 混凝土車 側翻   壓傷 一名 工人   圖 ／ 台中市 消防局 提供', '台北市 松山區 慶城街 一處 新建 工地 旁   昨天 晚間 發生 路面 塌陷 意外   經過 將近 20 小時 搶 救   工地 崩塌 範圍 已 完成 回填   今天下午 開始 灌漿 工地 外圍 塌陷 路面   初步 研判   疑似 是 新建 工程 拆除 建 地 既有 地下 建築 結構 時   挖到 不連續 弱面   才 導致 導溝 崩塌   台北市 松山區 慶城街 新建 工地 23 日 晚間 發 生地 層 坍陷 意外   經過 約 18 小時 緊急 搶 救   工地 外圍 崩塌 範圍終 於 展開 回填 作業   從制 高點 俯瞰 更 清楚   混 泥土 車來 回 進出 灌漿 沒 停過   因為 這一崩   不僅 人行道 嚴重 下陷   路邊 車格 消失 一大半   當時 還有 4 輛汽車 差點 被 吞噬   附近 住戶 直言     好 意外   真的 很 意外   文華飯 店 當初 蓋 時候 這麼 近   沒 發生過 問題     精華 地段 豪宅 新建 案出 現大 坍塌   讓 附近 居民 全都 嚇壞   畢竟 這長 約 4 公尺   寬約 30 公尺   深度 達到 1.5 公尺 坍陷 範圍 實在 不小   而且 建案 甚至 才 正 準備 施作 連續 壁   基礎 地基 都 還沒大規 模開 挖   竟然 就 前置 導溝 作業發 生意 外   初步 研判   坍塌 原因 跟 建地 原先 存在 地下室 結構 脫 不了 關 係   原來 這回 要 建立 深導溝   越過 既有 結構 時   卻 不慎 碰到 既存 不 連續面   才 會 釀禍   台北市 土木 技師 公會 理事 長 莊均緯 指出     破除 既有 連續 壁 跟 外牆   那個 地方 有個 不 連續面   原有 地下室 這個 部分   外牆 它 推擠 進來 變位   就 把 原來 深導溝 側壁壓 變形 之 後   就 產生 這樣 崩塌 現象     台北 市長 蔣萬安週 六 上午 二度 到 現場 勘查   向 居民 保證   周邊 住宅 暫無 安全 疑慮     西側   南側   北側 目前 比 對 監測 數值 是 正常   而且 都 沒 地面 塌陷 以及 鄰房 傾斜 狀況     建管處 則緊 急 開罰 18 萬   並 勒令停工   後 續 就 待 道路 回填   並由 透地雷達 確認 周邊 無 安全 疑慮   就 可 恢 復 通車   還給 居民 安全 環境  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>12</v>
-      </c>
-      <c r="B15" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>12_水利局_水權_水利_淨水場</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>['水利局', '水權', '水利', '淨水場', '水資源', '地下水', '供水', '水電比', '用水', '水量']</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>['▲ 南市 水井 納管 申報 複 查作業 同時 啟動   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   合理 使用 水資源 防治 地層下陷     記者 李 嘉祥 攝     為 保育 地下水 資源 加強 地下水 管理   避免 地下水 過度 使用 造成 地層下陷   影響 市民 人身 財產 安全   臺 南 市政府 水利局 積極 推動 水井 管理 政策   自 112 年 起 辦理 水井 納管 作業   受理 申報 於 99 年 8 月 4 日前 鑿 設且 未 辦理 水權 登記 既有 水井   納管 後 可 避免 遭檢舉 而 封井   且 取得 合法 水權 機會   並自 今年 4 月 起將 辦理 地下水 一級 管制 區 水井 申報 納管 複 查作業   針對 轄 內納管 水井 辦理 複 查 暨 貼標 籤 作業   透過 現場 訪談   測量 等 方式   建立 水井 基本 資料   以利 後 續 地下水 管理     市長 黃 偉哲 表示   水井 納管 除 可 保育 地下水 資源   對 於 使用 水井 民眾 而言   接受 輔導 合法 取得 水權 後 可 獲得 合法 用水 保障   另為 減輕 農民 負擔   經 水井 納管 農業 用 水井 免收 各項 水權 登記 規費   倘未 登記 水井 逾期 未申 報且 經查 獲者   將 要求 限期 自行 封填 水井 並 可能 面臨 罰 鍰 處分   籲請 鄉親 踴躍申報   讓 珍貴 地下水 資源 合理 使用   並同 時維護 自身 用水 權益     水利局 長 邱忠川 說   根據 水利局 統計   截至 去年 12 月底 已 受理 超過 2 萬 5000 件 既有 未登記 水井 納管 申報 案件   但 仍 部分 民眾 未及 申報   為 保障 水井 用戶 權益 落實 地下水 保育   市府 特別 再 開放 受理 申報 納管   申報 時間 於 4 月 1 日起 至 8 月 2 日 截止   時間 有限   籲請 尚未 申請 地下水 井納管 鄉 親 儘 速 於 申 報 截止 日前 申請   以維護 自身 權益     邱忠川 指出   4 月 起 將展 開 地下水 井現 地 複 查   將 以北 門區   學甲區   鹽水區   安定 區 地下水 一級 管制 區分區 方式 依序 進行   並由 專人 電話 通知 約定 複 查時間   若 申請 人無法 到場   請備 妥申 請 人 代理人 身分 證明 文件 並至 現場 填 妥委 託 書   現場 除 確認 基本 資 料及 調查 水井 狀況   坐標   地段 號   井深   井徑   出水管 徑   抽水機 位置   型式 及馬力   電表電號 用水 標 與 範圍     農用 水井 另 進行 水電比 檢測   透過 用 電量 測定 抽 水量   為節 省民眾 時間   與 請 所有人 於 預定 複 查 日期 前先 清除 水井 周圍 草叢   以 加速 複 查作業 進行     邱忠川 呼籲 水井 所有人 可 就近 至 各區 公所 或 至 臺 南 市政府 民治 行政 中心 服務台   永華 行政 中心 服務台 或 安平 水資源 回收 中心 收件 窗口 填寫 申報 書 後 投至 專用 信箱   或 透過   臺 南 市政府 水利局   網站   水井 納管 申報   Web 平台 申報   可手 機下載   水井 納管 申報 查詢   APP 申報   市府 設置 水井 納管 專線 06   6321212   主動 輔導解 決民眾 申報 問題  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   要求 移除 違法 土石   水利 署中 水分 署 表示   依環評 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚 為 河道 治理   經監測 保護堤 腳   可 提升 河防 安全       水利 署 打造 鳥 嘴潭 人工湖   供水 給彰 投   改善 沿海 地下水 超 抽   地層下陷 問題   引取 烏 溪水 源蓄 存在 6 座 湖區   總 蓄水量 1450 萬噸   每日 可 供水 25 萬噸   約 百萬人 用水   目前 已近 完工   已日供 草屯 1 萬噸   彰化 6 萬噸 民生 用水                             鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   破壞 生態 環境   造成 保育 類 石虎   巴氏 銀 鮈 棲地 消失   質疑 違反 環評 程序   將廢土 傾倒 於 烏溪 河床       台灣 石虎 協會 發文   與 其他 環團 從 2022 年 7 月 起   多次 舉辦 現勘   記者 會   行文 等   反映 該 工程 破壞 生態   至今 爭議 未解   去年 7 月 已委 託 律師   向 環境部 提起 行政 訴訟   5 月 1 日 首度 開庭       協會 強調   環境 部應 開罰 中 水分 署   移除 違法 堆置 烏溪 土石方   若 未 限期 移除   應 要求 停止 鳥 嘴潭 工程       水利 署中 水分 署 表示   施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   保育 措施 或 土石 處理   都 依環評 規定 辦理  ', '水利 署 南投 草屯 打造 鳥 嘴潭 人工湖   遭環團 質疑 傾倒 工程 廢土 至 烏溪 河床   破壞 環境 生態   向 環境部 提起 行政 訴訟   5 月 1 日將 開庭   近期 重申 要求 移除 違法 土石   水利 署中 水分 署 表示   均依 環境 評估 相關 規定 辦理   並持續 追 蹤 態 環 境   土方 培厚則 為 河道 治理   經監 測確 保護堤 腳及 提升 河防 安全 功效       為 改善 沿海 地區 地下水 超 抽 造成 地層下陷   水利 署 打造 草屯 鳥 嘴潭 人工湖   引取 烏 溪水 源蓄存 於 6 座 湖區   總 蓄水量 約 1450 萬噸   可供 應 每日 25 萬噸   約 百萬人 用水   目前 已近 完工   並 先行 供水 草屯 每日 1 萬噸   彰化 6 萬噸 民生 用水                               但 鳥 嘴潭 人工湖 工程 啟動 後   多次遭 台灣 石虎 保育 協會   台灣 生態 學會   台灣 淺山學社   台灣 水資源 保育 聯盟 等 環團 指控   開發 破壞 生態 環境   造成 保育 類動物 石虎   巴氏 銀 鮈 棲地 消失   更質疑 施工 單位 違反 環評 程序 將廢土 傾倒 於 烏溪 河床       台灣 石虎 保育 協會 近期 發文 表示   該會 與 其他 環團 自 2022 年 7 月 起   透過 現勘   開記者 會   公開會議   行文 等 持續 向 公部門 反應 鳥 嘴潭 工程 破壞 生態   但 至今 爭議 未解   去年 7 月委 託 律師 向 環境部 提起 行政 訴訟   並將 於 5 月 1   日 首度 開庭       台灣 石虎 保育 協會 強調   環境部 應善 盡到 監督 環評 之責   對 開發 單位 水利 署 中區 水資源 分署 開罰   並命 該 分署 移除 違法 堆置 於 烏溪 土石方   若 未 依 限期 移除   環境 部應 轉請 經濟 部命 停止 鳥 嘴潭 人工湖 工程   或 由 環境 部 逕 命 其 停止 開發行 為       對此   水利 署中 水分 署 表示   鳥 嘴潭 工程 不論 施工 前 生態   環境 調查   施工期 間 生態 監測   檢核 機制   強化 保育 措施 或 土石 處理   依環評 規定 辦理   後 續 監測 發現 仍 石虎 出 沒 活動   甚至 定居 個體   巴氏 銀 鮈 棲地 沒 明顯 影響       鳥 嘴潭 土方 則是 協助 第三 河川 分署 以培厚 工法 取代 傳統 使用 混凝土 塊 進行 河道 治理   與 既有 混凝土 坡 面上 覆土 生態 工法 理念 相近   專業 技師 分析   經比 對 去年 培厚前   後 颱 洪空 拍 地形 變化   顯示 確有 保護堤 腳及 提升 河防 安全 功效   環團 指控 鳥 嘴潭 人工湖 工程 違反 環評 程序 將廢土 傾倒 烏溪 河床   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片 環團 多次 指控 鳥 嘴潭 人工湖 開發 破壞 生態 環境   並質疑 違反環 評將 廢土 傾倒 於 烏溪   為 此 提 行政 訴訟   5 月 1 日將 開庭   圖 ／ 聯合 報系 資料 照片']</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>13</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>13_消防局_台北市_信義區_街</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>['消防局', '台北市', '信義區', '街', '巷道', '疏散', '坐鎮', '鄰近', '大樓', '巷']</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>['【 17   27 ｜ 更新 天坑 初步 原因 】 信義區 崇德 街今   13   天 下午 3 點 13 分   傳出 一處 新建 案 工地 旁 道路   地層下陷     消防局 獲報 緊急 疏散 鄰近 住戶   無人 受傷   根據 消防局 獲報 消息   信義區 崇德 街 60 巷 22 號前 新建 工地 旁   出現 道路 地層下陷   馬 路上 出現 一個 長 15 公尺   寬 3 公尺   深度 約 4 公尺 天坑   摩托 車   腳踏車 都 掉入 坑洞   一旁 住戶 家門口 更是 危險   懸空     警消 人員 疏散 鄰近 住戶   所幸 無人 受傷   目前 劃設 警戒 線   建管處   新工處   道管 中心   瓦斯 公司   北水處 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置   這個 天坑 幾乎 占據 整條 巷弄   北市 建管處 初步 了解   由 於 住 戶 旁 就是 工地 施工   疑似 因為 工地 連續 壁施作   且 出現 滲水 狀況   才 釀成 天坑 出現   稍早 水泥 車緊 急先 進行 灌漿 作業   主要 基本 填補 坑洞   受影響 住戶 透露   剛剛 一度 5 名住 戶 受困 屋子 裡   所幸 消防 員協助 救援   而 三戶 門口 前端 地基 被 掏空   住戶 非常 擔心 房屋 可能 會 倒塌   地基 到底 穩不穩固   住 裡面 到底 安 不 安全   今天 晚上 到底 要 住 哪裡 等 問題   不過 關於後續 賠償 等 都 還要 進 一步 釐 清  ', '台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '台北市 信義區 崇德 街 下午 出現 地層下陷   北市 府 表示   消防局 於 15 時 13 分通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   無人 受傷       市府 表示   目前 處置 作為 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 區長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置                             北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供 北市 信義區 出 現長 15 公尺   深 3 公尺   天坑     圖 ／ 北市 府 提供']</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>14</v>
-      </c>
-      <c r="B17" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>14_村落_村民_縣府_公所</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>['村落', '村民', '縣府', '公所', '鄉', '城鎮', '鄉長', '縣', '建築', '倒塌']</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>['插 稻田 裡的 廟宇   嘉義 縣六腳 鄉 出現 了 只 露出 屋簷   底下 全 被淹 沒 田中 宮廟   事實 上 這座 宮廟 興建 清道光 年間   已有 將近 兩 百年 歷史   由 於 民國 48 年 一場 水患   廟方將 神像 遷 走 後   舊廟 就此 荒廢 下沉   如今 才 會 變成 隱身 稻田 裡的 獨特 打卡 景點   這間   插 稻田 中 廟宇   出現 嘉義 縣六腳 鄉   一片 綠 油油的 稻田 放眼望去   田中 間 竟 出現 只 剩下 屋簷 露出 廟   仔細 一看   屋頂 上 雕刻 嚴重 斑駁   奇特 景象 吸引 民眾 朝 聖 搶 拍   大批 網友 直呼     真是 神跡       從田裡 冒 出廟 頂   是 獨特 裝置 藝術     更 有人 笑稱     這是 真正 土地公 廟     而前 來 朝 聖 遊客 蕭 說     很 奇特   田中 廟     其實   這間 廟 已有 將近 兩 百年 歷史   它 先前 是 大庄 五福 宮舊 廟   興建 於 清代 道光 年間   不過 民國 48 年 碰上 水災 受損   村民 另 建新 廟   而 這間 舊廟 隨著 地層下陷 漸漸 下沉   五福 宮前 總幹事 姚水順 說     大家 都 會 好奇   裡面 東西有 沒有 搬出 來   神明 沒 沉下去   都 會問 這些 問題   其實 神明 都 請 出來       百年 舊廟 搬 遷 未 拆   隱身 稻田 裡 意外 成為 當地 打卡 熱點  ', '印度 北部 喜馬 拉雅山 區   一個 經常 有朝 聖者 觀光 客造訪 城鎮   這兩天 突然 發生 地層下陷   超過 600 棟 房屋 出現 裂縫   寺廟 紛紛 倒塌   當地 政府 緊急 撤離 將近 200 位民眾   安置 安全 避難 地點   印度 北部 山城 地層下陷   房屋   樓梯 道路 都 嚴重 龜裂   建築物 牆壁 還不斷 滲出 泥水   隨時 可能 發生 崩塌   景象 怵 目驚心   當地 居民 表示     5 戶 人家 已經 搬走   其他 好 幾戶 計劃 遷移   另 打算     官員 表示   最近 幾個 星期 當地 通報 超過 600 棟 房屋 出現 裂縫   因此 已經將 至少 193 名 居民 安置 到 安全 地點     找到 解決 方法 之前   我們 把 居民 安置 安全 無虞 飯店 賓館 跟 民宿     喬西馬斯   Joshimath   海拔 將近 2000 公尺   人口 約 2 萬 5000 人   是 朝 聖客 前往 山上 印度教 跟錫克 教寺 廟 門戶   常有 想要 征服 喜馬 拉雅山 登山 客造訪   喬西馬斯 所在 的傑 莫利 縣   Chamoli     2021 年 2 月 曾經 爆發 洪水   造成 200 多人 喪生   還 沖 走 兩座 水力 發電站   災情 相當 慘重   科學家 目前 還在 研究 氣候變遷 對 喜馬 拉雅山 影響   但 如果 不 做好 水土保持   這座   沉 沒 城鎮   可能 很快 就 會 走向 毀滅  ', '彰化縣 大城 鄉現 有納 骨塔 接近 飽   鄉 公所 規畫 第六 公墓 新建 第二 納 骨塔   頂庄 村民 群起 反對   已有 140 人連署 陳 情   村民 抱怨 縣府 裁撤 頂庄國 小   鄉 公所 村 內蓋 第二座 納 骨塔     吃 虧 都 是 我們     讓 頂 庄村 發展 雪上加霜   要求 重新 研議 興建 地點   鄉長 陳 玉照 說   納 骨塔 近 飽   將持續 溝通       大城 鄉有 8 座 公墓   頂庄村 山腳 村設 有納 骨塔   山腳村 已 飽   頂庄村 只 剩 不到 700 個 空位   鄉 公所 認為   興 建新 塔有 迫切性   日前 向 頂庄 村民 說明 新建 計畫   村民 痛批   一村 二塔   違反公 平原 則   當場 反對                             許姓 村民 表示   縣府 認為 頂 庄村 出生率 低   已 是 大城 鄉 人口 倒數 第 2   前年 裁撤 頂庄國 小   可見 頂 庄村 沒 新建 納 骨塔 需求   周邊 地層下陷 易 淹水   無論 地理 風水   都 不 適合 安放 往生 親人   新建 第二 納 骨塔 離 村落 僅 200 公尺   違反 縣府 規定 500 公尺 審查 原則   嚴 重影 響 村民 身心健康       鄉長 陳 玉照 指出   頂庄 第一 納 骨塔 建在 高灘 地   第二 納 骨塔 一樣   不開 挖 地下室   還 建造 7 層台 階 升高 塔座   沒 淹水 疑慮   第二 納 骨塔 距離 村落 人口稠密 區約 500 公尺   像 他家 距離 墓地 很近   不會 問題       頂庄 村長 許仁寶說   如非建 不可   應 提出 有力 說明   並訂定 回饋 辦法  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>15</v>
-      </c>
-      <c r="B18" t="n">
-        <v>5</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>15_地震_花蓮縣_花蓮市_地基</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>['地震', '花蓮縣', '花蓮市', '地基', '地表', '大樓', '大地', '花蓮', '建築', '地球']</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>['台灣 位處 菲律 賓海板 塊 歐亞板 塊 交界 處   因此 時常 因為 板塊 運動 而 引發 地震   台東 昨   31   日 下午 四點 多 就 發生 規模 5.0 地震   中央 氣象 局長 鄭明典 指出   台灣 真的 動     氣象局 全台 建置 超過 160 個   全球 導航衛 星系 統   測站   藉由 監測 大地 變形   地球 科學家 可以 監視 斷層   火山 活動   以及 地層下陷 或 滑動 一舉 一動   而 從 地表 來 看   除了 地震 期間   地震 前 後 台灣 斷層 都   偷偷   地亂動   氣象局 表示     既然 手機 上 GPS 可以 監測 我們 每日 移動 路線 距離   那麼   同樣 概念 技術   是不是 能 監測 台灣 地表   看看 它 每天 移動 了 多少   當然 可以     氣象局 已 全 台灣 建置 超過 160 個   全球 導航衛 星系 統   測站   結合 各 單位 建置 成果   台灣 已有 超過 450 個 連續 觀測 站   進行 大地 測量   建立 台灣 大地 變形 資料 庫   氣象局 指出   從 地表 來 看   大型 地震 會 造成 明顯 地表 位移   像是 車籠埔斷 層 錯動   為 台灣 地表 帶來 一道 劇烈   長 達 105 公里 傷痕   斷層 上盤 水平 位移 為 1 至 9 公尺 不 等   而 大甲溪 更 出現 地殼 抬高   落差 5 公尺 瀑布 景觀   氣象局 表示   除了 地震 期間   短短 數 十秒 出現   同震 滑移   之外   地震 前   間震期     地震 後   震後期     斷層 都   偷偷   地亂動   氣象局 說明   地殼 不 只 地震 時會動   平時 地殼   累積 能量   過程 中   就 會 地表 出現 非常 微量 變形   或者 是 小小的   不起眼 地震   地球 科學家 就是 透過 這個 原理   長 期連續 監測 台灣 地表 一舉 一動   希望 可以 找出 大 地震 發 生前 徵兆   氣象局 表示   雖然 目前 尚未 發 展出 成熟 地震 預測 技術   藉由 地震 前   中   後 所 蒐集 地表 微小 變形 資料   可以 讓 地球 科學家 更 了解 地殼 運動 樣態   或是 分析 出 地震 發生 週期   計算 地震 災害 潛勢   評估 台灣 各地 斷層 活動 地震 機制  ', '花蓮 近海 今天上午 發生 規模 7.2 強震   花蓮市 區有 大樓 嚴重 傾斜   學者 解釋   地震 造成 房屋 傾斜 原因   包含 地震 本身 震動 方向   建築物 結構 是否 與 土壤 液化 有關       根據 中央 氣象署 資訊   今天上午 7 時 58 分發生 芮氏 規模 7.2 地震   地震 深度 15.5 公里   震央 位 於 花蓮縣 政府 南南 東方 25.0 公里   位 於 台灣 東部 海域     最大 震度 花蓮縣 6 強   各地 陸續 傳出 災情   如 花蓮市 區 2 大樓 嚴重 傾斜 等                             中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 記者   地震 發生 當下   可能 有些 民眾會 發現 某些 牆面 東西 容易 倒   某些 不會   就 代表 該起 地震 震動 方向   然而 這 部分 與 地震 震源   斷層 位置   傳遞 能量 大小 等 相關   並 不好 預測       另外   黃 信樺 指出   建築 結構 工程 問題   比方 許多大樓 1 樓 可能 規畫 為 騎樓   甚至 有些 做成 挑 高大 廳   結構 上僅 靠 少數 樑 柱 支撐   因此 可能 會 大 地震 發生 時 造成 不 穩的況       黃 信樺 說   第 3 點 就是 可能 土壤 液化 問題   有些 建築物 若 座落在 比 較 鬆 軟 沉 積 層 上   如河邊 長 久 沖 積下   部分 地底 縫隙 會 被 沙石 填滿   但 地震 後 卻 又 鬆 動   或是 局部 液化 情況   造成 地層下陷       黃 信樺 提到   雖然 台北市 可能 很多 老式 騎樓   但 一來 是 震央 位置 離 台北 較遠   二來 是 老式 騎樓 通常 較 矮   不 容易 與 地震 發生 共振   反之   若 是 高樓 層   又 騎 樓式 設計 房屋   大 地震 來 臨時 就 會 相 對 危險       黃 信樺 表示   其實現 已 經有 許多 耐震 建築 技術   或許 政府 部門 未來 考量 建築 補強 上 可以 採用   增加 老建築 安全性       ▶ ▶ ▶ 花蓮 大 地震 延伸 閱讀     ▪ 一夜 83 震   氣象署 曝餘震 暴增 原因     只是 剛開始     ▪ 花蓮 強震 整理 包 ／ 釀 18 死   重大 災情   災後理 賠   專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言   有點 不 尋常   ▪ 大 地震 要來 了   地科 教授 分析 餘震 分布   花蓮 特性', '嘉義 縣 新港 鄉 5 日 下午 5 時 30 分發生 芮氏 規模 5.5 極淺層 地震   深度 8.5 公里   今   6   日 下午 高雄 又 發生 芮氏 規模 4.3 地震   地震 頻傳 讓 民眾 人心惶惶   而據 統計   我國 住宅 地震 基本 保險 截至 7 月底 止   投保 率約 37.53%   相當 於 約 580 萬住 戶 沒 地震 保險   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失       台灣 位處環 太平洋 地震 帶   地震 發生 頻繁   為 使民眾 迅速 獲得 基本 地震 險 保障   住宅 地震 保險 基金 呼籲民眾 可 投保 住宅 地震 基本 保險   以 減輕 地震 災情 造成 之 財物 損失                             住宅 地震 保險 基金 表示   我國 住宅 地震 基本 保險 截至 2023 年 7 月底 止   以 全國戶數 922 萬戶計   投保 率約 37.53%   顯示 民眾 對 於 自身 住宅 財產 已 頗 具風險 意識   惟 仍 許多 屋主 尚未 投保   建議 應 即 早 投保   以 獲得 基本保障       住宅 地震 保險 基金 提醒   住宅 地震 基本 保險 保障 範圍 主要 包括 因 地震 震動   地震 引起 之火災   爆炸   山崩   地層下陷   滑動   開裂   決口   海嘯   海潮 高漲   洪水 等 危險 事故   造成 已 投保 住宅 地震 基本 保險 房屋 倒塌 或 不堪 居住 之   全損   損失 時   即可 取得 保險 金額理 賠及 臨時 住宿 費用       目前 保險 金額 最高 為 150 萬元   臨時 住宿 費用 為 20 萬元   保險 期間 為 一年期   每年 保費 1   350 元   相當 於 每日 只 需 3.7 元   即可 獲得 基本 地震 險 保障   🏠 udn 房地產   推薦 新聞     ▪   台南 1 預售 建案 疑營造 熱銷 假象 炒作   遭消 保官 嚴查     ▪   老 又 臭 沒人要   他 目睹 台北 老 公寓   看房 要 排隊     一堆 人 搶     ▪   天氣熱 但 電費 上 漲   高雄 人 推薦 1 降溫 神物   不用 開冷氣     ▪   換同坪數 新房   房屋 稅 3 千變 3 萬 4     他 哀號   貴到 快 哭 出來     ▪   借錢 買房   台積 輪班 工程 師   繳不出 頭期   全場 曝下場   穩死']</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>16</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16_地下水_台中_溫水_水面</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>['地下水', '台中', '溫水', '水面', '台中市', '水', '池', '水壓', '抽水', '蘇澳']</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>['宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ', '〔 記者 黃 旭磊 ／ 台中 報導 〕 台中市 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 台中市 議員 曾威   查出 泳池 前後地層 落差 約 14 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 14 公分     台中市 環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 50 公尺 泳道 平面 傾斜 約 14 公分   南側 地勢 明顯 較 低   疑似 地層下陷 緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 14 公分   疑似 後 方有 地層下陷 相當 危險     烏日 溫水 游泳池 於 2016 年 起 營運   設有 10 道 50 公尺 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 台中市 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 20 公分   南側 地勢 最低 處僅 約 6 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 14 日請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 將在 15 日請 廠商 鑑定 評估   盡 全力 讓 泳池 盡快 恢 復 營運  ', '〔 記者 黃 旭磊 ／ 台中 報導 〕 烏日 溫水 游泳池 蓋 烏日 焚化廠 旁   由 於 地下水 井積沙 淤泥 嚴重   去年 起 停止 對外 開放   地方 民眾 認為 未 於 本月 如期 開館 營運   通報 市議員 曾威 查出 泳池 前後地層 落差 約 十四 公分   疑有 地層下陷 疑慮   環保局 強調   立即 通報 土木 技師 會勘 釐 清 下陷 疑慮       泳道 南側 比北側 低 了 約 十四 公分     環保局 技士 本週 前往 烏日 溫水 游泳池 測量   查出 五十 公尺 泳道 平面 傾斜 約 十四 公分   南側 地勢 明顯 較 低   疑似 地層下陷   緊急 通報 台中市 土木 技師 公會 複 驗     曾威 說   泳池 蓋 慶 光路 焚化 爐旁   運用 焚化 爐 回饋 金設 置   當初 建造 是 因空 污影響 社區 回饋 鄉親   營運 十年 來 陸續 發生 池底 積沙   頂棚 消防 設備 被 消防局 要求 改善 等 問題   且 沒水 狀況 下   泳池 兩端 落差 十四 公分   疑似 後 方有 地層下陷   相當 危險     烏日 溫水 游泳池 於 二 一 六年 起營運   設有 十道 五十 公尺 長 泳道   兒童池   spa 池   烤箱 蒸氣室   今年 起 由 體育局 移交 給環 保局 列管     會勘 團隊 查出   泳池 北側 地勢 最高 處   水面 距 泳池 頂約 廿 公分   南側 地勢 最低 處 水面 距 泳池 頂僅 約 六 公分   結構 明顯 出 問題   土木 技師 初 勘 認定 複 雜 程度 估價   再 進行後續 評估 結構 補強 作業     環保局 副 局長 陳 政良 說   預計 下週 十四日 請 消防局 研擬 消防 設施 修繕 細節   至於 地層下陷 疑慮 也將 於 十五日 請廠 商鑑定 評估   讓 泳池 儘 快 恢 復 營 運  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>17</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>17_雲林縣_村_鄉鎮_電場</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>['雲林縣', '村', '鄉鎮', '電場', '光電業者', '屏東', '種電', '光電場', '枋寮', '鄉']</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>['陳 安邦 等 表示   種電 可以 村外   村內 緊鄰 民宅   不要 說 危害   打 開家門   窗戶 看到 就是 太陽 能板   叫 8   90 歲 老人 情 何以堪   尤其 庄內 種電 作為   請問 哪個 村 可以 接受   所以 村民 大團 結堅 決展 現反 對 到底 決心   任何 回饋 都 不用 說   打死 都 反 對 庄內 種電   任何 法律 問題 他 一個 人承擔   甚至 為 了 爭取 縣長 張麗善 村民 主持公道   特別 今天 前來 向 張縣 長 陳 情   唯一 要求 光場 業者 退出 瓦 磘 村     縣長 張麗善 接下 陳 情書 後 指出   地方 政府 跟 中央政府 都 各自 權責   公務人員 需要 配合 行政 程序   目前 法令 規定   若 是 建地 就 可以 百分之百 種電   雲林縣 農地 很多   地層下陷   易 淹水   不利 耕作 土地   已經 被 中央 核定 為 合法 種電 範圍   為 了 保護 我們 農地   特別 提出 三不三要   就是 不 希望 農地 上面 一直 種電   破壞 農地 未來 發展 跟 價值   光電業者 聚落 裡面 種電   已經 影響 鄉親 生活 起居 跟 品質   大家 不安 焦慮 我們 都 能 感同身受   縣府 透過 各種 協調 溝通   希望 能 保障 地 鄉親 權益  ', '屏東 是 光電場 熱區 之一   正 上演 光電板 與 農民 搶 地爭 奪戰   光電業者 挨家 挨戶 以 誘人 租金 勸 說 地主 租地 種電   租地 種蓮霧 果農 只能 忍痛 看著 心血 被毀   斬斷 兒子 想 當青農 接班 願望   青農 自嘲 說   政府 寧可 把 地租 給業者 種電   不給 老 農一畝 田維生   青年 若當   漂鳥   回農村   肯定 變走 投無路   落翅仔         五十六 歲 鄭明偉 林邊   佳冬 鄉 租下 三座 蓮霧園   他 說   兩座 花 了 十多年 整理   收成 正漸 入 佳境   地主 竟 收回 種電   他 只能 忍痛 放棄   由 於 種蓮霧 要 手把手 長 期培養 技術   正在 念農校 兒子 雖 有心 接手   但 他 勸 兒子 算了   最好 另謀 出路                             農民控 國產署   為 賺 更 多 租金     屏東 沿海 不少 國有 財產 署名 下 新生 地   被 農 民用 於 種田   六十三 歲 楊寶秀 枋寮 寮 段種 芭樂   無奈說   種芭樂近 四十年   也繳 用地 補償 金給 國產署   一直 相安 無事   近年 數度 送件 申請 合法 承租 都 被 拒絕   後 來 光電業者 芭樂園 貼 告示 已 承租 種電   要 農民 及早 搬離   國產 署則 回覆 因 地層下陷 不利 耕作   要 轉作光 電場       六十多 歲 呂姓 老農 靠 這片 三分 地 蓮霧 園維生   他 說   國產署 明知 老農靠 種蓮霧 養家   寧可租 給光 電業者 賺 更 多   如果 沒地 可種     我 不但 要 吃 土   連農保 都 沒 了         面對 農民 控訴   國產署 南區 分署 屏東 辦 公室 指出   光電業者 依法 種電   並願意 取得 承租人 或 使用 人 同意 書 後 清理 地上 物   占用 者 繳 使用 補償 金   但 他們 本 就 沒 合法 使用 權       林邊   佳冬 枋寮   蓮霧 之 鄉   美名   四十八 歲 陳 呈祥 八八 風災後回 鄉 接手 父親 蓮霧園   他 感嘆   近年 光電大舉 入侵   正 侵蝕 果農 維 繫 傳 統 產 業 所 努力       他 說   蓮霧 老農因 子女 無意 接手   只好 租地 給光 電商   果園 地主 刻意 抬高 租金 逼退 承租 農   一塊 塊 果園 被 光電場 取代   包圍   整體 產量 正持續 下降   衝擊 採收   包裝   運銷 等 產業 鏈   未來 工人 更難 找   材料 更貴   務農條件 就 更 差       農地 租金 上漲   加速 產業 衰退     陳 呈祥 說   蓮霧 產業 衰退 人口老化   缺工 等 有關   雖 不能 全歸責 光電   但 確實 造成 農地 租金 上漲 問題   間接 加速 產業 衰退   政府 對 這些 衝突視 若 無睹   苦果 只 由 農民吞       枋寮 農會 總幹事 鄭晏昕   林邊 農會 總幹事 黃 金順 都 慨嘆   原盼 農電能 共生   如今 衝突 嚴重   地 驕傲 半世 紀的 蓮霧 產業   正因 光電 面臨 式微 危機       黃 金順 說   光電場 租金 一分 地四萬元   承租 農民頂 多出 得起 一萬元   相差 四倍   到 處 都 聽 到 地 主要 改 種電   年 輕人 想 返 鄉務農   無 低 租金 農地 可種     蓮霧 故鄉   金字招牌 正在 褪色       台大 農經 碩士 張靜玉 是 枋寮 蓮霧 農   眼看 鄰近 農民 被 光電 搶 地   忿忿不平   直指 當年 農委會 主委 蘇嘉全 還推 漂鳥 計畫   要 青年 返鄉務農   現在 連地 都 租 不到     這 不是 迫遷 青農去 都市 討 生活   漂鳥 回農村   恐怕 走 投無路 變 落翅仔    ', '聯合 報陽光 行動 專題 報導光 電進 駐 屏東   種電 範圍 遍及 農地   山區 到 文資 價值 二戰 遺跡   造成 家園 地景 地貌 變遷   衝擊 老 農生計   變相迫 遷青農   更 被 地方 形容 為   惡鄰     產生 蛇 鼠 與 害蟲   提升 鄰田 管理 困難度   還潛藏 糧食 危機     縣府 環保局 長 顏幸苑 表示   光電不會 無限 擴張   目前 種電 專區 仍 約 3 千公頃 可 耕作 並專案 輔導業者 除草   一定 會 兼顧 農業 永續 發展       顏幸苑 表示   台電饋 線 上限 規定   目前 既有 電力 設施 併 網 上限 下   限度 推動 光電 專區   不會 無 限制 使用 農地 種電   而 東港鎮   林邊   佳冬   枋寮 鄉 等 4 鄉鎮 專案 截至 去年底   共 併 網約 3 百 兆瓦 光電   該區 農地 總面 積約 3800 公頃   至少 還有 約 3 千公頃 面積 可 農作   使用 農地 比例 不到 4 鄉鎮 農地 總面積 一成                             強調   從 未 要求 廠商 提供   不利 耕作 同意 書   或 其他 不 平等 條約 相關 文件   針對 部分 地區 爭議 案件   未 取得 居民 同意 之前   皆 已 要求 業者 停止 施工   另太陽能 案場 內並 無 食物 來源   應非屬 引來 老鼠 主因   目前 已 要求 專案 輔導業者 定期 進行 除草   維護 周遭 環境 整潔       指出   屏東 綠能 推動 政策 以   專案 專區 計畫       土地 複 合式 利用   等 2 大 策略 為 優先   限度 使用 相對 不 適合 耕種 土地 發展 綠能   提供 給 地主   農民階段 性 活化 土地 新選擇   對 於 無力 管理 田間 工作   又 土地 鹽化 等 不利因素 無法 耕作 年 邁老農   則 可以 穩定 收入 過 退休 生活   至於 非 專案 專區 鄉鎮   則優先 鼓勵 廠 商以   土地 複 合式 利用   方式   利用 既有 設施 結合 太陽光 電設施   有效 利用 公共 空間       屏縣 府 綠能 辦 公室 表示   尊重 私有 地主 處置 自家 土地 財產   及業者 依法 申請 案件 權利   相關 審查 過程將 審慎 關注 山坡地   耕作 農地   歷史 遺跡   生態 保育 或 重要 觀 光景 點聯絡 道路 沿線 等 議題   並 要求 廠商 提出 因應 作為   以 避免 衍生 爭議性 問題   兼顧 開發 合理性 及維護 本縣 農民 耕作 權益       生利 能源 表示   屏東 枋寮 案場 是 合法 開發   於 2020 年 9 月 於 案場 發現 碉堡 等 歷史 遺構 後   隨即 保留 並主動展 開一連串 文資 保護作 為   並無二戰 槍堡 被 挖除 等 情事  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>18</v>
-      </c>
-      <c r="B21" t="n">
-        <v>4</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>18_水資源_水源_地下水_水利</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>['水資源', '水源', '地下水', '水利', '用水量', '阻水層', '缺水', '供水', '用水', '水庫']</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>['〔 記者 顏宏駿 ／ 彰化 報導 〕 彰化縣 沒有 水庫   多年 以來 不 缺水   民生 用水   原因 係 倚賴 全縣 200 多口 地下水 井   但 已 造成 地層下陷 問題   惟鳥 嘴潭 人工湖 淨水廠 完工 後 將可 改變 現今 抽 地下水 窘境   目前 台一線 南 彰化 段 正 進行 大型 管路 埋設 工程   2026 年 完工 後   這條 管路 成為 彰化縣 給水大動脈   透過 管路 連結   達到 鳥 嘴潭 人工湖   湖山 水庫   鯉魚 潭 水庫 水源 靈活 調度 目的     台水 公司 指出   目前 鳥 嘴潭淨 水廠 工程 進行 中   埋管 工程 多線 展開   直徑 1.2 公尺 幹管 埋設 工程   為 避免 影響 交通   採 分段 施工   預計 2026 年 全部 完工   最後可達 到 北水南 送   南 水北 送   靈活 供水 目標     台水 公司 表示   目前 彰化縣 每日 用水量 約 為 40 萬公噸   地面水 部分   彰化市 與 美   花壇 部分 地區 每日 用水量 約 為 8 萬公噸   主要 靠 台中 支援   鯉魚 潭 水庫     南 彰化 北斗   二林 與 溪湖 一帶   則由 雲林   湖山 水庫   每日 支援 約 5 萬公噸   烏嘴潭淨 水廠 完工 送水 後   彰化縣 每年 可減 抽 6100 萬噸 地下水   解決 農民 枯水期 經常 抽 不到 地下水 窘境     台水 公司 說   未來 鳥 嘴潭淨 水廠 每天 可供 應 彰化 地區 21 萬噸 水量   加上 現有 每日 來 自 雲林 湖山 水庫 5 萬公噸   而 透過 台 一線 埋設 幹管   南   北 水路 相通   增加 水資源 調度 彈性   上游 採 一般 水庫 採高 水位 操作   依循   蓄豐濟 枯   邏輯   趁 豐水期 盡量 蓄滿   枯水期 才 水 可用   包含 中水 局轄區 鯉 魚潭   湖山 水庫   目前 處 於 枯水期 階段   卻 仍 持續 滿水 溢流   未來 能 應付 極端 氣候 或 突發 供水 危機     台水 公司 第十一 處長 曾 盛一說   水資源 運用 已 不 像 過去   單一 水庫 供水 區 固定   水利 署力 拚 打造 西部 廊道 供水管 網   強化 區域 調度 同時   鳥 嘴潭 雖 不是 直接 參與 管網   但 透過 減少 中部 水庫 支援 彰化 水量     其實 達 到 調度 功能    ', '旗 山溪 與 荖 濃溪 交會 匯流 進入 高屏溪   是 大 高雄 地區 民生 用水 主動脈   是 枯水期 間 地下水 主要 供水 區域   如何 永續 地下水 資源   是 當前 重要 課題   經濟部 水利 署 規劃 高屏溪 跟 荖 濃溪 上游   設置 地下水 補注區   112 年 已 設置 約 11 處   總計 460 公頃   評估 一年 補注 將近 1400 萬噸 補 注量   地下水 補注區 利用 疏浚 砂石 河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍 讓 更 多水 滲入 地下   當 抽取 完 地下水 後   透過 自然 入 滲補注   就 能 讓 地下水位 快速 回 復 平常 水位 以上   使 地下水 源 得以 永續   1960 年代 起   台灣 引進 地下水 鑿井技術   台灣 西 半部 沿海 養殖 漁業 盛行   大量 地超 抽 地下水   使得 地層下陷   海水倒灌   土壤 鹽化 等 問題 層出 不窮   有關 高雄 運用 地下水 資源 是否 會 造成 地層下陷   水利 署透 過長 期 監控 做出 釋疑   經濟部 水利 署 水文 技術 組科長 吳 明哲 表示   高屏溪 沿岸 屏東 平原 地下水 區   主要 以砂礫 石層 為 主   礫石 跟 礫 石之間 顆粒 地下水 時候   不會 壓密行 為   地下水 一旦 下降   因顆 粒 與 顆粒 支撐   不會產生 壓密 沉陷   另 根據 屏東 科技 大學 名譽 教授 丁澈士 老師 實驗   模擬 高雄 地區 砂礫 石層 抽水 情況   證明 砂礫 石層 比較 不會 出現 地層下陷   民眾 不必 過度 擔心   經濟部 水利 署南區 水資源局 副 局長 何達夫 說明   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽水 後 會 下陷   但 軟礫 石層 是 一個 石頭 接著 一個 石頭   把 石頭間 水 抽掉   抽走 得 很快 補充 非常 快   不會 地層下陷 問題   專家 強調   只要 不過度 超 抽   加上 嚴密 監測   就 不必 擔心 地層下陷   學者 呼籲   豐水期 應多加 利用 地下水   不僅 能夠 避免 水資源 浪費   還能夠 防洪 減災   高屏溪 擁有 豐沛 地下水 資源   從 鑿 井 取水 到 地下水 補注   不僅 讓 水資源 得以 永續   成為 高雄 地區 對 抗旱 象 關鍵 利器  ', '2023 年 9 月 海葵 颱 風 登陸前   南部 地區 一度 超過 600 天沒有 下雨   高雄 爆發 旱象   雖然 高雄 地表 缺水   但 地面 下 卻 蘊藏 豐富 水源   根據 統計   高雄 高達 8 成到 9 成的備 援用 水   都 能 取自 地下水 及伏 流水   但 大規模 鑿 井 是否 會 剝奪 農業 用水   甚至 造成 地層下陷   時序 來 到 年底   全 台 各地 開始 進入 枯水期   加上 氣候變遷   南北 降雨 不均   不少 人憂心   南 台灣 今年 是否 會 再度 面臨 缺水 危機   幸好 高雄 地區 地表 之下   蘊藏 了 神 祕 巨大 水庫   靠 著伏 流水 資源   度過 缺水 危機   高雄 大泉 伏 流水 取水 站   內徑 15 公尺   深 19 公尺 集 水井 裡頭   有著 11 個 粗大 管線 負責 抽水   將伏 流水 運到 淨水廠   供 民生 用水   所謂 伏 流水   就是 流動 或是 儲 存在 河床 底下   砂礫 石層 當中 水源   透過 自然 過濾 或是 滲透   流入 地面 之下   包括 了 由 粗顆 粒 土壤 組成 含水 層   以及 由細顆 粒 粘土 組成 阻水層   伏 流水 大約 落 地面 下 15 到 20 公尺   反觀 如果 滲透到 了 20 到 40 公尺 深   稱為 淺層 地下水   如果 繼續 滲透到 了 50 公尺 以下 到 150 公尺 處   則稱 為 深層 地下水   屏東 科技 大學 名譽 教授 丁澈士 表示   伏 流水 變成現 救命 水   尤其 是 汛期 時候   它 非常 乾淨   外面 河川 裡面 濁度 甚至 於 飆到 10 萬個 NTU   根本 就 沒 辦法 後 製 沉 沙   沉 澱 處理   但是 伏 流水   因為 河水 跟 井水 是 相通   所以 伏 流水 就 可以 發揮 它 這段 時間 裡面 作用   所以 就 變成 所 說 救命 水   同樣 被 視為 救命 水源   還有 這 一根 根 打入 地底下 抗旱 水井   別 小看 這些 不起眼 水井   它們 可是 解決 高雄 缺水 危機 抗旱 英雄   類 似的 抗旱 水井   已經 3 年間 高雄 陸續 開鑿 了 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井   卻 讓 當地 農民相 當憂心 是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間   淺層 地下水 農業 灌溉 井   含水 層 不同   而且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井   對 於 農業 用水 並不會 產生 影響   高雄市 水利局 長 蔡長 展 表示   抗旱 水井 其實 是 一個備 援用 水   它 使用 時間 大概 每年 3 月 到 5 月   到 了 下雨 時候   我們 就 沒 再 用   就是 藉由 下雨 時候   會 地下水 補注   所以 對 整個 地下水位 來講   跟 市民 用 一些 農業 灌溉 用水   是 安全   神 祕 地下水 補注區   其實 就 隱身 高屏溪 河床 底下   從 空中 俯瞰   這些 不起眼 灰色 土石   全都 扮演 關鍵 角色   所謂 地下水 補注區   就是 利用 疏濬 砂石   河床 蓋 微型 土堤   讓 水流 受阻   流速 變慢   增加 滯水範圍   讓 更 多水 滲入 地下   藉此 增加 地下水 量   使得 地下水 源 得以 永續   大量 運用 地下水 資源   不免 讓 人 憂心 抽取 地下水   是否 會 造成 地層下陷   水利 專 家丁 澈士 教授 解釋   因為 這 一些 土壤 裡面   一些 礫石 跟 比 較 粗 沙子   所以 說 放釋 水 時候   它 比 較 不會產生 所謂 壓密 沉陷   因為 它 骨架 會 互相 地支 撐   實驗 還原 了 高雄 地層 下 狀況   清楚 證明 了 砂礫 石層 確實 比較 不會 出現 地層下陷 情形   因此 民眾 不必 過度 擔心   南區 水資源 分署 副 分署 長 何達夫 表示   軟礫 石層 跟 粘土 層 不 一樣   粘土 層 抽 了 水之後它 是 會 下陷   但是 軟礫 石層   是 一個 石頭 接著 一個 石頭   是 把 石頭間 水 抽掉   它 抽走 得 很快   補充 非常 快   那個 地方 抽 地下水   是 不會 地層下陷 問題   極端 氣候 肆虐 全球   缺水 危機 恐將 一再 重演   無論 是 伏 流水 還是 地下水   都 是 抗旱 時期 救命 水源   唯有 善加利用   才能 讓 危機 成為 轉機  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>19</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>19_新竹市_地下水位_新竹_巷道</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>['新竹市', '地下水位', '新竹', '巷道', '地下水', '市府', '水井', '巷', '地下', '高雄']</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>['順著 高屏溪 右岸 來 到 高雄 大樹區 九曲堂 工作站   從 空中 俯瞰 一個 個 用圍 欄圍 起 方形 區塊   排列 整齊   錯落 其中   靠近 一看 才 發現 這是 一根 根 打入 地底下 水管   稱為 抗旱 水井   高雄市 政府 水利局 表示   所謂 抗旱 水井 是 抽取 深層 地下水   從 地表 往下 150 米 深   透過 抽水 設備   將深層 地下水 經由 抗旱 水井 取出   相較 於 海淡廠   再生 水 等等   取水 更為 快速   成本 更 低   供水量 更 大 地下水   成為 抗旱 期間 關鍵 水源   類 似的 抗旱 水井 已 高雄 陸續 開鑿 110 座   每日 供水量 將近 35 萬噸   雖然 穩定 水情   但是 大規模 鑿 井 卻 讓 當地 農民相 當憂心   是否 會 剝奪 農業 用水   對此 專家 解釋   抗旱 水井 是 取用 深度 達 100 到 150 公尺 深層 地下水   與 一般 深 20 到 40 公尺 間 淺層 地下水 農業 灌溉 井   含水 層 不同   且 兩者 間 還有 阻水層 相互 阻隔   因此 開鑿 抗旱 水井 對 於 農業 用水 並不會 產生 影響   水利局 局長 蔡長 展 指出   抗旱 水井 是備 援用 水   使用 時間 大約 每年 3 月 至 5 月   藉由 雨水 對 地下水 進行 補注   對 農業 灌溉 用水 不受 影響   根據 地下水位 監測 資料 顯示   112 年 1 月份 地下水位 高點 落 14 公尺   接著 隨著 枯水期 到 來   地下水位 5 月份 降到 了 大約 6 公尺   隨後迅 期到 來 開始 降雨   加上 高雄市 政府 與 水利 署 合作   推動 高屏溪 流域 河道 疏濬 補注 地下水 計畫   增加 地下水 量   使得 9 月份 地下水位 上升 到 16 公尺   足足 比 枯水期 高出 了 10 公尺   甚至 高 於 1 月份 水位   枯水期 嚴密 監控   視情況 抽用   豐水期 加強 地下水 補注   能夠 達 到 水資源 永續 發展 目標   經濟部 水利 署 副署 長 林元鵬 說明   高雄 地區 總 共有 11 口 觀測 水井   所有 水井 都 會 進行 管控   只要 是 有效 地去 管控 數據   地下水 高雄 地區 是 可以 當作 一個 安全 用水   嚴密監 控確 保不會 造成 地層下陷 影響 水源 保育 情況 之下   短期 備援 抗旱 水井 不僅成 了 抗旱 功臣   賦予 地下水 資源 更 多元 運用 可能  ', '新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影']</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>20</v>
-      </c>
-      <c r="B23" t="n">
-        <v>4</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>20_新竹市_道路_市公所_路面</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>['新竹市', '道路', '市公所', '路面', '市府', '新竹', '坍塌', '巷', '台北', '施工']</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>['疑因   豐采 520   建案 導致 竹 北市 莊敬 六街 發生 道路 坍塌   一輛 特斯拉 還掉 進去   新竹縣 長 楊 文科 今天 表示   已 與 竹北 市長 鄭 朝方 協議   市公所 將 全力 配合 相關 作業   並 要求 建商以 透地雷達 設備   預防性 檢測 建案 四周 道路 土質 情形   預防 再次 坍塌   工務處 表示   目前 初判 造成 此次 坍塌   原因 是 建商開 挖 地下室 抽取 地下水   導致 土砂 層 部分 帶 走 地層下陷   為 防止 附近 道路 再次 發生 坍塌   已 要求 建商以 透地雷達 設備 詳實 檢測 建案 四周 勝利 二路   勝利 一路   莊敬 六街 自強 北路   確認 是否 仍有 土質 流失 造成 坑洞   由 於 該 路段 路權 為 竹北 市公所 權責   縣長 楊 文科 與 竹北 市長 鄭 朝方 達 成共識   市公所 將 全力 配合 周邊 道路 封鎖 透地雷達 監測 等   展開 全面 檢測   縣府 已 與 市公所 研議 相關 作業   確保 附近 住戶 安全 無虞   工務處 指出   縣府 已 要求 建商 於 維生 管線   自來 水   電力   瓦斯 等 檢測 維修 完成 後   會同 竹北 市公所 同意   以低 強度 混凝土 灌漿 補強   針對 承造 監造 人   縣府 希望 加重 懲罰 機制   將 蒐集 近幾次 相關 違 失事 證   移送 新竹縣 營造業 審議 委員會 建築師 懲戒 委員會 審議   另外   縣府 也將 此次 工安 事件 提列 為 建築 爭議 損鄰 事件   立案 列管   通知 起造   承造 監造 人 改善 鄰房 損害 情況   並 於 完成 安全 改善 修 復 後   檢具 相關 證明 文件 與 同意 書 報府 核備   後 續 建商 必須 與 受 損戶 達成 和解   縣府 才 會 核發 使用 執照   工務處 說   縣府 將持續 配合 新竹 地檢署 調查   後 續 該 工地 建商 如 欲 復工   縣府將 與 竹檢 取得 共識   要求 工地 完善 工地 安全   確定 鑑定 報告 結果 無 虞   舉辦 施工 說 明會   繳清 所有 罰 鍰   以 嚴格 標準 檢視 改善 結果 後   再 評估 是否 辦理 復工  ', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影', '新竹市 和平路 20 巷 昨 下午 驚見   天坑     市府 獲報 到場   確認 是 和平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線   瓦斯 管線 洩漏   導致 地層下陷   多名 民代 要求 強化 安全 檢測   市長 高虹安 昨 要求 建商務必 盡速 完成 改善   市府 並 勒令 承造 人 立即 停工   依法 裁處   改善 完成 無虞 才能 復工       市府 表示   昨 下午 13 時 35 分多 消防局 受理 和平路 出現 道路 地基 下陷   還伴 隨 瓦斯 異味   相關 單位 都 獲報 搶修   由 於 近期 接連 發生 竹北 天坑   基泰 大直 工地 事故   和平路 附近 居民 人心惶惶                             時代 力量 立委 邱顯智   市議員林彥 甫 說   要求 建商確 保相關 支撐   才能 復工   希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次   國民黨 市議員 黃 美慧 認為   未來須 全面 將 瓦斯 自來 水管 線 更新   同時須 工地 周邊 建築安裝 警示 裝置   確保 居民 安全       市府 指出   該 建案 工地 下 挖 到 地下 3 樓   依規 有施 打 預壘 樁 擋 水樁   但 疑似 為 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市府 指出   已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   後 續 將持續 觀察 自來 水管 是否 還有 造成 洩漏       由 於 施工 造成 地層下陷   都 發處將 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各 3 萬元   並視後續 情況 再行 論處  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>21</v>
-      </c>
-      <c r="B24" t="n">
-        <v>4</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>21_水資源_水源_水利_蓄水量</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>['水資源', '水源', '水利', '蓄水量', '淨水場', '供水量', '水場', '供水', '用水', '地下水']</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>['〔 記者 李容萍 ／ 桃園 報導 〕 桃園市 石門 水庫 水情 吃緊   截至 今   21 日   中午   蓄水量 7131 萬噸   蓄水 率 34.75 ％   經濟部 水利 署自 19 日起 調整 桃竹苗 地區 水情 燈號 為   水情 提醒   綠燈   提醒 各界 節約 用水   國立 中央 大學 研究 團隊 今 發表 於 新屋 綠色 隧道 海岸 線 TaiCOAST 臨海 工作站   發現 地下水 出流 現象 非常 強勁   每年 出 流量 達 1 億公噸   相當 半座 石門 水庫 容量   這項 成果 刊載 於 新一期   水文 學雜誌   Journal   of   Hydrology     Regional   Studies 頂尖 期刊   未來 可進 一步 研究 探討 如何 適度 使用 不會 造成 環境 危害     中央 大學應 用地 質 研究所 教授 倪春發 表示   海岸 帶 地下水 出流   Submarine   Groundwater   Discharge     SGD   為 地下水 直接 流進 海洋 自然 現象   普遍存在 於 世界各地   中央 大學 TaiCOAST 臨海 工作站 自 2021 年 開始 進行 新屋 海岸 帶 地下水 出 流量 調查   發現 即使 2021 年 大旱 期間   遭遇 台灣 56 年 來 最 嚴重 缺水 危機   出 流量 仍 相當 豐沛     研究 團隊 透過 鑽井   深入 地下 100 公尺   發現 打出 仍 是 淡水   透過 數學 模型 計算 流速 面積 累加   發現 新屋 地區 海岸 帶 地下水 出 流量 每天 可達 30 萬噸   1 年 高達 1 億噸   相當 半座 石門 水庫 容量   近年 來 調查 結果 更 發現   新屋 區往 北 海岸 出 流量 更 高潛勢   顯示 桃園 海岸 帶 整體 地下水 出 流量 更為 可觀     研究 團隊 指出   台灣 年 降雨量 約 2500 毫米   約 為 全球 平均 3 倍   但 因 台灣 地形 梯度 較大   60 ％ 流入 海洋   只有 5 ％ 含水 層   儘 管 台灣 降水量 高   但 水資源 有限   雖然 發現 地下水 出 流量 資源 豐沛   但 如何 汲水 開發   不致 造成 海水 入侵 地層下陷   涉及 政策   科學 工程 等 多重 挑戰   還需 兼顧 出海口 生態 平衡   才能 造福 國家 社會     此 研究 團隊 涵蓋 中央 大學 地球 科學學院 各系所 老師   包括 應 用地 質 研究所 教授 倪春發   副教授 王士榮   水文 與 海洋 科學 研究所 教授 李明旭   錢樺   副教授 黃 志 誠   以及 地球 科學學系 教授 顏宏元   陳 建志 等 人   各自 發揮 所長   追求 科學 卓越   期許 對 人類 社會 有所 貢獻  ', '因應 極端 氣候   水利 署 投入 123.6 億元展 開   鳥 嘴潭 人工湖 下游 自來 水 供水 工程 計畫     包括 6 座 人工 蓄水池 草屯   鳥 嘴潭 2 座淨 水場   鳥 嘴潭 人工湖 自 2022 年 11 月 起 每日 供水 9 萬噸   其中 彰化 7 萬噸   南投 2 萬噸   草屯 淨水場 今年 3 月 27 日 正式 完工 出水   總 供水量 提升 到 每日 14 萬噸   並持續 推動 鳥 嘴潭淨 水場 工程   預計 2025 年底 可達 日供 25 萬噸 目標   4 萬噸 供 草屯   21 萬噸 供 彰化 地區 使用     陳 建仁 與 經濟 部長 王美花 視察 草屯 淨水場 新建 工程   立委 馬 文君   游顥 等 均 到場   王 瑞德 當場 向 陳 建仁 爭取 補助 延管 或 增加 簡易 自來 水經費 補助   盼 讓 偏鄉 地區 鄉親 能 同享 量 好質 優 水資源   他 並建議   鳥 嘴潭 人工湖 周遭 可 執行 綠毯 計畫   持續 綠 美化   取得 民眾 對 水庫 建設 喜 愛     陳 建仁 說   烏溪 鳥 嘴潭 人工湖 計畫 是 政府 核定   雲彰 地區 地層下陷 具體 解決 方案 暨 行動 計畫   中 重大 建設 之一   草屯 淨水場 為 其中 一環   3 月 已 達 最大 設計 出水 功能   通過 5 萬 CMD   立方公尺 ／ 每日   能力 測試   比 原訂 期程 提早 3 個 月   相信 未來 完工 後   定能 穩定 供 應質 優   量 足 水資源   進 一步 帶動 地方 發展     游顥會 後 指出   南投縣 水源 長 期不斷 供給 外縣 市 居民 使用   但 南投縣 自來 水 普及率 水管 汰 舊換 新 都 需要 中央 支持   草屯 淨水廠 應 優先 滿足 南投縣 用水 需求   剩餘 供水量 再 調度 給外 縣市   才能 實際 解決 南投縣 用水 問題  ', '烏溪 鳥 嘴潭 人工湖 是 中部 地區 最 重要 水利 計畫   總 蓄水量 1450 萬 立方公尺   目前 透過 草屯 淨水場 5 月 起 每日 供水 14 萬噸   等 彰化 鳥 嘴潭淨 水場 明年 12 月 完工   可達 到 最大 每日 25 萬噸 供水量     陳 建 仁和 經濟 部長 王美花 今天 視察 草屯 淨水場   自來 水 公司 董事 長 李嘉榮 簡報   中部 地區 供水 面臨 極端 氣候 影響 產業 發展區   整體 需水量 不斷 增加   造成 雲彰 地區 超 抽 地下水   地層下陷   鳥 嘴潭 人工湖 可 增加 供水   並 改善 地層下陷 問題     人工湖 已蓄 滿 5 個 湖區   C 湖區 預計 5 月底 蓄滿   台水 負責 下游 自來 水 供水 計畫   包含 草屯   鳥 嘴潭 兩座 淨水場   10 公里 原水 導 水管 工程 已 完工   總長 85 公里 送 水管   聯絡管 工程 已 完成 54 公里   草屯 淨水場 可供 應 草屯 鄰 近地 區 15 萬人 用水     王 瑞德 說   南投縣 集集 攔河堰   湖山 水庫   鳥 嘴潭 人工湖   都 是 供應 下游 彰化   雲林 使用   南投縣 民 配合 政府 政策   但 南投縣 偏鄉 沒有 自來 水   且 自來 水延長 管線 成本 高   南投縣 政府 每次 提 競爭 型 計畫 都 沒 被 選上   只能 開闢 簡易 自來 水   影響 鄉親 健康   希望 中央 能 重視 南投 自來 水管 線延管 工程   或 加大 簡易 自來 水補助   讓 南投 鄉親 能 喝 到 量 好質 優 自來 水     陳 建仁 說   北從 翡翠 水庫   石門 水庫 一路下 來   這些 水庫 形成 一粒 粒   珍珠 串     讓 台灣 水資源 調度 更好   顯示 台灣 人民 慈悲 善良   願意 彼此 幫忙   互相 援助   鳥 嘴潭 人工湖 除了 供應 民生 用水   會 持續 綠 美化   變成 南投 新 觀光 地標     立委 游顥 說   南投縣 水源 供應 彰化   雲林 地區 使用   但 行政院 對 南投 回饋 協助 不足   王 瑞德 副 縣長 當場 反映 自來 水 普及率 水管 汰 舊 換性   草屯 地區 東 八里 4800 戶水員供 應 不足   但 陳 院長 沒有 回應   他會 立法院 繼續 爭取   希望 行政院 重視 南投 用水 問題  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>22</v>
-      </c>
-      <c r="B25" t="n">
-        <v>3</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>22_灌區_水稻_灌溉_農田</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>['灌區', '水稻', '灌溉', '農田', '水利', '水源', '農業', '地面水', '農委會', '平方公里']</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>['雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  ', '根據 水利 署 監測 資料   雲林縣 水稻 最大 種植 地區 大 埤 鄉   近 5 年 地層下陷 面積 與 深度 惡化 現象   為 了 避免 極端 氣候 造成 水情 吃緊   地層下陷 持續   雲縣 府 建議 引 北港溪 水源   新建 給 水管 路供 應 灌溉   經費 約 3.3 億餘元   並提報 中央 等待 核准 辦理 中   2 期稻 收割 後 農民忙 著 整地   雲林 大 埤 鄉 是 雲林 種植 水稻 面積 最大 地區   但 卻 時常 面臨 灌溉 水源 不足 問題   當地 農民 就 說   為 灌溉 農田田區 同時 要 用 2 至 3 口井 放水   才能 夠來 因應   雲林 大 埤 鄉 農民 表示     就是 都 沒 水   如果 有人 耕田 廣一點   就 用 大 井水   比較 深層   我 這個 都 是 小 井水   就 很 難 去 灌溉   有時 要 放水 1 天 1 夜 才能 全部 都 讓 水覆蓋     雲縣 府 表示   根據 水利 署 監測 資料   大 埤 鄉 下陷 面積 深度 持續 擴大   主要 就是 因為 農田 水利 事業 區域 灌溉 系統 末端 或區 外   包括 北鎮   西鎮 怡然 等 村   若 要 一年 兩作 無水 可 灌溉   一定 要 抽取 地下水 使用   雲縣 府 水利 處處長 許 宏博 表示     非灌區 地方   去 想 辦法 怎麼 用 地面 水源 來 補充   我們 研究 是 以 大 埤 附近 北港溪   去 引 北港溪 水源   作為 1 期 稻作 灌溉 水源     雲縣 府 水利 處 表示   為 改善 大 埤 鄉 地層下陷 惡化 問題   縣府 完成 大 埤 非 灌區 灌溉 水源 改善 工程 前期 規劃   希望 引 北港溪 地面水 到 高灘 地 設置 調 蓄水池 等   供給 農田 灌溉 使用   但 概估 工程 經費 約 3.3 億   目前 已經報 請 中央 等待 核定 中  ', '經濟部 水利 署 監測 雲林縣 地層下陷   去年 雲林 顯著 下陷 面積 247.7 平方公里   較 前年 略增   全 台面 積 最大 稻作 鄉鎮 大 埤 鄉 因 部分 地區 非 灌區   僅能 抽取 地下水   近年 下陷 面積 逐漸 擴大   縣府 提出 大 埤 鄉 非 灌區 灌溉 水源 改善 工程   提報 中央 爭取 專案 經費   並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍       根據 水利 署 監測 資料 顯示   雲林縣 去年 顯著 下陷 面積 為 247.7 平方公里   較 前年 239.5 公里 增加   年 下陷 速度 約 7 公分   土庫 及元長 水位 仍有 持續 下降 趨勢   枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 公尺   其中 又 以 大 埤 監測 站 洩降 15 公尺 最 嚴重   為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮                             縣府 水利 處長 許 宏博 表示   過去 雲林縣 地層下陷 以高鐵 沿線 虎尾   土庫   元長 北港 較 為 嚴重   但 近年 大 埤 鄉 地層下陷 惡化 趨勢   主因 為 大 埤 鄉 為 全台 稻作 面積 最大 鄉鎮   種植 面積 逾 5 千公頃   但 部分 地區 非 灌區   需仰賴 地表水 或 抽取 地下水 灌溉   導致 近 5 年 地層下陷 面積 深度 都 惡化       為 改善 地層下陷   縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫   擬在 北港溪 高灘 地 設置 調蓄 池及 臨時性 滯水 設施   透過 貯蓄 北港溪 水源   新建 給 水管 路供 給非 灌區 農田 使用   經費 約 3.32 億元   將向 中央 提報   並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍       雲林縣 長 張麗善 說   極端 氣候 越來 越 嚴峻   地面水 資源 無法 支持 產業 所 需   農田 水利 署 如 未能 綜合 考量 水資源 供 應量   農民因 耕作 生計 所 需   勢必 尋求 抽取 地下水 因應   導致 地層下陷 問題   對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅       許 宏博 表示   針對 高鐵 沿線 虎尾   土庫   元長 北港 四鄉鎮 地區   縣府 將持續 加強 查察 水井 用水 情形   並檢討 與 研議 增設 調蓄 設施   增供 地表水   以 限制 溉 地下水 抽取   自來 水可到 達 水井 將 逐年 核減 水權   以 減少 地下水 抽取 造成 地層下陷   雲林縣 大 埤 鄉 為 全 台面 積 最大 稻作 鄉鎮   因 部分 地區 非 灌區   僅能 抽取 地下水   近年 地層下陷 面積 逐漸 擴大   記者 陳 雅玲 ／ 攝影']</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>23</v>
-      </c>
-      <c r="B26" t="n">
-        <v>3</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>23_北極_冰河_坑洞_大陸</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>['北極', '冰河', '坑洞', '大陸', '平方公里', '坑', '冬季', '全球', '土', '區域']</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>['地球 南北 兩極 這兩天 都 重要 科學 發現 發表 媒體 上   其中 北極 方面   科學家 發現 加拿大 北邊 海底 出現 地層下陷   最大 坑洞 長 200 公尺   寬 74 公尺   深度 達 24 公尺   而 南極 方面   向 來 被 認為 氣溫 較 低   冰層 較 穩定 南極 大陸 東邊   3 月初 到 3 月 中 發生 冰河 快速 消退   導致 面積 144 平方公里 冰架 崩解   相當 於 半個 台北市 大小   科學家 藉 著美國 太空 總署 NASA 衛星   拍 攝到 南極 大陸 東邊   格連澤 冰河     瀕臨 南 印度洋 冰架   2 月底 還狀況 良好   但 3 月初 到 3 月 中 卻 開始 快速 消退   崩解   令科學家 相當 憂心   南極 過去數 十年 來   冰架 崩解 現象   絕 大多 數出現 西邊 南極 半島   就是 與 南美洲 阿根廷 遙遙 相望 所在   而且 過去 冰架 崩解 面積 與 規模 相 對 較 小   同時當 南半球 冬季 來臨   南極 冰雪 增厚   對 全球 海平面 衝擊 有限   從 2020 年 開始 南極 東邊 冰河 開始 縮小面積   但 是 以 每天 1 平方公里 速度 減少   被 認為 是 自然 現象   直到 3 月初 情況 開始 了 改變   美國伍 茲 霍爾 海洋 研究所 研究 員凱瑟琳 沃克 表示   過去 發生 算是 相當 緩慢 變化   原因 包括 海洋 暖化 與 冰 河流 動   凱瑟琳 沃克 指出     但 上星期 我們 發現 快速 氣候 現象   這也許 不足以 說明 事情 全貌   但 確對 冰架 造成 前 所 未 見 壓力     研究 人員 所 說 氣候 現象   是 指 發生 3 月 15 日 大氣 河流   這種 氣候 現 象是 指   高濃度 水蒸 氣沿 著 狹窄 區域 快速 前進   對 於 已經 消退 中 冰架 造成 致命 一擊   而大面積 冰架 崩解 進而 消失   科學家 擔心 未來 海平面 將明顯 上升   另外   美國 蒙特 瑞爾灣 海洋 研究所 加拿大 北邊 北極 海域   發現 大面積 地層下陷   最大 坑洞 長 約 220 公尺   寬 74 公尺   深度 達 24 公尺   研究 團隊 懷疑   除了 氣候 暖化   溫度 上升 地下水 緩慢 流動   是 北極海 地層下陷 原因  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>24</v>
-      </c>
-      <c r="B27" t="n">
-        <v>3</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>24_綠電_電業_種電_光電場</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>['綠電', '電業', '種電', '光電場', '綠能', '光電', '環境', '全台', '地層下陷區', '光電板']</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>['原來 同一 個 新能源 市場   同時 這麼 多 幫人 市場 上 探索   開發     圖片 來源 ／ Pixabay  ', '從國道 三號 林邊 交流 道 下來   光電場 廣告 映入 眼簾   從大馬 路旁 到 鄉間 農田   光電板 無 所 不   這是 屏東 沿海 地區 這幾年 興起 違 景致   是 全台 種電 縮影   地 青農批 政府   業者 聯手 種電 種到 失心 瘋   從 農地   山區 到 文資 價值 二戰 遺跡 都 不放過   不僅家園 變貌   迫使 老農離 農   變相迫 遷青農       屏東 農地 種光 電原 是 全台 濫觴 典範   二 九年 八月 莫 拉克 風災 挾帶 破紀錄 雨量   造成 中南部 嚴 重水 災   重創 屏東 南部 沿海 鄉鎮   不少 魚塭   果園 被 沖 毀   時任 屏東縣 長 曹啟 鴻 提出   養水 種電   計畫   縣府 媒合 魚塭   農地 租給 光電業者   地主 負責 管理   地主 按 月 收 地租 管理 費   綠電賣給 台電   能 涵養 地下水   減緩 下陷   一舉 數得                           屏東 種電   侵蝕 農地   製 表 ／ 都 會 地方 中心   農業部 前身 農委會 二 一 三年 修法   允許 不適 耕作 農地 種電   大開 種電 之門   但 農地 非農用 罵 聲不斷   二 一 八年 十月 起   屏縣 府 公告 實施   嚴重 地層下陷地區 土地 活化 暨 太陽光 電發 電業 整體 規劃 發展 計畫     開放 下陷區 農地 可 變更 種電       二 二 年 七月   農委會 加嚴 農地 變更 種電 門檻   二到卅公頃 農地 變更 要 由 中央 審查   兩公頃 以下 原則 不 同意 變更 種電   但 早 二 一 八年 屏東縣 長 潘孟安任   報請 行政院 同意 把 東港   林邊   佳冬   枋寮 四鄉鎮   畫為 嚴重 地層下陷區 作光電 專區   成為 特例       四年 多來   屏東 種電 發展 快速   原本 立意 良善 光電   如今 變成 農民 陰霾   枋寮 女青農 張靜玉 說   為衝 高綠電 占 比   種電 已種 到 失心 瘋   不該 種電 地方 都 被 光電板 占領   很多 農民 被 業者 遊說簽   不利 耕作 聲明書     離農 坐收 光電場 租金   但 這些 農地 都種 著蓮霧   水稻   芭樂   何來 不利 耕作         沿海 四鄉 鎮美麗 鄉間 景致 丕 變   綠地 逐漸 蒸發     屏東縣 環境 保護 聯盟 理事 長 洪輝祥 說   綠地   果園 被 一塊 塊 光電板 取代   像 貼 狗皮 膏藥般 醜陋   不但 壓縮 農業 空間   光電板 遮陽 廿年   農地 將 失去 地 力   衝擊 農產業 服務鏈   受益 是 少數 地主   受影響 是 多數 農民   整體 農業將 衰退   屆 時 想 回頭 搶 救 就 難 了       屏東縣 府 綠能 辦 公室 表示   沿海 四鄉 鎮持續 下陷   列 第一   二級 地下水 管制 區   縣府 把 四 鄉鎮 部分 農地 轉作光 電場   搭配 上游 補注 地下水   減緩 地層下陷   創造 地主   業者   政府   全民 與 綠能   五贏     前年 已達成 綠電供 應 全縣 民生 用電 階段 性 目標  ', '光電亂象 已久   從 之前 良田 種電   砍樹 種電   近來 變本 加厲   光電板 不僅 征服 山頭   占 領有 文資 價值 遺跡   更 一步步 裂解 農漁村 產業 鏈   恐阻斷 青農返 鄉 之路   地面 型 光電 社會 衝擊 比 預期 更大且 深   講求 氣候 正義和   企業 Ｅ Ｓ Ｇ   環境 保護   社會責任   公司 治理     國際 主流 下   政府 企業須 警覺   若綠電來 自迫 遷   危害 生態 與 地產業   恐埋 隱憂       屏東縣 沿海 四鄉鎮 被 縣府 以 嚴重 地層下陷區 之名 畫為 光電 專區   本可 接軌 屏東縣 前縣 長 曹啟 鴻   養水 種電   政策   但 實際 推行 結果   鄉間 景觀 破碎   光電場 蛇 鼠 為 患   離農者 漸增 等 負面 效應 逐漸 浮現   加上 光電助 漲 農地 租金   無異將 返鄉 青年 拒 於 農漁村 之外   被 批評 與   養水 種電   初衷 漸行 漸遠                             屏東 只是 全 台 種電 爭議 縮影   更 多 生態   景觀 敏感 地   追 趕綠能 目標 下 可割 可棄   面對 爭議 與 衝擊   政策 把關 工具 遲未 發揮 效能   及早 阻止 種電 副作用   甚至 正向 引導 與 地 共生 共榮   實難辭 其咎   與 執政黨   愛鄉 土   理念 背道 而 馳       開發行 為 必須 堅守 環境 正義底 線   綠能 不 例外   猶記 得 台積 電在 被 徵收 用地 拆 遷戶 激烈 抗爭 下   突然 宣布 放棄 進 駐龍科 三期   不無環境 正義與 企業 Ｅ Ｓ Ｇ 考慮   民進 黨 種電 國策 若 如   失速 列車     無情 地衝 撞 純樸 農漁村   把 青農   老農 都 當成   農村 最軟 一塊     這種 綠電 還是 國際 認可   符合 Ｅ Ｓ Ｇ 綠電  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>25</v>
-      </c>
-      <c r="B28" t="n">
-        <v>3</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>25_坑洞_建管處_破洞_地下</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>['坑洞', '建管處', '破洞', '地下', '台北市', '巷道', '信義區', '街', '坍陷', '道路']</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>['台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 今天下午 3 點 13 分出 現長 15 公尺   寬 3 公尺   約 2 至 3 公尺 深 大 天坑   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散   台北市 建管處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   工地 正在 止水 當中   圖 ／ 讀者 提供 台北市 信義區 一處 新建 工地 旁 道路 地層下陷   崇德 街 60 巷 路面 出現 大 天坑   圖 ／ 讀者 提供', '〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ', '首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>26</v>
-      </c>
-      <c r="B29" t="n">
-        <v>3</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>26_萬華區_台北市_新竹_新北</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>['萬華區', '台北市', '新竹', '新北', '台北', '向', '〔', '〕', '鄰', '建路']</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 黃 美珠 ／ 新竹 報導 〕 新竹縣 竹 北市 房市 熱絡   集合 式 住宅 大樓 如雨後春 筍般 不斷 冒出   然而 今天 竹北 勝利 15 街 卻 傳出 某 集合 式 住宅 大樓 工地   疑似 開挖 地下室 後 導致 隔鄰 一戶 鐘姓 民宅 地基 下陷   牆面 牆角 龜裂 等   屋主 向 北興里長 田慶 順陳情   擔憂 價值 數千萬 透天 厝 會 不會 一夕 傾倒 危險   希望 相關 單位 幫忙 出面 解決     被 指控 工地 陳 姓 現場 負責人 說   經實 勘 發現   該 民宅 應該 之前 就 原因 不明 下陷   龜裂 問題   看起 來 災害 確實 持續 進行 中   但導致 持續 龜裂 擴大 原因 有待 鑑定 釐 清   但基 於 敦親 睦 鄰   他 允諾會 天氣 放晴 後 協助 維修 處理     陳 講   鍾 姓 住戶 主要 是 拿 自家 建物 背 後 另 1 間 民宅 比 對   鍾 認為 2 宅   沒有 一直 線     所以 認定 傾斜   但 他 實勘 評估 鍾 宅 並無傾 斜 之 虞   不過 未來 他們 施工 會 再 注意 加強 整體 安全 維護     縣府 工務處 長江 良淵 說   鄉親 若 發現 自宅 可能 因 他人 施工 導致 毀損 疑慮 時   可以 向 該 處建 管科 陳 情   由 他們 立案 追 蹤   同時 可 要求 工地 原設 計建築師 或 技師 到場 無 立即 性 危險 判斷   因為 一般 工地 開工前 都 會針 對 緊鄰 建物 現況 鑑定   就是 供 一旦 發生 鄰 損爭 議時 比 對 參考     北興里長 田慶順 說   鍾 姓 住 戶 是 縣治 3 期 被 徵收 戶   3 樓半 住家 就是 蓋 約 3   40 坪 配回 地上   10 年前 要蓋 這樣 透天 厝 少 說 要 1000 萬   現在 當地 房價 被 建商 炒作 到 每坪 80 萬   以現 新建 工程款 每坪 約 15 萬元 等 換算   鍾 宅少 說 4   5000 萬   由 於 鍾 家 1 家 5   6 口人 就 住 其中   如果 房子 真的 不安   影響 非常 大     鍾 說   隔鄰 新建 工地 約 是 2 個 多月 前開 挖 地下室   不久 後 他 就察覺 自宅 車庫 原本 平整 地面   竟 自己 車位 處 開始 出現 下陷   一旁 區隔 鄰宅 用 牆面 了 龜裂 狀況   牆角 跟 地面 磁磚 裂開   且 前述 下陷 裂縫 都 不斷 加大     田慶 順聞言 實際 測量   發現 鍾 宅 車位 下陷 處 最高 已有 他 1 片 手指甲 寬   至於 牆角 地面 磁磚裂 縫 最大 可以 塞下 2 根竹 筷子   確實 讓 人 擔憂  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>27</v>
-      </c>
-      <c r="B30" t="n">
-        <v>3</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>27_新竹市_台北市_坑洞_坑中</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>['新竹市', '台北市', '坑洞', '坑中', '街', '信義區', '消防局', '市府', '道路', '鄰近']</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>['先前 才 發生 竹北 天坑 事件   新竹市 和平路 20 巷今   21   天 下午 突然 出現 天坑   大約 一輛車 面積   根據 了解   天坑 旁有 一個 建案   目前 已經 挖 到 地下 三樓   新竹市 府 說明   今日 下午 13 時 35 分許   消防局 受理 和平路 出現 道路 地基 下陷 情形   消防局 派員到 場後發現 道路 明顯 傾斜   並伴 隨 瓦斯 異味   隨即 通報 都 發處   工務處   自來 水 公司   瓦斯 公司 等 單位 前來 搶 修及 勘查   市長 高虹安 隨後也親 自到 場關 心及 了解 狀況   聆 聽 周邊民眾 心聲   要求 廠商必 須 儘 速 完成 改善   並確 保 居民 居住 安全   市府 指出   現場 工地 依規 有施 打 預壘 樁 擋 水樁   工法 沒有 問題   疑似 是 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂   市府 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無 傾斜 情形   如 民宅 開始 傾斜 情形   應 進行 預防性 撤離   另 已確 認自來 水破管 位置   並 完成 修 復 回填   將持續 觀察 是否 還有 造成 洩漏 情形   避免 地層 再次 下陷   市府 進 一步 指出   本案 因違 反建築法 第 63 條   都 發處 依建築法 89 條 勒令停工   並針 對 起造 人   承造 人   監造 人先 進行 裁罰 各三萬元   並視後續 情況 再行 論處  ', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶   並劃 設緊 戒線   並 通知 府 相關 單位 到場 處理   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   記者 廖炳棋 翻攝 台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   緊急 救援 住戶   圖 ／ 讀者 提供', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝']</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>28</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>28_公園_步道_水路_坑洞</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>['公園', '步道', '水路', '坑洞', '廣場', '向區', '夯土', '環境', '園', '市府']</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>['嘉義市 35 座公園 是 國內 密度 最高   其中 20 座公園 廁所   曾 議員 勘察 指出 不少 照明 不足   設備 損壞 沒修   衛生 不佳 等 問題   市府 指出   爭取 經費 改善 逐步 翻新   今年 至今 完成 3 處   以往 漏積水 嚴重 番仔 溝公園 廁所   改建 後 光潔 明亮   具設 計感   未來 每年 持續 將老舊 公園 公廁 改善 更新       番仔 溝公園 公廁 已 10 多年   市府 接 獲陳情 反映 多次派 員維修   但 管線   設備 老舊   再 加上 地震   地層下陷 等   造成 漏積 水   尤其 是 男廁 問題 嚴重   去年 獲環 保署 補助 566 萬元   與 南興 公園   228 紀念 公園 共 3 處廁 所 於 今年 4 月底 改善 完工   5 月底 同步 開放                             番仔 溝公園 公廁 更新 男女 廁   無障礙 廁所   包括 廁具   隔間   燈光   造型 壁地磚 等 設備   尤是 無障礙 廁所升級 加入 親子 廁所 功能 設備   有兒 童馬桶   尿布 台   較 低 洗手台   功能 上 更 完善       市府 建設 處 表示   2019 年 起 向 環保署 申請   優質 公廁 美質 環境 推動 計畫   經費 補助   整修 文化   友忠   劉厝   中正   北社 尾及 宣信 公園 公廁   公廁 設施 損毀   潮濕 髒 臭 等 情形   都 修繕   清理   今年 還會針 對 嘉義 公園裡 公廁 陸續 整修   工程 採半半 施工   施工期 間   民眾 還能 使用 其他 公廁  ', '桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元 打造   完工 迄今 不到 4 年   近期 被 發現 步道 草 原因 地層下陷   出現 大大小小 坑洞   議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 夯土 不夠 扎實   水路 沖 刷 造成   將 安排 會勘 改善       南興 水岸 遊憩 公園 2019 年 竣工   市府 特別 引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   南 崁 住宅 密集 區營造   都 會 中 綠洲                               市議員 張桂綿 說   公園 步道 近期 嚴重 下陷   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成   無底 洞     推測 是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 踩 空 受傷   已 向區 公所 反映   但 仍 無 解方   呼籲 市府 工務 單位 正視   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 說   初判 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 現勘   了解 發生 原因 並盡速 改善 施工 缺失  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>29</v>
-      </c>
-      <c r="B32" t="n">
-        <v>2</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>29_新北市_萬里區_致建築物_投溫泉</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>['新北市', '萬里區', '致建築物', '投溫泉', '溫泉', '當地民眾', '地民眾', '公共', '俞肇福', '湯空間']</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>['萬里區 公 所以 訊息 說明   萬里 區加 投溫泉 公共 浴室 於 日據 時代 建造   歷史 悠久   屬 於 海底 溫泉   為 當地 居民 從小到 大泡 湯空間     區 公所 表示   因 2 月底 有民眾 反應 浴室 燈管   溫度 顯示器 不亮 等 問題   於 是 委 託 廠商 勘查 後 發現   疑似 地層下陷 現象   為確 保泡湯 安全   已 封閉 浴室     區長 黃 雱 勉 表示   為 瞭解 確切 原因   找出 有效 改善 方法   將邀 請 專業 技師 進行 檢查 評估   以商 討後續 改善 辦法   期望 安全 前提 下   儘 早 恢 復 提供 民眾 泡 湯空間   提醒 民眾 封閉 期間 勿 擅自 進入 使用   以維護 自身 安全     萬里區 公所 主任 秘書 許明富 向 中央社 記者 表示   當地過 去 地層下陷   並 完成 改善 多年   未影響 溫泉 供給 溫度   加投 溫泉 公共 浴室 經找 技師 以 透地雷達 探測 後   男女 湯室 地下 發現 土壤 流失 現象   未來將 進行 修繕 改善   並確 認無 危險 之 虞   才 會 再行 開放 供民眾 使用     編輯   林恕暉   1130326', '〔 記者 俞肇福 ／ 新北 報導 〕 日治 時代 建造 新北市 萬里 區加 投溫泉 公共 浴室   提供 大眾 免費 泡湯   不僅 受到 當地民眾 喜愛   就連 基隆 人 慕名 前來   日前 發現 疑似 地層下陷   萬里區 公所 立即 封閉 浴室   並邀 請 專業 技師 與 工程 廠商 勘查   將於 完成 改善 並確 認沒有 危險   才 會 重新 開放     新北市 議員 周雅玲 表示   接 獲當 地民眾 反映   加投 溫泉 公共 浴室 屋頂 漏水   排水 不良   牆面 出現 裂縫   廠商 會勘 後 懷疑 是 地層下陷   為確 保民 眾 安全   三月 四日 起先 封閉 浴室   經技師 以 透地雷達 探測   男女 湯室 地底下 發現 土壤 流失 現象     周雅玲 指出   萬 里加 投溫泉 公共 浴室 十多年 前 曾 經修繕   當時 出動 透地雷達 探測   這次 發現 問題 較 嚴重   建議 邀請 土木 技師 參 與 會勘   經濟 發展局 水利局 應針 對 附近 溫泉業者 開發 予以 總量 管制   以利 公共 浴室 永續 發展     萬里區 長 黃 雱 勉 表示   加投 溫泉 公共 浴室 經專業 技師 檢視   發現 下陷 致建築物 傾斜 情形   公所 將再 請 土木 技師 公會 等 專家 進行 檢查 評估   期望 確保 安全 前提 下   儘 早 恢 復 民 眾 泡 湯 空 間  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>30</v>
-      </c>
-      <c r="B33" t="n">
-        <v>2</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>30_坑洞_台北市_街巷_坍塌</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>['坑洞', '台北市', '街巷', '坍塌', '信義區', '塌陷', '路面', '小洞', '建管處', '混凝土']</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>['北市 信義區 崇德 街 60 巷 路面 今天下午 出現 大 天坑   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   機車   單車 陷落 坑中   消防局 已 疏散 鄰近 住戶 10 多人   台北市 建管處 表示   路面 坍陷 處以 混凝土 處置   目前 已 勒令停工   將依建築法 開罰 營造廠   監造 人 各 9 萬元       台北市 建管處 表示   事發地 旁為 一處 新建 住宅 大樓 工地   疑似 施作 連續 壁 滲水   導致 道路 塌陷   目前 以 混凝土 處置   工地 現場 緊急 處理 中   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各 9 萬元   目前 已 勒令停工   未來 把 一切 安全 問題 妥善 完成 後 才 會 復工   消防局 已協助 將住 戶 全部 撤離 完畢   人員均 安全   信義區 公所 正在 處理 安置 問題                             北市 議員 許淑華 表示   該處 昨晚 就 灌水   疑似 連續 壁施作 釀禍   事發地 鄰近 住戶 共 30 戶   12 戶住 坍塌 處 附近   約 10 人 安置 飯店   要求 市府 妥善 協助 住戶   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 ／ 翻攝 北市 信義區 出 現長 15 公尺 深 3 公尺   天坑     圖 ／ 北市 府 提供', '台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  ']</t>
+          <t>['〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  ', '4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  ']</t>
         </is>
       </c>
     </row>

--- a/repo/topic_list.xlsx
+++ b/repo/topic_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,21 +465,21 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_台北市_信義區_地層下陷_坑洞</t>
+          <t>-1_萬華區_坑洞_台北市_信義區</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['台北市', '信義區', '地層下陷', '坑洞', '路面', '道路', '坍塌', '北市', '下陷', '當地']</t>
+          <t>['萬華區', '坑洞', '台北市', '信義區', '昆明街', '街', '塌陷', '水溝', '地基', '北市']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ', '北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ']</t>
+          <t>['北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ']</t>
         </is>
       </c>
     </row>
@@ -488,21 +488,21 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_台北市_消防局_巷道_市府</t>
+          <t>0_台北市_新竹市_巷道_新竹</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['台北市', '消防局', '巷道', '市府', '街', '信義區', '地層下陷', '坑洞', '鄰近', '巷']</t>
+          <t>['台北市', '新竹市', '巷道', '新竹', '路面', '市府', '坑洞', '塌陷', '路', '巷']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝', '〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  ', '台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影']</t>
+          <t>['新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -511,21 +511,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_地下水_地層下陷_面積_區域</t>
+          <t>1_台北市_台北_市府_巷道</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['地下水', '地層下陷', '面積', '區域', '坑洞', '環境', '水', '當地', '地', '洞']</t>
+          <t>['台北市', '台北', '市府', '巷道', '信義區', '街', '巷', '坑洞', '鄰近', '塌陷']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['桃園市 蘆竹 區南興 水岸 遊憩 公園 耗資 1 億元   2019 年 竣工 不到 4 年   近期 卻 被 發現 步道 草原 都 因 地層下陷   出現 大大小小 坑洞   遭議員 批評 宛如 成 了   地 雷公 園     市府 工務局 表示   地層下陷 原因 可能 是 水路 沖 刷 造成   後 續會 再 前往 會勘 確認       南興 水岸 遊憩 公園 2019 年 完工   當時 市府 進行 南 崁 溪 整治 建置 自行 車道 會勘 過程 中   發現 綠地 水 利用 地未 被 徵收   經與 地方 討論 後   市府 決定 徵收 開闢 為 水景 公園   引進 共融式 設計   設置 樹屋   人文 廣場   森林 小徑   遊戲 沙坑   自行 車道 等   成為 南 崁 住宅 密集 區   都 會 中 綠洲                               市議員 張桂綿 近期 發現   公園 中 步道 嚴重 下陷   凹 了 一塊   包括 法式 滾球區 兒童 奔跑 大 草原 出現 大小不一 坑洞   甚至 掏空 成 了 無底 洞   主因 就是 鄰近 河川 水流 滲透導致 地層下陷 嚴重   土壤 幾乎 全都 流失         這裡 宛如 地雷 區     張桂綿 直言   如果 民眾 或 兒童 沒 注意   一不小心 可能 會 踩 空 受傷   先前 已 向區 公所 反映   但 至今 仍無解方   呼籲 市府 公務 單位 多 幫忙   盡速 拆除   地雷     還給 鄉親 安全 遊憩 環境       工務局 長 汪在宙 表示   初步 判斷 可能 是 施工 時 夯土 不夠 扎實   附近 水流 滲透 加上 行人 重量 造成 壓力   才 導致 夯土 流失   地層下陷   市府 後 續會 協同 各 單位 前往 會勘   了解 發生 原因 並盡速 改善 施工 缺失   桃園 蘆竹 區南興 水岸 遊憩 公園 竣工 不到 4 年   步道 卻 嚴重 凹陷   恐影響 市民 安全   圖 ／ 張桂綿 提供 桃園 蘆竹 南興 水岸 遊憩 公園 耗資 1 億元   卻 出現   無底 洞     遭議員 批評 宛如 成 了   地 雷公 園     圖 ／ 張桂綿 提供', '〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ', '〔 記者 詹士弘 ／ 雲林 報導 〕 困擾 雲林 多年 地層下陷 有解 了   第四 河川 局在 濁 水溪林 內段 河槽 河床 設置 地下水 補注池   成效 卓越   今年 補注池 蓄水 面積 已 增加 至 20 公頃   等 於 添增 一座 隱形 湖山 水庫   源源 不斷 滲水來 補充 雲林 地下水 源   對 減緩 地層下陷 很大 助益     林內 鄉 公所 今天 林內 鄉 觸口 堤防   國道 3 號 高速公路 橋下   舉辦 河川 淨堤 活動   由 鄉長 張維崢 第四 河川 局長 李友平 帶領 公所 員 工及 環保志工   淵明國 中師 生及 地 居民 約 200 人   沿觸 口 堤防 道路 進行 清掃   清理 河堤 內外 垃圾   用行 動守護 環境     張維崢 表示   林內 鄉位 於 濁 水溪 沖 積扇 水源 頭之頂點   有得天 獨厚 天然 地理 環境 與 豐富 自然 生態   緊鄰 濁 水溪 河畔   水源 供 雲林縣 鄰近 縣 市民   農業 工業 用水   為 重要 水源地     李友平 表示   台灣 早年 因超 抽 地下水   導致 地層下陷   濁水溪長 186.7 公里   林內 河段 是 河 寬 最窄 處   造就 了 林內 好 水質   就 可以 從事 很多 水環境 水資源 保護 措施   經調查 林內 三號 水門 附近 河段   是 濁 水溪 唯一 能 從 事 地下水 補助 河段   經由 設置 蓄水池 留住 地面水   挖掘 入 滲補 注池   以 河水 補注 地下水   可補充 最深 達 地下 400 公尺 地下水 源   再 流往 海岸 地區   能 減輕 地下水 洩降   舒緩 地層下陷 問題     李友平 表示   第一座 地下水 補助池 於 2020 年 完成   效果 非常 好   今年 擴大 辦理   蓄水池 面積 已 達 20 公頃   源源 不絕 地面水 持續 往 地下 滲入   可 有效 減緩 地層下陷   挹注 地下水 資源     李友平 指出   去年 全國 百年 大旱   各地 都 沒 水 灌溉   別 縣市 就算 地下水 井   抽 不到 水   唯一 有水 就是 雲林   因為 地下水 補助   所以 農民 可以 抽 得到 地下水   他 強調   要 好好 保護林 水資源   因為 林內 水 如果 受到 污染   河川 局 不敢 讓 水 滲到 地下   因 為 髒 水下 滲就會 變成 地下水 深層 污染  ']</t>
+          <t>['〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
         </is>
       </c>
     </row>
@@ -534,21 +534,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_道路_路段_地層下陷_路面</t>
+          <t>2_台北市_中山_市府_台北</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['道路', '路段', '地層下陷', '路面', '交通', '混凝土', '施工', '水泥', '下陷', '凹陷']</t>
+          <t>['台北市', '中山', '市府', '台北', '信義區', '四川', '王玉芬', '建物', '建設', '當地']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 高鐵橋 下 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   道 位 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 行車 品質  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影']</t>
+          <t>['台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離開 記者會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
         </is>
       </c>
     </row>
@@ -557,21 +557,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_台北市_王玉芬_四川_北市</t>
+          <t>3_灌溉_節水_水源_地面水</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['台北市', '王玉芬', '四川', '北市', '建設', '施工', '住戶', '下陷', '陳', '建案']</t>
+          <t>['灌溉', '節水', '水源', '地面水', '地下水', '農地', '農委會', '公頃', '農業', '河段']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離 開記者 會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
+          <t>['雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ']</t>
         </is>
       </c>
     </row>
@@ -580,21 +580,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_地層下陷_大樓_地下水_地層</t>
+          <t>4_高鐵下_地層下陷區_連城路_路段</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['地層下陷', '大樓', '地下水', '地層', '建築', '地區', '下陷', '未來', '多', '地面']</t>
+          <t>['高鐵下', '地層下陷區', '連城路', '路段', '高鐵', '封路', '高鐵局', '鐵路', '捷運', '禁建限建']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ', '美國 紐約 是 東部 最熱鬧 城市 之一   是 美國 人口 最多 城市   但 研究 顯示   這座 重要 城市 卻 每年 都 下沉 中   部分 地區 最 後 可能 還會 被淹 沒   電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   美國 紐約 摩天 大樓 林立   但 多 達 百萬棟 建築物實 太重 了   讓 整座 城市 地層 正在 下陷   再 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   長 久 下來 恐發生 海水倒灌 等 洪水 災害   美國 地質 調查 所 專家 帕森斯 表示     無可 避免   地面 下降   水面 上升   某些 時候   這兩層 面會 同時 發生   但 我 沒辦 法給 確切 時間點     帕森斯 說   超過 百萬座 建築物 分布 五個 行政 區上   加起 來 約 1.7 兆 磅 混凝土   金屬 玻璃 等 建材   相當 於 4700 座帝 國大廈 重量 壓在 地球 上   其中   部分 大樓 建築 布魯克林   皇后 區和曼 哈頓 市中心 土 質 鬆 散 地 區 上   下沉 速度 更 快   美國 地質 調查 所 專家 帕森斯 表示     中部 大陸 上升   東 海岸 每年 下沉 約 1 至 2 公 釐   這是 我們 看到 主要 警訊   再 加上 紐約市 不同 土壤 質地   還有 人工 填土 來 增加 土地 面積   但 它們 土壤 固結度 很 差   還是 可以 讓 地層下陷     帕森斯 還說   雖然 下沉 速度 很 緩慢   但 紐約 部分 地區 最 終將 被淹 沒   猶如 電影   明天 過後   海水倒灌 場景   未來 恐怕 真的 會 發生   至於 紐約 是否 會 變成 美國版 威尼斯   帕森斯 表示   確切 時間點 目前 尚 不 清楚   可能 還 需要 數 百年 時間   但 他 研究 不是 危言 聳 聽   只是 希望 透過 科學 數據   問題 擴大前   採取 行動  ', '紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】']</t>
+          <t>['高鐵 地層下陷區 雲林 土庫 段橋 下 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬上 攔檢   位 高鐵 雲林 土庫 段橋 下 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示     大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞     土庫 鎮長 陳 特凱則 指出     柏油 鋪設 之 後   多年 來 它 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 情況   一而再 再而三 重 複     土庫鎮 公所 表示   高鐵橋 下 道 窄   本來 就 不 適合大車 通行   但 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林縣 府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林縣 府 工務 處長 汪令堯 說明     這 路段 經 地方 反映   主要 是 它 地質 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     加上 這邊 重車 行駛   造成 它 地面 下陷 蠻 嚴重   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC     工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   道 位 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   將請 警方 加強 取締   維護 好 行車 品質  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  ']</t>
         </is>
       </c>
     </row>
@@ -607,17 +607,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_巷道_地層下陷_市府_道路</t>
+          <t>5_紐約市_紐約_城市_市區</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['巷道', '地層下陷', '市府', '道路', '塌陷', '巷', '路', '下陷', '地下', '下']</t>
+          <t>['紐約市', '紐約', '城市', '市區', '洪災', '高樓', '海水倒灌', '大樓', '防洪', '海平面']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影', '新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影']</t>
+          <t>['根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 速度   持續 下沉 中   而 部分 地區   下沉 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 海平面 上升 雙重 夾擊   讓 紐約市 岌岌可危     紐約 市將 30 年後沈入 海底       這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 速度 持續 下沉 中   紐約市 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 重量   聯合國 秘書長 古特 瑞斯 說     海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數     原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 情況 是   21 世紀 結束 時   紐約 海平面 比現 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ', '紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】']</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_台北市_台北_市府_地層下陷</t>
+          <t>6_巨坑_坑洞_條溝_融洞</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['台北市', '台北', '市府', '地層下陷', '信義區', '街', '面積', '地面', '塌陷', '坍塌']</t>
+          <t>['巨坑', '坑洞', '條溝', '融洞', '俄羅斯遠', '永凍土', '地下', '建管處', '塌陷', '苔原']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街今   13   日 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   且 二度 坍塌   台北 市長 蔣萬安 晚上 到場 關心並 作出 四點 指示       蔣萬安 表示   市府 已 第一 時間 做出 相關 緊急 疏散 處置   並向 同仁 作出 四點 指示                             第一   安全 至上       相關 緊急 應變 處置 必 須 儘 速 地 完成   包括 疏散   安置 等   已 媒合 旅宿業 進行 安置   住民 入住 可依規定 申請 補助   我們 會 盡力將 損害 降到 最低       第二   釐 清 坍塌 原因   儘 快 排除       目前 了解 可能 是 連續 壁 滲水 問題   市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因   並 儘 快 排除   避免 坍塌 面積 持續 擴大       第三   事件 整體 調查       就 這次 地面 坍塌 事件   將針 對 工地 負責營 造商   就 過去 相關 建造 紀錄 整體 調查       第四   全市 工地 全面 清查       崇德 街案 緊急 處置 後   將針 對 台北市 興建 工程 工地 作 全面 清查   避免 相關 事件 重演       蔣萬安強 調   目前 已責成 相關 局處   務必 盡速 完成 相關 緊急應 變作 為   確 保住 民   市民 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   將損害 降到 最低   全力 捍衛 市民 生命 財產 安全       根據 建管處 資料 顯示   該起 工程 工地 起造 人 是 東禧 建設   承造 人 是 華熊 營造   監造 人 是 向度 聯 合建 築師 事務 所   目前 則已針 對 承造 人   監造 人 各 開罰 新 台幣 九萬元  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬 上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
+          <t>['〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
         </is>
       </c>
     </row>
@@ -649,113 +649,21 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_坑洞_破洞_區域_地下</t>
+          <t>7_萬華區_台北市_新北_蘇澳</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['坑洞', '破洞', '區域', '地下', '建管處', '坍陷', '塌陷', '土', '當地', '現場']</t>
+          <t>['萬華區', '台北市', '新北', '蘇澳', '區域', '當地', '蘇澳鎮', '〔', '台北', '〕']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '首次 上稿   00   04 更新 時間   06   09   〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷一處 華熊 營造 建案 工地 旁 巷道   13 日 下午 3 點多 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   台北市 政府 與 建 商展 開搶 救   灌漿 填補 坑洞 與 建案 基地   晚間 11 點 坑洞 初步 填平 完成   北市 府 啟動 預防性 疏散   疏散 安置 11 名住 戶到 旅館 住宿     台北市 建管處 指出   崇德 街 60 巷華熊 營造 建築 工地 旁發生 道路 坍陷   建管處 收到 訊息 立刻 派員 現場 了解   工地 正 進行 地下室 開挖   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   立即 指揮 承造 人 進行 緊急 處置   要求 基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   至 13 日 晚間 11 點 道路 下陷 處 已 初步 填補 完成   趨 於 穩定   基地 仍 監督持續 進行 填砂 灌漿     台北市 建管處 長 虞 積學 表示   經 建管處 緊急 聯 繫   台北市 土木 技師 公會莊 理事 長 結構 技師 公會 徐 理事 長   均 第一 時間 趕 現場 協助 緊急 處置 事宜 確認 疏散 範圍   目前 採預 防性 疏散 措施   疏散 12   24 號計 5 戶 需 安置 11 名住 戶   均 已 安排 至 旅館 住宿     虞積學 強調   該 建案 違反   建築法   部分 現場 已 立即 勒令停工   並處 以 18 萬元罰 鍰   建管處 將持續 現場 指揮 搶 救   現場 並已 要求 承商 加強 設置 周遭 鄰房 安全 觀測   提高 觀測 頻率   直到 確認 安全 無虞   該 工地 目前 已 勒令停工   後 續須 確認 週邊 地質 鄰房 安全 無虞   並檢具 改善 計畫 經相關 公會 審 查核 可 後   始得 復工  ', '〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8_台北市_區域_當地_〔</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>['台北市', '區域', '當地', '〔', '〕', '地層下陷', '地下水', '路段', '地方', '地基']</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ', '宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>9</v>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>9_坑洞_市府_坍陷_路面</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>['坑洞', '市府', '坍陷', '路面', '塌陷', '道路', '北市', '巷', '地基', '天坑']</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>['北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真應 該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>10</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10_大樓_巷弄_信義區_破洞</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>['大樓', '巷弄', '信義區', '破洞', '市府', '倒塌', '地下', '台北市', '牆壁', '壁']</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>['台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見   蹦   聲響   工地 先緊 急 疏散 工人   才 通知 住戶     說   附近 民眾 提到 此建案 動工 後   住家 就 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  ', '北市 信義區 驚見 天坑   市政府 表示   坍塌 原因 指向 旁邊 大樓 建案   因為 地下 連續 壁 破洞   都 發局 初步 調查 後   對 承造 人 監造 人 各 開出 9 萬元罰 單   等 釐 清責任 歸屬   再進 一步 開罰   至於 附近 住戶   目前 共 10 人 接受 安置   暫住 信義區 旅館   相關 費用 將由建 商來 負責   巷弄 路面 塌陷 好大 一塊   深度 達到 3 公尺   一旁 民宅 門口 遭殃   鐵門 幾乎 懸空   這樣 情況 就 發生 台北市 信義區   短時間   房子 是 不能 住 了   住戶們 該何 去 何 從   台北市 信義區 長 陳 冠伶 指出     昨天 疏散 撤離   範圍 是 從 12 號到 24 號   調查 結果 發現 需要 安置 住戶 一共 5 戶     市府 緊急 介入 安置   一共 撤離 7 戶   需要 安置 5 戶   一共 10 人   暫時 住 信義區 旅館   依照 規定   每人每天 可以 請領 補助 金 1600 元   可以 請領 7 天   但 看 這情況   住戶們 一週 是 回 不了 家 了   超出 費用 將由建商 全額 買單   另外   台北市 都 發局 局長 王玉芬 表示   第一 時間 已經 勒令停工   現在 進行 是 搶災 部分   同時會 對 承造 人 跟 監造 人   處 各 9 萬元罰 鍰   根據 初判 是 建商要 負責   因為 是 一旁 建案 施工   地下 連續 壁 破洞 釀災   原本 要 蓋 大樓   地下 4 層   地上 17 層   負責 營造 華熊 營造 公司   興建過 包括 台北 101   世貿 中心 陶朱 隱園   都 是 赫赫有名 建築   如今 卻 發生 工安 意外   讓 工程 暫時 喊 卡   首要 之務得 設法 解決 安全 問題   還給 當地 居民 一個 安全 家  ']</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>11</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>11_台北市_道路_塌陷_地層下陷</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>['台北市', '道路', '塌陷', '地層下陷', '路面', '市府', '台北', '巷', '下', '地下水位']</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>['〔 記者 何玉華 ／ 台北 報導 〕 台北市 南港區 昨天 晚間 發生 道路 塌陷   經查 塌陷 原因 是 雨水 連 接管 脫管 造成   南港路 3 段 47 巷雙 向 封閉 施工   原 預計 今   19   晚 10 時 恢 復 通車   水利 處連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   提前 於 早上 8 點開放 機車 小型 轎車 通行   預訂 中午 12 點 全面 通行     南港 警方 昨天 晚間 近 6 點 42 分   接獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷   下陷 面積長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   幸無人 受傷   員警劃 設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因     經設 置 前進 指揮 所   水利 處 擴大開 挖 作業   確認 是 雨水 連 接管 脫管 造成   連夜 搶 修後已 經修 復 完成 並 回填 路面   今天 早上 已經 提前 恢 復 通車   後 續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞  ', '4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  ']</t>
+          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ']</t>
         </is>
       </c>
     </row>

--- a/repo/topic_list.xlsx
+++ b/repo/topic_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,21 +465,21 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_萬華區_坑洞_台北市_信義區</t>
+          <t>-1_台北市_街_信義區_路面</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['萬華區', '坑洞', '台北市', '信義區', '昆明街', '街', '塌陷', '水溝', '地基', '北市']</t>
+          <t>['台北市', '街', '信義區', '路面', '塌陷', '坑洞', '高雄', '北市', '台北', '地下']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['北市 信義區 崇德 街 60 巷鄰近 一處 新建 工地   今天下午 3 點多 路面 突然 下陷   出現 一個 大 天坑   台北市 副 市長 李 四川   都 發局 長 王玉芬 傍晚 抵達 了解 現況   王 說 明處理 進度   住戶 方面 已 撤離 16 戶   工程 則在 坑洞 灌漿   建案 基地 灌水       都 發局 長 王玉芬 到場 表示   馬 路上 坑洞 約 10 幾 公尺 長   3 公尺 寬   深度 判斷 達 到 3 公尺   以 灌漿 方式 處理   建築 基地 開挖 地下室 部分   是 用 消防 水車 拉水線 灌水   使內外 壓力 可以 平衡   已拉 兩條 水線   再 請 消防局 再拉一條   加快 灌水 速度                             王玉芬 說 明住 戶 部分   已經 撤離 16 戶   10 人 需要 安置 且 安置 妥當 某 一家 旅館   所有 住宿   日常 開銷 都 會 由 營造 單位 負責   其餘住 戶 由 台北市 結構 技師 公會 判斷 沒有 危險   因 居民 擔心   請里長 逐戶 安撫   現場 分為 撤離區 監測區   除了 天坑 之外   轉角 一戶 地下室   技師 下去 看   目前 還沒有 任何 影響   會持續 監測       黃 住 當地 20 多年   他 提到 走路 經過 時   看到 裂一個 小洞   下午 2 點多 就 一直 下陷   從 22 號先 坍 下去   住戶 鄭 表示   他 姊姊 騎車 來 時   突然 聽到   砰   一聲 被 嚇到   那時 就 一個 小洞   自己 走 出去 看   前 後 不到 一分 鐘出 現好 大一個 洞 就 停住 了   沒 多久 警察 到場 就 要求 不要 過去   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ']</t>
+          <t>['大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   透露 來 自 基泰 政治 獻金 是 一位 從 媒體界 轉從商 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金   想 請問 一下   這 是否是 綠營 想 再次 示範   綠能 不能   雙標   王鴻薇 指出   上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能 公司 政治 獻金 是 雙標   但 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 直播 就 會 知道   是 跟 大家 報告 現場 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 一貫 手法   王鴻薇 表示 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 里 長 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   今 早 建議 市政府   代位 求償     此外 得知 居民 準備 組成 自救 會   承諾 一定 會 全力 協助   最 重要 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 董事 長   總經理 真的 都 不 認識   但是 回頭 去 查 了 一下   是 一位 媒體 前輩去 做生意   確實 議員 選舉 以及 立委 補選時 政治 捐獻   而 由 於 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 要 查詢 是否 虧損   虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 選區   鄰近 以前 蔣萬安 選區   為 何會 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   立刻 跟 團隊 確認   確實 是 沒 接獲 選民 或 議員陳情   這 方面 他們 要 努力 空間還 很多   會勤 走 基層   聽 更 多 聲音   稱 很 遺憾   選民 這幾個 月 這樣 困擾   對民代來講   該 努力 就 應該 繼續 去 努力  ', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ', '4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  ']</t>
         </is>
       </c>
     </row>
@@ -488,21 +488,21 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_台北市_新竹市_巷道_新竹</t>
+          <t>0_紐約市_紐約_城市_市區</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['台北市', '新竹市', '巷道', '新竹', '路面', '市府', '坑洞', '塌陷', '路', '巷']</t>
+          <t>['紐約市', '紐約', '城市', '市區', '洪災', '高樓', '海水倒灌', '大樓', '防洪', '海平面']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影']</t>
+          <t>['根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 速度   持續 下沉 中   而 部分 地區   下沉 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 海平面 上升 雙重 夾擊   讓 紐約市 岌岌可危     紐約 市將 30 年後沈入 海底       這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 速度 持續 下沉 中   紐約市 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 重量   聯合國 秘書長 古特 瑞斯 說     海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數     原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 情況 是   21 世紀 結束 時   紐約 海平面 比現 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ', '紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】']</t>
         </is>
       </c>
     </row>
@@ -511,21 +511,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_台北市_台北_市府_巷道</t>
+          <t>1_灌溉_節水_農地_水源</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['台北市', '台北', '市府', '巷道', '信義區', '街', '巷', '坑洞', '鄰近', '塌陷']</t>
+          <t>['灌溉', '節水', '農地', '水源', '公頃', '農委會', '地下水', '水溪', '四河', '夯土']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
+          <t>['雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ']</t>
         </is>
       </c>
     </row>
@@ -534,21 +534,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_台北市_中山_市府_台北</t>
+          <t>2_萬華區_台北市_蘇澳_區域</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['台北市', '中山', '市府', '台北', '信義區', '四川', '王玉芬', '建物', '建設', '當地']</t>
+          <t>['萬華區', '台北市', '蘇澳', '區域', '當地', '蘇澳鎮', '〔', '台北', '〕', '沉降']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離開 記者會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
+          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ', '宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ']</t>
         </is>
       </c>
     </row>
@@ -557,21 +557,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_灌溉_節水_水源_地面水</t>
+          <t>3_巨坑_坑洞_條溝_融洞</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['灌溉', '節水', '水源', '地面水', '地下水', '農地', '農委會', '公頃', '農業', '河段']</t>
+          <t>['巨坑', '坑洞', '條溝', '融洞', '俄羅斯遠', '永凍土', '俄國國', '地下', '建管處', '塌陷']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ']</t>
+          <t>['〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透']</t>
         </is>
       </c>
     </row>
@@ -580,21 +580,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_高鐵下_地層下陷區_連城路_路段</t>
+          <t>4_坑洞_萬華區_南京_路面</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['高鐵下', '地層下陷區', '連城路', '路段', '高鐵', '封路', '高鐵局', '鐵路', '捷運', '禁建限建']</t>
+          <t>['坑洞', '萬華區', '南京', '路面', '塌陷', '昆明街', '北市', '巷口', '水溝', '巷']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['高鐵 地層下陷區 雲林 土庫 段橋 下 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬上 攔檢   位 高鐵 雲林 土庫 段橋 下 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示     大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞     土庫 鎮長 陳 特凱則 指出     柏油 鋪設 之 後   多年 來 它 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 情況   一而再 再而三 重 複     土庫鎮 公所 表示   高鐵橋 下 道 窄   本來 就 不 適合大車 通行   但 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林縣 府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林縣 府 工務 處長 汪令堯 說明     這 路段 經 地方 反映   主要 是 它 地質 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     加上 這邊 重車 行駛   造成 它 地面 下陷 蠻 嚴重   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC     工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   道 位 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   將請 警方 加強 取締   維護 好 行車 品質  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  ']</t>
+          <t>['北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真 應該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ']</t>
         </is>
       </c>
     </row>
@@ -603,21 +603,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_紐約市_紐約_城市_市區</t>
+          <t>5_台北市_台北_市府_信義區</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['紐約市', '紐約', '城市', '市區', '洪災', '高樓', '海水倒灌', '大樓', '防洪', '海平面']</t>
+          <t>['台北市', '台北', '市府', '信義區', '街', '巷', '路面', '坑洞', '鄰近', '塌陷']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 速度   持續 下沉 中   而 部分 地區   下沉 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 海平面 上升 雙重 夾擊   讓 紐約市 岌岌可危     紐約 市將 30 年後沈入 海底       這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 速度 持續 下沉 中   紐約市 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 重量   聯合國 秘書長 古特 瑞斯 說     海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數     原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 情況 是   21 世紀 結束 時   紐約 海平面 比現 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ', '紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】']</t>
+          <t>['〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
         </is>
       </c>
     </row>
@@ -626,21 +626,21 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_巨坑_坑洞_條溝_融洞</t>
+          <t>6_台北市_市府_中山_建物</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['巨坑', '坑洞', '條溝', '融洞', '俄羅斯遠', '永凍土', '地下', '建管處', '塌陷', '苔原']</t>
+          <t>['台北市', '市府', '中山', '建物', '台北', '王玉芬', '四川', '建設', '北市', '住戶']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
+          <t>['台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離開 記者會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
         </is>
       </c>
     </row>
@@ -653,17 +653,63 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_萬華區_台北市_新北_蘇澳</t>
+          <t>7_建路_路面_區工建_汐止</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['萬華區', '台北市', '新北', '蘇澳', '區域', '當地', '蘇澳鎮', '〔', '台北', '〕']</t>
+          <t>['建路', '路面', '區工建', '汐止', '地盤', '用路', '污水', '新北市', '水利局', '導水']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ']</t>
+          <t>['汐止 驚見 地層下陷   新北市 汐止 區工建 路上 不明 原因 出現 地層下陷   而 上個 禮拜 就 發生過   區 公所 趕緊 進行 挖 填   沒 想到 這幾天 又 再度 下陷   為 避免 發生 危險   昨   22   天晚 間 9 點開始 該 路段 全線 封閉   並在 今   23   天 早上 進行 大規模 檢測   以及 進行 搶修 工程   確保 附近 住戶 安全  ', '北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 開放 機車 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 北市 府 提供 北市 天坑 搶修 完成   圖 北市 府 提供', '汐止 工 建路 因連日 大雨 沖 刷   路面 下方 土石 流失   造成 路面 下陷   為維護 用路 安全   新北市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8_高鐵下_地層下陷區_連城路_路段</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['高鐵下', '地層下陷區', '連城路', '路段', '高鐵', '封路', '高鐵局', '鐵路', '捷運', '禁建限建']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>['高鐵 地層下陷區 雲林 土庫 段橋 下 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬上 攔檢   位 高鐵 雲林 土庫 段橋 下 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示     大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞     土庫 鎮長 陳 特凱則 指出     柏油 鋪設 之 後   多年 來 它 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 情況   一而再 再而三 重 複     土庫鎮 公所 表示   高鐵橋 下 道 窄   本來 就 不 適合大車 通行   但 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林縣 府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林縣 府 工務 處長 汪令堯 說明     這 路段 經 地方 反映   主要 是 它 地質 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     加上 這邊 重車 行駛   造成 它 地面 下陷 蠻 嚴重   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC     工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   道 位 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   將請 警方 加強 取締   維護 好 行車 品質  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  ']</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="n">
+        <v>4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>9_新竹市_巷道_新竹_市府</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['新竹市', '巷道', '新竹', '市府', '路', '巷', '塌陷', '地下', '洩漏', '外側']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>['新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影', '新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影']</t>
         </is>
       </c>
     </row>

--- a/repo/topic_list.xlsx
+++ b/repo/topic_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,21 +465,21 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_台北市_街_信義區_路面</t>
+          <t>-1_當地_持續_公尺_出現</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['台北市', '街', '信義區', '路面', '塌陷', '坑洞', '高雄', '北市', '台北', '地下']</t>
+          <t>['當地', '持續', '公尺', '出現', '裂縫', '喜馬', '拉雅山', '印度', '發生', '居民']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   透露 來 自 基泰 政治 獻金 是 一位 從 媒體界 轉從商 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金   想 請問 一下   這 是否是 綠營 想 再次 示範   綠能 不能   雙標   王鴻薇 指出   上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能 公司 政治 獻金 是 雙標   但 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 直播 就 會 知道   是 跟 大家 報告 現場 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 一貫 手法   王鴻薇 表示 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 里 長 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   今 早 建議 市政府   代位 求償     此外 得知 居民 準備 組成 自救 會   承諾 一定 會 全力 協助   最 重要 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 董事 長   總經理 真的 都 不 認識   但是 回頭 去 查 了 一下   是 一位 媒體 前輩去 做生意   確實 議員 選舉 以及 立委 補選時 政治 捐獻   而 由 於 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 要 查詢 是否 虧損   虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 選區   鄰近 以前 蔣萬安 選區   為 何會 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   立刻 跟 團隊 確認   確實 是 沒 接獲 選民 或 議員陳情   這 方面 他們 要 努力 空間還 很多   會勤 走 基層   聽 更 多 聲音   稱 很 遺憾   選民 這幾個 月 這樣 困擾   對民代來講   該 努力 就 應該 繼續 去 努力  ', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ', '4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  ']</t>
+          <t>['台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  ', '〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  ', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ']</t>
         </is>
       </c>
     </row>
@@ -488,21 +488,21 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_紐約市_紐約_城市_市區</t>
+          <t>0_台北市_信義區_公尺_崇德</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['紐約市', '紐約', '城市', '市區', '洪災', '高樓', '海水倒灌', '大樓', '防洪', '海平面']</t>
+          <t>['台北市', '信義區', '公尺', '崇德', '工地', '疏散', '天坑', '緊急', '新建', '消防局']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 速度   持續 下沉 中   而 部分 地區   下沉 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 海平面 上升 雙重 夾擊   讓 紐約市 岌岌可危     紐約 市將 30 年後沈入 海底       這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 速度 持續 下沉 中   紐約市 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 重量   聯合國 秘書長 古特 瑞斯 說     海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數     原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 情況 是   21 世紀 結束 時   紐約 海平面 比現 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  ', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ', '紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】']</t>
+          <t>['台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
         </is>
       </c>
     </row>
@@ -511,21 +511,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_灌溉_節水_農地_水源</t>
+          <t>1_基泰_建設_大直_政治</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['灌溉', '節水', '農地', '水源', '公頃', '農委會', '地下水', '水溪', '四河', '夯土']</t>
+          <t>['基泰', '建設', '大直', '政治', '安置', '獻金', '全部', '北市', '台北市', '四川']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ']</t>
+          <t>['大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   透露 來 自 基泰 政治 獻金 是 一位 從 媒體界 轉從商 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金   想 請問 一下   這 是否是 綠營 想 再次 示範   綠能 不能   雙標   王鴻薇 指出   上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能 公司 政治 獻金 是 雙標   但 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 直播 就 會 知道   是 跟 大家 報告 現場 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 一貫 手法   王鴻薇 表示 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 里 長 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   今 早 建議 市政府   代位 求償     此外 得知 居民 準備 組成 自救 會   承諾 一定 會 全力 協助   最 重要 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 董事 長   總經理 真的 都 不 認識   但是 回頭 去 查 了 一下   是 一位 媒體 前輩去 做生意   確實 議員 選舉 以及 立委 補選時 政治 捐獻   而 由 於 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 要 查詢 是否 虧損   虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 選區   鄰近 以前 蔣萬安 選區   為 何會 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   立刻 跟 團隊 確認   確實 是 沒 接獲 選民 或 議員陳情   這 方面 他們 要 努力 空間還 很多   會勤 走 基層   聽 更 多 聲音   稱 很 遺憾   選民 這幾個 月 這樣 困擾   對民代來講   該 努力 就 應該 繼續 去 努力  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
         </is>
       </c>
     </row>
@@ -534,21 +534,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_萬華區_台北市_蘇澳_區域</t>
+          <t>2_地下水_雲林_獎勵_沿線</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['萬華區', '台北市', '蘇澳', '區域', '當地', '蘇澳鎮', '〔', '台北', '〕', '沉降']</t>
+          <t>['地下水', '雲林', '獎勵', '沿線', '地層下陷', '農業', '農民', '作物', '節水', '高鐵']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['〔 記者 吳昇儒 ／ 新北 報導 〕 受   尼莎   颱 風共伴 效應 影響   新北市 汐止 地區 降下 豪 大雨   不 只 發生 土石 流   就 連工 建路 出現 地層下陷 情形   工務人員 初步 搶 修後工 建路 一度 恢 復 通行   但 昨日 夜間 卻 發現 地基 仍須 補強   必須 再次 施工   警方 獲報 後   立刻 派員 前往 進行 交通管制   全線 封閉 該 路段   為 加快 搶救 速度   警方 還 徒手 協助 搬運 30 多輛 機車   讓 工程 能 順利 進行     汐止 區工 建路 地層下陷 後   經工務 人員 搶 救   暫時將 凹陷 地基 填補 起來   未料 這兩天 又 因受 豪雨 影響   再此 下陷   汐止 警 分局 接獲 通報 後   即刻 拉起 封鎖線   並連夜 將規劃 好 改 道路 線 公告 各 臉書 地方 集團 供民眾 參考     深夜 中   員警手 拿 指揮棒   持續 管制 車流   柏油路 面上 出現 許多道 裂痕   除了 用 交通 錐 警示 阻擋   立起 告示牌   請行經 車輛 改道 行駛   經過 徹夜 管制 後   施工 單位 評估 現場 完畢 於 今早 6 點準備 開工   卻 發現 許多 機車 車主未 依 通知 移置 車輛   造成 施工 路段 周圍 停滿 機車   負責 交通管制 社后 派出所 2 名員警   見狀 趕緊 上前 幫忙   短短 10 幾分鐘 就 徒手 移 了 3   40 台機車   讓 搶 救 工程 得以 順利 進行     新北 市長 侯友宜 上午 特別 到工 建路 了解 現場 狀況   並感謝 汐止 警 分局   區 公所 施工 單位   連夜 辛苦 進行 管制 勘查   並 指示 相關 單位務 必 儘 速 完成 搶修 並維持 交通 順暢   全力 協助民眾 解決 問題     民進 黨籍 市議員 張錦豪 請 助理 前往 工 建路 現場   向 周邊 住戶 詢問 是否 需要 協助 之處   並與 施工 單位 保持 聯 繫   希望 能 早日 恢 復 正常 通行  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ', '宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ']</t>
+          <t>['雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ']</t>
         </is>
       </c>
     </row>
@@ -557,21 +557,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_巨坑_坑洞_條溝_融洞</t>
+          <t>3_高鐵_施工_土庫_改善</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['巨坑', '坑洞', '條溝', '融洞', '俄羅斯遠', '永凍土', '俄國國', '地下', '建管處', '塌陷']</t>
+          <t>['高鐵', '施工', '土庫', '改善', '捷運局', '新北', '修繕', '路面', '高鐵局', '萬大線']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透']</t>
+          <t>['〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 高鐵橋 下 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   道 位 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 行車 品質  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -580,21 +580,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_坑洞_萬華區_南京_路面</t>
+          <t>4_和平路_20_新竹市_自來</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['坑洞', '萬華區', '南京', '路面', '塌陷', '昆明街', '北市', '巷口', '水溝', '巷']</t>
+          <t>['和平路', '20', '新竹市', '自來', '工地', '某建案', '市府', '道路', '建案', '張裕珍']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真 應該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供', '繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ']</t>
+          <t>['新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影']</t>
         </is>
       </c>
     </row>
@@ -603,21 +603,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_台北市_台北_市府_信義區</t>
+          <t>5_紐約市_上升_紐約_海平面</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['台北市', '台北', '市府', '信義區', '街', '巷', '路面', '坑洞', '鄰近', '塌陷']</t>
+          <t>['紐約市', '上升', '紐約', '海平面', '研究', '下沉', '美國', '城市', '公分', '建築物']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['〔 記者 蔡亞樺 ／ 台北 報導 〕 台北市 信義區 出現 天坑   台北市 消防局 下午 3 時 13 分接 獲通報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   長 15 公尺   寬 3 公尺   深度 2 至 3 公尺     附近 住家 門口 2 部機車 一部 腳踏車 瞬間 掉 進 天坑   幸無人 受傷     台北市 政府 表示   目前 已 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   信義區 長 已 趕 抵 現場 坐鎮 指揮   目前 評估 約 10 餘位 住戶 需要 安置     台北市 建築 管理 處 表示   該案 因連續 壁施作   已 派員至 現場 了解 處理 中   目前 了解 是 連續 壁 滲水   工地 正在 止水 當中   消防局 現場 協助 鄰 房民眾 疏散  ', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
+          <t>['根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 速度   持續 下沉 中   而 部分 地區   下沉 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 海平面 上升 雙重 夾擊   讓 紐約市 岌岌可危     紐約 市將 30 年後沈入 海底       這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 速度 持續 下沉 中   紐約市 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 重量   聯合國 秘書長 古特 瑞斯 說     海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數     原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 情況 是   21 世紀 結束 時   紐約 海平面 比現 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  ', '紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ']</t>
         </is>
       </c>
     </row>
@@ -626,21 +626,21 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_台北市_市府_中山_建物</t>
+          <t>6_排水_建管處_地基_海事</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['台北市', '市府', '中山', '建物', '台北', '王玉芬', '四川', '建設', '北市', '住戶']</t>
+          <t>['排水', '建管處', '地基', '海事', '蘇澳', '建路', '地層下陷', '單位', '進行', '工地']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['台北市 中山 區 大直 民宅 塌陷 案   基泰 建設 總經理 馮先勉 委屈 地稱   事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊   對此   李 四川 今 受訪 還原 真相   馮當晚 確在 現場   但 當晚 後 就 沒見 到 馮到 現場 關心   還 一度 失聯 找 不到 人談 相關後續 事宜   李 四川 今   11 日   接受 媒體 人王 淺秋廣播 專訪   千秋 萬事     談及 基泰 建設 董事 長 陳 世銘 昨   10 日   快 閃離開 記者會 一事   直言 碰到 問題 只能 面對   不能逃避   至於 基泰 總經理 馮先 勉聲 稱 一直 現場   李 四川 則還原   事發 當天   7 日 晚間 抵達 現場 後   一直 處理 救災 灌水 任務   最後因 灌水 速度 不及 搶救   他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去   李 四川 當時 就 疑惑 詢問 工地 主任   這麼 大 事情   你們 負責人 沒 現場   只有 一個 主任 這     而 工地 主任 才 回應   我們 總經理 站 旁邊 那邊     李聲 稱 當下 自己 不 認識 馮   且 之 後 沒見 到 馮   直至 9 日救災 告一段落   需談 安置 時   尋找 基泰 建設 祕 書要 馮來 談 一談   結果 馮 卻 沒接 電話   連 祕 書 找 不到 馮   他 才 會 媒體 前 嚴厲 譴責 基泰   李 四川 回憶 說 道   直至 10 日 上午 才 聯 繫 到 馮 勉   雙方約 好 9 時 30 分到 台北市 政府 開會   會 同 法制局 後 達 成後續 3 點承諾   王淺秋 詢問   發生 事故 當晚   工地 主任 介紹 馮先勉 後   馮有 無過 來 稍微 討論 一下 發生 什麼 事   還是 馮 就 旁邊 像 個 路 人 一樣 圍觀   李 四川 回應   馮先 勉有 過來 打招呼 說 自己 是 總經理   但 沒談 任何 相關 事宜   李 四川 提及 當天 搶 救 緊急 過程   當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散   聽 到 消防局 回報 工地 一直 傳出   啪啪 啪   聲音   察覺 不妥 後 就 要求 立即 消防局 疏散 住民   同時 詢問 單號 住戶 對面 無 房子 間 隔   獲得 對面 還有 一排 雙號 住戶   因此 當下 就 下令 對面 要 依法 全部 撤離   並請區 公所 找到 實踐 大學 先行 安置   李 四川 當天 到 現場 約 22 時   當時 單號棟 已有 稍微 傾斜   但 未 沉下去   立即 要求 消防局   衛工處   水處 全部 灌水   看能 不能 讓 基地 平衡   不過 隨   啪啪 啪   間 隔 時間 越來 越短   他 就 要求 全部 站 旁邊 人 全部 快 疏散   李 表示   他 現場 約 40 分鐘 後   因 灌水 無法 讓 基地 平衡   眼睜睜 看著 房子 沉陷   垮掉 就 等同 連續 壁 全部 斷掉   緊急 改為 灌漿 處理   李 四川 提及 退休 後 又 重新 回到 北市 府 工作   很多 市政 幾乎 都 不 陌生   不過 比較 麻煩 是 極端 氣候 影響   市區 很多 側溝 設計 是 無法 承受 近來 豪 大雨   若   用 工程 技術 去 追   不斷 投入 資源 改善   怎樣 都 無法 追上 老天 給的 挑戰   舉例 豪 大雨 對 一些 老舊   低窪 社區   市府 要 想 辦法 減災   這也 是 他 回到 北市 府 任職 最大 考驗  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
+          <t>['北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ', '宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ']</t>
         </is>
       </c>
     </row>
@@ -649,21 +649,21 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_建路_路面_區工建_汐止</t>
+          <t>7_永凍土_暖化_巨坑_融化</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['建路', '路面', '區工建', '汐止', '地盤', '用路', '污水', '新北市', '水利局', '導水']</t>
+          <t>['永凍土', '暖化', '巨坑', '融化', '坑洞', '當地', '大氣', '共和', '公尺', '基地']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['汐止 驚見 地層下陷   新北市 汐止 區工建 路上 不明 原因 出現 地層下陷   而 上個 禮拜 就 發生過   區 公所 趕緊 進行 挖 填   沒 想到 這幾天 又 再度 下陷   為 避免 發生 危險   昨   22   天晚 間 9 點開始 該 路段 全線 封閉   並在 今   23   天 早上 進行 大規模 檢測   以及 進行 搶修 工程   確保 附近 住戶 安全  ', '北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 開放 機車 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 北市 府 提供 北市 天坑 搶修 完成   圖 北市 府 提供', '汐止 工 建路 因連日 大雨 沖 刷   路面 下方 土石 流失   造成 路面 下陷   為維護 用路 安全   新北市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  ']</t>
+          <t>['〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
         </is>
       </c>
     </row>
@@ -672,21 +672,21 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_高鐵下_地層下陷區_連城路_路段</t>
+          <t>8_水利局_汐止_工程_流管</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['高鐵下', '地層下陷區', '連城路', '路段', '高鐵', '封路', '高鐵局', '鐵路', '捷運', '禁建限建']</t>
+          <t>['水利局', '汐止', '工程', '流管', '特四幹線', '搶修', '進行', '北市', '連夜', '公尺']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['高鐵 地層下陷區 雲林 土庫 段橋 下 道   每次 進行 路面 改善 後   使用 不到 3 年 就 會 出現 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   當地屬 禁限建區   日前 獲高鐵局 同意   將進行 改善   不過   該 路段 不時 大型 車輛 未 依規定 超重 行駛   導致 路面 加速 毀損   將請 警方 加強 取締   警方 一 看到 大車 馬上 攔檢   位 高鐵 雲林 土庫 段橋 下 道   為 避免 路面 持續 下陷   管制 限重 10 公噸 以下 車輛 通行   但 因為 這裡車 流量 大   鄰近 交流 道   還是 大型 車常未 依規定 行駛   導致 路面 龜裂   充滿 坑坑洞洞   影響 行車 安全   土庫民眾 表示     大車 如果 行駛 輾壓   這樣 路 比 較 容易 壞     土庫 鎮長 陳 特凱則 指出     柏油 鋪設 之 後   多年 來 它 使用 期限 都 差不多 3 年 左右   就 受到 破壞   這樣 情況   一而再 再而三 重 複     土庫鎮 公所 表示   高鐵橋 下 道 窄   本來 就 不 適合大車 通行   但 駕駛 貪圖 方便 違規 行駛   讓 路面 破損 不堪   容易 引發 交通事故   日前 雲林縣 府 爭取 已獲 高鐵局 同意   將以 50 個 工作 天 改善   雲林縣 府 工務 處長 汪令堯 說明     這 路段 經 地方 反映   主要 是 它 地質 不好   原來 大概 都 是 農 田土 直接 就 回填 鋪 AC   瀝青 混凝土     加上 這邊 重車 行駛   造成 它 地面 下陷 蠻 嚴重   我們 會 整個 基底 改良 30 公分   再來 鋪 設 5 公分 AC     工務處 表示   高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 路段   每年 平均 下陷 6.5 公分   道 位 高鐵 高架 橋 正下方   涉及 鐵路 禁限 建範圍   這次 以 低 強度 水泥 替代 獲高鐵局 同意   預計 年底 能 改善 完畢   將請 警方 加強 取締   維護 好 行車 品質  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  ']</t>
+          <t>['汐止 驚見 地層下陷   新北市 汐止 區工建 路上 不明 原因 出現 地層下陷   而 上個 禮拜 就 發生過   區 公所 趕緊 進行 挖 填   沒 想到 這幾天 又 再度 下陷   為 避免 發生 危險   昨   22   天晚 間 9 點開始 該 路段 全線 封閉   並在 今   23   天 早上 進行 大規模 檢測   以及 進行 搶修 工程   確保 附近 住戶 安全  ', '汐止 工 建路 因連日 大雨 沖 刷   路面 下方 土石 流失   造成 路面 下陷   為維護 用路 安全   新北市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  ', '北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 開放 機車 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 北市 府 提供 北市 天坑 搶修 完成   圖 北市 府 提供']</t>
         </is>
       </c>
     </row>
@@ -695,21 +695,67 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_新竹市_巷道_新竹_市府</t>
+          <t>9_塌陷_水利_路面_極端</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['新竹市', '巷道', '新竹', '市府', '路', '巷', '塌陷', '地下', '洩漏', '外側']</t>
+          <t>['塌陷', '水利', '路面', '極端', '管線', '氣候', '市府', '老舊', '台北市', '導致']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影', '新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影']</t>
+          <t>['台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見   蹦   聲響   工地 先緊 急 疏散 工人   才 通知 住戶     說   附近 民眾 提到 此建案 動工 後   住家 就 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  ', '4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  ', '台北市 再現   天坑     南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌   長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   市府 指出   目前 無人 受傷   員警 已 畫設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因       市府 晚間 7 點 30 分開 設前 進 指揮 所   南港區 長 蔡明 儒到 達 現場   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業 中                             新建 工程 處開 挖 確認 塌陷 原因   是 水利 處 連接 涵管 有輕微 脫管 現象   目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮官   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞       水利 處 評估 工程 進度   實施 交通 維護   南港路 3 段 47 巷雙 向 封閉   預計 今晚 9 時修 復 機具 進入 開工   8 月 19 日 凌晨 0 時 灌漿 回填 作業   後 續 等到 混凝土 達到 一定 強度 之 後   路面 將會 辦理 復 舊   預計 於 明天 晚上 10 時許 恢 復 通車         市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞   圖 ／ 北市 府 提供   台北市 下午 4 點多 再現   天坑     市府 指出 目前 無人 受傷   員警 已 畫設 警戒 線   新工處 調派 重機 具開 挖   確認 坍塌 原因   圖 ／ 北市 府 提供']</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10_北市_坑洞_出現_道路</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['北市', '坑洞', '出現', '道路', '萬華區', '大雨', '路面', '發生', '事件', '短短']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>['繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ', '北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真 應該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供']</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>11_公尺_下午_林伯東_地層下陷</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['公尺', '下午', '林伯東', '地層下陷', '15', '工地', '信義區', '深度', '蔣萬安', '針對']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影', '針對 北市 連續 出現 天坑   台北 市長 蔣萬安 下午 公安 會報 中 指示   最近 幾次 地層下陷   會 進行 全面 檢視   請 工務局 邀集 相關 單位   包括 都 發   建管   針對 道路 塌陷 的後續 處理 做成 通案 性處 理機 制外   應 全面 檢視   會先 就 老舊 管線 一次 清查   下 一步 再針 對 其他 地方   避免 後 續 再 發生 地層下陷 情形       北市 建管處 下午 公安 會報 中針 對 今年 5 月 13 日 信義區 崇德 街 60   巷道 路 塌陷 案 進行 專題 報告   加強 管理 作為   針對 北市 建築 工地 正在 開挖 階段   計有 102 件   排定 由 三 大公 會 從 5 月 15 日 開始 逐案 現場 勘查   目前 已 全數檢 查完 畢   針對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善                             為 了 強化 管理 措施   加強 建築 工地 開挖 階段 安全 管理   自 6 月 分起 已委 託 三 大公 會 不定期 進行 現場 勘查   另 就 建築 工地 因違 反建築法 公共安全   公共交通 遭受 裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 相關裁 處訊息       另外   函告 工地 應主動 通報   若 工地 發生 公安 意外事件   應 於 第一 時間將 原因 緊急 應變 處理 情形 主動 通知 建管處   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處以 9 萬元 罰款   情節 嚴重 時並 勒令停工       副 市長 李 四川 提醒 建管處   最近 下午 雷陣雨   開挖 工地 要 加強 宣導 防範   蔣萬安 表示   信義區 案例   主要 因為 旁邊 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 加強 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   不管 是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處   地面 上 施工   如果 發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理  ']</t>
         </is>
       </c>
     </row>

--- a/repo/topic_list.xlsx
+++ b/repo/topic_list.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,21 +465,21 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1_當地_持續_公尺_出現</t>
+          <t>-1_出現_北市_路面_抗旱</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['當地', '持續', '公尺', '出現', '裂縫', '喜馬', '拉雅山', '印度', '發生', '居民']</t>
+          <t>['出現', '北市', '路面', '抗旱', '地層下陷', '坍塌', '塌陷', '工地', '安全', '台北市']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街巷 弄 13 日 下午 發生 路面 塌陷 事故   現場 緊鄰 一旁 建案 工地   中央社   台北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 表示   正在 持續 向 坑洞 灌漿   建案 基地 灌水   共 撤離 周遭 16 戶住 戶   其餘住 戶判斷 沒有 危險                           台北市 信義區 崇德 街巷 弄 今天下午 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   道路 緊鄰 建築 基地 當時 正在 施作 連續 壁 工程   目前 已 停工 並 疏散 鄰近 住戶   副 市長 李 四川   工務局 長 黃 一平   都 發局 長 王玉芬 皆 到場 了解 狀況     王玉芬 向 中央社 記者 表示   坑洞 正在 持續 灌漿   建築 基地 則用 消防 車 灌水   讓 內外 壓力 平衡   阻止 繼續 塌陷   何時 才能 確認 沒 進 一步 危害 則要 持續 觀察     至於 住戶 部分   王玉芬 說   已經 撤離 16 戶   其中 10 人 需要 安置   這些 開銷 都 會 由 開發 單位 負責   其餘住 戶 雖 由 台北市 結構 技師 公會 判斷 沒有 危險   考量 住戶 仍會 擔心   已 請里長 逐戶 安撫     談到 事發 過程   附近 居民 仍然 餘悸 猶存   鄭 大哥 說   他 姊姊 大概 下午 2 時 50 分 時候 聽 到   砰   聲音   並 看到 門口 出現 一個 小洞   就 喊 他 出去 看   洞 這個 過程 中越 來 越 大   路上 腳踏車   摩托 車等 就 跟 著 掉下去     很 可怕       鄭 大哥 表示   他 住 這裡 3 年 多 了   旁邊 建案 大概 去年 開始 施工   剛開 挖 時候 路面 龜裂   建商 就 來 補好   之 後 雖然 施工 時 住家 總會 感到 地震   無法 睡 午覺   但 沒 什麼 異狀     黃 則說   他 住 這裡 20 多年 了   今天下午 外面 散步   走過 去 時 發現 一個 小洞   這個 洞後來 持續 陷 下去   但 他 沒 聽 到 什麼 聲音     新竹縣 竹北 莊敬 六街 一處 建案 周邊 日前 才 發生 路基 坍塌   導致 一輛 停放 路邊 特斯拉 轎車 直接 掉落  ', '〔 編譯 管淑平 ／ 綜合 報導 〕 印度 斯希馬 特鎮   Joshimath   位 於 喜馬 拉雅山 區   因地層 持續 下陷   已接 連有 600 間 房屋 出現 明顯 裂縫   6 日 深夜 一間 神廟 甚至 因 地層下陷 而 倒塌   當地 政府 7 日緊 急將 數百人 遷到 臨時 避難 所       美聯社   7 日 報導   位 於 印度 北阿 坎德 省   Uttarakhand   傑 莫利 縣   Chamoli   斯希馬 特鎮   居民 說 之前 就 注意 到 房子 出現 裂痕   尤其 是 2021 年 喜馬 拉雅山 冰川 斷裂 導致 洪水 侵襲 當地 後   當地 媒體 播出 畫面 顯示   該鎮 多處 道路 出 現裂 縫   影響 車輛 往來   6 日 晚間 當地 一座 神廟 崩塌   所幸 附近 居民 已 前一天 撤離   沒有 造成 人員 傷亡     地方 首長 庫拉納   Himanshu   Khurana   說   已經 60 多戶 搬 到 政府 臨時 避難 所   撤離 人數 可能 會達 到 600 戶     北阿 坎德 省災難 管理 官員辛赫   Ranjit   Singh   說   出現 裂縫 近因   似乎 是 問題 排水 系統 導致 房子 底下 滲水   造成 下陷       斯希馬特 人口 約 2 萬 5000 人   是 印度教   錫克 教徒 朝聖 必經 之 地   大批 朝聖者 觀光客 促使 該鎮 多年 來大興 土木 鋪路 造房   不斷 擴張   部份 專家 認為   地層下陷 與 此 有關 係   現在 當地 政府 已經 暫停 所有 建築 工程     另外   根據 印度 媒體 報導   巴德 林納斯鎮   Badrinath     相距 80 公里 同縣 另 一鎮 卡納 普拉 耶格   Karnaprayag   50 多間 房子 出現 不斷 擴大 裂縫   該鎮 人口 5 萬人  ', '台北市 信義區 崇德 街一處 新建 工地 旁 道路   13 日 發生 地層下陷   晚間 緊急 灌漿 搶 救   晚間 11 時 坑洞 初步 填平 完成   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   北市 都 發局 長 王玉芬 視察 表示   初步 判斷 道路 塌陷 原因 是   因 工地 地下 連續 壁 約 11 至 12 公尺 處有 破口   水 與 砂往 地下室 流 造成 坑洞   未來 一周 將會 同三大技師 公會 全面 檢查 地下室 開挖 工地   避免 類似 意外 再度 發生   台北市 信義區 崇德 街一處 新建 工地 旁 巷道   13 日 下午 突然 發生 地層下陷   坑洞 長 約 15 公尺   寬 3 公尺   深度 3 公尺   北市 勒令 工地 停工   附近 住戶 一 早就 跑 來 關心 自己 攤位   擔心會 再次 坍塌   周邊 住戶 說     昨晚 11   12 點還 沒 睡覺   早上 5   6 點又趕 快 跑 出來 看   是 要 關心 一下 我 自己 攤位   希望 說 沒 下 一次 啦     信義區 區長 陳 冠伶 表示     安置 了 5 戶   一共 是 10 位   那現 我們 把 他們 都 安置 我們 信義區 旅館裡     台北 市長 蔣萬安 上午 前往 旅館 探視 安置 戶   致贈慰 問金 以及 康乃馨   報告 工程 搶修 進度   蔣萬安 提及     接下 來 我們 還是 要 持續 監測   第二 個 我們 會 請 土木 技師 來 整體 評估     初步 了解   因連續 壁體 滲水 造成 地下水 湧入 引發 道路 坍陷   現場 隨即 進行 緊急 處置   基地 外 道路 下陷 處 進行 灌漿 回填   基地 內採 填砂 灌水 以 平衡 水壓   北市 府 都 發局 長 王玉芬 解釋     初步 判斷 是 工地 裡面 地下 連續 壁   大約 11 到 12 公尺 之間 破口   所以 它 水 跟 砂會 往 地下室 裡面 流   才 造成 這個 坑洞     為 了 避免 類 似的 工地 意外 再度 發生   蔣萬安 指出   已責成 相關局 處針 對 北市 工地 全面 清查   目前 建築 工地 正在 開挖 階段 102 件   將由三大 專業 公會 逐案 現場 勘查   於 一週 內檢 查完 畢   屆 時 安全 疑慮者將 下令 停工   改善  ']</t>
+          <t>['台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 中到 場關 心林伯東 台北市 信義區 崇德街 今 13 日 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 且 二度 坍塌 台北 市長 蔣 萬安 晚上 到場 關心並 作出 四點 指示 蔣 萬安 表示 市府 已 第一 時間 出 相關 緊急 疏散 處置 並向 同仁 作出 四點 指示 第一 安全 至上 相關 緊急 應變 處置 必 須 儘 速 地 完成 包括 疏散 安置 等 已 媒合 旅宿業 進行 安置 住民 入住 可依規定 申請 補助 我們 會 盡力將 損害 降到 最低 第二 釐 清 坍塌 原因 儘 快 排除 目前 了解 可能 連續 壁 滲水 問題 市府 會 儘 速 地 找出 造成 地面 坍塌 真正 原因 並 儘 快 排除 避免 坍塌 面積 持續 擴大 第三 事件 整體 調查 就 這次 地面 坍塌 事件 將針 對 工地 負責營 造商 就 過去 相關 建造 紀錄 整體 調查 第四 全市 工地 全面 清查 崇德街 案緊 急 處置 後 將針 對 台北市 興建 工程 工地 作 全面 清查 避免 相關 事件 重演 蔣 萬安 強調 目前 已責成 相關局 處務必 盡速 完成 相關 緊急應 變作 為確 保住 民 市民 安全 避免 讓 地面 坍塌 損壞 再 持續 擴大將 損害 降到 最低 全力 捍衛 市民 命財產 安全 根據 建管處 資料 顯示 該 起 工程 工地 起造 人 東禧 建設 承造 人華熊 營造 監造 人 向度 聯 合建 築師 事務 所 目前 則已針 對 承造 人 監造 人 各 開罰 新 台幣 九萬元', '北市 「 天坑 」 事件 接連 3 天發 今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞 民進 黨 北市 議員 洪婉臻 晚間 表示 短短 時間 發多起 塌陷 意外 道路 品質 堪憂 根本 不堪 大雨 考驗 每下 一次 大雨 前進 指揮 所 就 出動然 後 各局 處分別 擔責 任批 市府 宜 行事 罔 顧共 安全 洪婉臻 說 昆明街 320 巷 92 號 今天下午 4 點 42 分出 現 天坑 事件 該 事件 因建案 開 挖 造成 長 3 寬 2 深度 1.5 地層下陷 約 一輛 汽車 車身 所幸 塌陷 部分 位 工地 範圍 未響 到民眾 安全 與 通車 表示 據 建管處 施工 科回報 查明 連續 壁 並無滲 水破損 情形 與 之前 南京西路 發 塌陷 原因 不同 比較 可能 因為 連日豪 大雨 造成 土 質 鬆 動 才 發 整 體 事件 因 基地 退縮 建築線 3.64 米開 挖 故 坍陷 處裡開 挖面 仍 2 至 3 米 距離 坍陷 原因 還 查明 洪婉臻 指出 繼 之前 大同區 南京西路 後 今天 已 北市 第 3 次發 路面 塌陷 事件 短短 時間 發多起 塌陷 意外 北市 道路 品質 堪憂 根本 不堪 大雨 考驗 直言 北市 府 真 應該 好好 檢討 路面 品質 呼籲 市府 對 於 道路 品質 不要 宜 行事 屢次 臨時 抱 佛腳 每下 一次 大雨 前進 指揮 所 就 出動然 後 各局 處分別 擔責任 上次 衛工處 這次 建管處 簡直 罔 顧共 安全 「 一次 又 一次 只會 讓 人民 對 政府 失去 信心 」 北市 「 天坑 」 事件 接連 3 天發 今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞 圖洪婉臻 辦室 提供 北市 短短 3 個 月 出現 第 5 個 「 天坑 」 此為 今日 萬華區 某處 工地 圖 居民 提供', '北市 近日 連續 出現 天坑 市長 蔣 萬安 昨天下午 安會 報中 指示 工務局 邀集 都 發 建管 等 相關 單位 針對 道路 塌陷 制定 通案性 處理 機制 外應 全面 檢視 清查 地下 老舊 管線 下 一步 再針 對 其他 地方 避免 再發 地層下陷 情形 北市 建管處 昨天下午 安會 報針 對 今年 5 月 13 日 信義區 崇德街 60 巷道 路 塌陷 案 進行 專題 報告 北市 開挖 中建 築 工地 計 102 件 已委 託 台北市 土木 技師會 台北市 建築 師會 台北市 結構 工程 工業 技師會 從 5 月 15 日起 逐案 現勘 包括 觀測 項目 設置 按 計畫 觀測 以 施工 計畫 例如 抽水 計畫 等 已 全數檢 查完 畢針 對 檢查 項目 不 符合 建築 工地 要求 停工 釐 清 改善 為 加強 建築 工地 開挖 階段 安全 管理 6 月 起委 託 三大會 不定期 現勘並 就 建築 工地 因違 反建築 法共 安全 共 交通 受裁罰 或 勒令停工 案件 同步 於 建管處 網站 揭露 裁處訊息 建管處 表示 已 函告 工地 若 發安 意外 應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形 未通 報將 依建築 法相 關規定 加重 裁罰 最高 處 9 萬元 罰款 情節 嚴重 時 還會 勒令停工 最近 常發午 後 雷雨 市長 蔣 萬安 副 市長 李 四川 都 強調 要 注意 李 四川 提醒 建管處 開挖 中 工地 要 加強 宣導 防範 蔣 萬安 說 信義區 案例 主因 為 建案 開 挖 造成 地層下陷 最近 許多 下午 暴雨 可能 造成 地層下陷 請 建管處 加強 工地 管理 查核 蔣 萬安 指示 針對些 地方 老舊 管線 像 汙水 管等 主管 機關加 強督導 另 環保局 進行 清疏 時 或 新 工處 地面 上 施工 發現 相關 管 線 鬆 脫 或 破裂 情形 要 即 時 通報 相關 單位 處理 建管處 指出 地下 管線 一旦 老舊 可能 鬆 脫 造成 漏水 淘空 地基 導致 地層下陷 隱憂']</t>
         </is>
       </c>
     </row>
@@ -488,21 +488,21 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0_台北市_信義區_公尺_崇德</t>
+          <t>0_地下水_地層下陷_雲林_灌溉</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['台北市', '信義區', '公尺', '崇德', '工地', '疏散', '天坑', '緊急', '新建', '消防局']</t>
+          <t>['地下水', '地層下陷', '雲林', '灌溉', '縣府', '農民', '種電', '水利', '農地', '雲林縣']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['台北市 信義區 一處 新建 大樓 工地 旁 巷道   蹋陷   緊急 灌漿 回填   住戶 驚慌 撤離         消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 公尺   寬 3 公尺   深度 2   3 公尺 )   幸無人 受傷                             警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   目前 評估 約 10 餘位 住戶 需要 安置   台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影警 消緊 急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 消防局 於 15 時 13 分獲報   信義區 崇德 街 60 巷 22 號前 新建 工地 旁 道路 地層下陷   警消 緊急 疏散 鄰近 住戶   並劃 設 警戒 線   消防局 已先 成立 現場 指揮 站   建管處   新工處   道管 中心   瓦斯 公司   北水處 已 派員 趕 赴 現場 處理   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   住戶 心有 餘悸 驚慌 撤離   到 一旁 安全 區域   記者 林俊良 ／ 攝影 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道   突然 塌陷   警方 疏導 住戶 驚慌 撤離   目前 評估 約 10 餘位 住戶 需要 安置   記者 林俊良 ／ 攝影 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷   施工 單位 緊急 灌漿 回填   防止 塌陷 區域 擴大     記者 林俊良 ／ 攝影', '台北市 出現 天坑   今天下午 15 時許   台北市 信義區 崇德 街 60 巷 22 號 附近   一處 新建 工地 旁 道路 地層下陷   坑洞 長 15 公尺   寬 3 公尺   深度 2 到 3 公尺   目視 可 看到 機車   自行 車 陷落 坑中   同時 坑洞 波及 一旁 民宅 地基   目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人   並劃 設緊 戒線   並 通知 市府 相關 單位 到場 處理       天坑 位 於 新建 工地 民宅 中間 巷弄 道路   塌陷 時 發出 聲響   驚動 住戶   但 因為 坑洞 擋 在家 門前   第一 時間 無法 脫困   消防局 緊急 到場   以 爬梯 方式 救援 住戶 出來                             消防局 救出 2 名 女子   疏散 1 男 1 女   人員 已 全數 疏散 完畢   另外 1 名 85 歲 老婦   因長 期行動 不便   雖無外傷   意識 清醒   但家屬 要求 預防性 送醫   由 消防局 送北醫   由 於 天坑 危及 安全   影響 周遭 至少 五戶 民宅   部分 住戶 無法 回家   估計 10 餘人受 影響   將由 台北市 府 處理 安置 問題       台北市 信義區 出現 天坑   目前 市府 新工處   建管處   勞檢處 等 相關 單位 都 已 派 人 到場   現場 設置 指揮 所   初步 懷疑 與 民宅 對面 新建 工地 工程 有關   現以 灌漿 方式 緊急 處置   至於 天坑 出現 原因   將 交由 市府 建管   新工 等 單位 調查   台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝 台北市 崇德 街 出現 天坑   警消 緊急 疏散 民眾   記者 廖炳棋 翻攝', '台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   中   到場 關心   記者 林伯東 ／ 攝影     台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚間 前往 現場                             蔣萬安 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安說   第一 時間 消防局 長 就 趕到 現場   共 啟用 13 輛 消防 車   2 輛救護車   36 位 消防 同仁 趕到 現場   第一 先緊 急 應變 處置   包括 疏散   安置 或者 是 其他 必要 作為   相關 局處 都 發局   建管處   警察局   區 公所   水處   瓦斯 公司 等等   都 現場   必須 要 盡速 完成 相關 緊急應 變作 為   來確 保人 員 安全   避免 讓 地面 坍塌 損壞 再 持續 擴大   把 整個 損害 降到 最低       蔣萬安 指出   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄         【 中央社 ／ 台北 13 日電 】   北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 公尺   深 3 公尺 坑洞   市府 已 開罰 營造廠   建築師 各 9 萬元   市長 蔣萬安則 下令 後 續 要 清查 所有 工地   避免 類似 情況 再度 發生     台北市 信義區 崇德 街巷 弄 今天下午 約 3 時 突然 出現 一個 長 15 公尺   寬 3 公尺   深度 3 公尺 坑洞   下午 5 時 22 分 又 再度 塌陷   道路 緊鄰 新建 工地 當時 正在 施作 連續 壁 工程   市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶     台北市 工務局 長 黃 一平   都 發局 長 王玉芬 皆 下午 4 時許 到場 了解 狀況   副 市長 李 四川 則在 晚間 6 時 抵達 現場   市長 蔣萬安約 晚間 6 時 30 分現 身     蔣萬安 聽取 報告 後 接受 媒體 聯訪 表示   消防局 下午 3 時許 獲報 地層下陷 後   共 出動 13 輛 消防 車   2 輛救護車 36 名 消防 員   消防局 長 莫懷祖 到場 坐鎮     蔣萬安說   第一件 事是 趕快 緊急 應變 處置   確 保人 員 都 安全   並 排除 事發 原因   避免 坍塌 再度 擴大   建築 工地 已 被 勒令停工     他 指出   接下 來會 就 這次 事件 完整 調查   全面 檢視 建築 工地 及營造 商紀錄   等 狀況 控制 住 後   會 清查 台北市 所有 工地   尤其 是 新建 工程 工地   避免 類似 情況 再度 發生     至於 需要 多久 處理 時間   蔣萬安說   目前 正積極 努力 中   同時 評估 要 不要 預防性 疏散   因為 市民 安全 最 重要   現場 關心 約 半小時 後   蔣萬安 晚間 6 時 50 分離開     台北市 結構 技師 公會 理事 長 徐茂卿 指出   因為 巷弄 旁邊 建案 地下 層連續 壁 破洞   導致 道路 塌陷   所以 緊急 撤離 周遭 住戶 後   在建 築 工地 灌水   道路 灌漿   讓 兩邊 土壓 平衡     現在 搶 救   原因 之後再 來 探討       台北市 建管處 表示   此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷   將依建築法 第 89 條開罰 承造 人   營造廠     監造 人   建築師   各新 台幣 9 萬元   信義區 公所 表示   安置 需求者 每人每天 可申 請 新 台幣 1600 元 補助   最多 7 天       台北市 信義區 崇德 街巷 弄 道路 13 日驚傳 塌陷   警消 獲報 到場 疏散 鄰近 住戶   目前 無人 傷亡   但 現場 坍塌 似有 擴大 趨勢   傍晚 5 時許 現場 再度 塌陷   一旁 工地 藍色 帳棚 等 遭 波及 傾倒   中央社 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   圖 ／ 消防局 提供']</t>
+          <t>['〔 為 防治 地層下陷 行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 里 半範圍 農民種 植 低耗 水 作物 節水 獎勵 即種 植轉作 作物 每頃 給予 3 萬元種 綠肥 4 萬 2000 元種 景觀 作物 5 萬 2000 元鑑 雲林 高鐵 沿線 地層下陷 嚴重 避免 響到 高鐵行車 安全 中央 相關 部會 雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作 其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物 減少 地下水 抽取 量 縣府 農業 處 指出 農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 里 範圍 節水 獎勵 給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 產獎 勵效 減少 地下水 抽取 地層下陷 明顯 減緩 農業 處 表示 獎勵 措施 至 2020 年 截止 去年 今年 沒辦理 統計 發現 高鐵 沿線 第一期 作種 稻面積 又 恢 復 為 避免 地層下陷 再 惡化 縣府 向 中央 爭取 持續 辦理節 水獎 勵經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵 農業 處 說 這次 行政院 核定 針對 雲林 虎尾 土庫 元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 里 農地 獎勵 措施 比照 「 綠色 環境 給付 計畫 」 中水 資源 競用 區大區 輪作 節水 獎勵 額度 歡迎 符合 申辦 資格 農民 踴躍 配合 相關 資訊 可 洽詢 縣府 農業 處', '〔 根據 水利 署 監測 資料 全國 最大 米 鄉 — 大埤鄉 近 5 年 地層下陷 面積 深度 惡化 情況 分析 原因 極端 氣候 水情 不穩 地下水 用量 增對 此 縣府 爭取 農業部 農田 水利 署將 大埤 納入 擴大溉 灌 服務範圍 可 從 北港溪 引水 高灘 地 建置 蓄水池 再 新建 管路 供農田 灌溉 用 經費 約 3.3 億元 縣府 水利 處 指出 水利 署 2023 雲林 地層下陷 監測 結果 顯示 雲林 顯著 下陷 面積 247.7 平方里 比 前年 2022 年略增 一些 顯著 下陷 重點 地區 土庫 元長 地下水位 仍持續 下陷 形 水利 處長 許 宏博 表示 整體 監測 結果 可 看出 雲林 沿海 地層下陷 趨緩 顯著 下陷 主要 虎尾 土庫 元長 北港 四湖 褒忠 水林 崙背 大埤 值得注意 大埤鄉 下陷 面積 深度 近 5 年 惡化 現象許 宏博 指出 大埤 全國 水稻 種植 面積 最多 鄉鎮 但 因位 處 農田 水利 事業 區域 灌溉 系統 末端 或區 外 包括 北鎮 西鎮 怡然 等 村若要 一年 兩作 無水 可 灌溉 一定 要 抽 地下水 使用 水稻 面積 不變 用水量 都 固定 情況 下 地層下陷 應 不致 惡化 主要 變數 就 水情 尤其 這幾年 極端 氣候 2021 遇 百年 大旱 2023 去年 又 遇 200 年 大旱 這 2 次 地下水 抽得 多 去年 枯水期 地下水位 洩降 大埤 達 15 最嚴 重許 宏博 說 目前 大埤 農民 灌溉 情況 3 種 第一 種引 地面水 即區 排 第二 種抽 地下水 由 幾個 農民 共同 一個 井 再 分擔 電費 第三 種抽 北港溪 水為 減緩 大埤 地層下陷 持續 惡化 縣府 早已 建議 列為 優 防治 地針 對 大埤 取水 灌溉 進行 初步 規劃構 想 考量 北港溪 尚水權 可 申請 即 從 北港溪 引 地面水 到 高灘 地 蓄水池 供給 農田 灌溉 使用', '經濟部 水利 署 監測 雲林縣 地層下陷 去年 雲林 顯著 下陷 面積 247.7 平方里 較 前年 略 增全 台面 積 最大 稻作 鄉鎮 大埤鄉 因 部分 地區 非 灌區 僅能 抽取 地下水 近年 下陷 面積 逐漸 擴大縣 府 提出 大埤鄉 非灌區 灌溉 水源 改善 工程 提報 中央 爭取 專案 經費 並建請 農田 水利 署將 該區 納入 擴大 灌溉 服務範圍 根據 水利 署 監測 資料 顯示 雲林縣 去年 顯著 下陷 面積 為 247.7 平方里 較 前年 239.5 里 增加 年 下陷 速度 約 7 分 土庫 元長 水位 仍持續 下降 趨勢 枯水期 間 各 監測 站 地下水位 最大 洩降 約 4 至 15 其中 又 以 大埤 監測 站 洩降 15 最嚴 重為 雲林縣 近年 地層下陷 顯著 農業 重點 鄉鎮 縣府 水利 處長 許 宏博 表示 過去 雲林縣 地層下陷 以高鐵 沿線 虎尾 土庫 元長 北港 較 為 嚴重 但 近年 大埤鄉 地層下陷 惡化 趨勢 主因 為 大埤鄉 為 全台 稻作 面積 最 大鄉 鎮種 植面積 逾 5 千頃 但 部分 地區 非 灌區 需仰賴 地表水 或 抽取 地下水 灌溉 導致 近 5 年 地層下陷 面積 深度 都 惡化 為 改善 地層下陷 縣府 已針 對 該 區域 取水 灌溉 進行 初步 規畫擬 北港溪 高灘 地 設置 調蓄 池臨 時性 滯水 設施 透過 貯蓄 北港溪 水源 新建 給 水管路 供給 非 灌區 農田 使用 經費 約 3.32 億元將 向 中央 提報 並建議 農業部 農田 水利 署 擴大非 灌區 灌溉 服務範圍 雲林縣 長 張麗善 說 極端 氣候 越來 越 嚴峻 地面水 資源 無法 支持 產業 所 需農田 水利 署 如 未能 綜合 考量 水資源 供 應量 農民因 耕作 計所 需勢 必尋求 抽取 地下水 因應 導致 地層下陷 問題 對 於 行經 高鐵行車 安全 亦 可能 造成 嚴重 威脅許 宏博 表示 針對 高鐵 沿線 虎尾 土庫 元長 北港 四鄉鎮 地區 縣府 將持續 加強 查察 水井 用水 情形 並檢討 與 研議 增設 調蓄 設施 增供 地表水 以 限制 溉 地下水 抽取 自來 水可到 達 水井 將 逐年 核減 水權 以 減少 地下水 抽取 造成 地層下陷 雲林縣 大埤鄉 為 全 台面 積 最大 稻作 鄉鎮 因 部分 地區 非 灌區 僅能 抽取 地下水 近年 地層下陷 面積 逐漸 擴大陳雅玲']</t>
         </is>
       </c>
     </row>
@@ -511,21 +511,21 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1_基泰_建設_大直_政治</t>
+          <t>1_溫泉_浴室_水井_申報</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['基泰', '建設', '大直', '政治', '安置', '獻金', '全部', '北市', '台北市', '四川']</t>
+          <t>['溫泉', '浴室', '水井', '申報', '泳池', '發現', '萬里區', '納管', '技師', '地層下陷']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['大直 民宅 傾斜案 引發 全台 關注   疑因 附近 基泰 建設 開 挖 工地 導致 地層下陷   使得 197 戶   367 名住 戶 緊急 疏散   而今   8   國民黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金   對此   王鴻薇 下午 受訪   強調 並非 收受 政治 獻金 就 不能 監督   透露 來 自 基泰 政治 獻金 是 一位 從 媒體界 轉從商 前輩 捐贈   針對 被 指 收取 基泰 建設 政治 獻金 部分   王鴻薇 今 受訪 表示   這件 事情 民進 黨 以 為 自己 撿 到 槍   但是 迴 力 鏢 馬上 就 回到 自己 身上   民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金   想 請問 一下   這 是否是 綠營 想 再次 示範   綠能 不能   雙標   王鴻薇 指出   上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能 公司 政治 獻金 是 雙標   但 認為 不是 收 政治 獻金 就 不能 監督   至於 昨被 質疑 現場 笑嘻嘻   王鴻薇則 解釋   看 全部 直播 就 會 知道   是 跟 大家 報告 現場 安置 狀況   但 被 截圖 做文章   認為 這是 綠營 側翼 一貫 手法   王鴻薇 表示 要 特別 提 2 件 事   第一 是 基泰 建設 全部 北市 工地 都 該 停工   不然 其他 地區 里 長 是 很 擔心   第二 是 為 了 慎防 基泰 脫產   今 早 建議 市政府   代位 求償     此外 得知 居民 準備 組成 自救 會   承諾 一定 會 全力 協助   最 重要 是   補償 一定 要 落實   而 不是 基泰 口頭 上 說 說 而已   再 被 問及 政治 獻金 部分   王鴻薇則 透露   基泰 董事 長   總經理 真的 都 不 認識   但是 回頭 去 查 了 一下   是 一位 媒體 前輩去 做生意   確實 議員 選舉 以及 立委 補選時 政治 捐獻   而 由 於 捐 錢個 人要 提供 個 人 身分 證字號 公司 要 提供 公司地址 等   公司 部分 要 查詢 是否 虧損   虧損 就要 退款   不然 會 被 沒收 等等   而 這兩筆 政治 獻金 就 來 自媒體 前輩   是 以 基泰 建設 為 名 捐獻   至於 外界 質疑   王鴻薇 監督 了 許多 全國 各地 之建設   但是 這次 大直 民宅 不僅 選區   鄰近 以前 蔣萬安 選區   為 何會 當選 這 8 個 月 以來 都 沒 有人 溝通   王鴻薇 表示   昨天 發生 事情 後   立刻 跟 團隊 確認   確實 是 沒 接獲 選民 或 議員陳情   這 方面 他們 要 努力 空間還 很多   會勤 走 基層   聽 更 多 聲音   稱 很 遺憾   選民 這幾個 月 這樣 困擾   對民代來講   該 努力 就 應該 繼續 去 努力  ', '基泰 建設 新建 案   基泰 大直   因 施工 不慎 釀嚴重 公安 意外   台北市 都 發局 長 王玉芬 今日 受訪   說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫   公開 基泰 大直 連續 壁廠 商為   齊崴 營造     至於 本刊 揭監測 報告 早就 顯示   已 超出 警戒 值     王則 稱 沒 看過 這份 監測 報告   後 續會 要求 建商 提供   本刊 今   11 日   獨家 揭露   基泰 建設委 託 儀大 工程 顧問 公司   提供 北市 都 發局 7 月 26 日 監測 報告 顯示   坍塌 前 44 天 監測 報告 結論 說 明一欄 中 已 明確 指出     部分 監測 儀器 已 超出 警戒 值     然而 基泰 建設 卻 未 積極 處理   9 月 照常 大規 模開 挖   最終 釀成 這起 嚴峻 公安 事故   對此   王玉芬 回應   昨   10 日   才 收到 建商 提供 8   9 月 監測 報告   7 月 尚未 收到   已 要求 建商 提供 完整 監測 資料   並請 專業 技師 公會 判讀   如有 發現 任何 違失   會將 技師   建築師 等 相關 人員 移送 懲戒   媒體 追問   判讀 需要 多少 時間   王玉芬 回應   由 於 資料 應該 很多   但會用 最快 時間 得出 結論   除 25 戶重 災戶 外   其他 居民 可 返家 住   但 居民 因 安全 疑慮僅 38 戶 返回   王玉芬 稱   近期 會 召開 說 明會   由技師 公會 對 所有 疑慮 住 戶 說 明檢測 結果   以 解除 住戶 疑慮   而 這次 共 撤離 236 戶民眾   除 25 戶 以外 撤離戶   每戶 家中 是否 有裂 縫 需要 補強   會 由 技師 逐步 去 勘檢   逐戶 記錄 去 修繕     我們 沒 有所 謂 強迫 住戶 入住 南港 社宅   這都 是 讓 住戶 可以 自己 選擇     王玉芬 指出   北市 府將 於 週三   13 日   召說 明會   說 明長 期 安置 3 個 方案   包含 南港 國宅備 妥 25 戶   內有 家具   冷氣   冰箱 等   若想 住 附近   會持續 提供 安置 旅館   最後民眾 可 自由 選擇 居住地   1 坪 補貼 1   600 元 租金   此外   王玉芬 指出   今日 已 啟動 4 大技師 公會 對 184 處開 挖 工地 進行 嚴格 檢查   第二 波是 針對 地下室 有開 挖導溝   連續 壁 工程 檢查   另 對 所有 工地 加強 加強 頻率 檢查   預計 每月 1 次   地下室 開挖 會 增加 檢查 頻率   而 鄰損 規則   SOP 結構 外審 規定 會 一個 整體 檢視   即刻 啟動 修法   王玉芬 強調   未來 只要 建設 公司   營造 廠 或 分包 廠商   相關 技師   工地 涉及 公安 跟 鄰損   嚴重 時 就 會 全部 公開 資訊   包括 下 包廠 商   而 今日 公布   基泰 大直   下 包連續 壁廠 商為   齊崴 營造       一個 都 不要 跑掉   讓 大家 可以 避開 雷區    ', '台北市 中山 大直 街 94 巷 周邊 民宅 嚴重 塌陷   市長 蔣萬安強 調   會 徹底 調查 建管處 處理 過程 是否 違失     絕不寬貸   護短     同時 會 檢視 基泰 建設 台北市 建案   不合 規定 就 會 勒令停工   北市 府 成立 律師團 協助 住 戶後續 追償   蔣萬安今   8 日   接受 資深 媒體 人 黃 光芹 主持 節目 專訪   坦言 建管處 4   5 月 收到 住戶 書面 申訴 牆壁 龜裂   獲報 後 派員 了解   當時 認為 與 基泰 建設 開 挖 無 直接 相關   而 當時 仍施 作連續 壁   直至 7 月 24 日才 開 挖   至於 大直 災民 安置 問題   蔣萬安 表示   會 找 時間 了解 住戶 需求   昨   7 日   就 成立 群組   包含 民政局   社會局   衛生局 等 局處   需要 領藥 開綠色 通道 至 台北市 聯合 醫院   後 續 會 協助 住戶 追究 責任   求償   至於 市議員陳怡 君質疑   住戶僅 被 安置 1 天   蔣萬安否 認   目前 安置 到 11 日   即刻 請觀 傳局 了解   協調 旅宿業者   以 降低 大家 搬動   當然 住戶 不想 住 那麼 長   只要 確認 安全 無虞   就 會 讓 住戶 回去   蔣萬安強 調   將 重新 檢視   調查 事情 原委   包含 住戶 起初 提出 申訴   建管處 判斷 過程 是否 違失 或 違法   才 導致 今天 狀況     絕不寬貸   絕不護 短     若 發現 是 機制   SOP 出 了 問題 就 會 修正   蔣萬安 提及   台北 30 年 以上 老舊 建物 超過 7 成   危老 都 更案 經常 緊臨 老房子   現在 危老 都 更 都 會 較 過往 開 挖 來 深   基泰 大直 就 開 挖 到 地下 3 層   故會 要求 建管處 增加 查核 頻率   尤其 地下 深開 挖 部分 要 確保 施工 安全   黃 光芹 詢問   是否 可能 要求 任何 局處 首長 下台 或 撤 職來 負責   蔣萬安 回應   只要 徹底 調查 發現 任何 違法 情事   或 發現 當時 處理 不當   表態   該換 就換   這沒有 疑問     強調 重新 檢視 後   需要 撤換 就 撤換     至於 基泰 建設 台北 尚有 4 個 建案 是否 會 要求 全面 停工   蔣萬安 回應   會 全面 檢視 基泰 建設 台北市 所有 建案   包含 今日 已 派員去 基泰 建設 勞檢   會 檢視 相關 施工 是否 合乎 規定   若未 依規 就 會 依法 勒令停工   蔣萬安稱   北市 府 已 成立 跨局 處 一站式 聯合 服務 中心   成立 律師團 協助 住 戶後續 求償   他 下午 再度 前往 視察時   重申 要 重檢視 北市 建物   而 北市 府 會 向 建商 與 施工 廠商 追究 到底   蔣萬安 撂 狠話     建商 要負 全面 責任   否則 未來 台北市   很 抱歉   不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子     而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工  ']</t>
+          <t>['萬里區 所以 訊息 說明 萬里區 加投 溫泉 共 浴室 於 日據 時代 建造 歷史 悠久 屬 於 海底 溫泉 為 當地 居民 從小到 大泡 湯空間區 所 表示 因 2 月底 民眾 反應 浴室 燈管 溫度 顯示器 不亮 等 問題 於 委 託 廠商 勘查 後 發現 疑似 地層下陷 現象 為 確保 泡湯 安全 已 封閉 浴室 區長 黃 雱 勉 表示 為 瞭解 確切 原因 找出 效 改善 方法 將邀 請 專業 技師 進行 檢查 評估 以商 討後續 改善 辦法 期望 安全 前提 下 儘 早 恢 復 提供 民眾 泡 湯空間 提醒 民眾 封閉 期間 勿 擅自 進入 使用 以維護 自身 安全 萬里區 所 主任 秘書 許明富 向 中央社 表示 當地過 去 地層下陷 並 完成 改善 多年 未響 溫泉 供給 溫度 加投 溫泉 共 浴室 經找 技師 以 透地雷達 探測 後 男女 湯室 地下 發現 土壤 流失 現象 未來將 進行 修繕 改善 並確 認無 危險 之 虞 才 會 再行 開放 供民眾 使用 編輯 林恕暉 1130326', '〔 日治 時代 建造 新北市 萬里區 加投 溫泉 共 浴室 提供 大眾 免費 泡 湯不僅 受到 當地民眾 喜愛就連 基隆 人 慕名 前來 日前 發現 疑似 地層下陷 萬里區 所 立即 封閉 浴室 並邀 請 專業 技師 與 工程 廠商 勘查 將於 完成 改善 並確 認沒 危險 才 會 重新 開放 新北市 議員 周雅玲 表示 接獲 當地民眾 反映 加投 溫泉 共 浴室 屋頂 漏水 排水 不良 牆面 出現 裂縫 廠商 會勘 後 懷疑 地層下陷 為確 保民 眾 安全 三月 四日 起封閉 浴室 經技師 以 透地雷達 探測 男女 湯室 地底下 發現 土壤 流失 現象 周雅玲 指出 萬里加投 溫泉 共 浴室 十多年 前 曾 經修繕 當時 出動 透地雷達 探測 這次 發現 問題 較 嚴 重建 議邀 請 土木 技師 參 與 會勘 經濟 發展局 水利局 應針 對 附近 溫泉 業開發 予以 總量 管制 以利 共 浴室 永續 發展 萬里區 長 黃 雱 勉 表示 加投 溫泉 共 浴室 經專業 技師 檢視 發現 下陷 致建築物 傾斜 情形 所將 再 請 土木 技師會 等 專家 進行 檢查 評估 期望 確保 安全 前提 下 儘 早 恢 復 民 眾 泡 湯 空 間', '〔 日治 時代 建造 新北市 萬里區 加投 溫泉 共 浴室 因 係 屬免 費泡湯 不但 金山 萬里 當地民眾 喜愛就連 基隆 人 搭車 專程 前來 免費 泡 湯因 日前 發現 疑似 地層下陷 萬里區 所 立即 封閉 浴室 並邀 請 專業 技師 與 工程 廠商 勘查 將於 完成 改善 並確 認無 危險 才 會 再行 開放 新北市 議員 周雅玲 表示 接獲 當地民眾 反映 加投 溫泉 共 浴室 屋頂 漏水 排水 不良 牆裂 縫 等 事宜 廠商 到場 會勘 後 發現 懷疑 地層下陷 為確 保民 眾泡湯 安全 自 3 月 4 日起 封閉 浴室 經技師 以 透地雷達 探測 後 男女 湯室 地底下 土壤 流失 現象 所 再度 發起現 勘商 討後續 改善 辦法 周雅玲 指出 萬里加投 溫泉 共 浴室 10 多年 前 曾 經修繕 當時 就 曾經 出動 透地雷達 探測 這次 透地雷達 探測 與 當年 比較 發現 問題 較 為 嚴 重建 議 應該 邀請 土木 技師 一 併 會勘 包含 溫泉 主管 機關 經濟 發展局 水利局 邀請 來 對 於 周邊 溫泉 開發應 予以 總量 管制 以免 加投 溫泉 共 浴室 慘遭 池魚 之殃 萬里區 區長 黃 雱 勉 表示 加投 溫泉 共 浴室 經專業 技師 檢視 發現 下陷 致建築物 傾斜 情形 為 瞭解 確切 原因 找出 效 改善 方法 所將 再 請 新北市 土木 技師會 等 相關 專家 進行 專業 檢查 評估 期望 確保 安全 無虞 前提 下 儘 早 恢 復 提供 民眾 泡 湯空間 呼籲加 投 溫泉 共 浴室 封閉 期間 民眾 切勿 擅 闖 翻越 圍籬 進入 使用 以維護 自身 安全']</t>
         </is>
       </c>
     </row>
@@ -534,21 +534,21 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2_地下水_雲林_獎勵_沿線</t>
+          <t>2_高鐵_下陷_施工_路段</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['地下水', '雲林', '獎勵', '沿線', '地層下陷', '農業', '農民', '作物', '節水', '高鐵']</t>
+          <t>['高鐵', '下陷', '施工', '路段', '雲林', '改善', '變量', '土庫', '土庫鎮', '雲林縣']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['雲林縣 高鐵 沿線 區域 近年 來 因為 地層下陷 嚴重   恐影響 高鐵行車 安全   農委會 從 2013 年 祭 出節 水獎勵 鼓勵 稻農 轉作   但 卻 從 去年 暫停 獎助   雲縣 府 為 了 鼓勵 稻農 轉作 減少 抽取 地下水   持續 向 中央 爭取 獲得 核定 復 辦   將在明   2023   年 起 恢 復 實施 節水 獎勵 措施   雲林 高鐵 沿線 地區 是 地層下陷 嚴重 區域   其中 雲林 土庫 段 一年 下陷 6.5 公分 最 嚴重   恐 危及 高鐵 安全   農委會 2013 年針 對雲縣 虎尾   土庫   元長 北港 高鐵 沿線 左右 1.5 公里   提出 節水 獎勵 鼓勵 稻農 轉作   但 卻 去年 暫停 辦理   雲林 農民 表示     只要 不是 種 水稻 類   其實 它 吸 水量 會 真的 會差 很多   這是 實在 話   雲林 這邊 就是 水稻 需求   地下水 需求量 是 最 多     為 了 鼓勵 高鐵 沿線 農民能 一期 稻 休耕 或 轉作 低耗 水性 作物   雲縣 府 持續 向 中央 爭取 復 辦獎勵 補助 近期 通過 核定   除了 領取 綠色 獎勵 金外   還能 領轉 作金 3 萬元 或 生產 環境 維護金 4 萬 2 至 5 萬 2 不 等   雲林縣 農業 處 副 處長 蔡耿宇 指出     高鐵 沿線 周邊 1.5 公里 它針 對 綠肥 部分   原本 是 大概 每公頃   補助   4 萬 5   這次會 加碼   如果 一期 作去 推動 話 可以 加碼 4 萬 2000 元   所以 一公頃 可以 領到 8 萬 7000 元     雲林 農民 指出     成本 還有 包括 肥料   噴灑 農藥 至少 都 要 花 2 萬元 成本 超過     當地 農民 表示   面對 近期 人工   肥料 成本 提高   若 獎勵 補助 增加 會 讓 農民 提高 轉作 意願   而 農業 處 說   縣內 高鐵 沿線 四鄉鎮 農地 大約 4 千公頃   希望 能 透過 推動 農地 轉旱 作物 獎勵   3 年 達 到 稻作 1700 公頃 轉出 目標  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 防治 高鐵 沿線 地層下陷   行政院 同意 明年 一期 作恢 復 雲林 高鐵 沿線 左右 一 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 三萬元   種綠肥 四萬 二千元   種景觀 作物 五萬 二千元     雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   農業 方面 輔導 沿線 種植 水稻 農民 轉作 高粱   大豆 等 低耗 水 作物   減少 地下水 抽取 量     縣府 農業 處 表示   為 鼓勵 農民 農委會 二 一 三年 推出 節水 獎勵   針對 雲林 高鐵 沿線 三 公里 範圍 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵     農業 處 指出   獎勵 計畫 二 一 三年 至 二 二 年期 間   地下水 抽取 減少   地層下陷 明顯 減緩   獎勵 計畫 截止 後   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 一 公里 半內 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合  ', '〔 記者黃淑莉 ／ 雲林 報導 〕 為 防治 地層下陷   行政院 同意 明年 一期 作恢 復 高鐵 沿線 左右 1.5 公里 半範圍 農民種 植 低耗 水 作物 節水 獎勵   即種 植轉作 作物 每公頃 給予 3 萬元   種綠肥 4 萬 2000 元   種景觀 作物 5 萬 2000 元     有鑑 雲林 高鐵 沿線 地層下陷 嚴重   避免 影響 到 高鐵行車 安全   中央 相關 部會   雲林縣 府 近 幾年 積極 推動 地層下陷 防治 工作   其中 農業 方面 輔導 沿線 種植 水稻 農民 轉作 其他 節水 作物   減少 地下水 抽取 量     縣府 農業 處 指出   農委會 2013 年 至 2020 年 辦理 雲林 高鐵 沿線 3 公里 範圍 內節 水獎勵   給予 轉作 低耗 水 作物 或 運用 科技 節水 農業 生產者 獎勵   有效 減少 地下水 抽取   地層下陷 明顯 減緩     農業 處 表示   獎勵 措施 至 2020 年 截止   去年 今年 沒有 辦理   統計 發現   高鐵 沿線 第一期 作種 稻面積 又 恢 復   為 避免 地層下陷 再 惡化   縣府 向 中央 爭取 持續 辦理節 水獎勵   經 行政院 審查 核定 明年 2023 年 第一期 作恢 復 節水 獎勵     農業 處 說   這次 行政院 核定 是 針對 雲林 虎尾   土庫   元長 北港 等 四鄉 鎮高鐵 沿線 左右 1.5 公里 農地   獎勵 措施 比照   綠色 環境 給付 計畫   中水 資源 競用 區大區 輪作 節水 獎勵 額度   歡迎 符合 申辦 資格 農民 踴躍 配合   相關 資訊 可 洽詢 縣府 農業 處  ']</t>
+          <t>['雲林縣 土庫鎮 高鐵 沿線 列屬 地層下陷 管制 區高鐵 下方 雲 158 甲 通往 雲 97 線道 雖 只 短短 約 500 但車 流大 路面 受損 累累 雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准 將以 不響 高鐵 地基 安全 低 強度 高流動 建材 施工 預定 近期 封路 動工 10 月 完工 高鐵 雲林縣 土庫 段 受 地層下陷 響過 去 以 每年 約 6.5 分 沈陷 量 下陷 為維護 高鐵 安全 多年 前 曾 下陷區 動工將 橫跨 高鐵台 78 線 快速道路 原為 土方 高架 改以 輕質 建材 重新 施工 進行 「 減重 」 此外 高鐵 沿線禁 抽 地下水 推廣 旱作 廣闢 黃 金 廊道 才 使 高鐵 雲林 段 沈陷 獲得 紓 緩位 於 土庫 高鐵 下方 連接 雲 158 甲 雲 97 線路 高鐵道 雖僅 短短 約 500 卻 管制 區 唯一 高鐵 通道 土庫鎮 長 陳 特凱 說 高鐵道 開通 多年 車流 大 卻 未曾 修繕 路面 凹陷 破損 累累 響行車 安全 居民 陳 情 希望 改善 雲林縣 長 張麗善 今天 會 同工 務處 縣議員 王鈺齊 張維心 等 人現 勘 張麗善 說 道 位 於 高鐵 管制 區 不能 任意 挖掘 施工 因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕 預定 今年 9 月 動工 10 月 完工 提供 平整 安全 道路 屆 時將 封路 約 50 天請 車輛 繞 道 工務 處長 汪令堯 指出 高鐵下 道路 屬 鐵路 禁限建範 圍須 依 「 鐵路 兩側 禁建限建 辦法 」 規定 辦理 未來 將以 390 萬元 對 高鐵下 寬 4.7 兩側 道 共 修繕 約 630 採 「 低 強度 高流動 」 混凝土 施工 法 打造 路基 更加 穩固 縣府 表示 為維護 高鐵道 承載 安全 路口 設限重 10 噸 以下 車輛 通行 但 地方 反映 長 期來 仍 不少 大型 車為 求方 直接 通行 才 使 道路 面受 損將會 請 警方 加強 取締 隨後縣 長 張麗善 一行 人 再 轉往 土庫 崙 雲 101 雲 98 道路 西螺鎮 九隆 里 農路 等 會勘 改善 工程 雲林縣 長 張麗善 一行 人 再 轉往 土庫 崙 等 地 會勘 多條 道路 工程 蔡維斌 高鐵 雲林 土庫 段位 於 地層下陷 管制 區高鐵下 唯一 道破 損 累累 經縣 府 向 高鐵局 專案 申請 後 近期 將 封路 動工 修路 蔡維斌', '台灣 高鐵司 從民國 92 年 至今 委 託 學術 單位 持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測並 提報 交通部 鐵道局 日前 布 2023 年 監測 報告 根據 最新 報告 高鐵 彰化 雲林 路段 下陷 持續 高鐵路 線 最大 累積 下陷 量 已 達 到 114.2 分位 於 雲林縣 土庫鎮 台 78 線 與 高鐵 交界 處墩 柱 但 自 103 年 進行 改善 工程 後 目標 範圍 墩柱 差異 沉陷 量 呈 逐年 降低 趨勢 監測 報告 顯示 2023 年 高鐵 彰化 雲林 共 8 處 路段 下陷 量 從 2.6 分 彰化 溪洲 到 5.4 分 雲林縣 土庫鎮 與 元長鄉 交界 都 比 2022 年 增加 嘉義 不但 未 再 下陷 還連續 2 年 回脹 但 2023 年 回脹量 比 2022 年少 鐵道局 說 較 值得 關注 高鐵 下陷 路段 包括 彰化 溪州 高鐵 與 中山 高跨 交高鐵 雲林 車站 區高鐵 跨 雲 158 縣道 高鐵 跨台 78 號 快速道路 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 皆 許範圍 連續 梁為 11500 簡支梁 11000 高鐵 結構 安全 無虞鐵道 局說 高鐵 零星 數處 累積角 變量 逾 許範圍 橋墩 結構 型式 皆 為 簡支梁 台灣 高鐵 已納入 定期 軌道 巡檢 土建 設施 維護 計畫 持續 密切 關注 並依角 變量 變化 速率 按風險 等級 高低 採取 相應 加密 監測 頻率 並已備 妥 軌道 調整 預防性 結構 補強 方案 根據 監測 報告 目前 高鐵累 積角 變量 過標 準值 橋墩 反而 位 沉陷 改善 嘉義 路段 位 朴子溪 河 中 目前 簡支 梁累 積角 變量 達 1.961000 而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.3951000 雖 仍 許值 範圍 但 已 從 2020 年 起 逐年 增加', '中央社 汪淑芬 台北 29 日電 根據 鐵道 局新布 台灣 高鐵路 段 下陷 監測 報告 彰化 雲林 下陷 持續 累積 下陷 量 最大 雲林 114.2 分鐵道 局 表示 高鐵墩 柱角 變量 都 許範圍 結構 安全 無虞 高鐵路 線通過 彰化 雲林 嘉義 主要 地層下陷區 台灣 高鐵司 從民國 92 年 至今 委 託 學術 單位 持續 每年 定期 針對 高鐵 沿線 結構 墩 柱 下陷 進行 監測並 提報 交通部 鐵道局 日前 布 112 年 監測 報告 根據 最新 報告 高鐵路 線 最大 累積 下陷 量 已 達 到 114.2 分其位 於 雲林縣 土庫鎮 台 78 線 與 高鐵 交界 處墩 柱 但 自 103 年 進行 改善 工程 後 目標 範圍 墩柱 差異 沉陷 量 呈 逐年 降低 趨勢 監測 報告 顯示 112 年 高鐵 彰化 雲林 共 8 處 路段 下陷 量 從 2.6 分 彰化縣 溪州鄉 到 5.4 分 雲林縣 土庫鎮 與 元長鄉 交界 都 比 111 年 增加 嘉義 不但 未 再 下陷 還連續 2 年 回脹 但 112 年 回脹量 比 111 年少 鐵道局 指出 較 值得 關注 高鐵 下陷 路段 包括 彰化 溪州 高鐵 與 中山 高 跨交段 高鐵 雲林 車站 區高鐵 跨 雲 158 縣道 高鐵 跨台 78 號 快速道路 與 高鐵行車 安全 關橋 墩間 差異 沉陷 所累 積角 變量 目前 都 仍 許範圍 連續 梁為 11500 簡支梁 11000 高鐵 結構 安全 無虞鐵道 局 指出 高鐵 零星 數處 累積角 變量 逾 許範圍 橋墩 結構 型式 皆 為 簡支梁 台灣 高鐵 已納入 定期 軌道 巡檢 土建 設施 維護 計畫 持續 密切 關注 並依角 變量 變化 速率 按風險 等級 高低 採取 相應 加密 監測 頻率 並已備 妥 軌道 調整 預防性 結構 補強 方案 根據 監測 報告 目前 高鐵累 積角 變量 超過 標準 值橋 墩 反而 沉陷 改善 嘉義 路段 位 於 朴子溪 河 中 目前 簡支 梁累 積角 變量 達 1.961000 而 朴子溪 北岸 簡支 梁累 積角 變量 為 0.3951000 雖 仍 許值 範圍 但 已 從 109 年 起 逐年 增加 編輯 張雅淨 1130429']</t>
         </is>
       </c>
     </row>
@@ -557,21 +557,21 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3_高鐵_施工_土庫_改善</t>
+          <t>3_台北市_信義區_工地_崇德街</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['高鐵', '施工', '土庫', '改善', '捷運局', '新北', '修繕', '路面', '高鐵局', '萬大線']</t>
+          <t>['台北市', '信義區', '工地', '崇德街', '疏散', '消防局', '天坑', '新建', '緊急', '住戶']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['〔 記者 詹士弘 ／ 雲林 報導 〕 全國 最 嚴重 高鐵 地層下陷區 雲林 土庫 石廟 里   位 於 土庫 國中 附近 高鐵橋 下 道   路面 龜裂   坑坑洞洞   路況 極差   但 因 工程 涉及 鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   日前 終獲 高鐵局 同意   預計以 50 個 日 曆 天 完成 改善     土庫 鎮鎮長 陳 特凱 表示   石廟 里 高鐵橋 下 道路   經長 年 使用   平時車 流量 極大   加上 重車 違規 行駛   造成 路面 凹陷   破損 不堪   導致 居民 行車 時 容易 引發 交通事故   嚴 重影 響行車 安全   所以 向 縣府 反映   希望 能 儘 速 改善     高鐵土庫 段 是 高鐵 沿線 地層下陷 最 嚴重 地方   每年 平均 下陷 6.5 公分   工務 處長 汪令堯 表示   道 位 高鐵 正下方   涉及 鐵路 禁限建   範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   故 改為 專案 發包 方式 辦理   由 於 該 路段 交通量 極大   雖然限 10 噸 以下 車輛 行駛   但 還是 很多 重車 違規   加上 道路 路基 鬆 軟   所以 路況 極差     汪令堯 指出   由 於 道路 位 地層下陷區   加上 原先 就是 農地   土 質 鬆 軟   光重 鋪 路面   一下 大雨   重車 再 輾壓   道路 很快 就 會 再度 損壞   所以 需地質 改良   但 高鐵局 不 同意 用 給配 改善 路基   所以 工務處 改用 低 強度 水泥 替代   終獲 同意     汪令堯 表示   道路 改善 工程 總 預算 390 萬元   預期 改善 道路 長 度 兩側 約 630 公尺   寬 4.7 公尺   預計 9 月 中旬 發包   工期 為 50 日 曆 天   改善 後 可 提 昇 居民 生活 品質   維護用 路 人行 車安   另 他 會 建議 警察局   多派 員取 締重車 違規 行駛   才能 確保 道路 改善 後   以維持 好 行車 品質  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷區   軌道 下方 雲 158 甲線 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   縣府 以 專案 向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   縣長 張麗善 昨天 會勘 後 表示   近期 封路 動工   10 月 完工       土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善   縣府 表示   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映 長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 路面 受損   將請 警方 加強 取締                             昨縣 府 會 同議員現 勘   工務 處長 汪令堯 說   高鐵軌 道 下 寬度 4.7 公尺 兩側 道   將修繕 共約 630 公尺   採低 強度   高流動 混凝土 施工 法   打造 路基 更加 穩固   預算約 390 萬元       張麗善 指出   高鐵下 道路 屬鐵路 禁限 建範圍   道 不能 任意 挖掘 施工   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   屆 時將 封路 約 50 天   請 車輛 繞 道       高鐵土庫 段過 去 以 每年 約 6.5 公分 沉陷 量 下陷   後 來 沿線禁 抽 地下水   推廣 旱作   廣闢 黃 金 廊道   才 較 為 減緩  ', '雲林縣 土庫 鎮高鐵 沿線 列屬 地層下陷 管制 區   高鐵 下方 雲 158 甲 通往 雲 97 線 道   雖 只 短短 約 500 公尺   但車 流大 路面 受損 累累   雲林縣 府 以 專案 經向 高鐵局 申請 修繕 獲准   將以 不 影響 高鐵 地基 安全 低 強度   高流動 建材 施工   預定 近期 封路 動工   10 月 完工       高鐵 雲林縣 土庫 段 受 地層下陷 影響   過去 以 每年 約 6.5 公分 沈陷 量 下陷   為維護 高鐵 安全   多年 前 曾 下陷區 動工將 橫跨 高鐵 台 78 線 快速道路   原為 土方 高架 改以 輕質 建材   重新 施工 進行   減重     此外   高鐵 沿線禁 抽 地下水   推廣 旱作 廣闢 黃 金 廊道   才 使 高鐵 雲林 段 沈陷 獲得 紓 緩                             位 於 土庫 高鐵 下方   連接 雲 158 甲及 雲 97 線 公路 高鐵 道   雖僅 短短 約 500 公尺   卻 是 管制 區內 唯一 高鐵 通道   土庫 鎮長 陳 特凱 說   高鐵 道 開通 多年   車流 大 卻 未曾 修繕   路面 凹陷 破損 累累   影響 行車 安全   居民 陳 情 希望 改善       雲林縣 長 張麗善 今天 會 同工 務處 縣 議員 王鈺齊   張維心 等 人現 勘   張麗善 說   道 位 於 高鐵 管制 區   不能 任意 挖掘 施工   因此 工務處 以 專案 計畫 向 高鐵局 申請 修繕   預定 今年 9 月 動工   10 月 完工   提供 平整 安全 道路   屆 時將 封路 約 50 天   請 車輛 繞 道       工務 處長 汪令堯 指出   高鐵下 道路 屬鐵路 禁限 建範圍   須依   鐵路 兩側 禁建限建 辦法   規定 辦理   未來 將以 390 萬元   對 高鐵下 寬 4.7 公尺 兩側 道 共 修繕 約 630 公尺   採   低 強度   高流動   混凝土 施工 法   打造 路基 更加 穩固       縣府 表示   為維護 高鐵 道 承載 安全   路口 設 有限 重 10 噸 以下 車輛 通行   但 地方 反映   長 期來 仍 不少 大型 車為求 方便 直接 通行   才 使 道路 面受損   將會 請 警方 加強 取締       隨後縣 長 張麗善 一行 人 再 轉往 土庫崙 雲 101   雲 98 道路 西螺 鎮九隆里 農路 等 會勘 改善 工程   雲林縣 長 張麗善 一行 人 再 轉往 土庫崙 等 地   會勘 多條 道路 工程   記者 蔡維斌 ／ 攝影 高鐵 雲林 土庫 段位 於 地層下陷 管制 區   高鐵下 唯一 道破 損 累累   經縣 府 向 高鐵局 專案 申請 後   近期 內將 封路 動工 修路   記者 蔡維斌 ／ 攝影']</t>
+          <t>['台北市 信義區 一處 新建 大樓 工地 旁 巷道 蹋陷 緊急 灌漿 回填 住戶 驚慌 撤離   消防局 於 15 時 13 分獲報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 ( 長 15 寬 3 深度 23 ) 幸無人 受 傷警 消緊 急 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 目前 評估 約 10 餘位 住戶 需要 安置 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 施工 單位 緊急 灌漿 回填 防止 塌陷 區域 擴大   林俊良警 消緊 急 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 目前 評估 約 10 餘位 住戶 需要 安置 林俊良 消防局 於 15 時 13 分獲報 信義區 崇德街 60 巷 22 號前 新建 工地 旁 道路 地層下陷 警消 緊急 疏散 鄰近 住戶 並劃 設 警戒 線 消防局 已 成立 現場 指揮 站 建管處 新工處 道 管 中心 瓦斯 司 北水 處 已 派員 趕 赴 現場 處理 林俊良 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 住戶 心餘悸 驚慌 撤離 到 一旁 安全 區域 林俊良 今天下午 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 警方 疏導 住戶 驚慌 撤離 目前 評估 約 10 餘位 住戶 需要 安置 林俊良 台北市 信義區 一處 新建 大樓 工地 旁 巷道 突然 塌陷 施工 單位 緊急 灌漿 回填 防止 塌陷 區域 擴大   林俊良', '台北市 出現 天坑 今天下午 15 時許 台北市 信義區 崇德街 60 巷 22 號 附近 一處 新建 工地 旁 道路 地層下陷 坑洞 長 15 寬 3 深度 2 到 3 目視 可 看到 機車 自行 車 陷落 坑中 同時 坑洞 波 一旁 民宅 地基 目前 台北市 消防局 已經 疏散 鄰近 住戶 10 多人 並劃 設緊 戒線並 通知 市府 相關 單位 到場 處理 天坑 位 於 新建 工地 民宅 中間 巷弄 道路 塌陷 時 發出 聲響 驚動 住戶 但 因為 坑洞 擋家門 前 第一 時間 無法 脫困 消防局 緊急 到場 以 爬梯 方式 救援 住戶 出來 消防局 救出 2 名 女子 疏散 1 男 1 女人 員 已 全數 疏散 完畢 另外 1 名 85 歲 老婦 因長 期行動 不 雖無外 傷意識 清醒 但家屬 要求 預防性 送 醫由 消防局 送北醫 由 於 天坑 危 安全 響 周遭 至少 五戶 民宅 部分 住戶 無法 回家 估計 10 餘人 受響 將由 台北市 府 處理 安置 問題 台北市 信義區 出現 天坑 目前 市府 新工處 建管處 勞檢處 等 相關 單位 都 已 派 人 到場 現場 設置 指揮 所 初步 懷疑 與 民宅 對面 新建 工地 工程 關現 以 灌漿 方式 緊急 處置 至於 天坑 出現 原因 將 交由 市府 建管 新工 等 單位 調查 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻', '台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 中到 場關 心林伯東 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 台北 市長 蔣 萬安 晚間 前往 現場 蔣 萬安 指出 整個 狀況 控制 住 以後會針 對 台北市 工地 全面 清查 不 這次 事件 類似 情況 再 積極 處理 蔣 萬安 說 第一 時間 消防局 長 就 趕到 現場 共 啟用 13 輛 消防 車 2 輛救護車 36 位 消防 同仁 趕到 現場 第一 緊急 應變 處置 包括 疏散 安置 或 其他 必要 作為 相關 局處 都 發局 建管處 警察局 區所水處 瓦斯 司 等等 都 現場 必須 要 盡速 完成 相關 緊急應 變作 為 來確 保人 員 安全 避免 讓 地面 坍塌 損壞 再 持續 擴大 把 整個 損害 降到 最低 蔣 萬安 指出 工地 部分 市府 馬上 勒令停工 找出 這次 地面 坍塌 原因 盡快 排除 避免 坍塌 面積 持續 擴大 這次 地層下陷 事件 整起 事件 會 完整 調查 並且 就 工地 全面 檢視 以營 造商 相關 紀錄 【 中央社 台北 13 日電 】 北市 信義區 一處 建案 旁 巷弄 今天下午 出現 長 15 深 3 坑洞 市府 已 開罰 營造廠 建築師 各 9 萬元 市長 蔣 萬安 則 下令 後 續 要 清查 所 工地 避免 類似 情況 再度 發 台北市 信義區 崇德街 巷弄 今天下午 約 3 時 突然 出現 一個 長 15 寬 3 深度 3 坑洞 下午 5 時 22 分 又 再度 塌陷 道路 緊鄰 新建 工地 當時 正施 作連續 壁 工程 市府 已 要求 停工 並 疏散 鄰近 16 戶住 戶 台北市 工務局 長 黃 一平 都發局長 王玉芬 皆 下午 4 時許 到場 了解 狀況 副 市長 李 四川 則晚 間 6 時 抵達 現場 市長 蔣 萬安 約 晚間 6 時 30 分現 身 蔣 萬安 聽取 報告 後 接受 媒體 聯訪 表示 消防局 下午 3 時許 獲報 地層下陷 後 共 出動 13 輛 消防 車 2 輛救護車 36 名 消防 員 消防局 長 莫懷祖 到場 坐鎮 蔣 萬安 說 第一件 事 趕快 緊急 應變 處置確 保人 員 都 安全 並 排除 事發 原因 避免 坍塌 再度 擴大建築 工地 已 被 勒令停工 他 指出 接下 來會 就 這次 事件 完整 調查 全面 檢視 建築 工地 營造 商紀錄 等 狀況 控制 住後會 清查 台北市 所 工地 尤其 新建 工程 工地 避免 類似 情況 再度 發 至於 需要 多久 處理 時間 蔣 萬安 說 目前 正積極 努力 中同 時評 估要 不要 預防性 疏散 因為 市民 安全 最 重要 現場 關心 約 半小時 後 蔣 萬安 晚間 6 時 50 分離開 台北市 結構 技師會 理事 長 徐茂卿 指出 因為 巷弄 旁邊 建案 地下 層連續 壁 破洞 導致 道路 塌陷 所以 緊急 撤離 周遭 住 戶後建築 工地 灌水 道路 灌漿 讓 兩邊 土壓 平衡 「 現搶 救 原因 之後再 來 探討 」 台北市 建管處 表示 此 新建 工地 疑似 因施 作連續 壁時 滲水導致 道路 塌陷 將依建築法 第 89 條開罰 承造 人營 造廠 監造 人 建築師 各新 台幣 9 萬元 信義區 所 表示 安置 需求 每人每天 可申 請 新 台幣 1600 元 補助 最多 7 天 台北市 信義區 崇德街 巷弄 道路 13 日驚傳 塌陷 警消 獲報 到場 疏散 鄰近 住戶 目前 無人 傷亡 但 現場 坍塌 似 擴大 趨勢 傍晚 5 時許 現場 再度 塌陷 一旁 工地 藍色 帳棚 等 遭波 傾倒 中央社 台北市 信義區 崇德街 下午 出現 地層下陷 天坑 長 15 寬 3 深度 2 至 3 圖 消防局 提供']</t>
         </is>
       </c>
     </row>
@@ -580,21 +580,21 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4_和平路_20_新竹市_自來</t>
+          <t>4_基地_永凍土_坑洞_要求</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['和平路', '20', '新竹市', '自來', '工地', '某建案', '市府', '道路', '建案', '張裕珍']</t>
+          <t>['基地', '永凍土', '坑洞', '要求', '工地', '居民', '當地', '建案', '灌漿', '灌水']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['新竹市 和平 路竹 慶建設   筑光   建案 工地 下 挖 地下室   未料 前天 發生 基地 旁 道路 下方 自來 水管 線   瓦斯 管線 洩漏   連帶 造成 和平路 20 巷 地層下陷   由 於   天坑   填平 後   今天 又 他 處 塌陷   竹 市府 下午 成立 前進 指揮 所   市長 高虹安 提出 8 點 指示   包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報   確保當 地 安全       和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   前天 竟釀 緊鄰 巷弄 道路 下陷 後   被 市府 勒令停工   不過   因為 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂   市府 今天下午 請來 4 大技師 公會 到場 會勘                             高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所   並 要求 廠商 與 消防局   警察局   都 發處   民政 處   產發處   區 公所 立即 派員進 駐   下午 4 點半   高虹安 會 同 土木 技師 等 四大 專業 技師 公會 民富 里 沈朝 旺里長 聽取 簡報   並 了解 居民 訴求       高虹安 今晚 臉書 發文 說明   針對 此案 已下 達 8 項 指示   包含 責成 消防局   工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 公司 明天 立即 進場 全面 開 挖汰 換成 最新 管線   因無法 同 時汰換 兩種 管線   將 依序 先後汰換 自來 水 與 瓦斯 管線       由 於 傾斜計 監測 數值 逼近 警戒 值   高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置   並即 時 回報   要求 消防局 會同 民政 處   社會處 研擬 若事態 進 一步 擴大時   緊急 撤離 與 安置 措施   並預 準備       明天 開始 於 管線汰換 與 相關 改善 工程 期間   要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用   要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛   竹光 國民運動 中心 免費 開放 居民 盥洗 使用       高虹安 說   確認 改善 完成 前   要求 災害 應變 前進 指揮 所 全天候 開設   隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題   於 管線汰換 與 相關 改善 工程 期間   要求 警察局 做好 周邊 交通管制   確保 對 當地 交通 衝擊 降到 最低       高虹安說   今天 現場 與 當地 居民 溝通 與 聆 聽 心聲   並 一一 記錄   要求 廠商 與 局處 盡 全力 處理   強調 市府 團隊 一定 是 各位 最大 靠山   不僅會 要求 廠商 負起 責任   完成 改善 並經 確認 安全 無虞 之前   不得 進行 除了 安全工程 以外 其他 工程   新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影 新竹 市長 高虹安 今天下午 到 和平路 20 巷 了解 居民 心聲   圖 ／ 竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況   圖 ／ 竹 市府 提供 新竹市 和平 路竹 慶建設   筑光   建案 工地 旁 和平路 20 巷 地層下陷   連日來 都 搶 修處理   記者 張裕珍 ／ 攝影', '新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   還有 自來 水洩漏   瓦斯 異味 飄散 情形   引起 住戶 疑慮   雖然 天坑 處緊 急 回填   但 仍 持續 他 處 下陷   建物 傾斜計 監測 數值 逼近 警戒 值   自來 水 公司 將於 明天 起汰換 上百 公尺 老舊 自來 水塑膠 管線   市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形       新竹市 和平路 該 建案 工地 規畫 地上 14 層   地下 3 層 建物   正在 下 挖 地下 3 層   未料 前天 竟釀 緊鄰 巷弄 道路 下陷   由 於 一旁 住家 距離 建案 基地 只有 3 公尺   將近 40 戶住 戶 相當 擔憂   市府 今天下午 請 來 4 大技師 公會 到場 了解   確認 工地 與 道路 下陷 情形                             據 了解   前天 發生 和平路 20 巷   天坑   事件 後   建商 取得 住戶 同意 20 巷前   中   後 段 設置 建物 傾斜計 監測 傾斜 情形   今天 最新 測得 最大值 每秒 387   已經 接近 每秒 413 警戒 值   由 於 和平路 20 巷 仍 道路 下陷   漏水 情形   今天 緊急 加裝 關水閥 處理       建案 營造 商工 務經理 黃 姓 經理 說   建案 地質 為 砂質 帶土   下 挖 施工 採鑽掘 方式 進行   強度 類似 連續 壁 工法   但蔽 體開 挖 壓力 造成 基地 外側 道路 內部 土壤 位移   加上 巷內 老舊 自來 水管 線 破裂   漏水 導致 土壤 泥沙 流失   進而 造成 地層下陷   水 流入 基地       由 於 和平路 20 巷內 約 3   40 戶 民宅   民富 里里長 沈朝旺 說   住戶 都 擔心 房子 會 塌陷   不要 等到 真正 傾斜 就 來 不及 了   希望 相關 單位 公告 監測 數據   並 加快 自來 水 與 瓦斯 管線汰換   自來 水 公司 明天 將進場 開 挖   汰換 鑄鐵管   盼 建商 同步 處理 好 地基         各項 資訊要 更 透明   讓 住 戶們 安心     楊姓 住戶 說   他 巷 住 了 20 年   其他 老住 戶 更 住 了 40 多年   大家 都 擔心 道路 下陷 擴大   希望 檢測 資訊 更加 透明   因為 他們 肉眼 看不到 傾斜 程度   很 需要 科技 儀器 來 幫忙 監測   數據 要 公開 讓 住 戶 都 了解       由 於 建案 工地 旁不斷 道路 下陷   建案 自行 組成 應變 中心   應變 中心 代表 允諾   已經 協調 明天 自來 水 公司 進場 換管   加派 人力 前   後 分頭 施工 情形 下   能 7 天汰管 完成   預計 10 月初 再換 瓦斯 管線   若 傾斜計 監測 到 了 警戒 值   將 安置 住戶 入住 旅館       新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   造成 緊鄰 和平路 20 巷道 路 下陷   明天 將進 場汰換 老舊 自來 水管 線   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室 造成 緊鄰 和平路 20 巷道 路 下陷   市府 今天 設置 前進 指揮 所   市長 高虹安 下午 到場 了解 應變 情形   記者 張裕珍 ／ 攝影 新竹市 和平路 某建案 工地 下 挖 地下室   前天 發生 緊鄰 和平路 20 巷道 路 下陷   市府 今天 邀集 技師 公會 進入 工地 會勘   記者 張裕珍 ／ 攝影', '新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     凹陷 面積 約 1 公尺 見方   雖然 緊急 灌漿 回填   但 今天 又 發現 巷 另 處 凹陷 下沉   由 於 一旁 不到 3 公尺 緊鄰 20 多戶 住戶   引發 住戶 擔憂   整夜 睡不著     民代質疑 工法 問題   未來 恐繼續 塌陷       市府 都 發處 指出   昨天 已 勒令 建案 停工   裁罰   並 要求 廠商 進行 加固 支撐 灌漿 作業   自來 水 公司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線   之後將 觀察 管線 狀況 再 重鋪 路面   現場 將加裝 傾斜儀 24 小時 檢測   預警   以確 保住 戶 安全 為 最大 前提                             據 了解   該 建案 基地 正下 挖 到 地下 3 層   頻繁 重車 進出   先前 就 有人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫   昨天 則開始 出現 道路 地層下陷   還伴 隨 瓦斯 異味   讓 周邊 住戶 相當 害怕   就 怕 上演 基泰 大直 工地 事件       竹 市府 指出   地層下陷 疑似 為 建案 基地 內側 開 挖 後   造成 基地 外側 道路 內部 土壤 位移   連帶 造成 自來 水管 線 破裂   沖 刷 土壤 泥沙 後 再 造成 地層下陷   瓦斯 管線 破裂       市議員陳慶齡 熟悉 建築 營造 工程   他 說 該 建案工 地位 於 沙地   正在 下 挖 地下室   懷疑 打 基樁 過程 不夠 密實   導致 基地 旁 道路 沙土 不斷 流失 流進 地下室   才 會 造成 道路 沈陷   如果 沒有 妥善 處理   未來 還是 會 發生 道路 沈陷 可能       和平路 20 巷 住 戶 約 20 多戶   居民 無奈   不敢 休息     擔心 瓦斯 味 很重   萬一 爆炸 怎麼 辦   平常 只有 兩老住 這 而已   半夜 已經 沒法 入睡   眼看 住家 旁建案 工地 才 剛蓋   未來 至少 還要 辛苦 兩   三年   希望 做好 偵測   事先 預防   否則 出事 就 麻煩 了   新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     雖然 已經 回填   但 仍 可見 到 住家 前方 有裂 縫   記者 張裕珍 ／ 攝影 新竹市 和平路 20 巷 某建案 工地 旁 道路 昨天 驚見   天坑     今天 還有 另處 塌陷   記者 張裕珍 ／ 攝影']</t>
+          <t>['〔 台北市 信義區 崇德街 60 巷華熊 營造 建案 工地 旁 巷道 昨 13 日 下午 發 地層下陷 出現 長 15 寬 3 深 3 巨大 坑洞 昨晚 灌漿 填補 坑洞 與 建案 基地 坑洞 初步 填平 完成 但 目前 為將 土水壓 平衡 仍 基地 持續 灌水 台北市 都發局長 王玉芬 今 14 日 上午 說明 灌水 作業 預計 今 下午 完成 至於 住戶 回家 需達 3 條件 估計 作業 需 1 至 2 週王玉芬 今 上午 抵達 現場 說明 進度並 表示 造成 道路 塌陷 初步 判斷 工地 地下 連續 壁 約 1112 處 破洞 造成 水 與 砂往 工地 流產 破洞 原因 疑似 為 連續 壁 施工 時 包土 狀況 目前 已 坑洞 進行 灌漿 回填 基地 則採 填砂 灌水 以 平衡 水壓 至於 安置 外住 戶 王玉芬 指出 住戶 回到 家 需 3 個 條件 包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層 監測 建築物 無 傾斜 由 專業 技術 人員 進入 屋檢查 無 毀損 或 裂縫 預計 時間 需 1 至 2 週 希望 可盡 早 完成 讓 住戶 回到 家園 安置 費用則 由 廠商 全部 負擔 針對 現場 作業 進度 王玉芬 說 目前 基地 水位 地下 5.5 大約 下午 會 灌到 地下 3 雖然 昨晚 已 初步 判斷 狀況 趨 於 穩定 但 北市 府 要求 持續 灌水 至 地下 3 處 預計 灌水 作業 今 下午 可 完成 台北市 信義區 長 陳 冠伶今 受訪 表示 調查 結果 撤出 七戶 需要 安置 住戶 一共 5 戶 10 人 目前 都 安置 信義區 旅館 按照 規定 發緊 急 災害 補助 可 申請 安置 補助 每人 一天 1600 元 最 多 可 申請 七天 超過 部分 廠 商承諾 超出 部分 可 負擔', '新竹市 平 路竹 慶建設 「 筑光 」 建案 工地 下 挖 地下室 未料 前天 發 基地 旁 道路 下方 自來 水管 線 瓦斯 管線 洩漏 連帶 造成 平路 20 巷 地層下陷 由 於 「 天坑 」 填平 後 今天 又 他 處 塌陷 竹 市府 下午 成立 前進 指揮 所 市長 高虹安 提出 8 點 指示 包括 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時回 報確 保當 地 安全 平路 該 建案 工地 規畫 地上 14 層 地下 3 層 建物 正下 挖 地下 3 層 前天 竟釀 緊鄰 巷弄 道路 下陷 後 被 市府 勒令停工 不過 因為 一旁 住家 距離 建案 基地 只 3 將近 40 戶住 戶 對 道路 持續 下沉 塌陷 狀況 相當 擔憂 市府 今天下午 請來 4 大技師會 到場 會勘 高虹安 今天 中午 下令 於 竹光國 中旁 成立 災害 應變 前進 指揮 所並 要求 廠商 與 消防局 警察局 都 發處 民政 處產發 處區 所 立即 派員進 駐 下午 4 點半高虹 安會同 土木 技師 等 四大 專業 技師會 民富 里 沈朝 旺里長 聽取 簡報並 了解 居民 訴求 高虹安 今晚 臉書 發文 說 明針 對 此案 已下 達 8 項 指示 包含 責成 消防局 工務處 與 產發處 聯 繫 自 來 水 與 瓦斯 司 明天 立即 進場 全面 開 挖汰 換成 最新 管線 因無法 同 時汰換 兩種 管線將 依序 後 汰 換自來 水 與 瓦斯 管線 由 於 傾斜計 監測 數值 逼近 警戒 值高虹安 要求 廠商以 最快 速度 完成 對 周邊 民宅 自動 傾斜 偵測 設備 裝置 並即 時 回報 要求 消防局 會同 民政 處 社會處 研擬 若事態 進 一步 擴大時 緊急 撤離 與 安置 措施 並預 準備 明天 開始 於 管線汰換 與 相關 改善 工程 期間 要求 廠商 每日 提供 足量 飲 用水 與 水車 供 停水 住戶 使用 要求 交通 處開放 周邊 停車場 供 居民 暫時 停放 車輛 竹光 國民 運動 中心 免費 開放 居民 盥洗 使用 高虹安說 確認 改善 完成 前 要求 災害 應變 前進 指揮 所 全天候 開設 隨時 提供 居民 諮 詢 與 處理 居民 回報 相關 問題 於 管線汰換 與 相關 改善 工程 期間 要求 警察局 好 周邊 交通管制 確保 對 當地 交通 衝擊 降到 最低 高虹安說 今天 現場 與 當地 居民 溝通 與 聆 聽 心聲並 一一 錄 要求 廠商 與 局處 盡 全力 處理 強調 市府 團隊 一定 各位 最大 靠山 不僅會 要求 廠商 負起 責任 完成 改善 並經 確認 安全 無虞 之前 不得 進行 除了 安全工程 以外 其他 工程 新竹市 平 路竹 慶建設 「 筑光 」 建案 工地 旁平路 20 巷 地層下陷 連日來 都 搶 修處理 張裕珍 新竹 市長 高虹安 今天下午 到 平路 20 巷 了解 居民 心聲 圖竹 市府 提供 新竹 市長 高虹安 今天下午 進入 建案 基地 勘查 狀況 圖竹 市府 提供 新竹市 平 路竹 慶建設 「 筑光 」 建案 工地 旁平路 20 巷 地層下陷 連日來 都 搶 修處理 張裕珍', '路透 報導 一段 無人 機片 揭露 巴塔 蓋卡 坑洞 Batagaika   crater 近況 這道 長 1 里 塌陷 區域 位 於 俄羅斯遠 東地區 世上 最大 永凍土 巨坑 俄羅斯薩共國 當地 人稱 之 為 「 地獄 之門 」 片中 兩名 探險 爬過 巨坑 底部 凹凸不平 地形 這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成 因 地下 永凍土 融化 導致 地層下陷 當地 居民 兼 探險 家史 特魯奇 科夫 Erel   Struchkov 表示 「 當地 人稱 之 為 塌陷 1970 年代 形成 最初 條溝壑然 後 晴天 高溫 下 解凍 開始 擴大 」 科學家 說 俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍 占 俄國國 土面 積達 65% 苔原 因此 融化 釋出 溫室 氣體位 於 亞庫 次克梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 Nikita   Tananayev 表示 雖然 這 可能 吸引 遊客 但 坑洞 擴大 「 危險訊號 」 「 今後隨著 氣溫 升高 人為 壓力 增加 我們將 看到 越來 越 多 這種 巨型 塌陷 形成 直到 所永凍 土 都 消失 為止 」 永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮 導致 道路 坍塌 房屋 崩裂 管線 中斷 最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重 薩共國 當地 人 注意 到 巨坑 迅速 擴大史 特魯奇 科夫 說 「 兩 年前 巨坑 邊緣 距離 這條 小路 大約 20 到 30 現它 顯然 離 我們 更 近 了 」 科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度 但塔納 納耶夫 說 巨坑 下面 土地 些 地方 深約 100 含 「 大量 」 機碳 隨著永凍 土 融化 這些 機碳 將釋 放到 大氣 中加 劇 全球 暖化 「 隨著 氣溫 升高 我們 可以 預計 巨坑 將以 更 快 速度 擴大 這將 導致 未來 幾年 氣候 更加 暖化 」 路透 報導 一段 無人 機片 揭露 巴塔 蓋卡 坑洞 近況 這道 長 1 里 塌陷 區域 位 於 俄羅斯遠 東地區 世上 最大 永凍土 巨坑 俄羅斯薩共國 當地 人稱 之 為 「 地獄 之門 」 路透']</t>
         </is>
       </c>
     </row>
@@ -603,21 +603,21 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5_紐約市_上升_紐約_海平面</t>
+          <t>5_四川_現場_慶城街_工地</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['紐約市', '上升', '紐約', '海平面', '研究', '下沉', '美國', '城市', '公分', '建築物']</t>
+          <t>['四川', '現場', '慶城街', '工地', '萬安', '台北市', '地基', '興安街', '塌陷', '市長']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['根據 研究 指出   美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 公分 速度   持續 下沉 中   而 部分 地區   下沉 速度 甚至 比 平均值 高出 兩倍   分析 主要 原因 是 因為 大量 建築物   尤其 是 一棟棟 摩天 大樓 讓 地表 超重   再 加上 海平面 不斷 上升   地層下陷 海平面 上升 雙重 夾擊   讓 紐約市 岌岌可危     紐約 市將 30 年後沈入 海底       這 可能 不是 危言 聳 聽   因為 研究 指出   紐約市 正以 每年 0.1 到 0.2 公分 速度 持續 下沉 中   紐約市 840 萬人   不但 人口 高度 密集   更是 一座 水泥 叢林   帝國大廈 等 數不清 摩天 大樓   壓得 紐約 喘 不 過氣   紐約市 建築 總 重量 大約 是 7620 億 公斤   相當 於 1.4 億頭 大象 重量   聯合國 秘書長 古特 瑞斯 說     海平面 上升 不僅僅 只是 威脅 而已   它 更是 威脅 乘數     原來 從 1950 年 以來   紐約市 沿岸 海平面 已經 上升 22 公分   大 蘋果 海平面 上升 速度 是 全球 平均值 兩倍   預 估到 2050 年   紐約市 海平面 將 上升 30 到 45 公分   這是 中間 值   最高 甚至 估計 到 76 公分   最壞 情況 是   21 世紀 結束 時   紐約 海平面 比現 上升 約 180 公分   自由 女神像 早已 滅頂   建築物 導致 地層下陷   海平面 快速 上升   不用 太久   紐約市 恐怕 將成 為 歷史 名詞  ', '紐約市 正在 下陷   美國 地質 專家 研究 發現   由 於 紐約市 摩天 大樓 眾多 加上 地質 變動   部分 紐約市 地層 已 下陷 至少 2 公分   未來 若 再 加上 海平面 上升   恐讓 沿海 地區 居民 生存 備受 威脅     紐約 每年 均 下沉   據   獨立報   報導   紐約市 人口 約 800 萬   美國 地質 調查局 研究 人員 指出   包括 布魯克林   皇后 區與 下曼哈頓 部分 紐約市 因為 地層下陷   每年 下沉 1 到 2 公分                           該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億 公斤 重量 等 因素   除此之外   研究 更 指出   紐約 市還 面臨 洪水 危害 風險     海平面 上升 亦 是 威脅   稍早 研究 曾 指出   全球 暖化 帶來 海平面 快速 上升   2050 年前 全球 海平面 將 上升 200 到 600 公分     研究 人員還 指出   紐約市 每年 下陷 約 1 到 2 公分   部分 地區 下沉 速度 更 快   原因 除了 近期 不斷 興建 摩天 大樓 外   還 包括 抽取 地下水   土壤 壓實 與 地震 等 因素   都市 建築物 面臨 其他 風險   例如 地層 暴露 鹽水 後   可能 導致 鋼筋 混凝土 受到 侵蝕   因此 減少壽命     下 沈是 自然 造成   據   Live   Science   報導   研究 指出   紐約市 下 沈 部分 原因 可能 是 自然 形成   因為 上 一次 冰河 時期 最 寒冷 時候   巨大 冰層 曾 覆蓋 大部分 地球   造成 冰層 下方 地面 下陷   進而 讓 陸地 邊緣 升起   等到 冰層 融化 後   被 抬升 地區則 開始 下陷     之前 研究 就 指出   到 2100 年   美國 東岸 可能 會 下陷 48 至 150 公分   除了 大自然 力量 之外   研究 人員 認為還 可能 包括 其他人 為 因素   且 科學家 發現 當地 某些 地區 下沉 速度 更 快   原因 可能 是 建築物 重量 造成     本次 研究 結果 刊登 Earth   s   Future 期刊   【 更 多 精采   詳見 】', '一項 最新 研究 發現   美國 紐約市 長 期 承受 大量 建築物 重量 之下   地層 正在 下陷   加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上   恐為 紐約市 招致 洪災 等 危機     美國 有線 電視 新聞網   CNN   報導   據 推估   紐約市 2050 年 海平面 將 上升 8 至 30 英寸   20.32 至 76.2 公分     更 重要 是   科學家 預期 由 於 人 為 引發 氣候 危機   類似 東北 風暴   nor   easter     颶風 這類 極端 降雨 事件 將更頻 繁地 出現                           美國 地質 調查 所   US   Geological   Survey   專家 帕森斯   Tom   Parsons   說     我們 離 海水倒灌 還有 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件   像 颶風珊迪   Sandy   艾達   Ida   帶來 暴雨 使得 城市 淹水 成災   都市化 帶來 部分 影響 使得 水災 發生       這篇論 文發表 期刊   地球 未來     Earth   sFuture   上   旨在 展示 沿海   河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險   以及 應 採取 相關 措施 來 降低 潛在 危險 衝擊     研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量   計算出 這些 建築物 重量 約 為 7620 億 公斤   相當 於 約 190 萬架 滿載 波音 747   400 客機     研究 團隊 接著 利用 模擬 方式   計算出 這些 重量 對 地面 影響   並和 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較   帕森斯 說   這項 分析 揭露 紐約市   平均 每年 下陷 約 1 至 2 毫米   部分 下陷 較 嚴重 地區 每年 下陷 約 4.5 毫米       然而   並非 所有 地層下陷 都 是 建築物 造成   帕森斯 說     我們 可想 見 非常 鬆 軟 土壤 人工 填土 地面 上 建造 建築 地層下陷 關聯 … 其他 地方   我們則 看到 難以 解釋 地層下陷   它 很多 不同 成因   例如 上個 冰河 時期 後 發生 後 冰期 回落   或是 抽取 地下水       研究 表明   地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅   而且 這種 情況 不 只 發生 紐約市     帕森斯 說     這是 一個 全球性 問題   我來 自羅德島 大學   University   of   Rhode   Island   合著 者 研究 了 世界各地 共 99 座 城市   不 只有 沿海 城市 內陸 城市   其中 絕 大多 數都 存在 地層下陷 問題    ']</t>
+          <t>['台北市 松山區 慶城街 一處 工地 附近 今 23 晚傳出 地層下陷 狀況 停路邊 停車格 車輛 車身 甚至 已經 傾斜響 4 台車輛 傾斜 現場 為 新建 工地 地基 下陷 下陷 範圍 評估 中無人 受傷 已劃 設 警戒 線 台北 市長 蔣 萬安 副 市長 李 四川 正 趕往 現場 台北 市長 蔣 萬安 發文 表示 「 稍早 慶城街 興安街 交叉口 發 工地 地基 下陷 我正 趕往 現場 請 周遭 居民 經過 民眾 注意安全 最新 資訊 市府 會 即刻 通知 」', '台北市 中山區 大直 民宅 塌陷 案 基泰 建設 總經理 馮勉 委屈 地稱 事發 當晚 就 現場 且 站 台北市 副 市長 李 四川 旁邊 對 此 李 四川 今 受訪 還原 真相 馮當 晚確 現場 但 當晚 後 就 沒見 到 馮到 現場 關心還 一度 失聯 找 不到 人談 相關後續 事宜 李 四川 今 11 日 接受 媒體 人王 淺秋廣播 專訪 千秋 萬事談 基泰 建設 董事 長 陳 世銘 昨 10 日快 閃離 開會 一事 直言 碰到 問題 只能 面對 不能逃避 至於 基泰 總經理 馮勉聲 稱 一直 現場 李 四川 則還 原事 發當天 7 日 晚間 抵達 現場 後 一直 處理 救災 灌水 任務 最後因 灌水 速度 不 搶 救 他 現場 超過 約 30 分鐘 後 房子 才 全部 沉陷 下去 李 四川 當時 就 疑惑 詢問 工地 主任 「 這麼 大 事情 們 負責人 沒 現場 只 一個 主任 這 」 而 工地 主任 才 回應 「 我們 總經理 站 旁 邊邊 」 李聲 稱 當下 自己 不 認識 馮且 之 後 沒見 到 馮 直至 9 日救災 告一段落 需談 安置 時尋找 基泰 建設 祕 書要 馮來 談 一談 結果 馮 卻 沒接 電話連 祕 書 找 不到 馮他 才 會 媒體 前 嚴厲 譴責 基泰 李 四川 回憶 說 道 直至 10 日 上午 才 聯 繫 到 馮 勉 雙 方 約 好 9 時 30 分到 台北市 政府 開會會 同 法制局 後 達 成後續 3 點承諾王 淺秋詢 問發 事故 當晚 工地 主任 介紹 馮勉 後 馮無過 來 稍微 討論 一下 發什麼 事 還馮 就 旁邊 像 個 路 人 一樣 圍觀 李 四川 回應 馮勉 過來 打招呼 說 自己 總經理 但 沒談 任何 相關 事宜 李 四川 提當天 搶 救 緊急 過程 當時 第一 時間 緊急 疏散 住戶且 擴大 預防性 疏散 聽到 消防局 回報 工地 一直 傳出 「 啪啪 啪 」 聲音察覺 不妥 後 就 要求 立即 消防局 疏散 住民 同時 詢問 單號 住戶 對面 無 房子 間 隔 獲得 對 面還 一排 雙號 住戶 因此 當下 就 下令 對面 要 依法 全部 撤離 並請區 所 找到 實踐 大學行 安置 李 四川 當天 到 現場 約 22 時當時 單號棟 已 稍微 傾斜 但 未 沉下去 立即 要求 消防局 衛工處 水處 全部 灌水 看能 不能 讓 基地 平衡 不過 隨 「 啪啪 啪 」 間 隔 時間 越來 越短 他 就 要求 全部 站 旁邊 人 全部 快 疏散 李 表示 他 現場 約 40 分鐘後因 灌水 無法 讓 基地 平衡 眼睜睜 看著 房子 沉陷 垮掉 就 等同 連續 壁 全部 斷掉 緊急 改為 灌漿 處理 李 四川 提 退休 後 又 重新 回到 北市 府 工作 很多 市政 幾乎 都 不 陌不過 比較 麻煩 極端 氣候 響 市區 很多 側溝 設計 無法 承受 近來 豪 大雨 若 「 用 工程 技術 去 追 」 不斷 投入 資源 改善 怎樣 都 無法 追上 老天 給挑 戰舉 例豪 大雨 對 一些 老舊 低窪 社區 市府 要 想 辦法 減災 這他 回到 北市 府 任職 最大 考驗', '台北市 松山區 慶城街 一處 新建 工地 昨 23 天晚 間 發 地基 塌陷 意外 停 路旁 4 台車 受到 波 人行道 路面 凹陷 北市 府 緊急 成立 指揮 中心 處理 台北 市長 蔣 萬安 今早 二度 到 現場 視察 現況 被問 北市 議員 許淑華 爆出 年前 就 接獲 異常 通報 市府 無因 應 對 此 他 表示 會 請 建管處 全面 清查 台北 慶城街 塌陷 案 截至 上午 11 點已 回填 360 立方 回填 高度 已近 安全 目標值 3 約 12 點 左右 就 會 完成 作業 而 比 對 相關 數據 檢測 目前 僅 塌陷 處東側 超過 15 分 裂痕 西 南北 側比 對 監測 數值 正常 都 沒 地面 塌陷 鄰房 傾斜 狀況 管線 路樹 等 一 併 檢查 處理 此次 台北市 政府 昨晚 慶城街 工地 塌陷 事 發後緊 急 成立 指揮 中心 開罰 18 萬並 勒令 停業 要求 工作 灌漿 回填 確保 安全 這蔣 萬安 任 二度 建案 塌陷 發 此次 處理 速度 較 上次 更快 蔣 萬安 強調 每 一次 事件 發都會 一次 檢視 只要 機制 完善 每個 人員落 實運作 其實 反應 就 會 快速 確實 確保 各項 安全 讓 一切 恢 復 正常 不過 外界 質疑 相比 日前 雙北惡 臭案 市府 被質 疑動作 慢半拍 蔣 萬安 回應 往後相關 機制 調整 完善 確 保人 員透過 機制 系統 運作 其實 各項 反應 就 能 即刻 因應後續 處理 就 會 到位 至於 許淑華 透露 年前 就 接獲 異常通 報且 未來 可以 跟 外審 單位 大地 工程 結構 技師 等 一起 監工 對 此 蔣 萬安 表示 異常 通報 「 會 請 建管處 全面 清查 」 另外 此次 第一 時間 邀請 四大 工會 技師 結構 大地 建築師 工會 參與謝 謝里長 到 現場 協助 各項 監測 這 部份 第一 時間 都 溝通 聯 繫']</t>
         </is>
       </c>
     </row>
@@ -626,21 +626,21 @@
         <v>6</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6_排水_建管處_地基_海事</t>
+          <t>6_基泰_建設_大直_政治</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['排水', '建管處', '地基', '海事', '蘇澳', '建路', '地層下陷', '單位', '進行', '工地']</t>
+          <t>['基泰', '建設', '大直', '政治', '萬安', '獻金', '施工', '住戶', '王鴻薇', '北市']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['北市 近日 連續 出現 天坑   市長 蔣萬安 昨天下午 公安 會報 中   指示 工務局 邀集 都 發   建管 等 相關 單位   針對 道路 塌陷   制定 通案 性處 理機 制外   應 全面 檢視   清查 地下 老舊 管線   下 一步 再針 對 其他 地方   避免 再 發生 地層下陷 情形       北市 建管處 昨天下午 公安 會報   針對 今年 5 月 13 日 信義區 崇德 街 60 巷道 路 塌陷 案 進行 專題 報告   北市 開挖 中 建築 工地 計有 102 件   已委 託 台北市 土木 技師 公會   台北市 建築師 公會   台北市 結構 工程 工業 技師 公會   從 5 月 15 日起 逐案 現勘   包括 觀測 項目 是否 設置   是否 按計畫 觀測   以及 施工 計畫   例如 是否 抽水 計畫 等   已 全數檢 查完 畢   針對 檢查 項目 不 符合 建築 工地   要求 停工 釐 清 改善                             為 加強 建築 工地 開挖 階段 安全 管理   6 月 起委 託 三 大公 會 不定期 現勘   並就 建築 工地 因違 反建築法 公共安全   公共交通 受裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 裁處訊息       建管處 表示   已 函告 工地   若 發生 公安 意外   應 於 第一 時間 主動 通報 原因 緊急 應變 處理 情形   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處 9 萬元 罰款   情節 嚴重 時 還會 勒令停工       最近 常發 生午 後 雷雨   市長 蔣萬安 副 市長 李 四川 都 強調 要 注意   李 四川 提醒 建管處   開挖 中 工地 要 加強 宣導 防範       蔣萬安說   信義區 案例   主因 為 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   像是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處 地面 上 施工   發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理       建管處 指出   地下 管線 一旦 老舊 可能 鬆 脫   造成 漏水   淘空 地基   導致 地層下陷 隱憂  ', '〔 記者 蔡思培 ／ 台北 報導 〕 台北市 近來 天坑 事件 頻傳   萬華區 一處 建案 工地 旁 道路 日前 發生 地層下陷   坑洞 面積 約 一輛 汽車 車身   所幸 無人 受傷   不過當 地里 長 蔡岳樺 表示   工地 已 二度 出包   天坑 修補 後 又 出現 積水   北市 議員 應曉薇 質疑   建案 若 未 側溝   未來 仍 可能 天坑 事件   台北市 建管處 表示   會 要求 將 排水 系統 完   已將個 案列 為 重點 稽查 個案     應曉薇 今天 與 多位 萬華里 長 前往 萬華 工地 會勘   應曉薇 質疑 建案 是否 側溝   若側 溝都 沒有   未來 仍 可能 天坑   若 再有 大雨   台北市 衛工處 又 要 幫忙 清砂   發現   坑洞 日前 雖已 填補   但現 又 出現 積水   對 於 台北市 副 市長 李 四川 認為 路 塌 與 極端 氣候 溫室 效應 有關   她則 稱 這 就是 沒有 側溝 造成 人 為 疏失     蔡岳樺 說   福音 里 3 個 工程   每次 都 是 這個 建案 出事   他 對 於 都市 更新 樂觀 其成   但 不 希望 影響民眾 安全   他 呼籲 建商 出事 要 負責   不要 什麼 就 推給 別人   蔡 表示   天坑 意外 當天 建案 負責人 推 託 說 下雨   地基 掏空   又 說 沒 危險 沒什麼   讓 他 相當 憤怒   難道 要 出事 才 算 問題   呼籲 建商要 把 事情 做好     萬華區 全 德里 里長 趙 素美 認為   這個 問題 應該 可以 提前 處理   不能 發生 事情 才 處理   里長 都 為 里 民保護 身家 財產   建商 與 里 長 應該 互相 尊重     建管處 表示   此 都 更案 採用 是 舊 法令   本案 涉有 公有   私有土地   法令 上不會 要求 現在 就 按照 使用 執照 竣工 時 排水 系統 完   但 目前 排水 系統 不 完整 才 導致 大雨 後 排水 不順 地基 下陷   現行 法令 對 於 打通 道路   區域 排水 沒 規範   但 建管處 會 要求 將 排水 系統 完   改善 區域 排水     建管處 說   已將 此案 列為 重點 稽查 個案   未來會 加強 稽查   目前 坑洞 已 填好   初步 安全 無虞   並將 安全 疑慮 地方 阻隔  ', '宜蘭縣 蘇澳鎮 民富 街   部分 路段 緊臨 蘇澳 海事 游泳池   居民 質疑   疑似 校方 長 期為 泳池 抽 地下水   導致當 地底 層 下陷   連 住家 地基 都 被 掏空   嚴 重影 響 居住 安全   校方 否認 超 抽 地下水   立委 陳 琬惠會 同 教育部   水利 署 官員   到 當地 與 居民 研商 解決 辦法   宜蘭 蘇澳鎮 民富 街 部分 與 蘇澳 海事 緊鄰 路段   長 年 發生 地層下陷 問題   住戶 房子 地基 被 掏空   地面   牆面 出現 裂縫   從 住家 滾一個 鐵罐 到 道路 對面   相當 順暢   可以 見 到 坡度 相當大   且 道路 表面 比旁邊 側溝 還要 矮   根本 沒有 排水 功能   居民 指出     游泳池 建好 以 後   大概 有用 了 4 年 多 就 塌 掉 了   影響 到 我們     當地 地層下陷 情況   從 2017 年 蘇澳 海事 游泳池 塌陷 後   就 開始 發生   多年 來無法 完全 改善   即使 2021 年 蘇澳 海事 當地 進行 壓力 灌漿   道路 仍持續 塌陷   居民 質疑   當年 是 蘇澳 海事 為 了 游泳池 超 抽 地下水   才 導致 地層下陷 情形   教育部 高級 中等教育 組 行政 資源 科長 黃 懷瑩 表示     我覺 得 地質 監測 這一塊   我們 可以 持續   讓 大家 安心 說   我們 是不是 持續 劇烈 沉降 或 傾斜 狀況   會 定期 跟 大家 報告 我們 監測 結果     校方 否認 超 抽 地下水   表示 當年 泳池 塌陷 後 就 沒 抽水   過去 抽 是 溢流 出 地面 水源   教育部 則說   過去 壓力 灌漿 是 延緩 地質 沉降 效果   立法 委員陳琬惠 表示     房子 跟 道路 就是 脫離 當中   所以 我 希望 我們 今天 要 找到 一個 方法   不是 只有 檢測 而已     水利 署 組長 簡昭群 說     技師 公會 去 依據 他 測量 結果   找出 造成 沉陷 具體 原因     陳 琬惠 近期 邀集 中央 單位 與 地方 居民 開會   研商 解決 辦法   水利 署 說   要 確定 當地 地層下陷 真正 原因   是 抽水 行為 還是 土質 問題   才能 根治 問題  ']</t>
+          <t>['基泰 建設 新建 案 「 基泰 大直 」 因 施工 不慎 釀嚴 重安 意外 台北市 都發局長 王玉芬 今日 受訪 說明 提供 3 方案 供 受損 嚴峻 25 戶長 期 安置 計畫 開 基泰 大直 連續 壁廠 商為 「 齊崴 營造 」 至於 本刊 揭監測 報告 早就 顯示 「 已 超出 警戒 值 」 王則 稱 沒 看過 這份 監測報 告後續 會 要求 建商 提供 本刊 今 11 日 獨家 揭露 基泰 建設委 託 儀大 工程 顧問司 提供 北市 都 發局 7 月 26 日 監測 報告 顯示 坍塌 前 44 天監測 報告 結論 說明 一欄 中 已 明確 指出 「 部分 監測 儀器 已 超出 警戒 值 」 然而 基泰 建設 卻 未 積極 處理 9 月 照常 大規 模開 挖 最終 釀成 這起 嚴峻安 事故 對此 王玉芬 回應 昨 10 日才 收到 建商 提供 89 月 監測 報告 7 月 尚未 收到 已 要求 建商 提供 完整 監測 資料 並請 專業 技師會 判讀 如 發現 任何 違失會 將技師 建築師 等 相關 人員 移送 懲戒 媒體 追 問判讀 需要 多少 時間 王玉芬 回應 由 於 資料 應該 很多 但會用 最快 時間 得出 結論 除 25 戶重 災戶 外 其他 居民 可 返家 住 但 居民 因 安全 疑慮僅 38 戶 返回 王玉芬 稱 近期 會 召開 說 明會 由 技師會 對 所 疑慮 住戶 說 明檢測 結果 以 解除 住戶 疑慮 而 這次 共 撤離 236 戶民眾 除 25 戶 以外 撤離戶 每戶 家中 裂縫 需要 補強 會 由 技師 逐步 去 勘檢逐戶 錄去 修繕 「 我們 沒所謂 強迫 住戶 入住 南港 社宅 這都 讓 住戶 可以 自己 選擇 」 王玉芬 指出 北市 府將 於 週三 13 日召 說 明會 說 明長 期 安置 3 個 方案 包含 南港 國宅備 妥 25 戶 家具 冷氣 冰箱 等 若想 住 附近 會持續 提供 安置 旅館 最後民眾 可 自由 選擇 居住地 1 坪 補貼 1600 元 租金 此外 王玉芬 指出 今日 已 啟動 4 大技師會 對 184 處開 挖 工地 進行 嚴格 檢查 第二 波針 對 地下室 開挖 導溝 連續 壁 工程 檢查 另 對 所 工地 加強 加強 頻率 檢查 預計 每月 1 次 地下室 開挖 會 增加 檢查 頻率 而 鄰損 規則 SOP 結構 外 審規定 會 一個 整體 檢視 即刻 啟動修 法王 玉芬 強調 未來 只要 建設 司營 造廠 或 分包 廠商 相關 技師 工地 涉安 跟 鄰 損嚴 重時 就 會 全部 開資訊 包括 下 包廠 商而 今日 布 「 基泰 大直 」 下 包連續 壁廠 商為 「 齊崴 營造 」 「 一個 都 不要 跑掉 讓 大家 可以 避開 雷區 」', '大直 民宅 傾斜案 引發 全台關 注疑 因 附近 基泰 建設 開 挖 工地 導致 地層下陷 使得 197 戶 367 名住 戶 緊急 疏散 而今 8 國民 黨 立委 王鴻薇則 遭民進 黨 爆料 曾 去年 選舉 前 今年初 收取 基泰 建設 共 30 萬 政治 獻金 對 此 王鴻薇 下午 受訪 強調 並非 收受 政治 獻金 就 不能 監督 透露 來 自 基泰 政治 獻金 一位 從 媒體界 轉從 商前 輩 捐 贈針 對 被 指 收取 基泰 建設 政治 獻金 部分 王鴻薇 今 受訪 表示 這件 事情 民進 黨 以 為 自己 撿 到 槍 但 迴 力 鏢 馬上 就 回到 自己 身上 民進 黨 自己 不敢 承認 他們 收 基泰 政治 獻金想 請問 一下 這綠營 想 再次 示範 「 綠能 不能 」 雙標 王鴻薇 指出 上次 質疑 綠能 產業 就 被民進 黨 挖出 收過 綠能司 政治 獻金 雙標 但 認為 不收 政治 獻金 就 不能 監督 至於 昨被 質疑 現場 笑嘻嘻 王鴻薇則 解釋 看 全部 直播 就 會 知道 跟 大家 報告 現場 安置 狀況 但 被 截圖 文章 認為 這綠營 側翼 一貫 手法 王鴻薇 表示 要 特別 提 2 件 事 第一 基泰 建設 全部 北市 工地 都 該 停工 不然 其他 地區 里 長 很 擔心 第二 為 了 慎防 基泰 脫產今 早建議 市政府 「 代位 求償 」 此外 得知 居民 準備 組成 自救 會承諾 一定 會 全力 協助 最 重要 補償 一定 要 落實 而 不 基泰 口頭 上 說 說 而已 再 被問 政治 獻金 部分 王鴻薇則 透露 基泰 董事 長 總經理 真 都 不 認識 但 回頭 去 查 了 一下 一位 媒體 前輩去 意確 實議員 選舉 以 立委 補選時 政治 捐獻 而 由 於 捐 錢個 人要 提供 個 人 身分 證字 號司 要 提供 司 地址 等司 部分 要 查詢 虧損 虧損 就要 退款 不然 會 被 沒收 等等 而 這兩筆 政治 獻金 就 來 自媒體 前輩以 基泰 建設 為 名 捐獻 至於 外界 質疑 王鴻薇 監督 了 許多 全國 各地 之建設 但 這次 大直 民宅 不僅 選區 鄰近 以前 蔣 萬安 選區 為 何會 當選 這 8 個 月 以來 都 沒人 溝通 王鴻薇 表示 昨天 發 事情 後 立刻 跟 團隊 確認 確實 沒接 獲選民 或 議員陳情 這 方面 他們 要 努力 空間還 很多 會勤 走 基層 聽 更 多聲 音稱 很 遺憾 選民 這幾個 月 這樣 困擾 對民代來 講該 努力 就 應該 繼續 去 努力', '台北市 中山 大直街 94 巷 周邊 民宅 嚴重 塌陷 市長 蔣 萬安 強調 會 徹底 調查 建管處 處理 過程 違失 「 絕不寬 貸護 短 」 同時會 檢視 基泰 建設 台北市 建案 不合 規定 就 會 勒令停工 北市 府 成立 律師團 協助 住 戶後續 追償 蔣 萬安 今 8 日 接受 資深 媒體 人 黃 光芹 主持 節目 專訪 坦言 建管處 45 月 收到 住戶 書面 申訴 牆壁 龜裂 獲 報後派員 了解 當時 認為 與 基泰 建設 開 挖 無 直接 相關 而 當時 仍施 作連續 壁 直至 7 月 24 日才 開 挖 至於 大直 災民 安置 問題 蔣 萬安 表示 會 找 時間 了解 住戶 需求 昨 7 日 就 成立 群組 包含 民政局 社會 局衛局 等 局處 需要 領藥 開綠色 通道 至 台北市 聯合 醫院後續 會 協助 住戶 追究 責任 求償 至於 市議員陳怡 君質 疑住 戶僅 被 安置 1 天蔣 萬安 認 目前 安置 到 11 日 即刻 請觀 傳局 了解 協調 旅宿業 以 降低 大家 搬動 當然 住戶 不想 住麼 長 只要 確認 安全 無虞 就 會 讓 住戶 回去 蔣 萬安 強調將 重新 檢視 調查 事情 原委 包含 住戶 起初 提出 申訴 建管處 判斷 過程 違失 或 違法 才 導致 今天 狀況 「 絕不寬 貸絕 不護 短 」 若 發現 機制 SOP 出 了 問題 就 會 修正 蔣 萬安 提 台北 30 年 以上 老舊 建物 超過 7 成危 老 都 更案 經常 緊臨 老房子 現危 老 都 更 都 會 較 過往 開 挖 來 深 基泰 大直 就 開 挖 到 地下 3 層 故會 要求 建管處 增加 查核 頻率 尤其 地下 深開 挖 部分 要 確保 施工 安全 黃 光芹 詢問 可能 要求 任何 局處 首長 下台 或 撤 職來 負責 蔣 萬安 回應 只要 徹底 調查 發現 任何 違法 情事 或 發現 當時 處理 不 當表態 「 該換 就換 這沒疑問 」 強調 重新 檢視 後 「 需要 撤換 就 撤換 」 至於 基泰 建設 台北 尚 4 個 建案 會 要求 全面 停工 蔣 萬安 回應會 全面 檢視 基泰 建設 台北市 所建案 包含 今日 已 派員去 基泰 建設 勞檢會 檢視 相關 施工 合乎 規定 若 未 依規 就 會 依法 勒令停工 蔣 萬安 稱 北市 府 已 成立 跨局 處 一站式 聯合 服務 中心 成立 律師團 協助 住 戶後續 求償 他 下午 再度 前往 視察時 重申 要 重檢視 北市 建物 而 北市 府 會 向 建商 與 施工 廠商 追究 到底 蔣 萬安 撂 狠話 「 建商 要負 全面 責任則 未來 台北市 很 抱歉 不 符合 相關 規定 或 標準 就 別 想 台北市 取得 任何 案子 」 而 下午 建管處 已經 發文稱 基泰 北市 7 個 工地 全面 停工']</t>
         </is>
       </c>
     </row>
@@ -649,21 +649,21 @@
         <v>7</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>7_永凍土_暖化_巨坑_融化</t>
+          <t>7_城市_中國_土地_研究</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['永凍土', '暖化', '巨坑', '融化', '坑洞', '當地', '大氣', '共和', '公尺', '基地']</t>
+          <t>['城市', '中國', '土地', '研究', '海平面', '下沉', '每年', '超過', '沿海', '面臨']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['〔 記者 楊 心慧 ／ 台北 報導 〕 台北市 信義區 崇德 街 60 巷華熊 營造 建案 工地 旁 巷道   昨   13   日 下午 發生 地層下陷   出現 長 15 公尺   寬 3 公尺   深 3 公尺 巨大 坑洞   昨晚 灌漿 填補 坑洞 與 建案 基地   坑洞 初步 填平 完成   但 目前 為將 土水壓 平衡   仍 基地 內持續 灌水   台北市 都 發局 長 王玉芬 今   14   日 上午 說明   灌水 作業 預計 今 下午 完成   至於 住戶 回家 需達 3 條件   估計 作業 需 1 至 2 週     王玉芬 今 上午 抵達 現場 說明 進度   並 表示 造成 道路 塌陷 初步 判斷 是 工地 地下 連續 壁 約 11   12 公尺 處有 破洞   造成 水 與 砂往 工地 內流   產生 破洞 原因   疑似 為 連續 壁 施工 時有 包土 狀況   目前 已 坑洞 進行 灌漿 回填   基地 內則 採填砂 灌水 以 平衡 水壓     至於 安置 在外 住戶   王玉芬 指出   住戶 回到 家 需有 3 個 條件   包含 透過 雷達 探測 檢查 無 孔洞 或 軟弱 土層   監測 建築物 無 傾斜   由 專業 技術 人員 進入 屋內 檢查 無 毀損 或 裂縫   預計 時間 需 1 至 2 週   希望 可盡 早 完成   讓 住戶 回到 家園   安置 費用則 由 廠商 全部 負擔     針對 現場 作業 進度   王玉芬 說   目前 基地 水位 地下 5.5 公尺   大約 下午 會 灌到 地下 3 公尺   雖然 昨晚 已 初步 判斷   狀況 趨 於 穩定   但 北市 府 要求 持續 灌水 至 地下 3 公尺 處   預計 灌水 作業 今 下午 可 完成     台北市 信義區 長 陳 冠伶今 受訪 表示   調查 結果 撤出 有七戶   需要 安置 住戶 一共 5 戶 10 人   目前 都 安置 信義區 旅館   按照 規定 發生 緊急 災害 補助 可 申請 安置 補助   每人 一天 1600 元   最多 可 申請 七天   超過 部分   廠 商承諾 超出 部分 可 負擔  ', '路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞   Batagaika   crater   近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門         影片 中   兩名 探險者 爬過 巨坑 底部 凹凸不平 地形   這種 高低 起伏 地表 1960 年代 周圍 森林 整地 後 開始 形成   因 地下 永凍土 融化 導致 地層下陷                             當地 居民 兼 探險 家史 特魯奇 科夫   Erel   Struchkov   表示     當地 人稱 之 為 塌陷   1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍   開始 擴大         科學家 說   俄國暖化 速度 比 世界 其他 地區 至少 快 2.5 倍   占 俄國國 土面 積達 65% 苔原 因此 融化   釋出 溫室 氣體       位 於 亞庫 次克 梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫   Nikita   Tananayev   表示   雖然 這 可能 吸引 遊客   但 坑洞 擴大是   危險訊號       今 後   隨著 氣溫 升高 人 為 壓力 增加   我們將 看到 越來 越 多 這種 巨型 塌陷 形成   直到 所有 永凍土 都 消失 為止         永凍土 融化 已威脅 到 俄國 北部 與 東 北部 城鎮   導致 道路 坍塌   房屋 崩裂   管線 中斷   最近 幾季 愈演愈烈 大規模 野火 使 問題 更加 嚴重       薩哈 共和 國當 地人 注意 到 巨坑 迅速 擴大   史特魯奇 科夫 說       兩 年前   巨坑 邊緣   距離 這條 小路 大約 20 到 30 公尺   現在 它 顯然 離 我們 更 近 了         科學家 不 確定 巴塔 蓋卡 坑洞 擴大 確切 速度   但是 塔納納 耶夫 說   巨坑 下面 土地   有些 地方 深約 100 公尺   含有   大量   有機 碳   隨著永凍 土 融化   這些 機碳 將釋 放到 大氣 中   加劇 全球 暖化     隨著 氣溫 升高   我們 可以 預計   巨坑   將以 更 快 速度 擴大   這將 導致 未來 幾年 氣候 更加 暖化             路透 報導   一段 無人機 影片 揭露 巴塔 蓋卡 坑洞 近況   這道 長 1 公里 塌陷 區域 位 於 俄羅斯遠 東地區   是 世上 最大 永凍土 巨坑   俄羅斯薩哈 共和 國的 當地 人稱 之 為   地獄 之門     路透', '俄羅斯遠 東薩哈 共和 國有 一個 全球 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     隨著 全球 暖化 加劇   這個 巨型 天坑 正持續 擴大   科學家 警告   永凍土 融化 會 把 更 多 機碳釋 放到 大氣 中   讓 溫室 效應 跟 全球 暖化 加劇   俄羅斯遠 東薩哈 共和 國境   巴塔 蓋卡大融 洞     是 全世界 最大 永凍土 塌陷 坑   當地 人 把 它 稱作   冥界 之門     當地 居民 斯特 魯奇 科夫 表示     這是 1970 年代 形成   最初 是 條溝 壑   然後在 晴天 高溫 下 解凍 開始 擴大     當地 1960 年代 開始 砍伐森林   造成 地下 永凍土 融化   進而導致 地層下陷   氣候 暖化 更 加速 永凍土 流失   讓 融洞 越來 越大   梅爾 尼科夫 永凍土 研究所 首席 研究 員尼塔納 納耶夫 指出     這是 個 危險 跡象   因為 這是 高氣溫   氣候 暖化 跟 人 為 活動 壓力 造成   我們 會 看到 愈來 愈 多 這種 巨大 融洞 形成   直到 所有 永凍土 都 消失     更 糟糕 是   隨著永凍 土 消失   封存 裡頭 機碳會 被釋 放到 大氣 中   加劇 全球 暖化   塔納納 耶夫 表示     永凍 土內 碳 存量 是 大氣 中 兩倍   它將 漸漸 被 釋出 跟 大氣 接觸 後 被 細菌 攝取   導致 更 高 甲烷 跟 二氧化碳 排放   加速 溫室 效應     科學家 說   俄國國 土有 六成 五 都 是 苔原   當地 暖化 速度 比 世界 其他 地方 快 2.5 倍 以上   永凍土 融化 已經 俄國 北部 與 東 北部 許多 城鎮   造成 道路 坍塌   房屋 崩裂 並阻礙 管線 運作   對民眾 生活 構成 威脅  ']</t>
+          <t>['中國 過度 抽取 地下水 導致 近 40% 主要 城市 土地 下陷 路透 陳 麗珠 核稿 編輯 〔 中國 近一半 主要 城市 正 遭受 「 中度 至 重度 」 不 等 程度 沉降 海平面 上升 情況 下 恐數 百萬人將 面臨 洪水 風險 路透 指出 中國 都市人口 約 9 億人 當中 約 2.7 億人活 每年 下陷 逾 3 釐 地區 相當 於 都市人口 29% 中國 82 個 城市 中約 45% 每年 下沉 超過 3 釐 16% 土地 平均 每年 下沉 更 超過 10 釐 約 6700 萬 居民 活 於 此 研究 小組 指出 由 於 中國 城市 人口 多 即使 一小部分 地層下陷 可能 造成 重大 威脅 據 了解 而 造成 中國 土地 逐年 下沉 最 主要 地下水位 下降 所致 路透 表示 「 土地 下陷 」 對 中國 每年 造成 超過 75 億元 人民 幣約 新 台幣 337 億元 損失 研究 人員 預計 下個 世紀 中國將 約 近 四分之一 沿海 土地 恐低 於 海平面 數億人將 面臨 大 洪水 風險 最 嚴重 受災 城市 北方 天津 這 城市 約 1500 萬 人口 2023 年 一場 「 突發 地質 災害 」 導致 3000 名 居民 被 疏散 調查 人員將 這場 災害 歸咎 於 水資源 枯竭 地熱井 建設 一手 掌握 經濟脈 動點 我 自由 財經 Youtube 頻道', '中國將 近一半 主要 城市 正 面臨 「 中度 至 重度 」 地層下陷 威脅 根據 最新 研究 顯示 中國 都市人口 約 9 億 其中 約 2.7 億人活 每年 下陷 逾 3 分地區 相當 於 都市人口 29% 加上 海平面 上升 情形 日漸 加劇 最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面 上 億 居民 將 面臨 洪水 危機 綜合外 媒報導 這篇關 中國 土地 現況 報告 期刊 科學 Science 上 發表 研究 團隊 透過 衛星 雷達 觀測 中國 82 個 主要 城市 近幾年 地層下陷 情形 發現 約 45% 地區 每年 下沉 超過 3 釐 更 16% 土地 平均 每年 下沉 超過 10 釐 且 約 6700 萬 居民 活 於 此 研究 小組 指出 由 於 中國 城市 人口 眾多 即使 地層下陷 只 占 一小部分 威脅 仍 不 忽視 根據 了解 造成 中國 土地 逐年 下沉 主因 過度 抽用 地下水 另 一 因素 為 城市 土地 上 重量 不斷 增加 不斷 增加 沉重 建物 將 土壤 越壓 越緊 實且 研究 人員 預計 由 於 地層下陷 海平面 上升 最終 中國會 約 四分之一 沿岸 地帶 低 於 海平面 包含 天津 上海 廣州 等 都市 數億人將 面臨 洪水 威脅 人口 超過 1500 萬 天津市 被 認為 「 最 嚴重 受災 城市 」 2023 年 6 月間 一場 「 突發 地質 災害 」 讓 3 幢 大樓 出現 裂痕 地下室 滲水 3000 名 居民 被 緊急 疏散 事 發後調 查人員將 災害 肇因 歸咎 於 地下水 資源 枯竭 以地 熱井 鑽井 施工 觸動 深層 「 地質 空腔 」 所致 不僅 中國此 問題 世界各地 皆 面臨 地層下陷 危機 今年 2 月 發表 另項 研究 指出 全球 約 630 萬 平方里 土地 下陷 風險 尤為 印尼 情況 最為 告急 首都 雅加 達 大部分 地區現 已 低 於 海平面 另據 新加坡 2022 年 一項 研究 提 全世界 著 嚴重 地層下陷 44 個 沿海 主要 城市 中 就 30 個位 於 亞洲', '最新 一份 根據 衛星 雷達 觀測 研究 顯示 中國近 40% 主要 城市 土地 正發 「 中度 至 重度 」 地層下陷 上 億 居民 面臨 洪水 風險 加上 海平面 上升 上海 廣州 天津 都 面臨 災害 風險 綜合 路透社 與 美國線 電視 新聞網 CNN 報導 這篇 研究 今天 419 發表 期刊 科學 Science 上 由 中國 華南 師範大學 教授 敖祖銳領 軍 研究 小組 透過 衛星 雷達 觀測 中國 82 個 主要 城市 2015 至 2022 年 地層下陷 情況 發現 40% 城市 土地 每年 平均 下沉 超過 3 釐 中國 都市人口 約 9 億約 2.7 億 人口 活 這些 每年 下陷 逾 3 釐 地區 相當 於 都市人口 29% 這 82 個 城市 中 更 16% 土地 平均 每年 下沉 超過 10 釐 6700 萬 居民 活 於 此 研究 小組 指出 由 於 中國 城市 人口 多 即使 一小部分 地層下陷 可能 造成 重大 威脅 導致 中國 都市 地層下陷 主因 過度 抽用 地下水 另 一大 因素 城市 土地 上 重量 不斷 增加 時間 推移 下沉 積物 堆積 以 不斷 增加 沉重 建物 將 土壤 越壓 越緊 實導致 土地 下沉 研究 顯示 由 於 地層下陷 海平面 上升 最終 中國將 約 四分之一 沿岸 地帶 將低 於 海平面 天津 上海 廣州 周邊 都 面臨 這樣 風險 中國 一些 地區 已經 建立 保護 措施 這份 研究 並未 探討 這些 措施 效果 報告 合著 北京 大學 城市 與 環境 學院 教授 陶勝利 說 上海 就 建造 了 數高 堤防 「 即使 地層下陷 海平面 上升 這樣 龐大 沿海 堤防 能 很大 程度 上 降低 城市 被淹 沒風險 」 就 他 所知 沒 其他 國家 打造 過規模 這麼 大 堤防 陶勝利稱 中國 政府 實施 嚴格 地下水 管制法 規減 緩 了 上海 周邊 地層下陷 速度 全球 多個 城市 都 下陷 維吉尼亞 理工大 學 博士 後 研究 員 奧恩亨 Leonard   Ohenhen 最近 一份 針對 美國 地層下陷 狀況 報告 指出 大部分 城市 都 會發 土地 下沉 但 因為 沿海 地區 海平面 上升 問題 大家 比較 關心 沿海 城市 「 但 大多 數 城市 下沉 速度 沿海 城市 其實 都 差不多 甚至 還更快 」 地層下陷 不僅 中國 才 問題 CNN 指出 美國 紐約市 等 數十個 沿海 城市 正 下沉 墨西哥 首都 墨西哥城 土地 每年 最 多 下沉 50 分 可能 全球 沉 最快 荷蘭 已 25% 土地 低 於 海平面 今年 2 月 另 一項 研究 指出 全球 約 630 萬 平方里 土地 下陷 風險 印尼 最嚴 重國家 之一 首都 雅加 達 大部分 地區現 都 已 低 於 海平面 新加坡 2022 年 一項 研究 提到 全球 面臨 嚴重 地層下陷 44 個 沿海 大城市 當中 30 個亞洲']</t>
         </is>
       </c>
     </row>
@@ -672,21 +672,21 @@
         <v>8</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8_水利局_汐止_工程_流管</t>
+          <t>8_道路_台北市_塌陷_出現</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['水利局', '汐止', '工程', '流管', '特四幹線', '搶修', '進行', '北市', '連夜', '公尺']</t>
+          <t>['道路', '台北市', '塌陷', '出現', '老舊', '地層下陷', '坑洞', '工地', '下午', '工務局']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['汐止 驚見 地層下陷   新北市 汐止 區工建 路上 不明 原因 出現 地層下陷   而 上個 禮拜 就 發生過   區 公所 趕緊 進行 挖 填   沒 想到 這幾天 又 再度 下陷   為 避免 發生 危險   昨   22   天晚 間 9 點開始 該 路段 全線 封閉   並在 今   23   天 早上 進行 大規模 檢測   以及 進行 搶修 工程   確保 附近 住戶 安全  ', '汐止 工 建路 因連日 大雨 沖 刷   路面 下方 土石 流失   造成 路面 下陷   為維護 用路 安全   新北市 水利局 表示   已連夜 成立 前進 指揮 所   調度 人員 機具 進行 路面 搶修   目前 先採 低壓 灌漿 穩定 地盤   期能 於 最 短 時間 內修 復 路面   水利局 表示   汐止 工 建路 下方 設有 污水 特四幹線   收集 汐止 地區 污水   於 103 年間 曾 遭建商 基樁 打破   因特 四幹線 管徑 1.8 公尺 且位 於 道路 下方 15 公尺   並持續 通水 使用 中   需設 置 替代 管線後方能 進行 修 復   因此 當時 由 台北市 衛工處 先行 於 管線 上方 灌漿 補強   並進行 新 設繞 流管 建置 工程   水利局 提到   目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程   計畫 新設 管徑 1.2 公尺 繞 流管 導水 後   再 辦理 原特四幹線 管線 修 復   此次 修繕 工程 繞 流管 尚約 剩 7 公尺 才能 接通   預計 11 月 14 日 工程 完成   水利局 透露   此次 工 建路 下陷 位置 臨近 特四幹線 遭 打破 點   初步 研判 可能 與 此 相關   為 避免 持續 下陷   水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作   等到 特四幹線 繞 流管 工程 完工 後   將進 行原 特四幹線 檢修 工程  ', '北市 南港路 3 段 47 巷   昆陽街 60 巷 交界   昨晚 出現 道路 局部 塌陷   連夜 搶 修下   預訂 中午 12 點 全面 通行       昨晚 天坑 地點 一處 機車 停等區   地層下陷 長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業                             水利 處 指出   連夜 搶 修下   已 接續 完成 連 接管 脱管 處鋼 鈑 包覆   灌漿 回填 及路 面臨 鋪 作業   19 日 8 時將 開放 機車 小型 轎車 通行   預訂 12 點 全面 通行   北市 天坑 搶修 完成   圖 北市 府 提供 北市 天坑 搶修 完成   圖 北市 府 提供']</t>
+          <t>['針對 北市 連續 出現 天坑 台北 市長 蔣 萬安 下午 安會 報中 指示 最近 幾次 地層下陷 會 進行 全面 檢視 請 工務局 邀集 相關 單位 包括 都 發 建管 針對 道路 塌陷 後 續 處理成 通案性 處理 機制 外應 全面 檢視會 就 老舊 管線 一次 清查 下 一步 再針 對 其他 地方 避免 後 續 再 發 地層下陷 情形 北市 建管處 下午 安會報 中針 對 今年 5 月 13 日 信義區 崇德街 60   巷道 路 塌陷 案 進行 專題 報告 加強 管理 作為 針對 北市 建築 工地 正開 挖階段計 102 件 排定 由三大會 從 5 月 15 日 開始 逐案 現場 勘查 目前 已 全數檢 查完 畢針 對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善 為 了 強化 管理 措施 加強 建築 工地 開挖 階段 安全 管理 自 6 月 分起 已委 託 三大會 不定期 進行 現場 勘查 另 就 建築 工地 因違 反建築 法共 安全 共 交通 遭受 裁罰 或 勒令停工 案件 同步 於 建管處 網站 揭露 相關裁 處訊息 另外 函告 工地 應主動 通報 若 工地 發安 意外事件 應 於 第一 時間將 原因 緊急 應變 處理 情形 主動 通知 建管處 未通 報將 依建築 法相 關規定 加重 裁罰 最高 處以 9 萬元 罰款 情節 嚴重 時並 勒令停工 副 市長 李 四川 提醒 建管處 最近 下午 雷陣雨開 挖 工地 要 加強 宣導 防範 蔣 萬安 表示 信義區 案例 主要 因為 旁邊 建案 開 挖 造成 地層下陷 最近 許多 下午 暴雨 可能 造成 地層下陷 請 建管處 加強 工地 管理 加強 查核 蔣 萬安 指示 針對些 地方 老舊 管線 不管 汙水 管等 主管 機關加 強督導 另 環保局 進行 清疏 時 或 新 工處   地面 上 施工 如果 發現 相關 管 線 鬆 脫 或 破裂 情形 要 即 時 通報 相關 單位 處理', '台北市 短短 3 個 月 出現 4 個 天坑 遭批 天龍國 變成 了 「 天坑 國 」 對此 工務局 今 20 日強 調 今年 發四案 道路 坑洞 情形 均 非 道路 受 輾壓 破 損導致 工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案 以 避免 類似 情形 發 北市 民東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞 新工處 接獲 通報 立即 調派 開 挖機 進場 確認 為 路旁 側溝 破損 造成 道路 掏空 新工處 進行 路面 回填 後 續 由 水利 處修 復 溝體 水利 處下 工科 科長 邱佑銘 表示 經現場 勘查 破 損側 溝位 排水 下游 處 可能 因 水流 長 期 沖 刷 或 施作 年代 久遠 溝底 出現 局部 破損 情形 水利 處並 已督商 今日 進場 辦理 搶 修作業 因案址 位處 8 以下 單行 道 因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行 當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護 欄圍 設並 可回 復 道路 通行 為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間 溝底 牆身 頂版會 分次 施工 預計 2 天可將 側溝 搶修 完成 工務局 說明 北市 近期 出現 4 個 道路 坑洞 事件 歸納為 3 種 原因 造成 5 月 19 日 信義區 崇德街 因建案 工地 開挖 地下 基礎 連續 壁 滲水 造成 地下水 湧入 基地 周邊 道路 沙土 被 帶 走 而 出現 坑洞 7 月 10 日 大同區 南京西路 坑洞 因該 處 地層 軟弱 長 期受 潮汐 響 地下水位 升降 使 污水 管線 下方 土壤 承載力 不佳導致 污水 管接 頭 鬆 脫 錯 位 土砂 沿管線 破 損處 流失 所致 後 衛工處 以視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常 近 兩日發 兩 案件 均 與 水利 管渠 破 損關 南港區 南港路 出現 坑洞 市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍 許多 建案 均 施工 中 南港路 47 巷道 路 狹小 因此 水利 處無法 深埋 排水 箱涵 接側 溝連 接管 研判 與 重車 來 往頻 繁間 接關 係 使得 連 接管 間 出現 縫隙 地下水 帶 走 土沙而發 地層下陷 至於 昨夜 民東路 二段 159 巷口 坑洞 則因 道路 側溝 溝體 老舊 破損 而 造成 近期 下雨 排水 淘涮 因應 幾次 道路 塌陷 坑洞 問題 事件 北市 府 已 擬定 防範 措施 新工處 將加強 定期 道路 巡查 如發現 路面 曾 出現 塌陷 修補 狀況 會 再 使用 透地雷達 確認 道路 無 孔洞 若 土壤 流失 透過 預判 可行 強 化道路 衛工 處則 啟動機 巡視 各個 大型 管道 水利 處將針 對 管路 箱涵 等 進行 巡視 機制 多管 齊下 避免 類似 坑洞 情形 再發', '4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線關   市府 已 要求 總體檢 〔 台北市 昨晚 萬華區 昆明路 一處 建案 工地 旁 又 發 地層下陷 近四個 月 來 第五次 市區 道路 塌陷 昨晚 塌陷 原因 仍 不明 不 排除 豪 大雨 所致 台北市 政府 工務局 說 前 四次 塌陷 都 不 車輛 輾壓 破損 而 與 地下 管線關 已 擬定 防範 措施 台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 關呼籲 重視民眾 看不到 基礎 建設民 進黨議 員林 延鳳陳怡 君質疑 「 甩鍋 」 認為 市府 應積極 研擬 極端 氣候 下 管線 老舊 問題 對策 萬華 昆明路 建案 工地 旁   又 發 地層下陷 李 四川 回應 議員質疑 說 絕非 「 甩鍋 」 氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵導 致些 本來 就 破裂 老舊 排水管 損裂 更 嚴重 民東路 管線 就 超過 廿年 而 上次 南京西路 塌陷 後 他 已 要求 衛工處 總體 檢老舊 管線 箱涵 若 需要 維修 或 更 換會 立即 處理 萬華 昨晚 塌陷地 點建案 工地 旁 下陷 面積 約 長 三 寬 兩 深度 一 ． 五晚 間 已經 完成 回填 十九日 民東路 塌陷 處 完成 回填 水利 處 勘查 側溝 破 損導致 地層 被 掏空 將進 行側 溝修 復 豪 大雨 沖 刷   導致 破裂 排水管 損害 更嚴 重工 務局 說明 這幾起 道路 塌陷 都 不 車輛 輾壓 造成 五月 十三日 崇德街 因建案 開 挖 地下 基礎 連續 壁 滲水 造成 地下水 湧入 基地 帶 走 周邊 道路 沙土 而 出現 坑洞 七月 十日 南京西路 軟弱 地層 長 期受 潮汐 響 地下水位 土壤 承載力 不佳導致 污水 管接 頭 鬆 脫 錯 位 土 沙 沿 管 線 破 損 處 流失 而 南港路 許多 建案 施工 四 七巷 道路 狹小 排水 箱涵 接側 溝連 接管 無法 深埋 疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙 地下水 帶 走 土沙 而 地層下陷 民東路 道路 側溝 溝體 老舊 破損 加上 近期 下雨 排水 掏涮 所致 李 四川 臉書感 而 發說 近來 國外 天災 不斷 包含 國 南投 豪 大雨 高雄 積 淹水 北市 路面 塌陷 等 都 與 極端 氣候 溫室 效應關 希望 每 一位 位 都 能 對 百姓 看不到 基礎 建設 工程 多用 一點 心議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策 林延鳳 認為 李 四川 說法 甩 鍋卸責失 專業 直指 四起 道路 塌陷 都 疏 於 督管 工程 品質 「 人禍 」 不應 歸咎 於 天災 陳 怡君 說 極端 氣候 不能 成為 推卸 市政 理由 與 藉口 市府 應針 對 路面 總體 檢更換 或 整修 老舊 管線 箱涵 積極 研擬 因應 極端 氣候 共管 線 老舊 對策']</t>
         </is>
       </c>
     </row>
@@ -695,21 +695,21 @@
         <v>9</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9_塌陷_水利_路面_極端</t>
+          <t>9_平路_工地_20_道路</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['塌陷', '水利', '路面', '極端', '管線', '氣候', '市府', '老舊', '台北市', '導致']</t>
+          <t>['平路', '工地', '20', '道路', '某建案', '新竹市', '造成', '自來', '地下室', '張裕珍']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['台北市 中山 區 大直 街巷 弄 今晚 多棟 大樓 傾斜   警方 初步 了解   大樓 附近 建案 施工 開挖 地下 連續 壁 最後一層 工程 時   疑因 土質 問題 導致 地基 不穩   造成 民宅 傾斜     台北市 警消 晚間 8 時 34 分獲報   大直 街巷 弄 民宅 傾斜   出現 磁磚   牆壁 龜裂   警消 派員 到場   發現 建案 工地 旁 5 至 6 棟大樓 受 影響   立即 拉 警戒 線   並 疏散 25 戶   無人 受傷   目前 住戶 疏散 到 實踐 大學                           警方 初步 了解   新建 工地 工程 人員開 挖 地下 連續 壁 最後一層 時   疑因 土質 問題 導致 地基 不 穩定   造成 旁邊 民宅 傾斜且 地基 變形   出現 可能 倒塌 狀況   消防 車已 持續 針對 建案 基地 灌水   協助 穩定 地質     民進 黨 台北市 議員陳怡君 第一 時間 赴 事故 現場   勘災後發布 新聞 資料 表示   附近 民眾 提及 晚間 曾 聽 見   蹦   聲響   工地 先緊 急 疏散 工人   才 通知 住戶     說   附近 民眾 提到 此建案 動工 後   住家 就 龜裂 狀況   已 多次 向 建商 反映   但 都 無 處理   市府 主管 機關 無作 為   才 釀成 此 狀況   要求 市府 清查 受災戶 狀況   並 立刻 協助 安置     台北市 信義區 崇德 街 60 巷 5 月份 才 因建案 工地 連續 壁 滲水   導致 道路 地層下陷   危及 旁邊 民宅  ', '4 個 月 5 起 道路 塌陷   工務局 ︰ 多 與 地下 管線 有關   市府 已 要求 總體檢   〔 記者 魏瑾筠   何玉華 ／ 台北 報導 〕 台北市 昨晚 萬華區 昆明 路 一處 建案 工地 旁   又 發生 地層下陷   是 近四個 月 來 第五次 市區 道路 塌陷   昨晚 塌陷 原因 仍 不明   不 排除 是 豪 大雨 所致   台北市 政府 工務局 說   前 四次 塌陷 都 不是 車輛 輾壓 破損   而是 與 地下 管線 有關   已擬定 防範 措施   台北市 副 市長 李 四川 則 提到 都 與 極端 氣候 溫室 效應 有關   呼籲 重視民眾 看不到 基礎 建設   民進 黨 議員林 延鳳   陳 怡 君質疑 是   甩鍋     認為 市府 應積極 研擬 極端 氣候 下   管線 老舊 問題 對策     萬華 昆明 路建案 工地 旁   又 發生 地層下陷   李 四川 回應 議員質疑 說   絕非   甩鍋     氣候變遷 造成 豪 大雨 並 沖 刷 排水管 涵   導致 有些 本來 就 破裂 老舊 排水管 損裂 更 嚴重   民生 東路 管線 就是 超過 廿年   而 上次 南京 西路 塌陷 後   他 已 要求 衛工處 總體 檢老舊 管線 箱涵   若 需要 維修 或 更 換會 立即 處理     萬華 昨晚 塌陷 地點 在建 案 工地 旁   下陷 面積 約 長 三 公尺   寬 兩 公尺   深度 一 ． 五 公尺   晚間 已經 完成 回填   十九日 民生 東路 塌陷 處   完成 回填   水利 處 勘查 是 側溝 破 損導致 地層 被 掏空   將進 行側 溝修 復     豪 大雨 沖 刷   導致 破裂 排水管 損害 更 嚴重   工務局 說明   這幾起 道路 塌陷 都 不是 車輛 輾壓 造成   五月 十三日 崇德 街是 因建案 開 挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   帶 走 周邊 道路 沙土 而 出現 坑洞   七月 十日 南京 西路 是 軟弱 地層 長 期受 潮汐 影響 地下水位   土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土沙 沿管線 破 損處 流失     而 南港路 許多 建案 施工   四 七巷 道路 狹小   排水 箱涵 接側 溝的連 接管 無法 深埋   疑似 重車 來 往 頻繁 造成 連 接管 間 縫隙   地下水 帶 走 土沙 而 地層下陷   民生 東路 是 道路 側溝 溝體 老舊 破損   加上 近期 下雨 排水 掏 涮 所致     李 四川 臉書 有感 而 發說   近來 國內外 天災 不斷   包含 國內 南投 豪 大雨   高雄 積 淹水   北市 路面 塌陷 等   都 與 極端 氣候 溫室 效應 有關   希望 每 一位 在位者 都 能 對 百姓 看不到 基礎 建設 工程   多用 一點心     議員 ︰ 應 研擬 極端 氣候 管線 老舊 對策   林延鳳 認為 李 四川 說 法 是 甩鍋   卸責   有失 專業   直指 四起 道路 塌陷   都 是 疏 於 督管 工程 品質   人禍     不應 歸咎 於 天災   陳 怡君 說   極端 氣候 不能 成為 推卸 市政 理由 與 藉口   市府 應針 對 路面 總體檢   更換 或 整修 老舊 管線 箱涵   積極 研擬 因應 極端 氣候 公共 管線 老舊 對策  ', '台北市 再現   天坑     南港路 3 段 47 巷 與 昆陽街 60 巷 交界 今天下午 4 點 多出 現 路面 坍塌   長 約 2 公尺   寬約 2 公尺   深度 約 2 公尺   市府 指出   目前 無人 受傷   員警 已 畫設 警戒 線   副 市長 李 四川 指示 區 公所   新工處 調派 重機 具開 挖   確認 坍塌 原因       市府 晚間 7 點 30 分開 設前 進 指揮 所   南港區 長 蔡明 儒到 達 現場   由 水利 處派員 擔任 現場 指揮官   進行 擴大開 挖 作業 中                             新建 工程 處開 挖 確認 塌陷 原因   是 水利 處 連接 涵管 有輕微 脫管 現象   目前 水利 處長 陳 郭正 已 抵達 現場 擔任 指揮官   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞       水利 處 評估 工程 進度   實施 交通 維護   南港路 3 段 47 巷雙 向 封閉   預計 今晚 9 時修 復 機具 進入 開工   8 月 19 日 凌晨 0 時 灌漿 回填 作業   後 續 等到 混凝土 達到 一定 強度 之 後   路面 將會 辦理 復 舊   預計 於 明天 晚上 10 時許 恢 復 通車         市府 經查 坍塌 原因 為 水利 處 雨水 連 接管 脫管   後 續將 由 水利 處修 復 脫 管處   含 路面 修 復     並由新 工處 於 路面 修 復 後 以 透地雷達 檢測 無 其他 路面 下 空洞   圖 ／ 北市 府 提供   台北市 下午 4 點多 再現   天坑     市府 指出 目前 無人 受傷   員警 已 畫設 警戒 線   新工處 調派 重機 具開 挖   確認 坍塌 原因   圖 ／ 北市 府 提供']</t>
+          <t>['新竹市 平路 20 巷 昨 下午 驚見 「 天坑 」 市府 獲報 到 場確 認平路 某建案 工地 施工 造成 緊鄰 道路 下方 自來 水管 線 瓦斯 管線 洩漏 導致 地層下陷 多名 民代 要求 強化 安全 檢測 市長 高虹安 昨 要求 建商務必 盡速 完成 改善 市府 並 勒令 承造 人 立即 停工 依法 裁處 改善 完成 無虞 才能 復工 市府 表示 昨 下午 13 時 35 分多 消防局 受理 平路 出現 道路 地基 下陷 還伴 隨 瓦斯 異味 相關 單位 都 獲報 搶 修 由 於 近期 接連發 竹北 天坑 基泰 大直 工地 事故 平 路 附近 居民 人心惶惶 時代 力量 立委 邱顯智 市議 員林 彥甫 說 要求 建商確 保相關 支撐 才能 復工 希望 安全 檢測 頻率 從 1 周 2 次 至 每天 1 次 國民 黨市 議員黃 美慧 認為 未來須 全面 將 瓦斯 自來 水管 線 更新 同時須 工地 周邊 建築安裝 警示 裝置 確保 居民 安全 市府 指出 該 建案 工地 下 挖 到 地下 3 樓 依規施 打 預壘 樁 擋 水樁 但 疑似 為 基地 側開 挖 後 造成 基地 外側 道路 部 土壤 位移 連帶 造成 自來 水管 線 破裂 沖 刷 土壤 泥沙 後 再 造成 地層下陷 瓦斯 管線 破裂 市府 指出 已 要求 建商 改善 期間 每日 需以 儀器 監測 周邊 民宅 無傾斜 情形 後 續 將持續 觀察 自來 水管 還 造成 洩漏 由 於 施工 造成 地層下陷 都 發處將 依建築法 89 條 勒令停工 並針 對 起造 人 承造 人 監造 人 進行 裁罰 各 3 萬元 並視後續 情況 再行 論處', '新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 還自來 水洩漏 瓦斯 異味 飄散 情形 引起 住戶 疑慮 雖然 天坑 處緊 急 回填 但 仍 持續 他 處 下陷 建物 傾斜計 監測 數值 逼近 警戒 值自來 水司將 於 明天 起汰換 上百 老舊 自來 水塑膠 管線 市長 高虹安 下午 赴 前進 指揮 所 了解 應變 情形 新竹市 平路 該 建案 工地 規畫 地上 14 層 地下 3 層 建物 正下 挖 地下 3 層未料 前天 竟釀 緊鄰 巷弄 道路 下陷 由 於 一旁 住家 距離 建案 基地 只 3 將近 40 戶住 戶 相當 擔憂 市府 今天下午 請來 4 大技師會 到場 了解 確認 工地 與 道路 下陷 情形 據 了解 前天 發平路 20 巷 「 天坑 」 事件 後 建商 取得 住戶 同意 20 巷前 中後段 設置 建物 傾斜計 監測 傾斜 情形 今天 最新 測得 最大值 每秒 387 已經 接近 每秒 413 警戒 值 由 於 平路 20 巷 仍 道路 下陷 漏水 情形 今天 緊急 加裝 關水閥 處理 建案 營造 商工 務經理 黃 姓 經理 說 建案 地質 為 砂質 帶 土下 挖 施工 採鑽掘 方式 進行 強度 類似 連續 壁 工法 但蔽 體開 挖 壓力 造成 基地 外側 道路 部 土壤 位移 加上 巷老舊 自來 水管 線 破裂 漏水 導致 土壤 泥沙 流失 進而 造成 地層下陷 水 流入 基地 由 於 平路 20 巷約 340 戶 民宅 民富 里里長 沈朝旺 說 住 戶 都 擔心 房子 會 塌陷 不要 等到 真正 傾斜 就 來 不了 希望 相關 單位 告監測 數據並 加快 自來 水 與 瓦斯 管線汰換 自來 水司 明天 將進場 開 挖汰換 鑄鐵管 盼 建商 同步 處理 好 地基 「 各項 資訊要 更 透明 讓 住 戶們 安心 」 楊姓 住戶 說 他 巷 住 了 20 年 其他 老住 戶 更 住 了 40 多年 大家 都 擔心 道路 下陷 擴大 希望 檢測 資訊 更加 透明 因為 他們 肉眼 看不到 傾斜 程度 很 需要 科技 儀器 來 幫忙 監測 數據 要 開 讓 住 戶 都 了解 由 於 建案 工地 旁不斷 道路 下陷 建案 自行 組成 應變 中心 應變 中心 代表 允諾 已 經協調 明天 自來 水司 進場 換管 加派 人力 前後分頭 施工 情形 下能 7 天汰管 完成 預計 10 月初 再換 瓦斯 管線 若 傾斜計 監測 到 了 警戒 值將 安置 住戶 入住 旅館 新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 市府 今天 邀集 技師會 進入 工地 會勘 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 造成 緊鄰 平路 20 巷道 路 下陷 明天 將進 場汰換 老舊 自來 水管 線 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 造成 緊鄰 平路 20 巷道 路 下陷 市府 今天 設置 前進 指揮 所 市長 高虹安 下午 到場 了解 應變 情形 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 市府 今天 邀集 技師會 進入 工地 會勘 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 造成 緊鄰 平路 20 巷道 路 下陷 市府 今天 設置 前進 指揮 所 市長 高虹安 下午 到場 了解 應變 情形 張裕珍 新竹市 平路 某建案 工地 下 挖 地下室 前天 發緊 鄰平路 20 巷道 路 下陷 市府 今天 邀集 技師會 進入 工地 會勘 張裕珍', '新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 凹陷 面積 約 1 見方 雖然 緊急 灌漿 回填 但 今天 又 發現 巷 另 處 凹陷 下沉 由 於 一旁 不到 3 緊鄰 20 多戶 住戶 引發 住戶 擔憂 「 整夜 睡不著 」 民代質疑 工法 問題 未來 恐繼續 塌陷 市府 都 發處 指出 昨天 已 勒令 建案 停工 裁罰並 要求 廠商 進行 加固 支撐 灌漿 作業 自來 水司 今天 派員現 勘 要汰換 道路 下方 自來 水管 線之後將 觀察 管線 狀況 再 重鋪 路面 現場 將加裝 傾斜儀 24 小時 檢測 預警 以確 保住 戶 安全 為 最大 前提 據 了解 該 建案 基地 正下 挖 到 地下 3 層頻 繁重 車進 出前 就 人 發現 建案 基地 旁 道路 與 民宅 出現 裂縫 昨天 則開始 出現 道路 地層下陷 還伴 隨 瓦斯 異味 讓 周邊 住戶 相當 害怕 就 怕 上演 基泰 大直 工地 事件 竹 市府 指出 地層下陷 疑似 為 建案 基地 側開 挖 後 造成 基地 外側 道路 部 土壤 位移 連帶 造成 自來 水管 線 破裂 沖 刷 土壤 泥沙 後 再 造成 地層下陷 瓦斯 管線 破裂 市議員陳慶齡 熟悉 建築 營造 工程 他 說 該 建案工 地位 於 沙地 正下 挖 地下室 懷疑 打 基樁 過程 不夠 密實 導致 基地 旁 道路 沙土 不斷 流失 流進 地下室 才 會 造成 道路 沈陷 如果 沒 妥善 處理 未來 還會發 道路 沈陷 可能 平路 20 巷住 戶 約 20 多戶 居民 無奈 「 不敢 休息 」 擔心 瓦斯 味 很 重萬一 爆炸 怎麼 辦 平常 只 兩 老住 這 而已 半夜 已經 沒法 入睡 眼看 住家 旁建案 工地 才 剛蓋 未來 至少 還要 辛苦 兩 三年 希望 好 偵測事 預防則 出事 就 麻煩 了 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 今天 還另處 塌陷 張裕珍 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 雖然 已經 回填 但 仍 可見 到 住家 前方 裂縫 張裕珍 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 雖然 已經 回填 但 仍 可見 到 住家 前方 裂縫 張裕珍 新竹市 平路 20 巷 某建案 工地 旁 道路 昨天 驚見 「 天坑 」 今天 還另處 塌陷 張裕珍']</t>
         </is>
       </c>
     </row>
@@ -718,21 +718,21 @@
         <v>10</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10_北市_坑洞_出現_道路</t>
+          <t>10_紐約市_紐約_上升_海平面</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['北市', '坑洞', '出現', '道路', '萬華區', '大雨', '路面', '發生', '事件', '短短']</t>
+          <t>['紐約市', '紐約', '上升', '海平面', '研究', '下沉', '建築物', '帕森斯', '美國', '速度']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['繼 前天 南港區   昨日 中山 區   北市 今 傍晚 萬華區 某處 工地 再現 路面 坑洞   這也 是 北市 短短 3 個 月 出現 第 5 個   天坑     台北市 工務局 表示   該處 為 新建 工地   疑 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   導致 土石 流失 下陷   這處 天坑 約長 3 公尺   寬 2 公尺   深度 1.5 公尺   無人 受傷   已畫 設 警戒 線   淘空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢       萬華區 天坑 位 於 昆明街 320 巷 9   2 號 新建 工地 旁   今天下午 16 時 42 分 左右   疑似 因 基地 外舊 水溝 加上 地基 鬆 軟   遇 大雨 沖 刷   導致 土石 流失 下陷                             北市 府 表示   這起 萬華 地層下陷   長 寬 約 一輛 汽車 車身   還好 塌陷 時   無 造成 人員 受傷   目前 北市 府 已 畫設 警戒 線   消防局 已 現場 成立 前進 指揮 所 警戒 守視       新工處 表示   本案 經 工地 主任 說明   是 因 基地 外舊 水溝 加上 地基 較 鬆 軟   遇上 大雨 沖 刷   疑似 導致 土石 流失 下陷   建商 已 緊急 調用 水泥 車搶修   晚間 19 時 完成 灌漿 回填 作業   目前 初步 評估 並無 擴大 危害 之虞       北市 近期 五度 出現 路面 坑道   分別 為 5 月 13 日 信義區 崇德 街   7 月 10 日 大同 區 南京 西路   8 月 18 日 南港區 南港路   8 月 19 日 中山 區 民生 東路   以及 今天 萬華區 昆明街   北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供 工務局 表示   掏空 點位 在建 築 基地   建商 已 接手 灌漿 處 理完 畢   圖 ／ 居民 提供 北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供 北市 萬華 某處 工地 今天 出現 路面 坑洞   圖 ／ 居民 提供', '台北市 短短 3 個 月 出現 4 個 天坑   遭批 天龍國 變成 了   天坑 國     對此   工務局 今   20   日強 調   今年 發生 四案 道路 坑洞 情形   均 非 道路 受 輾壓 破 損導致   工務局 已針 對 四案 成因 擬定 預防 道路 塌陷 方案   以 避免 類似 情形 發生   北市 民生 東路 二段 159 巷口 19 日 晚間 出現 道路 坑洞   新工處 接獲 通報 立即 調派 開 挖機 進場   確認 為 路旁 側溝 破損 造成 道路 掏空   新工處 進行 路面 回填   後 續 由 水利 處修 復 溝體   水利 處下 工科 科長 邱佑銘 表示   經現場 勘查 破損 側溝位 排水 下游 處   可能 因 水流 長 期 沖 刷 或 施作 年代 久遠   溝底 出現 局部 破損 情形   水利 處並 已督商 今日 進場 辦理 搶 修作業   因案址 位處 8 公尺 以下 單行 道   因此 施工期 間會 派義交 於 路口 指揮 暫時 禁止通行   當日 傍晚 收工 後則 於 側溝 開 挖邊 以槽 鋼護欄 圍設   並可回 復 道路 通行   為確 保側 溝結構 強度 混凝土 澆置 後 需養護 時間   溝底 牆 身及 頂版會 分次 施工   預計 2 天可將 側溝 搶修 完成   工務局 說明   北市 近期 出現 4 個 道路 坑洞 事件   歸納為 3 種 原因 造成   5 月 19 日 信義區 崇德 街因 建案 工地 開挖 地下 基礎   連續 壁 滲水 造成 地下水 湧入 基地   周邊 道路 沙土 被 帶 走 而 出現 坑洞   7 月 10 日 大同 區 南京 西路 坑洞 是 因該 處 地層 軟弱   長 期受 潮汐 影響 地下水位 升降   使 污水 管線 下方 土壤 承載力 不佳   導致 污水 管接 頭 鬆 脫 錯 位   土砂 沿管線 破 損處 流失 所致   後 衛工處 以 內視鏡 巡檢車 檢視 淡水河 沿岸 11 條 汙水 管均 正常   近 兩日 發生 兩 案件 均 與 水利 管渠 破損 有關   南港區 南港路 出現 坑洞   市府 初判 因事 發地 點位 於 南港 東區 門戶 計畫 範圍   許多 建案 均 施工 中   南港路 47 巷 道路 狹小   因此 水利 處無法 深埋 排水 箱涵 接側 溝的連 接管   研判 與 重車 來 往頻 繁有間 接關 係   使得 連 接管 間 出現 縫隙   地下水 帶 走 土沙 而 發生 地層下陷   至於 昨夜 民生 東路 二段 159 巷口 坑洞   則因 道路 側溝 溝體 老舊 破損   而 造成 近期 下雨 排水 淘涮   因應 幾次 道路 塌陷 坑洞 問題 事件   北市 府 已 擬定 防範 措施   新工處 將加強 定期 道路 巡查   如發現 路面 曾 出現 塌陷 修補 狀況   會 再 使用 透地雷達 確認 道路 無 孔洞   若有 土壤 流失   透過 預判 可 先行 強化 道路   衛工 處則 啟動 攝影機 巡視 各個 大型 管道   水利 處 將針 對 管路   箱涵 等 進行 巡視 機制   多管 齊下 避免 類似 坑洞 情形 再 發生  ', '北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   民進 黨 北市 議員 洪婉臻 晚間 表示   短短 時間 發生 多起 塌陷 意外   道路 品質 堪憂   根本 不堪 大雨 考驗   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   批 市府 便宜行事   罔顧 公共安全       洪婉臻 說   昆明街 320 巷 9   2 號 今天下午 4 點 42 分出 現 天坑 事件   該 事件 是 因建案 開 挖   造成 長 3 公尺   寬 2 公尺   深度 1.5 公尺 地層下陷   約 一輛 汽車 車身   所幸 塌陷 部分 位 工地 範圍   未影響 到民眾 安全 與 通車                             表示   據 建管處 施工 科回報   查明 連續 壁 並無滲 水破損 情形   與 之前 南京 西路 發生 塌陷 原因 不同   比較 可能 是 因為 連日豪 大雨 造成 土 質 鬆 動   才 發生 整體 事件   因 基地 退縮 建築線 3.64 米開 挖   故 坍陷 處裡開 挖面 仍 2 至 3 米 距離   坍陷 原因 還在 查明       洪婉臻 指出   繼 之前 大同 區 南京 西路 後   今天 已 是 北市 第 3 次 發生 路面 塌陷 事件   短短 時間 發生 多起 塌陷 意外   北市 道路 品質 堪憂   根本 不堪 大雨 考驗   直言 北市 府 真 應該 好好 檢討 路面 品質       呼籲 市府   對 於 道路 品質 不要 便宜行事   屢次 臨時 抱 佛腳   每下 一次 大雨 前進 指揮 所 就 出動   然 後 各局 處分別 擔責任   上次 是 衛工處   這次 是 建管處   簡直罔顧 公共安全     一次 又 一次   只會 讓 人民 對 政府 失去 信心           北市   天坑   事件 接連 3 天發生   今 傍晚 萬華區 昆明街 320 巷 出現 路面 坑洞   圖 ／ 洪婉臻 辦 公室 提供   北市 短短 3 個 月 出現 第 5 個   天坑     此為 今日 萬華區 某處 工地   圖 ／ 居民 提供']</t>
+          <t>['根據 研究 指出 美國大 蘋果 紐約市 每年 正以 0.1 到 0.2 分 速度 持續 下沉 中 而 部分 地區 下沉 速度 甚至 比 平均值 高出 兩倍 分析 主要 原因 因為 大量 建築物 尤其 一棟棟 摩天 大樓 讓 地表 超重 再 加上 海平面 不斷 上升 地層下陷 海平面 上升 雙重 夾擊 讓 紐約市 岌岌可危 「 紐約 市將 30 年後沈入 海底 」 這 可能 不 危言 聳 聽 因為 研究 指出 紐約市 正以 每年 0.1 到 0.2 分 速度 持續 下沉 中紐 約 市 840 萬人 不但 人口 高度 密集 更 一座 水泥 叢林帝 國大廈 等 數不清 摩天 大樓 壓得 紐約 喘 不 過氣 紐約市 建築 總 重量 大約 7620 億斤 相當 於 1.4 億頭 大象 重量 聯合國 秘書長 古特 瑞斯 說 「 海平面 上升 不僅僅 只 威脅 而已 它 更 威脅 乘數 」 原來 從 1950 年 以來 紐約市 沿岸 海平面 已經 上升 22 分大 蘋果 海平面 上升 速度 全球 平均值 兩倍 預 估到 2050 年 紐約市 海平面 將 上升 30 到 45 分 這中間 值 最高 甚至 估計 到 76 分 最壞 情況 21 世紀 結束 時紐 約 海平面 比現 上升 約 180 分 自由 女神像 早已 滅頂 建築物 導致 地層下陷 海平面 快速 上升 不用 太久 紐約市 恐怕 將成 為 歷史 名詞', '一項 最新 研究 發現 美國 紐約 市長 期 承受 大量 建築物 重量 之下 地層 正 下陷 加上 紐約市 海平面 上升 速度 高居 全球 2 倍 以上 恐為 紐約市 招致 洪災 等 危機 美國線 電視 新聞網 CNN 報導據 推估 紐約市 2050 年 海平面 將 上升 8 至 30 英寸 20.32 至 76.2 分 更 重要 科學家 預期 由 於 人 為 引發 氣候 危機類 似東 北風暴 noreaster 颶風 這類 極端 降雨 事件 將更頻 繁地 出現 美國 地質 調查 所 US   Geological   Survey 專家 帕森斯 Tom   Parsons 說 「 我們 離 海水倒灌 還 一段 很長 路 … 但 我們 紐約 市經 歷過 數次 嚴重 颶風 事件 像 颶風珊迪 Sandy 艾達 Ida 帶來 暴雨 使得 城市 淹水 成災 都市化 帶來 部分 響 使得 水災發 」 這篇論 文發表 期刊 「 地球 未來 」 EarthsFuture 上旨 展示 沿海 河濱 或 湖濱 地區 高樓 大廈 何以 增加 未來 洪災 風險 以應 採取 相關 措施 來 降低 潛危險 衝擊 研究 人員藉 當時 紐約市 5 個 行政 區約 108 萬座 建築物 質量 計算出 這些 建築物 重量 約 為 7620 億斤 相當 於 約 190 萬架 滿載 波音 747400 客機 研究 團隊 接著 利用 模擬 方式 計算出 這些 重量 對 地面 響並 顯示 實際 地表 地質 情況 衛星 數據 進行 比 較 帕森斯 說 這項 分析 揭露 紐約市 「 平均 每年 下陷 約 1 至 2 毫米 部分 下陷 較嚴 重地 區 每年 下陷 約 4.5 毫米 」 然而 並非 所 地層下陷 都 建築物 造成 帕森斯 說 「 我們 可想 見 非常 鬆 軟 土壤 人工 填 土地 面上 建造 建築 地層下陷 關聯 … 其他 地方 我們則 看到 難以 解釋 地層下陷 它 很多 不同 成因 例如 上個 冰河 時期後發 後 冰期 回落 或 抽取 地下水 」 研究 表明 地層下陷 可能 比 海平面 上升 更 早構 成洪災 威脅 而且 這種 情況 不只 發紐 約 市 帕森斯 說 「 這一個 全球性 問題 我 來 自羅德島 大學 University   of   Rhode   Island 合著 研究 了 世界各地 共 99 座 城市 不只 沿海 城市 陸 城市 其中 絕 大多 數都存 地層下陷 問題 」', '紐約市 正 下陷 美國 地質 專家 研究 發現 由 於 紐約市 摩天 大樓 眾多 加上 地質 變動 部分 紐約市 地層 已 下陷 至少 2 分未來 若 再 加上 海平面 上升 恐讓 沿海 地區 居民 存備 受 威脅 紐約 每年 均 下沉 據 獨立報 報導 紐約市 人口 約 800 萬美國 地質 調查局 研究 人員 指出 包括 布魯克林 皇后 區與 下曼頓 部分 紐約市 因為 地層下陷 每年 下沉 1 到 2 分該 研究 更納入 土壤 條件 與 100 萬棟 大樓 7620 億斤 重量 等 因素 除此之外 研究 更 指出 紐約 市還 面臨 洪水 危害 風險 海平面 上升 亦 威脅 稍早 研究 曾 指出 全球 暖化 帶來 海平面 快速 上升 2050 年前 全球 海平面 將 上升 200 到 600 分 研究 人員還 指出 紐約市 每年 下陷 約 1 到 2 分 部分 地區 下沉 速度 更 快 原因 除了 近期 不斷 興建 摩天 大樓 外還 包括 抽取 地下水 土壤 壓實 與 地震 等 因素 都市 建築物 面臨 其他 風險 例如 地層 暴露 鹽水 後 可能 導致 鋼筋 混凝土 受到 侵蝕 因此 減少壽命 下 沈 自然 造成 據 Live   Science 報導 研究 指出 紐約市 下 沈 部分 原因 可能 自然 形成 因為 上 一次 冰河 時期 最 寒冷 時候 巨大 冰層 曾 覆蓋 大部分 地球 造成 冰層 下方 地面 下陷 進而 讓 陸地 邊緣 升起 等到 冰層 融化 後 被 抬升 地區則 開始 下陷 之前 研究 就 指出 到 2100 年 美國 東岸 可能 會 下陷 48 至 150 分 除了 大自然 力量 之外 研究 人員 認為還 可能 包括 其他人 為 因素 且 科學家 發現 當地 某些 地區 下沉 速度 更 快 原因 可能 建築物 重量 造成 本次 研究 結果 刊登 Earths   Future 期刊 【 更 多 精采 詳見 】']</t>
         </is>
       </c>
     </row>
@@ -741,21 +741,67 @@
         <v>11</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>11_公尺_下午_林伯東_地層下陷</t>
+          <t>11_流管_特四幹線_通行_水利局</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['公尺', '下午', '林伯東', '地層下陷', '15', '工地', '信義區', '深度', '蔣萬安', '針對']</t>
+          <t>['流管', '特四幹線', '通行', '水利局', '工程', '汐止', '連夜', '完成', '搶修', '工建路']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安 晚上 到場 關心並 指出   整個 狀況 控制 住 以 後   會針 對 台北市 工地   全面 清查   是不是 這次 事件 類 似的 情況   再積 極處理       蔣萬安 表示   工地 部分   市府 馬上 勒令停工   找出 這次 地面 坍塌 原因   盡快 排除   避免 坍塌 面積 持續 擴大   這次 地層下陷 事件   整起 事件 會 完整 調查   並且 就 工地 全面 檢視   以及 營造商 相關 紀錄   台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊 拉起 警戒 線 提醒 民眾 注意安全   有民眾 警方 協助 下   回住 處 拿 東西   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   周邊民眾 聚集 關心   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   晚間 坑洞 正在 持續 灌漿   阻止 繼續 塌陷   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北市 議員 許淑華   前右   到場 關心民眾   記者 林伯東 ／ 攝影 台北市 信義區 崇德 街 下午 出現 地層下陷   天坑 長 15 公尺   寬 3 公尺   深度 2 至 3 公尺   台北 市長 蔣萬安   左二     台北市 議員 徐巧 芯   右二   到場 關心   記者 林伯東 ／ 攝影', '針對 北市 連續 出現 天坑   台北 市長 蔣萬安 下午 公安 會報 中 指示   最近 幾次 地層下陷   會 進行 全面 檢視   請 工務局 邀集 相關 單位   包括 都 發   建管   針對 道路 塌陷 的後續 處理 做成 通案 性處 理機 制外   應 全面 檢視   會先 就 老舊 管線 一次 清查   下 一步 再針 對 其他 地方   避免 後 續 再 發生 地層下陷 情形       北市 建管處 下午 公安 會報 中針 對 今年 5 月 13 日 信義區 崇德 街 60   巷道 路 塌陷 案 進行 專題 報告   加強 管理 作為   針對 北市 建築 工地 正在 開挖 階段   計有 102 件   排定 由 三 大公 會 從 5 月 15 日 開始 逐案 現場 勘查   目前 已 全數檢 查完 畢   針對 檢查 項目 不 符合 之建築 工地 已 要求 停止 施工 釐 清 改善                             為 了 強化 管理 措施   加強 建築 工地 開挖 階段 安全 管理   自 6 月 分起 已委 託 三 大公 會 不定期 進行 現場 勘查   另 就 建築 工地 因違 反建築法 公共安全   公共交通 遭受 裁罰 或 勒令停工 案件   同步 於 建管處 網站 揭露 相關裁 處訊息       另外   函告 工地 應主動 通報   若 工地 發生 公安 意外事件   應 於 第一 時間將 原因 緊急 應變 處理 情形 主動 通知 建管處   未通 報者   將依建築 法相 關規定 加重 裁罰   最高 處以 9 萬元 罰款   情節 嚴重 時並 勒令停工       副 市長 李 四川 提醒 建管處   最近 下午 雷陣雨   開挖 工地 要 加強 宣導 防範   蔣萬安 表示   信義區 案例   主要 因為 旁邊 建案 開 挖 造成 地層下陷   最近 許多 下午 暴雨   可能 造成 地層下陷   請 建管處 加強 工地 管理 加強 查核       蔣萬安 指示   針對 有些 地方 老舊 管線   不管 是 汙水 管等   主管 機關加 強督導   另環 保局 進行 清疏 時   或是 新工處   地面 上 施工   如果 發現 相關 管線 鬆 脫 或 破裂 情形   要 即 時 通報 相關 單位 處理  ']</t>
+          <t>['北市 南港路 3 段 47 巷 昆陽街 60 巷 交界 昨晚 出現 道路 局部 塌陷 連夜 搶 修下 預 中午 12 點 全面 通行 昨晚 天坑 地點 一處 機車 停等區 地層下陷 長 約 2 寬約 2 深度 約 2 由 水利 處派員 擔任 現場 指揮官 進行 擴大開 挖 作業 水利 處 指出 連夜 搶 修下 已 接續 完成 連 接管 脱管 處鋼 鈑 包覆 灌漿 回填 路 面臨 鋪 作業 19 日 8 時將 開放 機車 小型 轎車 通行 預 12 點 全面 通行 北市 天坑 搶修 完成 圖 北市 府 提供 北市 天坑 搶修 完成 圖 北市 府 提供', '汐止 工建路 因連日 大雨 沖 刷 路面 下方 土石流 失 造成 路面 下陷 為維護 用路 安全 新北市 水利局 表示 已連夜 成立 前進 指揮 所 調度 人員 機具 進行 路面 搶修 目前 採低 壓 灌漿 穩定 地盤期 能 於 最 短 時間 修 復 路面 水利局 表示 汐止 工建路 下方 設 污水 特四幹線 收集 汐止 地區 污水 於 103 年間 曾 遭建商 基樁 打破 因特 四幹線 管徑 1.8 且位 於 道路 下方 15 並持續 通水 使用 中需 設置 替代 管線後方能 進行 修 復 因此 當時 由 台北市 衛工 處行 於 管線 上方 灌漿 補強 並進行 新 設繞 流管 建置 工程 水利局 提到 目前 原特四幹線 正 由 北市 衛工處 辦理 修繕 工程 計畫 新設 管徑 1.2 繞 流管 導水後再 辦理 原特四幹線 管線 修 復 此次 修繕 工程 繞 流管 尚約 剩 7 才能 接通 預計 11 月 14 日 工程 完成 水利局 透露 此次 工建路 下陷 位置 臨近 特四幹線 遭 打破 點 初步 研判 可能 與 此 相關 為 避免 持續 下陷 水利局 連夜 成立 指揮 所 辦理 道路 下陷 處 搶 修 工作 等到 特四幹線 繞 流管 工程 完工 後 將進 行原 特四幹線 檢修 工程', '〔 台北市 南港區 昨天 晚間 發 道路 塌陷 經查 塌陷 原因 雨水 連 接管 脫管 造成 南港路 3 段 47 巷雙 向 封閉 施工 原 預計 今 19 晚 10 時 恢 復 通車 水利 處連夜 搶 修下 已 接續 完成 連 接管 脱管 處鋼 鈑 包覆 灌漿 回填 路 面臨 鋪 作業 提前 於 早上 8 點開放 機車 小型 轎車 通行 預 中午 12 點 全面 通行 南港 警方 昨天 晚間 近 6 點 42 分接 獲 南港路 3 段 47 巷 與 昆陽街 60 巷 交叉路口 機車 停等區 地層下陷 下陷 面積長 約 2 寬約 2 深度 約 2 幸無人 受 傷員 警劃 設 警戒 線 副 市長 李 四川 指示 區所新 工處 調派 重機 具開 挖 確認 坍塌 原因 經設 置 前進 指揮 所 水利 處 擴大開 挖 作業 確認 雨水 連 接管 脫管 造成 連夜 搶 修後已 經修 復 完成 並 回填 路面 今天 早上 已經 提前 恢 復 通車後續 新 工處 將會 以 透地雷達 檢測 無 其他 路面 下 空洞']</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="n">
+        <v>4</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>12_信義區_安置_台北市_天坑</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['信義區', '安置', '台北市', '天坑', '表示', '住戶', '監造', '疏散', '路面', '崇德街']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>['北市 信義區 今 下午 3 點 多出 現大 天坑 崇德街 60 巷 民宅 前 路面 坍陷 傍晚 5 點多 坑洞 再 擴大 消防局 已緊 急 疏散 鄰近 住戶 信義區 所區長 陳 冠伶 表示 9 位 安置 需求 已協助 找 好 旅社 並 入住 每人 每日 可申 請 補助 1600 元 最 多 7 天區長 陳 冠伶 表示 人數 調查 一直 變動 目前 9 位 安置 需求 依規定 發緊 急 災害 可 申請 安置 補助 每人 一天 1600 元 最 多 申請 7 天已 協助 找 好 旅社 住戶 均 已 入住 安置 該 坑 主要 範圍 為 18 號至 24 號 警戒 區 12 號至 24 號已 拉起 封鎖線 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻', '北市 信義區 崇德街 60 巷 路面 今天下午 出現 大 天坑 坑洞 長 15 寬 3 深度 2 到 3 機車 單車 陷落 坑中 消防局 已 疏散 鄰近 住戶 10 多人 台北市 建管處 表示 路面 坍陷 處以 混凝土 處置 目前 已 勒令停工 將依建築法 開罰 營造廠 監造 人 各 9 萬元 台北市 建管處 表示 事發地 旁為 一處 新建 住宅 大樓 工地 疑似 施作 連續 壁 滲水導致 道路 塌陷 目前 以 混凝土 處置 工地 現場 緊急 處理 中將 依建築法 第 89 條開罰 承造 人營 造廠 監造 人 建築師 各 9 萬元 目前 已 勒令停工 未來 把 一切 安全 問題 妥善 完成 後 才 會 復工 消防局 已協助 將住 戶 全部 撤離 完 畢人員均 安全 信義區 所正 處理 安置 問題 北市 議員 許淑華 表示 該處 昨晚 就 灌水 疑似 連續 壁施作 釀禍事 發地 鄰近 住戶 共 30 戶 12 戶住 坍塌 處 附近 約 10 人 安置 飯店 要求 市府 妥善 協助 住戶 台北市 崇德街 出現 天坑 警消 緊急 疏散 民眾 廖炳棋 翻 北市 信義區 出現 長 15 深 3 「 天坑 」 圖 北市 府 提供', '北市 信義區 驚見 天坑 市政府 表示 坍塌 原因 指向 旁邊 大樓 建案 因為 地下 連續 壁 破洞 都 發局 初步 調查 後 對 承造 人 監造 人 各 開出 9 萬元罰 單 等 釐 清責任 歸屬 再 進 一步 開罰 至於 附近 住戶 目前 共 10 人 接受 安置 暫住 信義區 旅館 相關 費用 將由建 商來 負責 巷弄 路面 塌陷 好大 一塊 深度 達到 3 一旁 民宅 門口 遭殃 鐵門 幾乎 懸空 這樣 情況 就 發 台北市 信義區 短時間 房子 不能 住 了 住 戶們 該何 去 何 從 台北市 信義區 長 陳 冠伶 指出 「 昨天 疏散 撤離 範圍 從 12 號到 24 號調查 結果 發現 需要 安置 住戶 一共 5 戶 」 市府 緊急 介入 安置 一共 撤離 7 戶 需要 安置 5 戶 一共 10 人 暫時 住 信義區 旅館 依照 規定 每人每天 可以 請領 補助 金 1600 元 可以 請領 7 天 但 看 這情況 住 戶們 一週 回 不了 家 了 超出 費用 將由建商 全額 買單 另外 台北市 都 發局 局長 王玉芬 表示 第一 時間 已經 勒令停工 現進行 搶災 部分 同時會 對 承造 人 跟 監造 人處 各 9 萬元罰 鍰 根據 初判 建商要 負責 因為 一旁 建案 施工 地下 連續 壁 破洞 釀災 原本 要蓋 大樓 地下 4 層 地上 17 層 負責營 造華 熊營 造司 興建過 包括 台北 101 世貿 中心 陶朱 隱園 都 赫赫 名建築 如今 卻 發工安 意外 讓 工程 暫時 喊 卡 首要 之務得 設法 解決 安全 問題 還給 當地 居民 一個 安全 家']</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>13_地震_意外_花蓮_災情</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['地震', '意外', '花蓮', '災情', '工地', '18', '信樺', '結構', '回填', '坍塌']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>['台北市 松山區 慶城街 興安街 一處 新建 工地 昨 23 天晚 間 發 地基 塌陷 意外 造成 停 路旁 四台 車 受到 波 人行道 路面 呈現 V 字型 凹陷 面積 約 4 長 30 寬 深度 約 1.5 所幸 週邊 建築物 沒 危險 相關 單位 連夜 現場 進行 回填 作業 不過 工地 遭罰 18 萬 勒令停工 事發 原因 尚待 調查 慶城街 新建 工地 地基 下陷 路面 坍塌 人行道 工程 圍籬 都 明顯 下陷 路旁 停車格 消失 一大半 當時 路邊 4 輛汽車 遭殃 歪斜 建商 連夜 回填 灌漿 避免 塌陷 擴大據 了解 該 處興 建工 地原 要 蓋 豪宅 大樓 原 工地 上 地下 三層 地下室 建物 疑似 拆除 建物 後 地下室 進行 導溝 作業 時候 部導溝 支撐力 不足 才 發 坍塌 意外 所幸 工地 尚未 進行 大規 模開 挖 沒 再 釀 更 大 事故 此次 路面 坍塌 面積長 約 4 寬約 30 深度 1.5 目前 週邊 建築物 沒 相關 安危 而 北市 建管處 勘查 後 昨天 深夜 確定 裁罰 18 萬並 勒令 回填 穩定 後 停工 待 確保 工地 安全 業建商 提出 復工 審查 才 會 進行後續 作業 至於 事發 原因 仍待 調查', '花蓮 近海 今天上午 發規模 7.2 強震 花蓮市 區大樓 嚴重 傾斜學 解釋 地震 造成 房屋 傾斜 原因 包含 地震 本身 震動 方向 建築物 結構 與 土壤 液化 關根據 中央 氣象署 資訊 今天上午 7 時 58 分發 芮氏 規模 7.2 地震 地震 深度 15.5 里 震央 位 於 花蓮縣 政府 南南 東方 25.0 里位 於 台灣 東部 海域 最大 震度 花蓮縣 6 強 各地 陸續 傳出 災情 如 花蓮市 區 2 大樓 嚴重 傾斜 等 中央研究院 地球 科學 研究所 副 研究 員黃信 樺 告訴 中央社 地震 發當下 可能 些 民眾會 發現 某些 牆面 東西易 倒 某些 不會 就 代表 該起 地震 震動 方向 然而 這 部分 與 地震 震源 斷層 位置 傳遞 能量 大小 等 相關並 不好 預測 另外 黃 信樺 指出 建築 結構 工程 問題 比方 許多大樓 1 樓 可能 規畫 為 騎樓 甚至 些 成 挑 高大 廳 結構 上僅 靠 少數 樑 柱 支撐 因此 可能 會大 地震 發時 造成 不 穩況 黃 信樺 說 第 3 點就 可能 土壤 液化 問題 些 建築物 若 座落 比 較 鬆 軟 沉 積 層 上 如 河 邊 長 久 沖 積 下 部分 地底 縫隙 會 被 沙石 填滿 但 地震 後 卻 又 鬆 動 或 局部 液化 情況 造成 地層下陷 黃 信樺 提到 雖然 台北市 可能 很多 老式 騎樓 但 一來 震央 位置 離 台北 較 遠二來 老式 騎樓 通常 較 矮 不易 與 地震 發 共振 反之 若高樓 層 又 騎 樓式 設計 房屋 大 地震 來 臨時 就 會 相 對 危險 黃 信樺 表示 其實現 已經 許多 耐震 建築 技術 或許 政府 部門 未來 考量 建築 補強 上 可以 採用 增加 老建築 安全性 ▶ ▶ ▶ 花蓮 大 地震 延伸 讀   ▪ 一夜 83 震氣 象署 曝餘震 暴增 原因   「 只剛 開始 」   ▪ 花蓮 強震 整理 包釀 18 死   重大 災情 災後理 賠 專家 示警 一次 看   ▪ 花蓮 餘震 突變 多 又 變大   專家 坦言 點不尋常   ▪ 大 地震 要來 了 地科 教授 分析 餘震 分布 花蓮 特性', '台北市 松山區 慶城街 一處 新建 工地 旁 昨天 晚間 發 路面 塌陷 意外 經過 將近 20 小時 搶 救 工地 崩塌 範圍 已 完成 回填 今天下午 開始 灌漿 工地 外圍 塌陷 路面 初步 研判 疑似 新建 工程 拆除 建地 既 地下 建築 結構 時 挖 到 不連續 弱面 才 導致 導溝 崩塌 台北市 松山區 慶城街 新建 工地 23 日 晚間 發地層 坍陷 意外 經過 約 18 小時 緊急 搶 救 工地 外圍 崩塌 範圍終 於 展開 回填 作業 從 制高點 俯瞰 更 清楚 混 泥土 車來 回 進出 灌漿 沒 停過 因為 這一崩 不僅 人行道 嚴重 下陷 路邊 車格 消失 一大半 當時還 4 輛汽車 差點 被 吞噬 附近 住戶 直言 「 好 意外 真 很 意外 文華飯 店當 初蓋 時候 這麼 近 沒 發過 問題 」 精華 地段 豪宅 新建 案出 現大 坍塌 讓 附近 居民 全都 嚇壞 畢竟 這長 約 4 寬約 30 深度 達到 1.5 坍陷 範圍實 不小 而且 建案 甚至 才 正 準備 施作 連續 壁 基礎 地基 都 還沒大規 模開 挖 竟然 就 前置 導溝 作業發 意外 初步 研判 坍塌 原因 跟 建地 原存 地下室 結構 脫 不了 關 係 原來 這回 要 建立 深導溝 越過 既 結構 時 卻 不慎 碰到 既存 不連續 面才會 釀禍 台北市 土木 技師會 理事 長 莊均緯 指出 「 破除 既連續 壁 跟 外牆 個 地方 個 不連續 面原 地下室 這個 部分 外牆 它 推擠 進來 變位 就 把 原來 深導 溝側 壁壓 變形 之後就產 這樣 崩塌 現象 」 台北 市長 蔣 萬安 週六 上午 二度 到 現場 勘查 向 居民 保證 周邊 住宅 暫無 安全 疑慮 「 西側 南側 北側 目前 比對 監測 數值 正常 而且 都 沒 地面 塌陷 以鄰房 傾斜 狀況 」 建管處 則緊 急 開罰 18 萬並 勒令停工 後 續 就 待 道路 回填 並由 透地雷達 確認 周邊 無 安全 疑慮 就 可 恢 復 通車 還給 居民 安全 環境']</t>
         </is>
       </c>
     </row>
